--- a/data/tweet_bersih_100.xlsx
+++ b/data/tweet_bersih_100.xlsx
@@ -22,2722 +22,2722 @@
     <t>label</t>
   </si>
   <si>
-    <t>buka visi misi begitu pukau sehingga buat presiden asa mjd bebek visimisi</t>
-  </si>
-  <si>
-    <t>lebih baik pakai teknologi lama kaya negara indonesia keluar indonesia</t>
-  </si>
-  <si>
-    <t>kok arguing without crying</t>
-  </si>
-  <si>
-    <t>jalan politik politik satu bukan politik pecah belah salah prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>juga fans lihat tampil serang hahaha</t>
-  </si>
-  <si>
-    <t>lemah tidak punya uang pak ngomongin tahan negara apa nyindir anak twitter nih optimisindo</t>
-  </si>
-  <si>
-    <t>si vis pacem bellum bukan mantra dukun arti kalau damai siap perang top p</t>
-  </si>
-  <si>
-    <t>apa yg bilang pak memang benar mau bukti di ejek asing v i r a l k a n prabow</t>
-  </si>
-  <si>
-    <t>bidang perintah prabowo-sandi bahwa lembaga perintah kuat baru cipta negara kuat</t>
-  </si>
-  <si>
-    <t>percaya debat dukung ini sama seru jaman debat dukung choi taek kim junghwan</t>
-  </si>
-  <si>
-    <t>bidang hubung internasional anut prinsip 1000 kawan terlalu sedikit 1 musuh terlalu banyak prabowo</t>
-  </si>
-  <si>
-    <t>temen gw pro dia bilang gak suka liat mimik muka saat tiap bicara debat</t>
-  </si>
-  <si>
-    <t>apa yg p soal e-government e-procurement ini pernah sebut 5 th lalu gagal total tuh p</t>
-  </si>
-  <si>
-    <t>pak ngomong gebu bukan arti kasar galak pak ngomong pelan bukan arti lembek</t>
-  </si>
-  <si>
-    <t>mas malam bagus sekali debat serang tepat jantung tahan akhir muter 2 jawab radar</t>
-  </si>
-  <si>
-    <t>lebih tni tni bapak pecat udah aja</t>
-  </si>
-  <si>
-    <t>rawan kopi politik syndicate kps pro capres-cawapres - ma ruf amin bentuk tim siber tangkal</t>
-  </si>
-  <si>
-    <t>debat malam bukti sama emosional emosi pikir selamat</t>
-  </si>
-  <si>
-    <t>pak percaya mampu tni jaga daulat nkri dengan dukung alutsista baik</t>
-  </si>
-  <si>
-    <t>turut akhir marah audiens tidak kontrol emosi</t>
-  </si>
-  <si>
-    <t>pak mungkin rasa situasi perang kali</t>
-  </si>
-  <si>
-    <t>politik luar negeri perintah soal rohingya omdo ada tuh repatriasi atas peran lebih byk peran</t>
-  </si>
-  <si>
-    <t>lawan tuduh kubu belah pak pro hadap khilafah ingin ganti pancasila dng tagar prabowo</t>
-  </si>
-  <si>
-    <t>pelosok desa sampang madura jatim rakyat gotong royong buat apk pak mas dukung yuks</t>
-  </si>
-  <si>
-    <t>kok berani bilang jd mediator konflik afghanistan kayak cuma kunjung doang sana n foto lg sholat</t>
-  </si>
-  <si>
-    <t>pak percaya sama tni iya pak percaya saya ga percaya nya sama orang suka ngomong bayar</t>
-  </si>
-  <si>
-    <t>cuma org yg dongo aja yg tanya nasionalisme orang jendral sumpah prajurit bawa mati</t>
-  </si>
-  <si>
-    <t>debat kali turut pak all out performa maxsimal bray jokuwi kasi tunduk trs kurang caca diri</t>
-  </si>
-  <si>
-    <t>menang telak sibuk molbek 2in akun sipp lah sing penting semua semangat prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>bangun sistem layan masyarakat untuk cegah korupsi bocor</t>
-  </si>
-  <si>
-    <t>woy abs banyak tim lo menteri 2 afkiran selalu kasih data salah sama elo</t>
-  </si>
-  <si>
-    <t>malam dukung pak bisa tidur nyenyak akan ucap selamat tinggal pak jkw hahahaha</t>
-  </si>
-  <si>
-    <t>memang tarung pilpres sekali ttg cara pikir baru vs cara pikir lama moga 2 ini tarung akhir</t>
-  </si>
-  <si>
-    <t>moderator sampai haru dengar papar pak kena apa perlu cepat teknologi informasi kalau kaya ambil negara</t>
-  </si>
-  <si>
-    <t>aku rantai roda kuasa putus ia sahabat putus</t>
-  </si>
-  <si>
-    <t>henti tv lihat debat sebentar trus akyu teriak 2 supir 2 bus pd sorak sorai ikut</t>
-  </si>
-  <si>
-    <t>hahahaha closing sempurna pak gila sih nyata receh beliau yakin optimis 17 april</t>
-  </si>
-  <si>
-    <t>yg ganti pancasila republik yg ada banyak yg ganti presiden aja kok selaaww</t>
-  </si>
-  <si>
-    <t>si bilang bela pancasila dukung curut khilafah hti juga ga hapal pancasila</t>
-  </si>
-  <si>
-    <t>poin besar kalah tahana dukung ngetawain nasionalisme mas prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>saya percaya kuat pimpin ada banyak diri bpk topang knowledge lebih</t>
-  </si>
-  <si>
-    <t>nasionalisme nampak sangat kental debat pilpres tuju bandara kelola asing berdikari</t>
-  </si>
-  <si>
-    <t>pak tampil malam buat makin bangga kau lihat sangat peduli nkri</t>
-  </si>
-  <si>
-    <t>ini tni pak pecat debatpilpres 2019 https t co usdobwdlba</t>
-  </si>
-  <si>
-    <t>debat capres malam pak tampil tenang visioner matang gulir gagas scr cemerlang</t>
-  </si>
-  <si>
-    <t>sekarang gilir kpps nya tidak netral makin benar curang dapat kalah</t>
-  </si>
-  <si>
-    <t>capres 01 ajak semua pihak politik negara baik saling tiada</t>
-  </si>
-  <si>
-    <t>malam debat pilpres yg 4 tampil pak patut apresiasi beliau lebih kritis ofensif</t>
-  </si>
-  <si>
-    <t>tahan indonesia sangat lemah jauh yang harap kita punya uang prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>selesai selamat pak cinta rindu cinta rindu cinta rindu</t>
-  </si>
-  <si>
-    <t>jawab skak mat mas hadap kartu nya si jae apa punya banyak kartu kalau kaya keluar negeri</t>
-  </si>
-  <si>
-    <t>menang telak sih anjay bantai cara telak debat gilak brutal malam</t>
-  </si>
-  <si>
-    <t>duh pak baik banget kalau bicara bahasa inggris arti tahu kalau pak gak bahasa inggris</t>
-  </si>
-  <si>
-    <t>tdk percaya tni sedang sipil aku sangat percaya tni pemerintahandilan</t>
-  </si>
-  <si>
-    <t>pak kalau diplomasi jadi nice guy pak faham betul ddiplomasihy batas ramah tamah</t>
-  </si>
-  <si>
-    <t>wongsai kok ngajak perang lama yaa selalu ajak maju indonesia si mental ciken selalu lihat keburu</t>
-  </si>
-  <si>
-    <t>bagai minoritas yakin pak bang dapat mandat rakyat kuat rasa satu</t>
-  </si>
-  <si>
-    <t>salam presiden insyallah debat mlm bapak pukau salam sayang dr rakyat pak bravo</t>
-  </si>
-  <si>
-    <t>siapa capres tampil lebih baik debatpilpres 2019 malam pemilunesia debatpilpres 2019</t>
-  </si>
-  <si>
-    <t>lihat kalian fitnah anti islam beliau mmbangun uiii universitas islam international indonesia</t>
-  </si>
-  <si>
-    <t>malam tamat sepakat retwet 01caprespendustaabadi</t>
-  </si>
-  <si>
-    <t>pak kalau badan gemuk tinggi bapak baik kalau pake stelan jas jangan yg model double breastest</t>
-  </si>
-  <si>
-    <t>tegas skali presiden malam jangan kasih kendor jendral idola tunjuk dunia prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>clossing pak debat kali sangat luarbiasa tuju sama bapak sahabat memang nomer 1</t>
-  </si>
-  <si>
-    <t>suka banget video pak memang juara terimakasihistriku https t co nm5n7irsie</t>
-  </si>
-  <si>
-    <t>bukti indonesia lebih maju bawah pimpin presiden menangjokowilagi</t>
-  </si>
-  <si>
-    <t>butuh pimpin optimis pak bukan orang pesimis marah</t>
-  </si>
-  <si>
-    <t>bareng pak jadi indonesia lebih maju selalu optimis kerja bangun bangsa</t>
-  </si>
-  <si>
-    <t>mewek curhat pak lihat tuh pak lama 4 5 th tuduh pki beliau biasa 2 sj</t>
-  </si>
-  <si>
-    <t>prediksi gw debat empat non-prabowo 38 pak bang 62 popular vote jaga baik 2 tps 2</t>
-  </si>
-  <si>
-    <t>masalah kondisi negara sekarang suatu distrust elite perintah</t>
-  </si>
-  <si>
-    <t>sial nyata cuma orang boneka prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>orang indonesia miskin ikan beberapa karung beras mereka vote saya</t>
-  </si>
-  <si>
-    <t>sangat kagum sikap ramah dukung prabowopresidenke 2019 https t co 3fzmdf48el</t>
-  </si>
-  <si>
-    <t>debat 4 lbh panjang lagi jadi showcase atas hasil progress perintah</t>
-  </si>
-  <si>
-    <t>dgn sombong klaim diri lebih tni para tni mana nyata yg angkuh emosional</t>
-  </si>
-  <si>
-    <t>jkw intelijen strategis sy kata 20 thn kedpn tdk ada invasi dr negara</t>
-  </si>
-  <si>
-    <t>pemerintahandilan perintah bas digital jadi prestasi pak tengak revolusi industri 4 0</t>
-  </si>
-  <si>
-    <t>pak tahan indonesia terlalu lemah iya gimana pak kalo chat hay sama mantan aja langsung mikir besok</t>
-  </si>
-  <si>
-    <t>kini tegas tentang diri khalifah sama itu kabar buruk hti dukung</t>
-  </si>
-  <si>
-    <t>pak langsung ban klarifikasi tuduh kubu tahana tuduh khilafah</t>
-  </si>
-  <si>
-    <t>bismillah pak sukses debat mohon maaf tidak tani krn sudah janji anak 2 muda</t>
-  </si>
-  <si>
-    <t>highlight debatpilpres 2019 kali presiden sangat jelas masa kini masa depan realita solusi masalah</t>
-  </si>
-  <si>
-    <t>pak pidato bicara dg bahasa inggris yg baik benar teks forum 2 internasional</t>
-  </si>
-  <si>
-    <t>indonesia syukur hasil survei lembaga independen indikasi menang telak menangjokowilagi</t>
-  </si>
-  <si>
-    <t>yg golput besok kalo udah kelar pilpres terus udah jalan perintah ada salah jangan nyalahin perintah</t>
-  </si>
-  <si>
-    <t>kecewa larang perintah kampanye akbar dalam stadion pakansari bangun rakyat ujar</t>
-  </si>
-  <si>
-    <t>debat sikap kok sama persis sikap dukung khilafah selalu sebar takut</t>
-  </si>
-  <si>
-    <t>jawab telak pak hadap kartu gak penting apa punya banyak kartu</t>
-  </si>
-  <si>
-    <t>benteng nkri negara belanda simpan dokumentasi selamat sandra papua prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>bukti bangun indonesia maju adab lebih baik menangjokowilagi</t>
-  </si>
-  <si>
-    <t>simak sebar doauntukprabowosandi menang pilpres 2019 hampir pasti laju</t>
-  </si>
-  <si>
-    <t>bagai muslim senang tulis yuk baca guys yang muslim baik dukung</t>
-  </si>
-  <si>
-    <t>tcakepp neyh debat pintar dgn mal layan publik dihrpkn kcptan pelyanan sdh bs dibrikan kpda usaha</t>
-  </si>
-  <si>
-    <t>aman semua pak kendali pak radar cukup pak budaya indonesia abs jadi mohon kaji tahan sangat penting</t>
-  </si>
-  <si>
-    <t>jaaauh kelas banding jae barusan kan gaees presiden 2019-2024 sepakat retwet 19harilagicoblo</t>
-  </si>
-  <si>
-    <t>pak jokuwi sering tunduk lemas lihat papar jendral turut tuipers apa yg pikir jokuwi</t>
-  </si>
-  <si>
-    <t>masyaallah speechless rp 200 juta sumbang buruh migran tki tkw - sandi cibinong</t>
-  </si>
-  <si>
-    <t>sandi juang seluruh rakyat indonesia bentuk perintah bersih tegas sama</t>
-  </si>
-  <si>
-    <t>tuju sekali pak selesai soal korupsi memang benah sistem bisa potong rantai</t>
-  </si>
-  <si>
-    <t>stuju pas pak bilang ngajak toleransi dalam jalan politik politik satu</t>
-  </si>
-  <si>
-    <t>akhir rezim guna pasal karet guna bungkam lawan politik sama - sandi</t>
-  </si>
-  <si>
-    <t>pak jg tegas penting maju teknologi utk transparansi efektitivitas efisiensi perintah</t>
-  </si>
-  <si>
-    <t>sekian lama pecat tni laku culi mungkin simpan dendam</t>
-  </si>
-  <si>
-    <t>haters bilang marah kalimat bapak bilang ada sedih kalimat pak</t>
-  </si>
-  <si>
-    <t>tenang kalo sampe perang gue yakin pak udah mikirin musti gimana gak didiemin lah sistem tahan</t>
-  </si>
-  <si>
-    <t>percaya pak pancasila-is tuduh khilafah saya juga percaya pak pancasilais</t>
-  </si>
-  <si>
-    <t>presiden tukar negara kembali normal sesuai pancasila cara pilih sandi</t>
-  </si>
-  <si>
-    <t>lepas substansi debat khawatir sikap emosional pak cenderung labil merespon suatu masalah</t>
-  </si>
-  <si>
-    <t>optimisindonesiamaju kalo tetap percaya sama orang walau sering tuduh itu uwuwuwuwu</t>
-  </si>
-  <si>
-    <t>cuma analis bodoh yg menganalisa keyword https t co latbu 4q1xn</t>
-  </si>
-  <si>
-    <t>do a tulus orang ibu gendong anak rupa fans berat 02 bpk jadi presiden ri</t>
-  </si>
-  <si>
-    <t>dong pak sangat pro ekonomi digital pemerintahandilan https t co heqqtohzri</t>
-  </si>
-  <si>
-    <t>aura menang mas makin lihat jelas kalau mas menang apa akan kamu laku sobat tuips jokowid</t>
-  </si>
-  <si>
-    <t>mantep banget neh ust tak perlu ganti presiden cukup pilih pak di tps</t>
-  </si>
-  <si>
-    <t>kalau mau jadi nice guy jadi mediator monggo kalau juang indonesia hormat indonesia kuat</t>
-  </si>
-  <si>
-    <t>pak percaya pbb peran indonesia selesai kasus rohingya datang tiba</t>
-  </si>
-  <si>
-    <t>lagi bohong diri sendiri rakyat soal radar tahan indonesia kuat</t>
-  </si>
-  <si>
-    <t>pak kaya ken banget perang gabung twitter aja pak hampir tiap hari perang optimisindonesiamaju</t>
-  </si>
-  <si>
-    <t>bukan tidak percaya tni ini tni taruh nyawa di tni lebih tni banyak tni</t>
-  </si>
-  <si>
-    <t>bukan figur pimpin sempurna kalau liat debat ya lebih yakin rival tahu mau laku</t>
-  </si>
-  <si>
-    <t>tampil mas debat capres malam kejut beda 2 debat</t>
-  </si>
-  <si>
-    <t>dgn tampil lbh semangat tegas rada ofensif justru lihat sangat natural cerdas keluar</t>
-  </si>
-  <si>
-    <t>apa cepat kalau kaya alir luar negeri lebih baik pakai tehnologi lama kaya indonesia</t>
-  </si>
-  <si>
-    <t>seluruh rakyat siap bangun indonesia sama menangjokowilagi</t>
-  </si>
-  <si>
-    <t>jangan uang indonesia lari keluar negeri kata iya pak yang link yaa</t>
-  </si>
-  <si>
-    <t>biasa cuma lantang retorika kata dulu banyak panglima lapor abs</t>
-  </si>
-  <si>
-    <t>real leader liat aja closing statement jadi ngikut begitu orang leader</t>
-  </si>
-  <si>
-    <t>visi misi tawar yang baru baharu yg lebih visioner lebih detail pemerintahandilan</t>
-  </si>
-  <si>
-    <t>detik detik marah marah di tertawa debatkeempatpilpres 2019 jokowimengubahsemua 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>allah maha dengar simpuh hadap mohon pak bang beri mudah</t>
-  </si>
-  <si>
-    <t>ucap orang prajurit tak ragu tulus prabowo</t>
-  </si>
-  <si>
-    <t>satu tak lebih megalomaniak puja diri sendiri anggap diri paling hebat tni</t>
-  </si>
-  <si>
-    <t>sistem 1 jalur mana bagai izin jadi 1 tempat ide luar biasa pakde abah</t>
-  </si>
-  <si>
-    <t>soal ungsi rohingya ada tuh peran yg jelas dr perintah pulang ungsi dr cox bazar wah hoaks</t>
-  </si>
-  <si>
-    <t>keluarga bisa ajar bagaimana cara sabar terus jalan selalu bangkit</t>
-  </si>
-  <si>
-    <t>bukan emosi bos tegas tu nama nya jelas kan hadap orng yg buta hati nya</t>
-  </si>
-  <si>
-    <t>woyy dah menang telak santai dikit napa ngapain sibuk nampolin cebi dongo biar halu alam</t>
-  </si>
-  <si>
-    <t>tahan lemah kalian ketawa sila kalian ketawa dukung memang nyata goblok dungu</t>
-  </si>
-  <si>
-    <t>pak kalian ketawa pak</t>
-  </si>
-  <si>
-    <t>biar rakyat tentu pilih baik bangsa negara prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>rap 2 bilang lebih tni banding tni macam hina hadap tni dendam pribadi</t>
-  </si>
-  <si>
-    <t>orang adalah njenengan sendiri pak sama debatasyikjokowi karnajokowi https t co khmy 7knh85</t>
-  </si>
-  <si>
-    <t>mas janji tingkat rasio pajak jadi 16 gaji pns akan naik tagih janji bapak</t>
-  </si>
-  <si>
-    <t>makanya jae bedah tuh buku undercover kampus 2019gantipresiden https t co 4udrafliab</t>
-  </si>
-  <si>
-    <t>kutip benar 30 persen apbn singapura belanja militer https t co 8roepzmp87</t>
-  </si>
-  <si>
-    <t>bahasa inggris p keren indonesia pandang top dunia quote-nya bobot</t>
-  </si>
-  <si>
-    <t>mas puas malam dgn aura tampil pak kan garang tegas berani</t>
-  </si>
-  <si>
-    <t>kembali jaya indonesia kawal bapak tuju istana negara prabowobentengnkri prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>jawab pak tanggap tahan rapuh yang sipil sangat percaya tni</t>
-  </si>
-  <si>
-    <t>bismillah pak inshaa allah mudah debat hari semangat sukses pak https t co xer 1pigoxr</t>
-  </si>
-  <si>
-    <t>kata korupsi indonesia ada taraf parah kalau sakit sudah stadium 4</t>
-  </si>
-  <si>
-    <t>telaaak momen blejekin si doi pak dhe kereeen debatkeempatpilpres 2019 jokowimengubahsemua 01dila</t>
-  </si>
-  <si>
-    <t>tertawa puas takut marah larang ingat pilih biar bebas tertawa batas</t>
-  </si>
-  <si>
-    <t>nilai besar jumlah duduk muslim jadi salah satu kuat diplomasi indonesia</t>
-  </si>
-  <si>
-    <t>pak tekan soal kecil anggar tahan pak</t>
-  </si>
-  <si>
-    <t>kalo sederhana bunyi jadi besar pilih tolol https t co 5jtydtkg5c</t>
-  </si>
-  <si>
-    <t>pak tinggal panggung kepala tegak laksana ayam jago habis menang tarung keren</t>
-  </si>
-  <si>
-    <t>alhamdulillah sudah tiba hotel shangri-la siap dukung pak debat empat pilpres 2019 bismilllah</t>
-  </si>
-  <si>
-    <t>pak kalo benar pikir bapak soal tahan aman mohon maaf bapak layak ganti</t>
-  </si>
-  <si>
-    <t>debat malam final sedikit tdk ragu lg kpd orang subianto ttg ideologi pancasila</t>
-  </si>
-  <si>
-    <t>sila puas bangga jd negara mediator international tp sindir krn banyak hutang</t>
-  </si>
-  <si>
-    <t>uno jika menang 1 5 pdb alokasi sektor hankam https t co 8toa5jljcg</t>
-  </si>
-  <si>
-    <t>kayak kalau jadi presiden baru tahun udah perang deh dilikirin perang mulu</t>
-  </si>
-  <si>
-    <t>good bye pak sandi beres semua laku scaling makmur</t>
-  </si>
-  <si>
-    <t>pak kata nasionalis tinggi pak usah swis indonesia sdh lebih dr 20 thn masa saham blm nasional</t>
-  </si>
-  <si>
-    <t>pmerintahan yng sigap layan rakyt bravoo pak pemerintahandilan https t co phy 5t8pclm</t>
-  </si>
-  <si>
-    <t>bukan apa dari sudut kota kecil jogjakarta punya semangat menang prabowo-sandi</t>
-  </si>
-  <si>
-    <t>pemerintahandilan perintah percaya tni mantul jokowilagi https t co ws2xjlvdz9</t>
-  </si>
-  <si>
-    <t>sejak 2012 dukung thn 2014 tetap dukung menang ya tetap ngamen ga imbal proyek</t>
-  </si>
-  <si>
-    <t>mantul makin yakin indonesia menang kami pancasila ideologi final kami tekad mempertahankanya</t>
-  </si>
-  <si>
-    <t>jiwa sangat nasionalis its you pak debat malam sungguh sangat luar biassaa prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>ngajak maju ngajak perang jd clear yah gaes siapa yg hrs pilih 01 pemerintahandilan</t>
-  </si>
-  <si>
-    <t>sila kalian ketawa kaya bilang bocor 2014 lalu sekarang soal tahan klean ketawa</t>
-  </si>
-  <si>
-    <t>capres nilai unggul debat capres 2019 klaim kuasa soal kait tema debat</t>
-  </si>
-  <si>
-    <t>https t co mmjebjk 6md pemerintahandilan cawapres ma ruf amin kata tampil sesuai harap</t>
-  </si>
-  <si>
-    <t>deklarasi rawan nasution saudara deklarasi mutk dukung pasang prabowo-sandi pilpres alhamdulillah</t>
-  </si>
-  <si>
-    <t>manusia yg di kubu 02 tuuh selalu akal sehat</t>
-  </si>
-  <si>
-    <t>sekali rendah tni bilang lebih tni tni cukk apa maksude</t>
-  </si>
-  <si>
-    <t>ps gak nyerang bang beliau bicara jujur otentik gak pk poles apa knp bs gt</t>
-  </si>
-  <si>
-    <t>pak korupsi turun sistem yg baik bravo pak pemerintahandilan</t>
-  </si>
-  <si>
-    <t>buzzer bayar siap ikut polling nih rakyat mau lawan liat siapa yg menang prabowo</t>
-  </si>
-  <si>
-    <t>rada ijid ningali bobotoh deklarasi dukung paslon rek deklarasi milih</t>
-  </si>
-  <si>
-    <t>ujung debat capres pak hasil jinak emosi dgn satu kalimat santun sahabat tdk pernah putus</t>
-  </si>
-  <si>
-    <t>kuis pilpres capres mana suka joged 2 telanjang dada muka umum https t co jn0ui9jd3s c7 -</t>
-  </si>
-  <si>
-    <t>visi misi kok kayak orang surup promosi kok marah</t>
-  </si>
-  <si>
-    <t>ni adek bagi kelompok radikal mau ganti pancasila wajah aja udah rem dukung sandi</t>
-  </si>
-  <si>
-    <t>imho pak lebih baik tak dalam debat kali</t>
-  </si>
-  <si>
-    <t>malam bungkam juga dukung tidak ada ria sorak gembira</t>
-  </si>
-  <si>
-    <t>tahan aman indonesia harga mati jendral kalo dunia internasional lihat balik</t>
-  </si>
-  <si>
-    <t>tuh bingung jadi pak prab masak balik jadul makin yakin kalau pak aja 01indonesiamaju</t>
-  </si>
-  <si>
-    <t>serentak kompak naik jokowidiambangkekalahan kita sambut pimpin baru - sandi</t>
-  </si>
-  <si>
-    <t>pak lebih percaya teknologi lama https t co nfiq 982l67</t>
-  </si>
-  <si>
-    <t>kuat tahan sangat rapuh lemah bukan salah pak tapi tidak tahu salah siapa</t>
-  </si>
-  <si>
-    <t>sering sedang naik sepeda rantai putus percaya saya pak rantai sahabat tidak pernah putus</t>
-  </si>
-  <si>
-    <t>percaya rantai sahabat pak yakin akan pernah putus sweet banget sih pakdee</t>
-  </si>
-  <si>
-    <t>emosi kontrol parah audiens orang begini bahaya kalau pimpin</t>
-  </si>
-  <si>
-    <t>silah tertawa jadi presiden kalo beliau menang ketawa larang</t>
-  </si>
-  <si>
-    <t>jkw faham model perang depan perang apa kalau jadi cyber war space war</t>
-  </si>
-  <si>
-    <t>in all seriousness gue ga ngerti topik military and defense harus jadi sisi kuat malah beranta gitu</t>
-  </si>
-  <si>
-    <t>merinding tanda cinta rakyat hadap pak moga lanjut periode gaspoljokowijempol</t>
-  </si>
-  <si>
-    <t>harap harap rakyat yg ubah utk indonesia adil makmur 17 april coblos 02 pilih</t>
-  </si>
-  <si>
-    <t>saya bela rakyat hormat sangat mulia subianto prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>perintah yng sigap layan rakyatm bravoo pak pemerintahandilan https t co 328hggut9c</t>
-  </si>
-  <si>
-    <t>debat hari lah sifat asli pak mulai keluar nampaknya beliau gak tahan sandiwara jadi orang baik</t>
-  </si>
-  <si>
-    <t>lihat ganas malam tapi lihat prihatin seperti gak habis pikir gemas sendiri dgn bisik 2</t>
-  </si>
-  <si>
-    <t>perintah an yg sigap layan rakyay bravoo pak pemerintahandilan https t co vwhecy 74nd</t>
-  </si>
-  <si>
-    <t>yuk satu satu lebih asyik pemerintahandilan https t co oejifofpsx</t>
-  </si>
-  <si>
-    <t>dulu ken ketawa takut dosa sekarang ken ketawa takut dimarahin pak</t>
-  </si>
-  <si>
-    <t>debat capres malam sy ikan score 10-0 buat menang pak bisa lihat carakter pimpin yg kuat</t>
-  </si>
-  <si>
-    <t>sebut betul koruptor orang baik pilih jadi presiden diri beri sempat</t>
-  </si>
-  <si>
-    <t>kalau bicara ttg nasionalisme p semangat jgn ketawa dg lemah itu reaksi spontan yg patriotik</t>
-  </si>
-  <si>
-    <t>tertawa tertawa larang sama pak debatpilpres 2019</t>
-  </si>
-  <si>
-    <t>perlu garis bawah ke afganistan tdk pake rompi anti peluru</t>
-  </si>
-  <si>
-    <t>haissshhh sih pak panggil dil debatpilpres 2019 kali pemerintahandilan</t>
-  </si>
-  <si>
-    <t>milu legislatif pilih presiden 17 april besok habis biaya tidak sedikit triliun rupiah</t>
-  </si>
-  <si>
-    <t>warga negara baik pilih pimpin baik jawab baik kita semua 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>pak masalah apa si sini cerita sini jan marah marah mulu dong kek dosen kalo ngambek mahasiswa nya</t>
-  </si>
-  <si>
-    <t>serang dgn emosi pak tetap kata bukan salah bapak salut engkau sungguh jiwa besar</t>
-  </si>
-  <si>
-    <t>pak timses bilang anak ingus nih tertib pak bapak hormat bangsa</t>
-  </si>
-  <si>
-    <t>papar visi misi klaim praktik korupsi perintah turut lemah negara</t>
-  </si>
-  <si>
-    <t>kata pak bukan lemah kalah kuat yang lambat kalah yang cepat</t>
-  </si>
-  <si>
-    <t>kpu angkat bicara soal alokasi waktu cara adil masih aja bilang main curang hmmm</t>
-  </si>
-  <si>
-    <t>moga pak beri mudah lancar malam al fatihah prabowobentengnkri https t co gmhz 1husuk</t>
-  </si>
-  <si>
-    <t>bawah pimpin prabowo-sandi akan komitmen hadir harga bahan pokok stabil jangkau</t>
-  </si>
-  <si>
-    <t>yg mengatakn mobil esemka hoax moga dosa 2nya ampun allah swt yg fitnah kait ini pak</t>
-  </si>
-  <si>
-    <t>insya allah menang indonesia jd macan asia bukan cebong asia</t>
-  </si>
-  <si>
-    <t>sama 02 indonesia kuat prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>press conference pasca debat tkn 01 cara baca data pak kena kuat militer banding anggar</t>
-  </si>
-  <si>
-    <t>warga negara baik pilih pimpin baik jawab baik menangjokowilagi</t>
-  </si>
-  <si>
-    <t>saling hujat saling remeh saling toleransi kawan sahabat idola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">debat empat pilpres 2019 tutup momen manis </t>
-  </si>
-  <si>
-    <t>konsep pak indonesia maju mantul menangjokowilagi</t>
-  </si>
-  <si>
-    <t>buah tangan perintah pak sby saja aku debat aneh demen main klaim</t>
-  </si>
-  <si>
-    <t>salut bangga dgn pakde walaupun sipil bagai panglima tinggi yg baik harga kerja keras</t>
-  </si>
-  <si>
-    <t>indonesia kini sama jadi negara hebat menangjokowilagi https t co pyphejzzou</t>
-  </si>
-  <si>
-    <t>tukang kayu lebih ngerti militer yg pernah jadi militer lebih tni tni</t>
-  </si>
-  <si>
-    <t>nyawa saya taruh republik jangan ragu nasionalisme mas</t>
-  </si>
-  <si>
-    <t>pancasila hasil suatu komporomi besar cemerlang generasi diri bangsa indonesia</t>
-  </si>
-  <si>
-    <t>paling sewot sayagolput dukung kami ingat pada alam bawah sadar bahwa kalah</t>
-  </si>
-  <si>
-    <t>jember siang tadi rombong wi sambut guru honorer ria</t>
-  </si>
-  <si>
-    <t>dengan tekad kuat rubah bangsa pak mampu beri ubah bagai lini bangsa</t>
-  </si>
-  <si>
-    <t>yg tau definisi polyglot coba cek google deh nyata pak adlh orang polyglot</t>
-  </si>
-  <si>
-    <t>sangat haru salam pisah dr pak jkw barusan sahabat nomer satu presiden no 02</t>
-  </si>
-  <si>
-    <t>kuat 2an adu isu elektabilitas media tulis elektabilitas non-prabowo sulit kejar</t>
-  </si>
-  <si>
-    <t>rakyat percaya tni 01dilanjutkan https t co fhdmwypu 5w</t>
-  </si>
-  <si>
-    <t>pak nih kalo tongkrong tipikal yg semangat cerita panjang lebar tp ga ditanggepin sm anak anak skip aja gitu</t>
-  </si>
-  <si>
-    <t>pemerintahandilan keren tingkat puas publik thd kerja perintah jokowi-jk msh tinggi atas 70</t>
-  </si>
-  <si>
-    <t>2 tahan bidang hankam terlalu lemah anggar sangat kecil yang kita baik</t>
-  </si>
-  <si>
-    <t>selamat pagi penganten lebih paham mana yg coblos mana yg pilih goyang jari pilih</t>
-  </si>
-  <si>
-    <t>indonesia maju infrastruktur yg baik menang 01dilanjutkan https t co muddzx 0kwx</t>
-  </si>
-  <si>
-    <t>selamat nama jadi trending yg paling banyak bicara good job buat anak 2 twitter dukung 02</t>
-  </si>
-  <si>
-    <t>insya allah pak menang telak prabowobentengnkri https t co qptegiu 2ua</t>
-  </si>
-  <si>
-    <t>wajah prabohong pucet gara-gara tau apa yg kata pak kualitas lanjut pemerintahandilan</t>
-  </si>
-  <si>
-    <t>khas pak kena kemeja putih lengan panjang gulung 01dilanjutkan https t co re2jvkcqto</t>
-  </si>
-  <si>
-    <t>jalan demokrasi yg baik laksana sekarang kok tolak belakang prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>personifikasi debat empat sangat kuat itu kokoh pribadi diri sbg orang yg patriotik</t>
-  </si>
-  <si>
-    <t>sama orang hebat indonesia maju unggul menangjokowilagi</t>
-  </si>
-  <si>
-    <t>marah tahan negara lemah tertawa bukti ybs paranoid atas ancam asing</t>
-  </si>
-  <si>
-    <t>jumlah massa kampanye akbar pakansari hingga jalan capai satu juta orang luar biasa bogor</t>
-  </si>
-  <si>
-    <t>kita banding pakai hati nurani akal sehat pancasila beri sejak dini</t>
-  </si>
-  <si>
-    <t>mumpung debatpilpres 2019 break senyum manis dulu salam bismillah indonesia</t>
-  </si>
-  <si>
-    <t>hei kelen yg suka nyinyirin bapak jelek 2an blio maaf sll ad bukti bhw blio orang baik tanggungjawab</t>
-  </si>
-  <si>
-    <t>jual beli jabat waris sejak perintah mantan mertua pak memang susah rubah mental orde baru</t>
-  </si>
-  <si>
-    <t>orasi politik ketua umum pan tegas jawa barat salah satu kunci menang</t>
-  </si>
-  <si>
-    <t>mantap bang cebong marahin mala ketawa dasar dungu akut</t>
-  </si>
-  <si>
-    <t>saya inti perintah bahwa lembaga perintah harus bersih korupsi</t>
-  </si>
-  <si>
-    <t>omong pak capres pecat tni begitu pantes pecat wong sering gagal paham https t co etacadeg 8n</t>
-  </si>
-  <si>
-    <t>sangat dukung kembang ekonomi digital lalu pemerintahandilan usaha pelihara stratup</t>
-  </si>
-  <si>
-    <t>benar pak sdh td bahwasannya perintah sekarang banyak teori yg sesuai nyata</t>
-  </si>
-  <si>
-    <t>ada wiranto luhut hendro agum masak jenderal dukung bila pki sendiri jenderal</t>
-  </si>
-  <si>
-    <t>culik yaa culik hati milenial tionghoa kuaile de zhandou selamat juang</t>
-  </si>
-  <si>
-    <t>nonton kok jurus 2 aja monoton contoh yg bahas korupsi lg lg jurus yg kemaren 2</t>
-  </si>
-  <si>
-    <t>rawan muda gelar nobar tekan golput kalang milenial https t co w4k3nrowfy</t>
-  </si>
-  <si>
-    <t>salah satu contoh kecil prestasi hasil nya jelas silah cek sendiri data</t>
-  </si>
-  <si>
-    <t>sumber foto jenderal goblok udah edit eh foto orang kamboja keren cici 2 kamboja dukung</t>
-  </si>
-  <si>
-    <t>pak mau indonesia hormat tp tahu cara capa tahu cara pidato</t>
-  </si>
-  <si>
-    <t>closing statement yg aku kuat lawan</t>
-  </si>
-  <si>
-    <t>beberapa pimpin organisasi bobotoh para suporter persib bandung deklarasi dukung pak</t>
-  </si>
-  <si>
-    <t>saya bukan salah saya kuat tahan sangat rapuh lemah bukan salah bapak</t>
-  </si>
-  <si>
-    <t>soal freeport sangat untung buat apalagi emas perak tembaga</t>
-  </si>
-  <si>
-    <t>kata p anggar tni harus naik n perlu tni yg kuat utk tahan wilayah</t>
-  </si>
-  <si>
-    <t>jenderal lawan umur 18 tahun taruh nyawa pancasila untuk republik</t>
-  </si>
-  <si>
-    <t>pak serang hujat tahan bilang kalah yg nyerang akibat selalu keluar konteks yg brtahan sesuai tema</t>
-  </si>
-  <si>
-    <t>mantul kali capresku pak malam cerdas tegas prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>statemen soal gak usah ngurusin masalah negara adalah pukul telak buat dukung</t>
-  </si>
-  <si>
-    <t>wah salah nih mas kasih tahu litbang</t>
-  </si>
-  <si>
-    <t>kait aspek tahan keamananan point penting debatpilpres 2019 nyata penting kembang alutista</t>
-  </si>
-  <si>
-    <t>senang naik sepeda sering rantai putus yakin rantai sahabat sy dgn tak pernah putus</t>
-  </si>
-  <si>
-    <t>yang sipil sangat percaya tni beliau lebih percaya tni pada mantan tni yg pecat</t>
-  </si>
-  <si>
-    <t>pak tadi maju gak pakai teks gestur di luar kepala lulus fort benning gitu</t>
-  </si>
-  <si>
-    <t>indonesia bawah jadi bangsa emis utang peran dunia internasional hilang presiden tak bicara</t>
-  </si>
-  <si>
-    <t>dennger tuh kata pak saling harga https t co l143x7rvt5</t>
-  </si>
-  <si>
-    <t>kaya suatu bangsa kalau jaga suatu kuat tahan kuat tidak mungkin</t>
-  </si>
-  <si>
-    <t>wkkwkwkwkk asli salah satu omong wowo yg ngaco pecatanlebihtnidaritni mending jauh pak mana 2</t>
-  </si>
-  <si>
-    <t>mbakyu bpn jgn mau tipu sama hti angin surga buat hti gak buat dukung</t>
-  </si>
-  <si>
-    <t>marah cinta hadap negara kalian goreng sedang bohong manis si jae malah kalian puji</t>
-  </si>
-  <si>
-    <t>pilpres 2019 tarung akal sehat akal dungu jokowidiambangkekalahan https t co 0ygyvuuior</t>
-  </si>
-  <si>
-    <t>pak selalu tampil elegant negarawan tampil lepas penuh canda tawa tak segan joget riang</t>
-  </si>
-  <si>
-    <t>issue khilafah issue kaum keok-ers katolik pilih pimpin jujur bapak</t>
-  </si>
-  <si>
-    <t>sumpah tahan pancasila titik darah akhir bohong ah bapak luka dikit aja udah pakai sarung tangan</t>
-  </si>
-  <si>
-    <t>kalau kayak gin performa pak jd menhan perintah presiden pd 2019-2024 tak pantas</t>
-  </si>
-  <si>
-    <t>bpk info yg sesat petinggi tni woooiii om wowo lupa yaa bukankah lebih parah diboongin sama dukung sendiri</t>
-  </si>
-  <si>
-    <t>alhamdulillah debat 4 langsung lancar berkat doa semua cinta indonesia sayang</t>
-  </si>
-  <si>
-    <t>lebih tni tni bagus pak aku overdosis jadi makin mudah kami pilih presiden</t>
-  </si>
-  <si>
-    <t>subianto ragu mampu ri bidang tahan situs global fire power fokus masalah</t>
-  </si>
-  <si>
-    <t>satu sisi tegas bilang tdk ubah nkri jadi khilafah di sisi bpn malah janji hti hidup</t>
-  </si>
-  <si>
-    <t>siap bawa indonesia maju cuma pak 01dilanjutkan https t co mhvlauseoz</t>
-  </si>
-  <si>
-    <t>2beer unpopular opinion pak mungkin punya track record gak gitu baik gue percaya kalau beliau orang baik</t>
-  </si>
-  <si>
-    <t>apa yg mas ttg tema debat isi tegas lugas mudah erti sesuai lapang</t>
-  </si>
-  <si>
-    <t>pak biar paham rata 2 skor cpi dunia th 2018 43 kalau indonesia 38 arti bawah rata</t>
-  </si>
-  <si>
-    <t>pak all out debat malam semua umpan lawan lahap habis bahkan jawab kerap jadi serang balik</t>
-  </si>
-  <si>
-    <t>rekam jejak bersih segala kasus langgar hukum menangjokowilagi</t>
-  </si>
-  <si>
-    <t>ketua umum pan insya allah jawa barat jadi menang pan - sandi</t>
-  </si>
-  <si>
-    <t>ken cepet 2 punya presiden yg tegas berkharisma prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>paling penting bagaimana beri didik</t>
-  </si>
-  <si>
-    <t>jadi keliru kalau bpn beri angin hti dg harap suara hti justru hti tdk percaya dg demokrasi</t>
-  </si>
-  <si>
-    <t>juang sama sama rakyat biar rakyat yg</t>
-  </si>
-  <si>
-    <t>pakdhe budhe iriana yg suka kampanye suasana positif optimis penuh canda tawa ceria</t>
-  </si>
-  <si>
-    <t>astaga 2nya ngmg kl dukung 01 yg nuduh soal khilafah 2 yg jelek 2in</t>
-  </si>
-  <si>
-    <t>kena tuduh pro-khilafah milik argumen menep mentah 2 olah bela khilafah</t>
-  </si>
-  <si>
-    <t>pimpin garus beri contoh jaga satu bukan pecah belah mantap mas</t>
-  </si>
-  <si>
-    <t>mantap sekali nyata pak moga selalu konsisten prabowobentengnkri https t co apdde 5ubll</t>
-  </si>
-  <si>
-    <t>mantaaab yg tunggu 2 argument cerdas tegas dr bpk pkivspancasila 18harilagicobloscapres02</t>
-  </si>
-  <si>
-    <t>hasil prediksi menang telak tema ahli belio yg notabene milik wawasanya</t>
-  </si>
-  <si>
-    <t>msh andal jual kartu bangga layan satu pintu bangga dgn program it yg kata mpu kurang korupsi</t>
-  </si>
-  <si>
-    <t>lihat dr segi mana pak lebih unggul prabowobentengnkri https t co ksmrfawt 0c</t>
-  </si>
-  <si>
-    <t>dukung waktu 2014 fitnah kristen hebertus bla bla bla semua yg tuduh malah di</t>
-  </si>
-  <si>
-    <t>2014 gue dukung pak sukarela buat avatar dukung 2019 gue dukung pak</t>
-  </si>
-  <si>
-    <t>deklarasi maaruf amin menang yang singkat sebut jomang gagal laksana karna</t>
-  </si>
-  <si>
-    <t>tenaga medis paham penting sehat jantung jantung pak tetap sehat</t>
-  </si>
-  <si>
-    <t>debatpilpres 2019 paling kasihan sama orang percaya jadi aparat</t>
-  </si>
-  <si>
-    <t>jangan putus saudara biar rakyat tentu siapa baik bangsa -</t>
-  </si>
-  <si>
-    <t>sih pak selalu bandingin kondisi tni jaman sukarno jelas dulu anceman militer tinggi</t>
-  </si>
-  <si>
-    <t>baru telepon ibu maryani djoyohadikusumo kakak pak subianto memang kenal baik beliau</t>
-  </si>
-  <si>
-    <t>jangan ketawa kalian ketawa tahan indonesia rapuh kalian ketawa lucu kok lucu kata</t>
-  </si>
-  <si>
-    <t>abis sih 01 telanjang debat mantul pak debatpilpres 2019 prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>kmi brharap kelak negeri maju brsama prabowo-sandi bnyak bisa bantu pak</t>
-  </si>
-  <si>
-    <t>paling mantap debat malam prabowobentengnkri prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>perintah kuat pimpin tegas pihak prabowo-sandi yakin wujud jadi harap</t>
-  </si>
-  <si>
-    <t>pak mungkin inspirasi dr netijen yg haus tikai makanya mara 2 gt</t>
-  </si>
-  <si>
-    <t>menang mbak sepenuh yakin pak menang</t>
-  </si>
-  <si>
-    <t>moga pak selalu sehat aamiin debatasyikjokowi https t co lww 2w8bb30</t>
-  </si>
-  <si>
-    <t>capres 02 nilai tak keluar narasi besar sendiri tak tampil istimewa</t>
-  </si>
-  <si>
-    <t>paslon capres 01 jokowi-kh ma ruf amin terima deklarasi dukung kelompok supporter sepak bola viking bandung</t>
-  </si>
-  <si>
-    <t>naaah pas jokowidiambangkekalahan prabowobentengnkri prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>beda kelas bapak 08 true warrior ksatria sejati</t>
-  </si>
-  <si>
-    <t>mantap pak malam anda tunjuk sikap tegas nasionalis patriot sejati tolong jaga emosi</t>
-  </si>
-  <si>
-    <t>wowo kali 2 ingat pak bapak hati 2 kpd bisik bapak kena tahan</t>
-  </si>
-  <si>
-    <t>malam mantap prabowomenangdebat jokowidiambangkekalahan</t>
-  </si>
-  <si>
-    <t>insyaalloh jatim solid dukung 02 nahdliyinbukanjokower nahdliyindukung 02 sayanusayamilih 02</t>
-  </si>
-  <si>
-    <t>jangan bilang salah hanya mau bilang fakta saya pulang kampung begini kondisi infrastruktur</t>
-  </si>
-  <si>
-    <t>singkir kali akan gagal akan lantik jadi presiden republik indonesia ke - 8</t>
-  </si>
-  <si>
-    <t>ngeriii kalau lihat dukung beri viking amin jokowimengubahsemua 01jokowi3pdip kusukajokowiamin</t>
-  </si>
-  <si>
-    <t>kalau cuma pinter bahasa inggris gak usah cinta laura tukang becak dijogja jg banyak</t>
-  </si>
-  <si>
-    <t>sedih pilpres buat orang orang jadi benci lebih sekaligus puja lebih sama sama babi buta</t>
-  </si>
-  <si>
-    <t>deklarasi bobotoh dukung bobotohngahiji https t co ck2zv5jzvq</t>
-  </si>
-  <si>
-    <t>sandi cita cita indonesia adil makmur berdikari bidang ekonomi yuuk terus gerak indonenesia</t>
-  </si>
-  <si>
-    <t>ambil sudut pandang pas ledak boom dilan 2014 cc prabowobentengnkri jokowidiambang</t>
-  </si>
-  <si>
-    <t>suka heran sama org yg benci parah sm pak disakitin sakit apa sih https t co efc 7clo0mb</t>
-  </si>
-  <si>
-    <t>lihat pak percaya tni 2019</t>
-  </si>
-  <si>
-    <t>lah malah ngulang omong</t>
-  </si>
-  <si>
-    <t>insya allah aroma menang buat pak bang sudah nampak jelas lihat tinggal kawal menang</t>
-  </si>
-  <si>
-    <t>pak benar orang baik pilih jadi presiden yg kali</t>
-  </si>
-  <si>
-    <t>turut ini tampil pak paling lepas benar 2</t>
-  </si>
-  <si>
-    <t>20 100 alas pilih prabowo menang debat 17 april coblos sandi</t>
-  </si>
-  <si>
-    <t>udah deh cor gak usah banyak omong viking bobotoh buat deklarasi utk dukung</t>
-  </si>
-  <si>
-    <t>pak mantap jawab tenang jokowimengubahsemua nya jadi lebih baik maju jokowilagi</t>
-  </si>
-  <si>
-    <t>tuju pak presiden aamiin klo lembaga 2 perintah kuat korupsi jual beli jabat</t>
-  </si>
-  <si>
-    <t>pemerintahandilan tol langit rupa karya bangun bukti mampu dukung maju ekonomi digital</t>
-  </si>
-  <si>
-    <t>bangga baris pak prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>milenial love yah gaya milenial kena ott ahy partai demokrat demokrat dukung</t>
-  </si>
-  <si>
-    <t>lebih tni banyak tni 2019 yeaahhh</t>
-  </si>
-  <si>
-    <t>sistem alat teknologi semua bagus layan publik inti perintah bersih korupsi</t>
-  </si>
-  <si>
-    <t>isu khilafah hembus sutradara utk gempur patah ronde pertama katolik makin percaya</t>
-  </si>
-  <si>
-    <t>dil digital layan lebih baik guna teknologi lama pel deh pikir</t>
-  </si>
-  <si>
-    <t>clossing statement isyarat pisah bangga bapak segera gegas pulang serah kuasa</t>
-  </si>
-  <si>
-    <t>lihat pak percaya tni telak sekali bro tak kutik</t>
-  </si>
-  <si>
-    <t>bikin tonton ketawa saat bilang bukan salah bapak gak tau salah siapa</t>
-  </si>
-  <si>
-    <t>siapa bicara scr umum soal ini jgn korupsi perintah bersih</t>
-  </si>
-  <si>
-    <t>6 indonesia adlh negara dg duduk muslim besar dunia percaya selesai banyak yg besar</t>
-  </si>
-  <si>
-    <t>baru kali tenang banget prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>milenial cinta pemerintahandilan keren https t co gg7eokdtnw</t>
-  </si>
-  <si>
-    <t>yth bapak debat momen baik papar gagas rencana hadap benang kusut bangsa</t>
-  </si>
-  <si>
-    <t>tuduh itu tp diam tidak jawab bohong beud prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>rendah dukung tahana rupa bukti bila cara tak langsung sedang hukum publik</t>
-  </si>
-  <si>
-    <t>leceh tagar 02capresabadi lama 4 5 thn juang ubah dah bobo cantik aja sana</t>
-  </si>
-  <si>
-    <t>tetap fokus doa allah maha kuasa menang indonesia satu</t>
-  </si>
-  <si>
-    <t>percaya tni pecatanlebihtnidaritni https t co qtfysc 93hd</t>
-  </si>
-  <si>
-    <t>depan negara yg cepat mebgalahka negara yg lambat kata pak cepat super cepat lompat depan</t>
-  </si>
-  <si>
-    <t>makin yakin rakyat ubah tunjuk kelas bagai orang memang paham soal bangsa depan</t>
-  </si>
-  <si>
-    <t>lhooo kok ngeles paak td kata tdk perang skrg bilang hny kira kok pucat</t>
-  </si>
-  <si>
-    <t>repost jokowi amin pak hidup pancasila pimpin bisa beri contoh baik</t>
-  </si>
-  <si>
-    <t>telah debat capres kpu setel lagu mesra jangan cepat lalu romantisasi sahabat</t>
-  </si>
-  <si>
-    <t>siap nonton debatpilpreskeempat tema debat malam untung p krn kuasa tema debat</t>
-  </si>
-  <si>
-    <t>hebat sekali dlm respon akhir debat pilpres tegas bgs indonesia kuat berdikari</t>
-  </si>
-  <si>
-    <t>nyerocos pakai bahas inggris debatpilpres 2019 malam sontak hilang kosentrasi fokus</t>
-  </si>
-  <si>
-    <t>dong selalu fokus masalah bicara perlu banyak kerja kepoinpemilu jokowimengubahsemua</t>
-  </si>
-  <si>
-    <t>prinsip perintah pak era revolusi 40 cepat tele 2 simple pak yakin kata 2</t>
-  </si>
-  <si>
-    <t>yoiii gigi gua ampe hilang sakit gegara lihat performent pak keren nendang jae</t>
-  </si>
-  <si>
-    <t>terimakasih pak malam sekali bapak bukti mereka juang rakyat</t>
-  </si>
-  <si>
-    <t>dulur sebut apa buat optimis pak 01dilanjutkan kata tagar</t>
-  </si>
-  <si>
-    <t>pak gimana bilang orang asing indonesia punya potensial besar bukan nya bersukur di doa sama</t>
-  </si>
-  <si>
-    <t>acu adalah mertua bukti keluarga mertua di baris yang mau mundur masa lalu</t>
-  </si>
-  <si>
-    <t>baru kali mau fitnah labil kadang bilang gak sholat bukan islam gak pernah jumat</t>
-  </si>
-  <si>
-    <t>juga pak hendro pak luhut coba lihat dukung sandi biar gak mikirin khilafah terus</t>
-  </si>
-  <si>
-    <t>https t co gfse 1zynfq siap indonesia hadap industri 4 0 makin siap pakde tau cara</t>
-  </si>
-  <si>
-    <t>debat hari konfirmasi menang terima kasih mas tampil mas bowo hari ruarbiasa</t>
-  </si>
-  <si>
-    <t>kadang bingung sih dukung sama antem substansi saling jatuh</t>
-  </si>
-  <si>
-    <t>itu nyata raut wajah tampak lelah pucat pasrah akhir sadar ucap salam pisah</t>
-  </si>
-  <si>
-    <t>orang dungu yg mberi label kubu kubu dukung khilafah smtr waktu mrk membully</t>
-  </si>
-  <si>
-    <t>pak masalah nasional bisa selesai cara emosional maaf sekadar ingat</t>
-  </si>
-  <si>
-    <t>bagai tni wakaf jiwa raga bela negara walo mati medan laga</t>
-  </si>
-  <si>
-    <t>pakde beri fasilitas lalu bangun gedung injubasi para laku usaha rintis starup</t>
-  </si>
-  <si>
-    <t>malam hebat miss makin yakin indonesia menang prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>cetar bahana porak poranda tahana buat gua suka gaya lo jendral prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>mbakyu jaga stamina istirahat yg pas</t>
-  </si>
-  <si>
-    <t>terima kasih bpk atas tampil luar biasa malam saya keluarga histeria doa bapak menang</t>
-  </si>
-  <si>
-    <t>jadi benar sepakat semua usul program pak tuju silah lanjut periode</t>
-  </si>
-  <si>
-    <t>sekarang begini utk uji nyali berani gak nyata libas juang hizbut tahrir</t>
-  </si>
-  <si>
-    <t>eh tunggu jual beli jabat angkat pak 90 menteri sumber internal perintah sekarang</t>
-  </si>
-  <si>
-    <t>jae muka merah saya lawan - jokowidiambangkekalahan jokowidiambangkekalahan</t>
-  </si>
-  <si>
-    <t>perintah yng sigap layan rakyatm bravoo pak pemerintahandilan https t co nugbqspxbc</t>
-  </si>
-  <si>
-    <t>colokin nih jendral pecat militer indonesia lebih kuat israel australia - the global firepower</t>
-  </si>
-  <si>
-    <t>istimewa sangat istimewa closing statement pak betul 2 tunjuk beliau mmg orang negarawan</t>
-  </si>
-  <si>
-    <t>tau betul emak 2 dukung kang dukung bukan ganti pancasila</t>
-  </si>
-  <si>
-    <t>milik gagas yg cerdas beliau rela mati indonesia benar prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>era jaman skarang teknologi sangat penting pak bangga unicorn indonesia</t>
-  </si>
-  <si>
-    <t>pas bilang pernah militer pak cuma senyum 2 pecat koq bangga sich wowo tuch gak punya malu</t>
-  </si>
-  <si>
-    <t>subianto figur hebat panglima tinggi ri seluruh komponen bangsa dukung</t>
-  </si>
-  <si>
-    <t>apk yg pesan kami ke akar rumput semua ni sisih kan uang belanja ubah</t>
-  </si>
-  <si>
-    <t>malam pak luar biasa menangjokowilagi</t>
-  </si>
-  <si>
-    <t>tadbir nan pantas layan rakyat bravo bandela pemerintahandilan https t co gkgy 6lrpko</t>
-  </si>
-  <si>
-    <t>debatpilpres 2019 pancasila ideologi final pancasila ideologi final</t>
-  </si>
-  <si>
-    <t>gak apa pake teknologi lama ajar ilmu perang ribu tahun hahaha gin kali kalo ikut pilpres mulu</t>
-  </si>
-  <si>
-    <t>jangan biar pak juang sendiri ayo satu suara satu pilih 17 april coblos 01 baju putih</t>
-  </si>
-  <si>
-    <t>sedih khawatir pd diri prabowobentengnkri prabowobentengnkri https t co xoemzw 201d</t>
-  </si>
-  <si>
-    <t>tampil paling hebat lama prabowomenangdebat prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>apresiasi saudara 2 di papua utk pakde jadi percuma kalian tebar bohong bhw papua derita</t>
-  </si>
-  <si>
-    <t>pak yusril tegas pbb dukung insya allah siap kawal pancasila tidak ganti</t>
-  </si>
-  <si>
-    <t>ehem ah nyenyak tidur insyaalloh yakin presiden aamiin prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>kawan semua kita dukung pemerintahandilan jutkan era untuk pimpin indonesia makin baik</t>
-  </si>
-  <si>
-    <t>rejim halal segala cara utk kuasa tak duli mrk meski bangsa hancur porak poranda</t>
-  </si>
-  <si>
-    <t>satu yakin dngn tni yg satu pesimis jadi pemerintahandilan jutkan 01 utk indonesia maju</t>
-  </si>
-  <si>
-    <t>https t co m1u7nlbagq insyaallah pak bang menang tgl 17 april 2019 amiinn</t>
-  </si>
-  <si>
-    <t>semangat salam kompak all tnt-pepes semua dukung 02 juang sama pak tuju indonesia jaya</t>
-  </si>
-  <si>
-    <t>kapabilitas dlm break down materi debat jelas tanggap trengginas gilas</t>
-  </si>
-  <si>
-    <t>pilpres kali kurang seru krn 02 hny sebar ilusi takut jargon jatuh 01 visi misi program yg lebih baik</t>
-  </si>
-  <si>
-    <t>tadbir nan pantas layan rakyat bravo bandela pemerintahandilan https t co dmjpr 2uqyg</t>
-  </si>
-  <si>
-    <t>paranoid perang mulu sama asing padahal dikhawatirin benar justru perang sodara</t>
-  </si>
-  <si>
-    <t>duuuhhh sumpah merinding dengar pidato mas ini negarawan sejati yg selalu usaha abdi</t>
-  </si>
-  <si>
-    <t>dear pak 5 taun bapak jabat akan awas kritisi omel bapak coblooosss temiik</t>
-  </si>
-  <si>
-    <t>01caprespendustaabadi bayang pun kecoh dusta</t>
-  </si>
-  <si>
-    <t>enak dukung 01 ajak pak tatap masa depan optimis hadap dinamika era iot klo 02 ajak balik masa lalu</t>
-  </si>
-  <si>
-    <t>pak aja sampe korban nyawa ibu pertiwi knapa tidak</t>
-  </si>
-  <si>
-    <t>mas tegas lawan siapa yg rubah ideologi pancasila dengerin tuh bong</t>
-  </si>
-  <si>
-    <t>memang sekarang jaman digital broh perintah pemerintahandilan dong keren digital layan</t>
-  </si>
-  <si>
-    <t>kerja perintah jelas unggul 01dilanjutkan https t co yjves 25euq</t>
-  </si>
-  <si>
-    <t>mantulll pak tegas cerdazzz</t>
-  </si>
-  <si>
-    <t>aq gk hadir sama emak 2 tp bahagia banget acara bpk bal luarbiasa</t>
-  </si>
-  <si>
-    <t>closing statement pak gambar demokrasi yang sungguh</t>
-  </si>
-  <si>
-    <t>benar 2 bangsa jadi bangsa yg kuat segani bukan besar sanjung</t>
-  </si>
-  <si>
-    <t>lihat udah cukup percaya diri sama base konservatif religius makanya berani kenal narasi</t>
-  </si>
-  <si>
-    <t>malam bapak jadi serang tangguh bravo pak bikin tahana ngelap keringet mulu</t>
-  </si>
-  <si>
-    <t>sobat sekali milu adl ajang gembira dlm beda aja pak kena baju putih tps</t>
-  </si>
-  <si>
-    <t>sama presiden perintah indonesia konsisten bela negara palestina bagai warga dunia 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>dapat lembaga perintah kuat</t>
-  </si>
-  <si>
-    <t>sepakat sama om trik basi it 2 minggu kelar ga jadi 2 mau 2 periode</t>
-  </si>
-  <si>
-    <t>hal perintah bukan teori soal bagaimana jalan perintah baik</t>
-  </si>
-  <si>
-    <t>loh cak yg bs mbentengi nkri yg sgt phm betul sistem tahan negara</t>
-  </si>
-  <si>
-    <t>rizal ramli pak mau revisi uu ite kubu jkw nggk tanggpan rr sebut uu ite seram</t>
-  </si>
-  <si>
-    <t>memang sosok pimpin teladan bangga 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>pak debat 1 2 kemaren gak kasih amunisi kayak debat 4 saya paling suka cara bapak debat</t>
-  </si>
-  <si>
-    <t>pak pribadi sederhana senang semua kalang menangjokowilagi</t>
-  </si>
-  <si>
-    <t>untung pilpres 2014 pak menang makanya bangun tol proyek tol perdana aceh rumah khusus utk msyrakat</t>
-  </si>
-  <si>
-    <t>perintah mau keluar paris agreement kata mikirin masa depan indonesia mau keluar pakta</t>
-  </si>
-  <si>
-    <t>pak bijak sikap hasil survei nyata menang tebal menangjokowilagi</t>
-  </si>
-  <si>
-    <t>lihat jujur pak indonesia beliau segan tegur siapa tertawa indonesia</t>
-  </si>
-  <si>
-    <t>adalah agum gumelar yg dgn lantang wajah bicara jelek hadap sby</t>
-  </si>
-  <si>
-    <t>kaya rakyat indonesia sedot luar negeri kaya sendiri numpuk di luar negeri huehehehe -</t>
-  </si>
-  <si>
-    <t>kalau pak jadi presiden hidup mau ketawa aja dimarahin</t>
-  </si>
-  <si>
-    <t>kalo kalian mau jadi kaum abs jae kuasa hak kalian gw suka tampil malam</t>
-  </si>
-  <si>
-    <t>lbih tni tni jangan kamu maling muka manusia sombong</t>
-  </si>
-  <si>
-    <t>bongkar data uang orang kaya indonesia swiss ga yang korupsi simpan uang sana</t>
-  </si>
-  <si>
-    <t>sumpah debat pilpres x pak benar 2 cadas keren prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>pak kata bhw tahan lemah kompak tertawa kira 2 alas apa</t>
-  </si>
-  <si>
-    <t>tertawa tertawa larang pemerintahandilan 01dilanjutkan debatkeempatpilpres 2019</t>
-  </si>
-  <si>
-    <t>bukan tni sudah pecat sandang gelar purnawirawan</t>
-  </si>
-  <si>
-    <t>debatpilpres 2019 malam telah balik ia jadi sosok luar biasa efek kejut</t>
-  </si>
-  <si>
-    <t>anak bangsa perlu bapak tegas bisa bangun karakter disiplin lihat debat babeh</t>
-  </si>
-  <si>
-    <t>turut konflik sosial libat muslim rohingya rakhine konflik sudah sangat lama sulit</t>
-  </si>
-  <si>
-    <t>dulu ken ketawa takut dosa sekarang ken ketawa takut marah debatpilpres 2019</t>
-  </si>
-  <si>
-    <t>pak beri harap optimisme 01dilanjutkan https t co rxwogeijvs</t>
-  </si>
-  <si>
-    <t>pak bilang pancasila final kalau mungkin beliau larang bendera larang hti kampanye</t>
-  </si>
-  <si>
-    <t>hahaha habis peluru ni si bikin cerita pak marah segala lah</t>
-  </si>
-  <si>
-    <t>malam minggu adalah malam baik kita saksi pak sangat elegan</t>
-  </si>
-  <si>
-    <t>bong optimis unggul debat 4 usung tema ideologi aman tahan</t>
-  </si>
-  <si>
-    <t>pak klo ngeritik gak punya gagas tanding yg lebih baik jelas ketidakpastian</t>
-  </si>
-  <si>
-    <t>takar kadar pancasila harga mati capres sini pak capres pecat tni kok gak pernah bilang dukung</t>
-  </si>
-  <si>
-    <t>senyum optimis pak dhe sukses lancar debat malam ya pak tuhan kati</t>
-  </si>
-  <si>
-    <t>kalau tidak nonton debat pak menang jadi tidur alhamdulillah nyata pakde hajar</t>
-  </si>
-  <si>
-    <t>raja hutang satu 2nya capres dgn beban hutang nila rp 7 6 triliun apa</t>
-  </si>
-  <si>
-    <t>tak sisa sedikit celah buat lawan argumentasi emang gk paham prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>fix bagai orang purbalingga banyumasan dukung pak</t>
-  </si>
-  <si>
-    <t>kuat apa kexurangan insya alah teyap gagal prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>gua sampe bingung banyak kutip yg luar biasa tohok banget</t>
-  </si>
-  <si>
-    <t>siapa pilih rakyat akan tunduk patuh - karawang 29 maret 2019 https t co h7ihhwk8sr</t>
-  </si>
-  <si>
-    <t>pak lebih tni tni bapak jangan inferior begini dong kata negara tak hormat</t>
-  </si>
-  <si>
-    <t>pecaaahh banget mashaallah sama wujud indonesia adil makmur</t>
-  </si>
-  <si>
-    <t>pikir kalau bener serang armada perang yg sekarang bukan ketawa malah nang darah</t>
-  </si>
-  <si>
-    <t>terima kasih rakyat jambi insya allah akan jumpa di masa lebih baik merdeka https t co ms7crkhozf</t>
-  </si>
-  <si>
-    <t>ibu fatimah kalla adik pak jusuf kalla dukung sandi jaenudin silah ngaciro</t>
-  </si>
-  <si>
-    <t>pantai panjang bengkulu bumi raflesia terima kasih jaga tps kalian masing-masing jangan demokrasi akal</t>
-  </si>
-  <si>
-    <t>marah 2 si jayen sok tahu sebut indonesia ratus suku bangsa</t>
-  </si>
-  <si>
-    <t>kok malah bangga songong betul sih om eee panjoel genderuwo</t>
-  </si>
-  <si>
-    <t>duh jadi melow gitu akhir mas tak laku closing statement yg lebih prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>agak fatal ketika sampai klaim orang banyumas sebut keras salah banget</t>
-  </si>
-  <si>
-    <t>innalillaahi wa innailaihiraaji un keluarga besar turut duka cita bela sungkawa</t>
-  </si>
-  <si>
-    <t>kata tni milik budaya abs asal bapak senang ini efek pernah pecat tni</t>
-  </si>
-  <si>
-    <t>pak tenang banget hari</t>
-  </si>
-  <si>
-    <t>trus kok si pecat mbacot ejek hina tni rapuh</t>
-  </si>
-  <si>
-    <t>salawi masuk neraka neraka panas mana aja mana infrastruktur langit yg kalian janji</t>
-  </si>
-  <si>
-    <t>catat pak sudah laku delapan bohong besar tahun 2018 beberapa bohong lai</t>
-  </si>
-  <si>
-    <t>arus ubah tak bendung era tiba prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>mberikan kesan sbg orang orator tp cara essensi banyak yg terlalu subjektif</t>
-  </si>
-  <si>
-    <t>rindu cinta sayang hrs mariii menang beliau jemput pulang</t>
-  </si>
-  <si>
-    <t>lihat yg kalian fitnah anti islam mesjid at-taqarrub luluh lantak gempa aceh 2016 lalu</t>
-  </si>
-  <si>
-    <t>lho kok aneh sini menang sy tdk punya partai bkn buser pampang nyata</t>
-  </si>
-  <si>
-    <t>emak emak lawan biar larang kampanye mall penting menang prabowodansandipilihanrakyat</t>
-  </si>
-  <si>
-    <t>yes akhir bilang turut pribadi yang jahat orang belakang pak</t>
-  </si>
-  <si>
-    <t>arti jokowidiambangkekalahan lihat lebih banyak tunduk tolah toleh bingung</t>
-  </si>
-  <si>
-    <t>sebut budaya abs asal bapak senang kental kalang tni</t>
-  </si>
-  <si>
-    <t>terima kasih jend ku malam km mmberikan harap rakyat utk yakin pilih tepat 02</t>
-  </si>
-  <si>
-    <t>dasar tukang bohong kapan henti bohong pak kpk diri tahun 2002 ngawur kowe jok</t>
-  </si>
-  <si>
-    <t>sejahtera tni lama 5 thn perintah gaji tni tdk pernah naik sejahtera tni aja kurang</t>
-  </si>
-  <si>
-    <t>catat tanggal siap diri putih gbk bareng sabtu 13 april 2019 asjb barengjokowi asjb putihkangbk</t>
-  </si>
-  <si>
-    <t>kaya suatu bangsa kalau jaga suatu kuat tahan kuat tidak mungkin -</t>
-  </si>
-  <si>
-    <t>tanah papua memang selalu penuh hangat kunjung merauke lebih asa pulang kampung pada kampanye</t>
-  </si>
-  <si>
-    <t>lama kawan lalu musuh lama tetangga lalu tak saling bicara semua karena beda pilih</t>
-  </si>
-  <si>
-    <t>sangat percaya mampu tni kata capres pecat tni https t co kc5cpgca0n</t>
-  </si>
-  <si>
-    <t>tidak paham ekonomi investasi asing lingkup bisnis di-framing olah negara asai asing cara militan</t>
-  </si>
-  <si>
-    <t>wow pakai bahasa inggris debat bikin plonga plongo https t co chujvskyv 4 prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>closing statement 01 orang pamit nuansa khawatir takut tinggal kalo kalah</t>
-  </si>
-  <si>
-    <t>terima kasih papua terima kasih rakyat merauke moga temu ada lebih baik</t>
-  </si>
-  <si>
-    <t>hari jum at mrk nanya prabowojumatandimana nanya jauh mana islam</t>
-  </si>
-  <si>
-    <t>pesta demokrasi nama pesta harus fun gitulooo man teman pak sm pak bisa saling santai</t>
-  </si>
-  <si>
-    <t>jadi presiden berat biar pak prabowobentengnkri jokowidiambangkekalahan https t co ehlgdl 2mcx</t>
-  </si>
-  <si>
-    <t>terimakasih pak datang manado bangga salam sama bapak insya allah bapak bang sandi menang</t>
-  </si>
-  <si>
-    <t>makin baik sama pak menangjokowilagi</t>
-  </si>
-  <si>
-    <t>berangkat bawah ke pucuk tinggi makanya tak pernah takut https t co 7ftilehkv1</t>
-  </si>
-  <si>
-    <t>fpi hti jelas di balik kalo yg bantah jelas sedang bohong https t co mwfxk 96sye</t>
-  </si>
-  <si>
-    <t>bangga prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>contoh orang yg gabisa ajak maju debatpilpres 2019 jokowimengubahsemua https t co omp 0spnmur</t>
-  </si>
-  <si>
-    <t>the strong will do what they can the weak will suffer nilai tahan indonesia terlalu lemah</t>
-  </si>
-  <si>
-    <t>rantai sahabat pak pak akan putus gara 2 debatpilpres 2019 dengerin tuh tkn-bpn cebongs kampret</t>
-  </si>
-  <si>
-    <t>dengar pak meski sangat lambat https t co aydhf 1aca7</t>
-  </si>
-  <si>
-    <t>pak jangan jelek tni ini lho salah satu prestasi tni 01dilanjutkan https t co ibgmfaixw 1</t>
-  </si>
-  <si>
-    <t>sepakat bang pak menang sejak pikir mental menang yang ngga milik pak</t>
-  </si>
-  <si>
-    <t>debat malam mas tampil luar biasa tegas lugas cerdas wibawa jadi macan indonesia perkasa</t>
-  </si>
-  <si>
-    <t>percaya pak rantai sahabat tidak pernah putus iya pak pun saya hormat</t>
-  </si>
-  <si>
-    <t>insya allah p kuasa debat malam dg elegan n presidential sy saksi dr studio</t>
-  </si>
-  <si>
-    <t>mlm pak tampil serang lugas skakmaat</t>
-  </si>
-  <si>
-    <t>prabowomenangdebat insya allah menang pilpres 2019</t>
-  </si>
-  <si>
-    <t>debat kali tidak pegang telinga tanda tidak pikir panjang debat sorot mata tebar kosong</t>
-  </si>
-  <si>
-    <t>lah pa ga lupa dg sahabat tp hal ada masalah hukum</t>
-  </si>
-  <si>
-    <t>bravo pak lebih tni tni lucu nuduh ga percaya tni lah wong pak ex militer</t>
-  </si>
-  <si>
-    <t>politik luar negeri makin turun sering absen p forum 2 internasional n sidang pbb</t>
-  </si>
-  <si>
-    <t>jng pilih pimpin bohong ingkar janji provokasi rakyat kacang lupa kulit pilih pimpin yg jujur</t>
-  </si>
-  <si>
-    <t>lihat pak percaya tni saya sipil sangat percaya tni -</t>
-  </si>
-  <si>
-    <t>makanya klw 2024 pilpres ada debat jgn beri tahu bikin rusuh</t>
-  </si>
-  <si>
-    <t>sepakat malam pak kabul semua harap dukung debat kali nampol banget</t>
-  </si>
-  <si>
-    <t>political will cermin praktik berantas korupsi kata pula demokrasi</t>
-  </si>
-  <si>
-    <t>industri kreatif indonesia era presiden tumbuh sangat pesat</t>
-  </si>
-  <si>
-    <t>sudah jelas bisa ikut rombong wong sejak awal visi beda visi commuter line mau bikin maju aja</t>
-  </si>
-  <si>
-    <t>helmy faishal debat kandidat tahap empat menang alam https t co 5iueilxkxo</t>
-  </si>
-  <si>
-    <t>juang hormat akan diri kaki sendiri kita tidak akan import pangan</t>
-  </si>
-  <si>
-    <t>korupsi parah stadium empat https t co 4sqd2cyjnw prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>sangat untung jadi orang kualitas ilmu minim bisa jadi orang presiden</t>
-  </si>
-  <si>
-    <t>dulu jg pernah abs abs dy sujud sukur live loh tv one apa gtu live loh abs nya wuihhh</t>
-  </si>
-  <si>
-    <t>selow bingits screamo mantap jadi pasang bagus kek jokowi-ahok</t>
-  </si>
-  <si>
-    <t>pak trauma pecat tni begini ngomongnya justru pak sipil percaya sama tni</t>
-  </si>
-  <si>
-    <t>07 debatpilpres 2019 ngebacot kaya luar negeri ngomongin diri sendiri https t co tirpkmgt 4g</t>
-  </si>
-  <si>
-    <t>nkri harga mati pancasila selalu hati presidennnya tetap pancasilavskhilafah tim 88untukjokowi tim 88</t>
-  </si>
-  <si>
-    <t>kritik solusi bagai kaca air keruh kerja beri solusi nyata tumbuh ekonomi</t>
-  </si>
-  <si>
-    <t>si bacot soal tax rio rendah perusaaan sendiri nunggak pajak 26 miliar</t>
-  </si>
-  <si>
-    <t>pres bisa tidak bicara detail alutista indonesia itu yang sensitif tahan</t>
-  </si>
-  <si>
-    <t>malam inj sya gak ikut nonton debtamu pak krn sy sbgai dukung yg ikut gemetar pak takut sprti lalu</t>
-  </si>
-  <si>
-    <t>malam benar 2 keren prabowotidakmenyalahkanboneka prabowomenangdebat jokowidiambangkekalahan</t>
-  </si>
-  <si>
-    <t>haha yen wahid bilang salah cara ngebaca data anggar tahan</t>
-  </si>
-  <si>
-    <t>closing statement yg adem pak makin mantap 17aprilcoblosbajuputih https t co gu7yd7owzz</t>
-  </si>
-  <si>
-    <t>pokok malam pak jos gandos mantul banget bikin lawan klepek-klepek kaya ikan kurang air</t>
-  </si>
-  <si>
-    <t>debat udah selesai unggul 10 - 0 satu pujat 01caprespendustaabadi prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>kalau terima mandat akan bersih kuat lembaga perintah prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>lebih semangat jaga momentum sd 17 april prabowobentengnkri https t co evpzax 3bax</t>
-  </si>
-  <si>
-    <t>bidang tahan aman masih terlalu lemah anggar terlalu kecil yang kita baik</t>
-  </si>
-  <si>
-    <t>membully pak tak istri lalu pamer mesra dgn keluarga</t>
-  </si>
-  <si>
-    <t>yakin lubuk hati dukung pada malu liat jagoanya kaya gitu mata publik</t>
-  </si>
-  <si>
-    <t>pemerintahandilan tekan layan perintah baik butuh efektifitas efisiensi</t>
-  </si>
-  <si>
-    <t>hakul yakin indonesia hebat rakyat sejahtera wujud sama - prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>10 debatpilpres 2019 gimana mau maju tni kalo baru jadi mayor aja udah pensiun sekarang jadi timses bapak</t>
-  </si>
-  <si>
-    <t>turut pk diplomasi arti tahan core national interest bukan cuma senyam-senyum</t>
-  </si>
-  <si>
-    <t>bisik si jae lbh sibuk cari cara gebuk lawan politik waspada jaga nkri</t>
-  </si>
-  <si>
-    <t>bukan percaya sama tni tni lebih tni para tni orang patriot cinta nkri</t>
-  </si>
-  <si>
-    <t>ketawa kalian ketawa tahan indonesia rapuh kalian ketawa lucu kok lucu ujar</t>
-  </si>
-  <si>
-    <t>20 debatpilpres 2019 gak harga internasional tuh doang mah dihargain kok</t>
-  </si>
-  <si>
-    <t>komplit tukang bohong main curang piye pak de</t>
-  </si>
-  <si>
-    <t>01 dong pak sangat percaya tni jokowidilan pemerintahandilan https t co uunuy 9su9e</t>
-  </si>
-  <si>
-    <t>unggul 17 april yesss menangjokowilagi</t>
-  </si>
-  <si>
-    <t>saat perintah kibal-kibul akhir jokowidiambangkekalahan masyarakat hilang percaya perintah</t>
-  </si>
-  <si>
-    <t>politik luar negeri sampai tak sesuai realitas dia sering tak hadir forum internasional</t>
-  </si>
-  <si>
-    <t>distrust paham apa makna hanya plonga-plongo debatpilpres 2019 https t co qpr 2qpbcj1</t>
-  </si>
-  <si>
-    <t>harus utama tuju perintah sendiri tuju perintah jelas akan jadi gaduh</t>
-  </si>
-  <si>
-    <t>depan mau ubah pancasila hadap https t co znzz 94ncaj</t>
-  </si>
-  <si>
-    <t>menang gagas menang debat menang pilpres prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>anak beri tahu toleransi kita beda - optimisindonesiamaju</t>
-  </si>
-  <si>
-    <t>nama benteng harus kokoh in syaa allah uji waktu kondisi</t>
-  </si>
-  <si>
-    <t>percaya kalo pak pimpin baik pemerintahandilan</t>
-  </si>
-  <si>
-    <t>pak ini sering naik sepeda rantai sering putus paksa ganti rantai makan pak</t>
-  </si>
-  <si>
-    <t>meski indonesia milik saham 51 persen freeport sebut untung freeport jauh lebih besar</t>
-  </si>
-  <si>
-    <t>ghiroh kab kalong menang sungguh haru bangga dlm parau suara brandal</t>
-  </si>
-  <si>
-    <t>mantap pak jokowidiambangkekalahan https t co 5aqu8vfkic</t>
-  </si>
-  <si>
-    <t>benteng nkri benteng bukan banteng prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>pak siap papar visi misi beliau tema debat malam 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>sosok pimpin baik maka tak ada alas golput 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>debat capres kali seperti lihat orang dewasa wawas santun lawan</t>
-  </si>
-  <si>
-    <t>kalau mandat akan bersih kuat lembaga perintah akan hilang korupsi indonesia</t>
-  </si>
-  <si>
-    <t>nahhh inti juang hasil panen raya jaga lumbung tikus</t>
-  </si>
-  <si>
-    <t>wrga karawang yg mana klau knytaan y laut manusia yg hadir mnyambut presiden qt</t>
-  </si>
-  <si>
-    <t>cuma doa moga terima nyata walaupun pahit 2019 rakyat presiden ri</t>
-  </si>
-  <si>
-    <t>simpul debat mlm sangat cinta nkri jae sangat cinta dagang prabowobentengnkri prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>lembaga perintah kuat baru negara kuat program bangun laksana</t>
-  </si>
-  <si>
-    <t>lebih baik pakai teknologi lama kaya indonesia keluar indonesia -</t>
-  </si>
-  <si>
-    <t>bapak info abs also https t co 11g3jkmdz3</t>
-  </si>
-  <si>
-    <t>indonesia maju sama pemerintahandilan https t co ue10thkyey</t>
-  </si>
-  <si>
-    <t>warkop dki tagline warkop dki memang visioner lol prabowomarah https t co 8wsgualxi6</t>
-  </si>
-  <si>
-    <t>nahkan sistem perintah udah oke banget deh poko pemerintahandilan keren pak https t co 1tomcggkxy</t>
-  </si>
-  <si>
-    <t>debat 4 terima bagai saudara wahai mualaf politik memang pantas pimpin nkri</t>
-  </si>
-  <si>
-    <t>kalo pecat dapet pensiun dong bpk pensiun</t>
-  </si>
-  <si>
-    <t>karawang 29 maret 2019 siapa pilih rakyat akan tunduk patuh - negarawan sejati</t>
-  </si>
-  <si>
-    <t>apa pak paham skor cpi indonesia 38 indonesia masuk kategori hybrid regime</t>
-  </si>
-  <si>
-    <t>perintah dil digital layan sangat perlu</t>
-  </si>
-  <si>
-    <t>teknologi lama kaya tetap di negara sendiri kata duh maksud internetan pake dial-up</t>
-  </si>
-  <si>
-    <t>dr bumi pertiwi yg sdh lepas nyata gera separatis hantu</t>
-  </si>
-  <si>
-    <t>bantu retuitya manteman seluruh dunia paham kalo sosok yg sgt depan toleransi</t>
-  </si>
-  <si>
-    <t>itu ma ruf amin senang tak provokasi https t co fmhnp 7nafz</t>
-  </si>
-  <si>
-    <t>mc kepada pak sila tanggap nyata pak kira ada beda yah</t>
-  </si>
-  <si>
-    <t>jadi presiden aja prabohong udah ngamuk tertawa kok larang hancurrr prabowomarah</t>
-  </si>
-  <si>
-    <t>prb bahasa terlalu tinggi bikin planga plongo</t>
-  </si>
-  <si>
-    <t>aman negara malah ketawa ngawur tidak nasionalis tuh pak tegor aja prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>debat pak serang tp beliau sabar tdk balas</t>
-  </si>
-  <si>
-    <t>harus buat sistem henti bocor cegah korupsi prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>prabowomenangdebat prabowobentengnkri malam jadi kuat tekad sama menang</t>
-  </si>
-  <si>
-    <t>entah tahan negara mana maksud lemah palelu diketawain tonton tonton bentak ngeri</t>
-  </si>
-  <si>
-    <t>negara yg rakyat makmur selalu iring tehnologi yg mumpuni keterrtinggalan tehnologi</t>
-  </si>
-  <si>
-    <t>do a sama pak moga allah subhanahu wa ta ala meridhoi beri menang buat beliau</t>
-  </si>
-  <si>
-    <t>ini muncul survei senang debatpilpres 2019 ideasrabbani</t>
-  </si>
-  <si>
-    <t>pemerintahandilan turun tingkat korupsi https t co cwcotkvzyo</t>
-  </si>
-  <si>
-    <t>turut pimpin politik boleh buat situasi pecah belah nasional https t co butzybqt 6a</t>
-  </si>
-  <si>
-    <t>moga pak pimpin negara dgn adil cipta makmur prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>capres 02 sempat geram debat capres langsung bicara soal tahan aman lemah</t>
-  </si>
-  <si>
-    <t>memang benar pak cenderung optimistis sisi pak cenderung pesimistis</t>
-  </si>
-  <si>
-    <t>sebut budaya abs asal bapak senang kental dunia militer nasional https t co andtnmbmi 6</t>
-  </si>
-  <si>
-    <t>buat yg rindu negeri maju jadi masa depan anak cucu pak jokowi pimpin yg dekat kesana tentu sempurna</t>
-  </si>
-  <si>
-    <t>ustad maheer bahaya bisa jadi oceh frontal seluruh dukung kena cap khilafah curiga nih</t>
-  </si>
-  <si>
-    <t>wahai berani 2nya bilang indonesia defenseless fakta indonesia capai minimum essential force</t>
-  </si>
-  <si>
-    <t>selalu tiap sempat ada tanya nikah culi kudeta apa bosan bung</t>
-  </si>
-  <si>
-    <t>21 debatpilpres 2019 laku gak harga internasional puas kau langgar ham</t>
-  </si>
-  <si>
-    <t>istilah tak kenal tak peduli kita jalin silaturahmi ada saudara tanya tanya</t>
-  </si>
-  <si>
-    <t>bang kmi yg jauh pelosok kalimantan rasa bangga lihat debat malam</t>
-  </si>
-  <si>
-    <t>dil digital layan mantap pak pemerintahandilan</t>
-  </si>
-  <si>
-    <t>sdh ucap selamat pak yg cara naluri aku bagai menang pilpres 2019</t>
-  </si>
-  <si>
-    <t>diplomasi kalau senyum jadi nice guy yah begitu pak prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>prabowo-sandi beri sempat anak bangsa bisa karya jadi main negara sendiri</t>
-  </si>
-  <si>
-    <t>lembaga perintah kuat baru program pembanguanan kuat subianto prabowobentengnkri debatpilpres 2019</t>
-  </si>
-  <si>
-    <t>refleksi buat dia kutuk jahat jahat tatap jadi satu diri</t>
-  </si>
-  <si>
-    <t>menang telak prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>swear deh gw puas banget malam ni nengok mr planga plongo tak kutik hajar macan asia</t>
-  </si>
-  <si>
-    <t>pagelaran kelas pilpres dukung asing sangat penting jgnkan kelas suharto bisa kondisi asing</t>
-  </si>
-  <si>
-    <t>tegas sekali debat kali insyaallah allah hendak bapa jadi presiden ri 8 prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>udahlah matiin aja tipi simpilkan aja kalau pak kalah debat masa iya capres gak optimis</t>
-  </si>
-  <si>
-    <t>ditanyain diplomasi luar negeri jawab putar jarak peluru kendali oke</t>
-  </si>
-  <si>
-    <t>hahahaha yg bakar jenggot sama imbau pakai baju putih tps</t>
-  </si>
-  <si>
-    <t>wuizz menang tebal nih mantap pak lanjut 01dilanj</t>
-  </si>
-  <si>
-    <t>yg penting jgn abs kata sindir prabowobentengnkri krn abs ga tau kondisi riil rakyat</t>
-  </si>
-  <si>
-    <t>ingin negara kuat ekonomi pilih ingin negara kuat tentara pilih gitu kok repot</t>
-  </si>
-  <si>
-    <t>kok nyata sabar luarbiasa maaf kok seperti persepsi distortif lama</t>
-  </si>
-  <si>
-    <t>betul prabowomenangdebat jelas lah prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>lihat semua hasil kerja nyata ubah semua besar bangsa indonesia ubah semua</t>
-  </si>
-  <si>
-    <t>zaman teknologi 4 0 ko msh mau pake teknologi jadul makin tinggal bangsa dooong pak</t>
-  </si>
-  <si>
-    <t>sandi ga penting manusia biasa kalian maa syaa allah ga pernah mimpi dekat dengan presiden</t>
-  </si>
-  <si>
-    <t>tenang pak papar pemerintahandilan solusi tepat baik birokrasi perintah</t>
-  </si>
-  <si>
-    <t>wow jawab bpk ps atas tanya 2 bikin yg onoh nelen ludah deh macaaan asia bpk mulaaai</t>
-  </si>
-  <si>
-    <t>mantaf malam nih pak semua debat yg oaling oke prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>indonesia sentris yg laksana pak sangat luar biasa menang 01dilanjutkan https t co dbeyzg 9edb</t>
-  </si>
-  <si>
-    <t>saja subianto visi jauh depan tp tdk lupa sejahtera rakyat mantap</t>
-  </si>
-  <si>
-    <t>capres subianto sebut di garda depan tumpas bahaya komunis masuk gera radikal</t>
-  </si>
-  <si>
-    <t>malu - arogan - emosi - pesimis - tak taat atur debat - ngedongeng bilang lebih tni tni</t>
-  </si>
-  <si>
-    <t>pemerintahandilan presiden selalu usaha tingkat mutu tenaga kerja</t>
-  </si>
-  <si>
-    <t>apa bosan terus tuding - nya kritik habis</t>
-  </si>
-  <si>
-    <t>pak komitmen dukung e-government salah satu e-budgeting konkrit cegah korupsi</t>
-  </si>
-  <si>
-    <t>tuju sama tompi cukup baik eksekutif pilih legislatif perlu baik</t>
-  </si>
-  <si>
-    <t>debatkeempatpilpres 2019 capres tanggap teknologi cepat ala</t>
-  </si>
-  <si>
-    <t>dukung capres no urut 01 jokowi-ma ruf kali datang viking makin dekat hari coblos dukung terus</t>
-  </si>
-  <si>
-    <t>nampak debatpilpres 2019 dari sisi ilmu komplit alam bijaksana perilaku jelas lebih unggul</t>
-  </si>
-  <si>
-    <t>aje maling teriak maling bung</t>
-  </si>
-  <si>
-    <t>pak bilang beri contoh toleransi tetapi dukung kerap laku tindak intoleran</t>
-  </si>
-  <si>
-    <t>debat pilpres empat tutup statement tutup penuh damai dua capres bikin adem</t>
-  </si>
-  <si>
-    <t>pak beri contoh dewasa memang lahir dalam diri 01dilanjutkan https t co 68tqfjd530</t>
-  </si>
-  <si>
-    <t>optimisme pak ragu bagai warga sipil pak sangat percaya tentara 2 nasional</t>
-  </si>
-  <si>
-    <t>lembaga polmark indonesia rilis rilis survei yg tunjuk elektabilitas pasang milik elektabilitas</t>
-  </si>
-  <si>
-    <t>hari perintah bawah pak sangat maju infrastruktur udara ada</t>
-  </si>
-  <si>
-    <t>kasihan pak tahan ketawa pecatanlebihtnidaritni</t>
-  </si>
-  <si>
-    <t>rendah dukung kpd tahana rupa bukti rupa bukti bila cara tak langsung sedang hukum publik</t>
-  </si>
-  <si>
-    <t>pak kaget tingkah laku jabat perintah sendiri laku jual beli jabat</t>
-  </si>
-  <si>
-    <t>semua kata mas benar indonesia luas uni eropa jumlah tni cuma segitu lemah pak</t>
-  </si>
-  <si>
-    <t>pulau kecil tambang jaya tani nelayan ikut ruang hidup terus ancam parah baik maupun</t>
-  </si>
-  <si>
-    <t>daniel sibolang durian medan nyanyi lagu kocak kamu pingin kaya kerja tidur aja</t>
-  </si>
-  <si>
-    <t>perintah oss dulunya kalau urus izin 6 bulan bahkan tahun sekarang 9 izin keluar 3 jam kata</t>
-  </si>
-  <si>
-    <t>org golkar adl dukung jadi jangan heran kalau bowo sedang main politik kaki utk jatuh</t>
-  </si>
-  <si>
-    <t>admin gamau bahas kata yg militer lemah https t co raliyooy 3e</t>
-  </si>
-  <si>
-    <t>gpp to h pecat pada presiden bohong nggedabrus plonga plongo</t>
-  </si>
-  <si>
-    <t>bang kalo jadi presiden siapa ibu negara apa benar kita jadi negara piatu</t>
-  </si>
-  <si>
-    <t>dukung terus pak pemerintahandilan https t co rzz 6pqhmus</t>
-  </si>
-  <si>
-    <t>pemerintahandilan kh ma ruf amin ungkap hasil presiden pak hanya lihat proyek</t>
-  </si>
-  <si>
-    <t>lihat pak percaya tni pemerintahandilan memang nampol</t>
-  </si>
-  <si>
-    <t>calon presiden nomor urut 01 sangat siap tema debat ideologi perintah tahan aman</t>
-  </si>
-  <si>
-    <t>pemerintahandilan siap data akan bagai amunisi debat malam semangat pagi</t>
-  </si>
-  <si>
-    <t>bidang perintah pak kuat lembaga lembaga yg kuat prabowobentengnkri negara kuat</t>
-  </si>
-  <si>
-    <t>bangun indonesia desa bangun adab lebih baik tuju lanjut 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>diplomasi kalau senyam senyum diplomasi butuh kuat - penting jaga daulat nkri</t>
-  </si>
-  <si>
-    <t>yunarto debat kali adalah tampil buruk capres bahkan sejak 2014 lalu</t>
-  </si>
-  <si>
-    <t>kalo opung sdh tak percaya diri dgn citra yg nempel pak</t>
-  </si>
-  <si>
-    <t>dah gak sabar bangsa rasa ubah ken buru buru ganti presiden era gak ubah yg hebat</t>
-  </si>
-  <si>
-    <t>ayo seluruh masyarakat indonesia dukung penuh capres 01 debat - 4 pilpres 2019</t>
-  </si>
-  <si>
-    <t>debat malam liat banget siapa dewasa tanggap ya pak bikin bangga 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>makanya jangan ragu prabowobentengnkri prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>depan mau ubah pancasila hadap prabowobentengnkri doauntukprabowosandi</t>
-  </si>
-  <si>
-    <t>halah halaaah dulu lu kalah pilpres 2014 aja ngamuk ngamuk kaya orang mabuk jamur https t co 0dbjt9cspe</t>
-  </si>
-  <si>
-    <t>gitu dong pak gahar dikit inti pak mau menang tidak jangan sia 2kan juang pak</t>
-  </si>
-  <si>
-    <t>bukan ngetawain ttg perthanan negara cuma ngetawain</t>
-  </si>
-  <si>
-    <t>dgn kampanye yg lama tahana lampu 50 c o arti pilih sdng hukum</t>
-  </si>
-  <si>
-    <t>ini keras banyu mas minahasa banyumas batak nya jawa tengah</t>
-  </si>
-  <si>
-    <t>pulang kaya tambang emas papua pangku ibu pertiwi taruh jabat bagai presiden indonesia</t>
-  </si>
-  <si>
-    <t>dengan pemerintahandilan buat capres tahan terus sosialisasi manfaat revolusi industri</t>
-  </si>
-  <si>
-    <t>bocor bocor 5 tahun diksi bocor aja gak gagas makanya pakai aquaproof pak</t>
-  </si>
-  <si>
-    <t>debat curhat tonton gebu tetap ulang tema lama solusi</t>
-  </si>
-  <si>
-    <t>era milenial era pakde presiden paling keren dah ketimbang sudah pemerintahandilan</t>
-  </si>
-  <si>
-    <t>pemerintahandilan trnyta pmrintahn pak tdk hny brbnah atas masalah jaring broadband daerah 3t</t>
-  </si>
-  <si>
-    <t>pak percaya drpd yg pecatanlebihtnidaritni pecatanlebihtnidaritni https t co jrlvbdoafw</t>
-  </si>
-  <si>
-    <t>gue kaget beneran menangkanprabowosandi 17 april datang tps pilih</t>
-  </si>
-  <si>
-    <t>capres kata 23 lembaga bubar anggap buat layan publik belit</t>
-  </si>
-  <si>
-    <t>bidang tahan aman terlalu lemah anggar terlalu kecil perlu baik -</t>
-  </si>
-  <si>
-    <t>tetap sahabat pak sinyal siap siap bawa pulang kecebong solo</t>
-  </si>
-  <si>
-    <t>pak ngebahas perihal pemerintahandilan yg tuju kpd wowo sayang wowo jawab nya asbun</t>
-  </si>
-  <si>
-    <t>gubernur pahe 300 m tdk tanya lulus mana sy tdk tnya prestasi apa yg tanya ente punya uang</t>
-  </si>
-  <si>
-    <t>tahan indonesia terlalu lemah jauh yang harap karena tidak punya uang -</t>
-  </si>
-  <si>
-    <t>tegas pak barusan keluar parah org yg tertawa rapuh tahan negara</t>
-  </si>
-  <si>
-    <t>bagaimana tonton tertawa kalau kali 2 kata militer indonesia sangat lemah padahal kuat militer</t>
-  </si>
-  <si>
-    <t>marah tahan bangsa tertawa audiens marah diri hina netizen</t>
-  </si>
-  <si>
-    <t>yim habib rizieq bilang sama ya sengaja harus pasang ulama islam gak jelas</t>
-  </si>
-  <si>
-    <t>maju era android ke era 3310 pecatanlebihtnidaritni</t>
-  </si>
-  <si>
-    <t>natural bpn mirip orang abis bangun tidur mau nyabu ga bong trus marah 2 tonton</t>
-  </si>
-  <si>
-    <t>kompas koplak salah kutip bilang 3 gdp 30 apbn</t>
-  </si>
-  <si>
-    <t>lg mummmeeettt sekarang kalik yakk hahhahhahaha</t>
-  </si>
-  <si>
-    <t>ngk mutu banget twetnya kentara berat belah</t>
-  </si>
-  <si>
-    <t>kyknya panik bgt jadi sedi liat</t>
-  </si>
-  <si>
-    <t>i love kurang masuk sama kartu</t>
-  </si>
-  <si>
-    <t>keren banget jawab pak soal tuduh</t>
-  </si>
-  <si>
-    <t>catat paling atas seba kalah laku dukung</t>
-  </si>
-  <si>
-    <t>dengar sendiri maher at thuwailibi dukung prabowo-sandi 1 ejek polisi 2 menthogutkan nkri</t>
-  </si>
-  <si>
-    <t>tim sehat tekan darah pak pantau masa acara debat begini marah</t>
-  </si>
-  <si>
-    <t>kuat tahan sangat rapuh lemah bukan salah bapak salah enggak tahu -</t>
-  </si>
-  <si>
-    <t>pak i am proud of you closing statement lawan debat ga nyambung bukan manfaat tampil prima</t>
-  </si>
-  <si>
-    <t>turut tahan lemah implikasi uang indonesia lemah turut indonesia</t>
-  </si>
-  <si>
-    <t>oknum kepala desa cikopo - bogor yg maksa warga milih o1 virallkan gaeess lapor</t>
-  </si>
-  <si>
-    <t>jangan baper laper di fitnah 4 th aja gapapa masa baru gitu aja udh ngambek si</t>
-  </si>
-  <si>
-    <t>duh tonton kok dimarahin salah apa sabar pak jangan marah ngopi sik pak</t>
-  </si>
-  <si>
-    <t>jenderal yg pecat sekadar ingat jelas lebih paham bos very smart responses and comprehesif</t>
-  </si>
-  <si>
-    <t>bandara akses keluar masuk asing indonesia klo kelola serah asing</t>
-  </si>
-  <si>
-    <t>ngomong apa 2 ujung bocor tanya urus tahan inti bocor lah ini capres apa tukang tambal ban</t>
-  </si>
-  <si>
-    <t>jd soal digital layan inimah lama rakyat antri utk dpt layan e-ktp yg gagal lah so</t>
-  </si>
-  <si>
-    <t>jangan coba ganti ideologi pancasila nkri harga mati harga mati harga yg bisa tawar</t>
-  </si>
-  <si>
-    <t>wadawww percaya tni ragu kuat tni lemah tni rasa lebih tni tni</t>
-  </si>
-  <si>
-    <t>ampun sih tiap tanya lu jawab bocor bocor uang negara alir luar</t>
-  </si>
-  <si>
-    <t>tidak terlalu hormat luar negeri jangan tebar pesimisme pak</t>
-  </si>
-  <si>
-    <t>pak kata kuat lembaga perintah hilang korupsi</t>
-  </si>
-  <si>
-    <t>tertawa tertawa dimarahain</t>
-  </si>
-  <si>
-    <t>g nyambung klo masalh klo bandara ud kuasa asing pesawat 2 suka nya kluar masuk apa milik</t>
-  </si>
-  <si>
-    <t>tengah debat capres dadak marah hadirin tertawa tengah acara https t co xj1ofes136</t>
-  </si>
-  <si>
-    <t>terus hina bangsa indonesia yg kata percaya dunia internasional</t>
-  </si>
-  <si>
-    <t>lebih baik kalau tipu halusinasi parah yg coba muncul yg ngaku golput</t>
-  </si>
-  <si>
-    <t>lihat negara bagai alat maju kualitas masyrakat lihat negara bagai alat perang</t>
-  </si>
-  <si>
-    <t>freeport lapor nse mereka dapat manfaat 80 jadi saham 51 ethok 2 prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>insaallah zalim rezim rakyat allah subhanawataala balas copot kuasa wenang wenang</t>
-  </si>
-  <si>
-    <t>soal tahan benar yg membrikan briefing pd pak kalau presiden pecat subianto</t>
-  </si>
-  <si>
-    <t>tidak hormat luar negeri utang banyak impor banyak bagaimana mau hormat</t>
-  </si>
-  <si>
-    <t>lawan tak daya lawan mantul euy</t>
-  </si>
-  <si>
-    <t>presiden ajak keluarga makan siang rumah makan bilang jalan sabang jakarta pusat sayang dua putra hadir</t>
-  </si>
-  <si>
-    <t>cek fakta cek fakta sebut dana tahan ri kecil singapura 30 gdp https t co hv6u1urlj5</t>
-  </si>
-  <si>
-    <t>beda negara debat maaf keras tengah banyumas</t>
-  </si>
-  <si>
-    <t>lu cm nyinyir udh ngerasain terjun lapang lu blm lahir</t>
-  </si>
-  <si>
-    <t>malam minggu duduk depan layar tv nonton debat empat capres semangat pak 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>lah situ nyinyir apa gak balik aki aki apa nenek peot capresnya jadul</t>
-  </si>
-  <si>
-    <t>bilang rapuh skor kuat militer indonesia turut global fire power di peringkat tinggi</t>
-  </si>
-  <si>
-    <t>cakep jendral makin kita hidup rukun tidak ajar benci mistericapjempol</t>
-  </si>
-  <si>
-    <t>tidak jajah bangsa lai rugi banyak pak salah orang amerika sedikit bicara banyak kerja</t>
-  </si>
-  <si>
-    <t>nama ngomong ngasal aja penting gaya dulu wkwkqk kasi babak bur hajar jendral</t>
-  </si>
-  <si>
-    <t>turut percuma punya banyak kartu lihat modern debatpilpres 2019 pilpres 2019 pemilu 2019</t>
-  </si>
-  <si>
-    <t>bukan mau nyerang pisik fakta gerombol bpn banyak yg gembul perut kayak gentong</t>
-  </si>
-  <si>
-    <t>kalau jadi nice guy gak masalah ada yg bapak rasa tidak hormat luar indonesia</t>
-  </si>
-  <si>
-    <t>kalo anak anak antem si kurus udah mewek pojok yg gemuk gak tega</t>
-  </si>
-  <si>
-    <t>si manusia gadungan hibur diri junjung keok sol sol</t>
-  </si>
-  <si>
-    <t>komitmen nkri pancasila tak perlu ragu propaganda ubah sistem demokrasi dg sistem khilafah</t>
-  </si>
-  <si>
-    <t>luar biasa gua demen kalik sama pak dungu natural akhir keluar</t>
-  </si>
-  <si>
-    <t>rasa posisi selalu posisi aman buat indonesia tak hormat asing</t>
-  </si>
-  <si>
-    <t>02 pak yg hormat lebih baik daftar jadi tni biar paham percaya dgn kebranian</t>
-  </si>
-  <si>
-    <t>set up nya padahal dah kuat bat sayang punchline nya beri terlalu banyak damage</t>
-  </si>
-  <si>
-    <t>mo ngecapruk apa bodo sudah jadi kadang ucap ny sua nyata</t>
-  </si>
-  <si>
-    <t>turut dalam tahan aman boleh anggap akan perang masa depan</t>
-  </si>
-  <si>
-    <t>wah salah nih mas kasih tahu litbang bela gpp admin gak cer</t>
-  </si>
-  <si>
-    <t>sumpah tahan pancasila titik darah akhir bohong ah bapak luka dikit aja udah pakai sarung t</t>
-  </si>
-  <si>
-    <t>latar belakang ttg karya utk intel amerika defense intelligence agency soal serang asing p</t>
-  </si>
-  <si>
-    <t>bpk info yg sesat petinggi tni woooiii om wowo lupa yaa bukankah lebih parah diboongin sam</t>
-  </si>
-  <si>
-    <t>malu kompas salah kutip bilang 3 gdp 30 apbn ralat https t co parepqmlyn</t>
-  </si>
-  <si>
-    <t>kena tuduh pro-khilafah milik argumen menep mentah 2 olah bela khilafah tak masuk akal</t>
-  </si>
-  <si>
-    <t>5 strategi upaya modernisasi alutsista utk tni material khusus utk polri tahan lemah krn tdk punya alutisista canggih</t>
-  </si>
-  <si>
-    <t>capres 02 nilai tak keluar narasi besar sendiri tak tampil istimewa nilai buruk</t>
-  </si>
-  <si>
-    <t>beda kelas bapak 08 true warrior ksatria sejati perlu malu orang sudah malu</t>
-  </si>
-  <si>
-    <t>ga mau kalah sama gurita dukun piala dunia kucing milih fokus nonton tanda optimisindonesiamaju</t>
-  </si>
-  <si>
-    <t>selalu ulang 2 soal kaya ambil asing masa mertua kaleee sekarang blok rok blok mahakam freeport udah jadi milik indonesia</t>
-  </si>
-  <si>
-    <t>lawan lihat dunia luar jahat pretensi kuasa padahal hidup era kolaborasi kira mindset keliru</t>
-  </si>
-  <si>
-    <t>awal gila antek antek dukung mulai pilpres 2014 mana hasil oleh suara sangat sedikit</t>
-  </si>
-  <si>
-    <t>kata anggar tahan indonesia di angka 0 8 persen gdp pun banding singapura</t>
-  </si>
-  <si>
-    <t>bicara entry gate safety strategic point jkw jawab investasi asing gak nyambung prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>sandi mas anis sini traktir jadi gubernur tak lama sandi izin mas mau nraktir pak</t>
-  </si>
-  <si>
-    <t>acu adalah mertua bukti keluarga mertua di baris</t>
-  </si>
-  <si>
-    <t>dear pak 5 taun bapak jabat akan awas kritisi omel bapak</t>
-  </si>
-  <si>
-    <t>pada nyemplung kolam malu liat bos bom bardir</t>
-  </si>
-  <si>
-    <t>sepakat sama om trik basi it 2 minggu kelar ga jadi 2 mau 2 periode jual dil ga laku</t>
-  </si>
-  <si>
-    <t>rizal ramli pak mau revisi uu ite kubu jkw nggk tanggpan rr sebut uu ite seram undang 2 sebut dipake disalahgunakan</t>
-  </si>
-  <si>
-    <t>perintah mau keluar paris agreement kata mikirin masa depan indonesia mau keluar pakta sama</t>
-  </si>
-  <si>
-    <t>adalah agum gumelar yg dgn lantang wajah bicara jelek hadap sby nyata hadap taipan manis</t>
-  </si>
-  <si>
-    <t>kalau pak jadi presiden hidup mau ketawa aja dimarahin https t co b7dymmekfs</t>
-  </si>
-  <si>
-    <t>deh makan dulu siap debat awas pulpen lupa yaa</t>
-  </si>
-  <si>
-    <t>bukan tni sudah pecat sandang gelar purnawirawan anda pantas</t>
-  </si>
-  <si>
-    <t>nyata pak debat empat ragu tni 01dilanjutkan jokowilagi</t>
-  </si>
-  <si>
-    <t>makanya lu mikir yg tuntas belum prioritas jgn sebut kebo</t>
-  </si>
-  <si>
-    <t>salawi masuk neraka neraka panas mana aja mana infrastruktur langit yg kalian janj</t>
-  </si>
-  <si>
-    <t>juga tuduh pki jawab hahaha hari saya saya lawan saya akan lawan</t>
-  </si>
-  <si>
-    <t>tidak paham ekonomi investasi asing lingkup bisnis di-framing olah negara asai asing</t>
-  </si>
-  <si>
-    <t>2 nya punya ambisi wowo ambisi jangka pendek utk harta</t>
-  </si>
-  <si>
-    <t>political will cermin praktik berantas korupsi kata</t>
-  </si>
-  <si>
-    <t>pak trauma pecat tni begini ngomongnya justru pak sipil percaya sama tni salut</t>
-  </si>
-  <si>
-    <t>pres bisa tidak bicara detail alutista indonesia itu yang sensitif tahan indonesia</t>
-  </si>
-  <si>
-    <t>kalau mandat akan bersih kuat lembaga perintah akan hilang korupsi</t>
-  </si>
-  <si>
-    <t>hahahaha yg bakar jenggot sama imbau pakai baju putih tps jgn ngambek gitu dong</t>
-  </si>
-  <si>
-    <t>gubernur pahe 300 m tdk tanya lulus mana sy tdk tnya prestasi apa yg tanya ente punya uang ga</t>
-  </si>
-  <si>
-    <t>bagaimana tonton tertawa kalau kali 2 kata militer indonesia sangat lemah padahal kuat militer indonesia masuk kuat dunia</t>
-  </si>
-  <si>
-    <t>banyak catat jadi kalau kalah mana letak kalah juga balik</t>
-  </si>
-  <si>
-    <t>bukan percaya dgn mampu tni tp hrs tni siap for the worst scenario lindung indonesia prabowo</t>
-  </si>
-  <si>
-    <t>tidak mau mati jabat bpk dulu pernah kurus he he</t>
-  </si>
-  <si>
-    <t>turut tahan lemah implikasi uang indonesia lemah</t>
-  </si>
-  <si>
-    <t>baru era daulat laut nasional tega kapal kapal asing kini takut curi ikan teritori nasio</t>
-  </si>
-  <si>
-    <t>kalau bahasa simpel jin numpang sm genderuwo</t>
-  </si>
-  <si>
-    <t>ahmad tangkap polisi karna ujar benci gakda hubung ama pilpres sama bahar bin smith tangkap polisi</t>
-  </si>
-  <si>
-    <t>makan tuh radar prabowobentengnkri 01caprespendustaabadi</t>
-  </si>
-  <si>
-    <t>kesi tuh si engkong gue g mo pilih kong prabowobentengnkri prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>soal tahan benar yg membrikan briefing pd pak kalau presiden pecat</t>
-  </si>
-  <si>
-    <t>pak upaya masyarakat sulit tarik pungli urus segala</t>
-  </si>
-  <si>
-    <t>salah kali zo justru pak laksana clean government jadi pada gerah panas gak uang</t>
-  </si>
-  <si>
-    <t>bogor tadi siang lihat massa riil wiwis gak perlu banyak bacot dah lihat prab</t>
-  </si>
-  <si>
-    <t>brangkat kerja naik taksi kepala pusing ga bawa motor jaman susah korupsi padahal bnyak yg setor</t>
-  </si>
-  <si>
-    <t>panjang debat lihat goyah argumen kokoh tak yakin</t>
-  </si>
-  <si>
-    <t>turut percuma punya banyak kartu lihat modern debatpilpres 2019 pilpres 2019 pemilu 2019 republik</t>
-  </si>
-  <si>
-    <t>sakit mosok konflik timur yg rupa konflik negeri bilang perang</t>
-  </si>
-  <si>
-    <t>capres nomor urut 02 khawatir kalau semua labuh bandara operate usaha asing</t>
-  </si>
-  <si>
-    <t>mantebb kerenn smoga bs ikut seluruh pelosok nusantara</t>
-  </si>
-  <si>
-    <t>pns pilih karna sulit laku pungli anggar potong ketat anggar</t>
-  </si>
-  <si>
-    <t>pilih sandi saya ingin bpjs puruk terus tidak optimal beri solusi awat sehat</t>
-  </si>
-  <si>
-    <t>salah besar sih gak pilih pak lembaga perintah yg bebas korupsi jual beli jabat</t>
-  </si>
-  <si>
-    <t>milik banyak pretasi ada 47 prestasi milik salah satu cabut subsidi bbm</t>
-  </si>
-  <si>
-    <t>bagaimana mau pulang habib rizieq kalau tidak menang jadi presiden kata subianto</t>
-  </si>
-  <si>
-    <t>kalau pasu asing masuk tentara tindak adi napitupulu dukung capres 01</t>
-  </si>
-  <si>
-    <t>justru makna bersit nada kalah krn rasa kalah</t>
-  </si>
-  <si>
-    <t>rubah watak susah susah jd presiden https t co esw 5qi9add</t>
-  </si>
-  <si>
-    <t>banyak bandara asai asing buat khawatir serang luar https t co xj1ofes136</t>
-  </si>
-  <si>
-    <t>bahas pancasila udah final semntara organisasi transnasional yg ideologi radikal gk pernah singgung</t>
-  </si>
-  <si>
-    <t>hadeuh salah data oyy bong pinter dikit napah prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>mau begini acung jari telunjuk tak enak tim jokowi-maruf benci tauhid kan mereka benci tauhid</t>
-  </si>
-  <si>
-    <t>tadi ngomongin perang perang perang emang rencana pak wo mau bawa indonesia perang</t>
-  </si>
-  <si>
-    <t>pak sama pak sama emosional emosi pikir selamat nkri</t>
-  </si>
-  <si>
-    <t>narasi utama pakai debat kali adalah narasi asing narasi anti asing memang erat topik debat</t>
-  </si>
-  <si>
-    <t>lama kita suguh fitnah keji hadap presiden nyata justru konon turun khianat</t>
-  </si>
-  <si>
-    <t>pak emosi klo sdh bicara ttg daulat aman nkri balik rakyat lindung</t>
-  </si>
-  <si>
-    <t>orang masa lalu sukses masa lalu gagal sesuai ubah hari memang tolak pak</t>
-  </si>
-  <si>
-    <t>pak kayak kakak 2 lagi ngospek aja bikin ketawa terus marah kalo orang ketawa</t>
-  </si>
-  <si>
-    <t>terlalu asik bayang bebas ketawa larang culik hal 2 jika jadi presiden</t>
-  </si>
-  <si>
-    <t>oke oce bangkrut gagal tingkat daya beli masyarakat</t>
-  </si>
-  <si>
-    <t>gagal paham cuma percaya bisik yg ngaco masa daulat kira kira prabowobentengnkri jok</t>
-  </si>
-  <si>
-    <t>kesi banget kamu sahal pilpres 2014 yg kamu jual ancam takut melulu yg khilafah lah yg culik lah</t>
-  </si>
-  <si>
-    <t>yang lemes nih kaya data salah ban semua pak prabowobentengnkri https t co 1yqfosvy7a</t>
-  </si>
-  <si>
-    <t>mau kalah disalahin khilafah hti bukankah hti bunuh</t>
-  </si>
-  <si>
-    <t>pikir pak ga tau masalah myanmar</t>
-  </si>
-  <si>
-    <t>ahahaha pancing pidato closingnya beranta</t>
-  </si>
-  <si>
-    <t>bukan tidak percaya ini tni pak taruh nyawa tni lebih tni tni</t>
-  </si>
-  <si>
-    <t>gemetar apes malam kata gue bentak 2 jendral prabowobentengnkri</t>
+    <t>buka visi misi begitu pukau sehingga buat presiden asa mjd bebek visimisi bukavisi visimisi misibegitu begitupukau pukausehingga sehinggabuat buatpresiden presidenasa asamjd mjdbebek bebekvisimisi bukavisimisi visimisibegitu misibegitupukau begitupukausehingga pukausehinggabuat sehinggabuatpresiden buatpresidenasa presidenasamjd asamjdbebek mjdbebekvisimisi</t>
+  </si>
+  <si>
+    <t>lebih baik pakai teknologi lama kaya negara indonesia keluar indonesia lebihbaik baikpakai pakaiteknologi teknologilama lamakaya kayanegara negaraindonesia indonesiakeluar keluarindonesia lebihbaikpakai baikpakaiteknologi pakaiteknologilama teknologilamakaya lamakayanegara kayanegaraindonesia negaraindonesiakeluar indonesiakeluarindonesia</t>
+  </si>
+  <si>
+    <t>kok arguing without crying kokarguing arguingwithout withoutcrying kokarguingwithout arguingwithoutcrying</t>
+  </si>
+  <si>
+    <t>jalan politik politik satu bukan politik pecah belah salah prabowobentengnkri jalanpolitik politikpolitik politiksatu satubukan bukanpolitik politikpecah pecahbelah belahsalah salahprabowobentengnkri jalanpolitikpolitik politikpolitiksatu politiksatubukan satubukanpolitik bukanpolitikpecah politikpecahbelah pecahbelahsalah belahsalahprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>juga fans lihat tampil serang hahaha jugafans fanslihat lihattampil tampilserang seranghahaha jugafanslihat fanslihattampil lihattampilserang tampilseranghahaha</t>
+  </si>
+  <si>
+    <t>lemah tidak punya uang pak ngomongin tahan negara apa nyindir anak twitter nih optimisindo lemahtidak tidakpunya punyauang uangpak pakngomongin ngomongintahan tahannegara negaraapa apanyindir nyindiranak anaktwitter twitternih nihoptimisindo lemahtidakpunya tidakpunyauang punyauangpak uangpakngomongin pakngomongintahan ngomongintahannegara tahannegaraapa negaraapanyindir apanyindiranak nyindiranaktwitter anaktwitternih twitternihoptimisindo</t>
+  </si>
+  <si>
+    <t>si vis pacem bellum bukan mantra dukun arti kalau damai siap perang top p sivis vispacem pacembellum bellumbukan bukanmantra mantradukun dukunarti artikalau kalaudamai damaisiap siapperang perangtop topp sivispacem vispacembellum pacembellumbukan bellumbukanmantra bukanmantradukun mantradukunarti dukunartikalau artikalaudamai kalaudamaisiap damaisiapperang siapperangtop perangtopp</t>
+  </si>
+  <si>
+    <t>apa yg bilang pak memang benar mau bukti di ejek asing v i r a l k a n prabow apayg ygbilang bilangpak pakmemang memangbenar benarmau maubukti buktidi diejek ejekasing asingv vi ir ra al lk ka an nprabow apaygbilang ygbilangpak bilangpakmemang pakmemangbenar memangbenarmau benarmaubukti maubuktidi buktidiejek diejekasing ejekasingv asingvi vir ira ral alk lka kan anprabow</t>
+  </si>
+  <si>
+    <t>bidang perintah prabowo-sandi bahwa lembaga perintah kuat baru cipta negara kuat bidangperintah perintahprabowo-sandi prabowo-sandibahwa bahwalembaga lembagaperintah perintahkuat kuatbaru barucipta ciptanegara negarakuat bidangperintahprabowo-sandi perintahprabowo-sandibahwa prabowo-sandibahwalembaga bahwalembagaperintah lembagaperintahkuat perintahkuatbaru kuatbarucipta baruciptanegara ciptanegarakuat</t>
+  </si>
+  <si>
+    <t>percaya debat dukung ini sama seru jaman debat dukung choi taek kim junghwan percayadebat debatdukung dukungini inisama samaseru serujaman jamandebat debatdukung dukungchoi choitaek taekkim kimjunghwan percayadebatdukung debatdukungini dukunginisama inisamaseru samaserujaman serujamandebat jamandebatdukung debatdukungchoi dukungchoitaek choitaekkim taekkimjunghwan</t>
+  </si>
+  <si>
+    <t>bidang hubung internasional anut prinsip 1000 kawan terlalu sedikit 1 musuh terlalu banyak prabowo bidanghubung hubunginternasional internasionalanut anutprinsip prinsip1000 1000kawan kawanterlalu terlalusedikit sedikit1 1musuh musuhterlalu terlalubanyak banyakprabowo bidanghubunginternasional hubunginternasionalanut internasionalanutprinsip anutprinsip1000 prinsip1000kawan 1000kawanterlalu kawanterlalusedikit terlalusedikit1 sedikit1musuh 1musuhterlalu musuhterlalubanyak terlalubanyakprabowo</t>
+  </si>
+  <si>
+    <t>temen gw pro dia bilang gak suka liat mimik muka saat tiap bicara debat temengw gwpro prodia diabilang bilanggak gaksuka sukaliat liatmimik mimikmuka mukasaat saattiap tiapbicara bicaradebat temengwpro gwprodia prodiabilang diabilanggak bilanggaksuka gaksukaliat sukaliatmimik liatmimikmuka mimikmukasaat mukasaattiap saattiapbicara tiapbicaradebat</t>
+  </si>
+  <si>
+    <t>apa yg p soal e-government e-procurement ini pernah sebut 5 th lalu gagal total tuh p apayg ygp psoal soale-government e-governmente-procurement e-procurementini inipernah pernahsebut sebut5 5th thlalu lalugagal gagaltotal totaltuh tuhp apaygp ygpsoal psoale-government soale-governmente-procurement e-governmente-procurementini e-procurementinipernah inipernahsebut pernahsebut5 sebut5th 5thlalu thlalugagal lalugagaltotal gagaltotaltuh totaltuhp</t>
+  </si>
+  <si>
+    <t>pak ngomong gebu bukan arti kasar galak pak ngomong pelan bukan arti lembek pakngomong ngomonggebu gebubukan bukanarti artikasar kasargalak galakpak pakngomong ngomongpelan pelanbukan bukanarti artilembek pakngomonggebu ngomonggebubukan gebubukanarti bukanartikasar artikasargalak kasargalakpak galakpakngomong pakngomongpelan ngomongpelanbukan pelanbukanarti bukanartilembek</t>
+  </si>
+  <si>
+    <t>mas malam bagus sekali debat serang tepat jantung tahan akhir muter 2 jawab radar masmalam malambagus bagussekali sekalidebat debatserang serangtepat tepatjantung jantungtahan tahanakhir akhirmuter muter2 2jawab jawabradar masmalambagus malambagussekali bagussekalidebat sekalidebatserang debatserangtepat serangtepatjantung tepatjantungtahan jantungtahanakhir tahanakhirmuter akhirmuter2 muter2jawab 2jawabradar</t>
+  </si>
+  <si>
+    <t>lebih tni tni bapak pecat udah aja lebihtni tnitni tnibapak bapakpecat pecatudah udahaja lebihtnitni tnitnibapak tnibapakpecat bapakpecatudah pecatudahaja</t>
+  </si>
+  <si>
+    <t>rawan kopi politik syndicate kps pro capres-cawapres - ma ruf amin bentuk tim siber tangkal rawankopi kopipolitik politiksyndicate syndicatekps kpspro procapres-cawapres capres-cawapres- -ma maruf rufamin aminbentuk bentuktim timsiber sibertangkal rawankopipolitik kopipolitiksyndicate politiksyndicatekps syndicatekpspro kpsprocapres-cawapres procapres-cawapres- capres-cawapres-ma -maruf marufamin rufaminbentuk aminbentuktim bentuktimsiber timsibertangkal</t>
+  </si>
+  <si>
+    <t>debat malam bukti sama emosional emosi pikir selamat debatmalam malambukti buktisama samaemosional emosionalemosi emosipikir pikirselamat debatmalambukti malambuktisama buktisamaemosional samaemosionalemosi emosionalemosipikir emosipikirselamat</t>
+  </si>
+  <si>
+    <t>pak percaya mampu tni jaga daulat nkri dengan dukung alutsista baik pakpercaya percayamampu mamputni tnijaga jagadaulat daulatnkri nkridengan dengandukung dukungalutsista alutsistabaik pakpercayamampu percayamamputni mamputnijaga tnijagadaulat jagadaulatnkri daulatnkridengan nkridengandukung dengandukungalutsista dukungalutsistabaik</t>
+  </si>
+  <si>
+    <t>turut akhir marah audiens tidak kontrol emosi turutakhir akhirmarah marahaudiens audienstidak tidakkontrol kontrolemosi turutakhirmarah akhirmarahaudiens marahaudienstidak audienstidakkontrol tidakkontrolemosi</t>
+  </si>
+  <si>
+    <t>pak mungkin rasa situasi perang kali pakmungkin mungkinrasa rasasituasi situasiperang perangkali pakmungkinrasa mungkinrasasituasi rasasituasiperang situasiperangkali</t>
+  </si>
+  <si>
+    <t>politik luar negeri perintah soal rohingya omdo ada tuh repatriasi atas peran lebih byk peran politikluar luarnegeri negeriperintah perintahsoal soalrohingya rohingyaomdo omdoada adatuh tuhrepatriasi repatriasiatas atasperan peranlebih lebihbyk bykperan politikluarnegeri luarnegeriperintah negeriperintahsoal perintahsoalrohingya soalrohingyaomdo rohingyaomdoada omdoadatuh adatuhrepatriasi tuhrepatriasiatas repatriasiatasperan atasperanlebih peranlebihbyk lebihbykperan</t>
+  </si>
+  <si>
+    <t>lawan tuduh kubu belah pak pro hadap khilafah ingin ganti pancasila dng tagar prabowo lawantuduh tuduhkubu kububelah belahpak pakpro prohadap hadapkhilafah khilafahingin inginganti gantipancasila pancasiladng dngtagar tagarprabowo lawantuduhkubu tuduhkububelah kububelahpak belahpakpro pakprohadap prohadapkhilafah hadapkhilafahingin khilafahinginganti ingingantipancasila gantipancasiladng pancasiladngtagar dngtagarprabowo</t>
+  </si>
+  <si>
+    <t>pelosok desa sampang madura jatim rakyat gotong royong buat apk pak mas dukung yuks pelosokdesa desasampang sampangmadura madurajatim jatimrakyat rakyatgotong gotongroyong royongbuat buatapk apkpak pakmas masdukung dukungyuks pelosokdesasampang desasampangmadura sampangmadurajatim madurajatimrakyat jatimrakyatgotong rakyatgotongroyong gotongroyongbuat royongbuatapk buatapkpak apkpakmas pakmasdukung masdukungyuks</t>
+  </si>
+  <si>
+    <t>kok berani bilang jd mediator konflik afghanistan kayak cuma kunjung doang sana n foto lg sholat kokberani beranibilang bilangjd jdmediator mediatorkonflik konflikafghanistan afghanistankayak kayakcuma cumakunjung kunjungdoang doangsana sanan nfoto fotolg lgsholat kokberanibilang beranibilangjd bilangjdmediator jdmediatorkonflik mediatorkonflikafghanistan konflikafghanistankayak afghanistankayakcuma kayakcumakunjung cumakunjungdoang kunjungdoangsana doangsanan sananfoto nfotolg fotolgsholat</t>
+  </si>
+  <si>
+    <t>pak percaya sama tni iya pak percaya saya ga percaya nya sama orang suka ngomong bayar pakpercaya percayasama samatni tniiya iyapak pakpercaya percayasaya sayaga gapercaya percayanya nyasama samaorang orangsuka sukangomong ngomongbayar pakpercayasama percayasamatni samatniiya tniiyapak iyapakpercaya pakpercayasaya percayasayaga sayagapercaya gapercayanya percayanyasama nyasamaorang samaorangsuka orangsukangomong sukangomongbayar</t>
+  </si>
+  <si>
+    <t>cuma org yg dongo aja yg tanya nasionalisme orang jendral sumpah prajurit bawa mati cumaorg orgyg ygdongo dongoaja ajayg ygtanya tanyanasionalisme nasionalismeorang orangjendral jendralsumpah sumpahprajurit prajuritbawa bawamati cumaorgyg orgygdongo ygdongoaja dongoajayg ajaygtanya ygtanyanasionalisme tanyanasionalismeorang nasionalismeorangjendral orangjendralsumpah jendralsumpahprajurit sumpahprajuritbawa prajuritbawamati</t>
+  </si>
+  <si>
+    <t>debat kali turut pak all out performa maxsimal bray jokuwi kasi tunduk trs kurang caca diri debatkali kaliturut turutpak pakall allout outperforma performamaxsimal maxsimalbray brayjokuwi jokuwikasi kasitunduk tunduktrs trskurang kurangcaca cacadiri debatkaliturut kaliturutpak turutpakall pakallout alloutperforma outperformamaxsimal performamaxsimalbray maxsimalbrayjokuwi brayjokuwikasi jokuwikasitunduk kasitunduktrs tunduktrskurang trskurangcaca kurangcacadiri</t>
+  </si>
+  <si>
+    <t>menang telak sibuk molbek 2in akun sipp lah sing penting semua semangat prabowobentengnkri menangtelak telaksibuk sibukmolbek molbek2in 2inakun akunsipp sipplah lahsing singpenting pentingsemua semuasemangat semangatprabowobentengnkri menangtelaksibuk telaksibukmolbek sibukmolbek2in molbek2inakun 2inakunsipp akunsipplah sipplahsing lahsingpenting singpentingsemua pentingsemuasemangat semuasemangatprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>bangun sistem layan masyarakat untuk cegah korupsi bocor bangunsistem sistemlayan layanmasyarakat masyarakatuntuk untukcegah cegahkorupsi korupsibocor bangunsistemlayan sistemlayanmasyarakat layanmasyarakatuntuk masyarakatuntukcegah untukcegahkorupsi cegahkorupsibocor</t>
+  </si>
+  <si>
+    <t>woy abs banyak tim lo menteri 2 afkiran selalu kasih data salah sama elo woyabs absbanyak banyaktim timlo lomenteri menteri2 2afkiran afkiranselalu selalukasih kasihdata datasalah salahsama samaelo woyabsbanyak absbanyaktim banyaktimlo timlomenteri lomenteri2 menteri2afkiran 2afkiranselalu afkiranselalukasih selalukasihdata kasihdatasalah datasalahsama salahsamaelo</t>
+  </si>
+  <si>
+    <t>malam dukung pak bisa tidur nyenyak akan ucap selamat tinggal pak jkw hahahaha malamdukung dukungpak pakbisa bisatidur tidurnyenyak nyenyakakan akanucap ucapselamat selamattinggal tinggalpak pakjkw jkwhahahaha malamdukungpak dukungpakbisa pakbisatidur bisatidurnyenyak tidurnyenyakakan nyenyakakanucap akanucapselamat ucapselamattinggal selamattinggalpak tinggalpakjkw pakjkwhahahaha</t>
+  </si>
+  <si>
+    <t>memang tarung pilpres sekali ttg cara pikir baru vs cara pikir lama moga 2 ini tarung akhir memangtarung tarungpilpres pilpressekali sekalittg ttgcara carapikir pikirbaru baruvs vscara carapikir pikirlama lamamoga moga2 2ini initarung tarungakhir memangtarungpilpres tarungpilpressekali pilpressekalittg sekalittgcara ttgcarapikir carapikirbaru pikirbaruvs baruvscara vscarapikir carapikirlama pikirlamamoga lamamoga2 moga2ini 2initarung initarungakhir</t>
+  </si>
+  <si>
+    <t>moderator sampai haru dengar papar pak kena apa perlu cepat teknologi informasi kalau kaya ambil negara moderatorsampai sampaiharu harudengar dengarpapar paparpak pakkena kenaapa apaperlu perlucepat cepatteknologi teknologiinformasi informasikalau kalaukaya kayaambil ambilnegara moderatorsampaiharu sampaiharudengar harudengarpapar dengarpaparpak paparpakkena pakkenaapa kenaapaperlu apaperlucepat perlucepatteknologi cepatteknologiinformasi teknologiinformasikalau informasikalaukaya kalaukayaambil kayaambilnegara</t>
+  </si>
+  <si>
+    <t>aku rantai roda kuasa putus ia sahabat putus akurantai rantairoda rodakuasa kuasaputus putusia iasahabat sahabatputus akurantairoda rantairodakuasa rodakuasaputus kuasaputusia putusiasahabat iasahabatputus</t>
+  </si>
+  <si>
+    <t>henti tv lihat debat sebentar trus akyu teriak 2 supir 2 bus pd sorak sorai ikut hentitv tvlihat lihatdebat debatsebentar sebentartrus trusakyu akyuteriak teriak2 2supir supir2 2bus buspd pdsorak soraksorai soraiikut hentitvlihat tvlihatdebat lihatdebatsebentar debatsebentartrus sebentartrusakyu trusakyuteriak akyuteriak2 teriak2supir 2supir2 supir2bus 2buspd buspdsorak pdsoraksorai soraksoraiikut</t>
+  </si>
+  <si>
+    <t>hahahaha closing sempurna pak gila sih nyata receh beliau yakin optimis 17 april hahahahaclosing closingsempurna sempurnapak pakgila gilasih sihnyata nyatareceh recehbeliau beliauyakin yakinoptimis optimis17 17april hahahahaclosingsempurna closingsempurnapak sempurnapakgila pakgilasih gilasihnyata sihnyatareceh nyatarecehbeliau recehbeliauyakin beliauyakinoptimis yakinoptimis17 optimis17april</t>
+  </si>
+  <si>
+    <t>yg ganti pancasila republik yg ada banyak yg ganti presiden aja kok selaaww ygganti gantipancasila pancasilarepublik republikyg ygada adabanyak banyakyg ygganti gantipresiden presidenaja ajakok kokselaaww yggantipancasila gantipancasilarepublik pancasilarepublikyg republikygada ygadabanyak adabanyakyg banyakygganti yggantipresiden gantipresidenaja presidenajakok ajakokselaaww</t>
+  </si>
+  <si>
+    <t>si bilang bela pancasila dukung curut khilafah hti juga ga hapal pancasila sibilang bilangbela belapancasila pancasiladukung dukungcurut curutkhilafah khilafahhti htijuga jugaga gahapal hapalpancasila sibilangbela bilangbelapancasila belapancasiladukung pancasiladukungcurut dukungcurutkhilafah curutkhilafahhti khilafahhtijuga htijugaga jugagahapal gahapalpancasila</t>
+  </si>
+  <si>
+    <t>poin besar kalah tahana dukung ngetawain nasionalisme mas prabowobentengnkri poinbesar besarkalah kalahtahana tahanadukung dukungngetawain ngetawainnasionalisme nasionalismemas masprabowobentengnkri poinbesarkalah besarkalahtahana kalahtahanadukung tahanadukungngetawain dukungngetawainnasionalisme ngetawainnasionalismemas nasionalismemasprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>saya percaya kuat pimpin ada banyak diri bpk topang knowledge lebih sayapercaya percayakuat kuatpimpin pimpinada adabanyak banyakdiri diribpk bpktopang topangknowledge knowledgelebih sayapercayakuat percayakuatpimpin kuatpimpinada pimpinadabanyak adabanyakdiri banyakdiribpk diribpktopang bpktopangknowledge topangknowledgelebih</t>
+  </si>
+  <si>
+    <t>nasionalisme nampak sangat kental debat pilpres tuju bandara kelola asing berdikari nasionalismenampak nampaksangat sangatkental kentaldebat debatpilpres pilprestuju tujubandara bandarakelola kelolaasing asingberdikari nasionalismenampaksangat nampaksangatkental sangatkentaldebat kentaldebatpilpres debatpilprestuju pilprestujubandara tujubandarakelola bandarakelolaasing kelolaasingberdikari</t>
+  </si>
+  <si>
+    <t>pak tampil malam buat makin bangga kau lihat sangat peduli nkri paktampil tampilmalam malambuat buatmakin makinbangga banggakau kaulihat lihatsangat sangatpeduli pedulinkri paktampilmalam tampilmalambuat malambuatmakin buatmakinbangga makinbanggakau banggakaulihat kaulihatsangat lihatsangatpeduli sangatpedulinkri</t>
+  </si>
+  <si>
+    <t>ini tni pak pecat debatpilpres 2019 https t co usdobwdlba initni tnipak pakpecat pecatdebatpilpres debatpilpres2019 2019https httpst tco cousdobwdlba initnipak tnipakpecat pakpecatdebatpilpres pecatdebatpilpres2019 debatpilpres2019https 2019httpst httpstco tcousdobwdlba</t>
+  </si>
+  <si>
+    <t>debat capres malam pak tampil tenang visioner matang gulir gagas scr cemerlang debatcapres capresmalam malampak paktampil tampiltenang tenangvisioner visionermatang matanggulir gulirgagas gagasscr scrcemerlang debatcapresmalam capresmalampak malampaktampil paktampiltenang tampiltenangvisioner tenangvisionermatang visionermatanggulir matanggulirgagas gulirgagasscr gagasscrcemerlang</t>
+  </si>
+  <si>
+    <t>sekarang gilir kpps nya tidak netral makin benar curang dapat kalah sekaranggilir gilirkpps kppsnya nyatidak tidaknetral netralmakin makinbenar benarcurang curangdapat dapatkalah sekaranggilirkpps gilirkppsnya kppsnyatidak nyatidaknetral tidaknetralmakin netralmakinbenar makinbenarcurang benarcurangdapat curangdapatkalah</t>
+  </si>
+  <si>
+    <t>capres 01 ajak semua pihak politik negara baik saling tiada capres01 01ajak ajaksemua semuapihak pihakpolitik politiknegara negarabaik baiksaling salingtiada capres01ajak 01ajaksemua ajaksemuapihak semuapihakpolitik pihakpolitiknegara politiknegarabaik negarabaiksaling baiksalingtiada</t>
+  </si>
+  <si>
+    <t>malam debat pilpres yg 4 tampil pak patut apresiasi beliau lebih kritis ofensif malamdebat debatpilpres pilpresyg yg4 4tampil tampilpak pakpatut patutapresiasi apresiasibeliau beliaulebih lebihkritis kritisofensif malamdebatpilpres debatpilpresyg pilpresyg4 yg4tampil 4tampilpak tampilpakpatut pakpatutapresiasi patutapresiasibeliau apresiasibeliaulebih beliaulebihkritis lebihkritisofensif</t>
+  </si>
+  <si>
+    <t>tahan indonesia sangat lemah jauh yang harap kita punya uang prabowobentengnkri tahanindonesia indonesiasangat sangatlemah lemahjauh jauhyang yangharap harapkita kitapunya punyauang uangprabowobentengnkri tahanindonesiasangat indonesiasangatlemah sangatlemahjauh lemahjauhyang jauhyangharap yangharapkita harapkitapunya kitapunyauang punyauangprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>selesai selamat pak cinta rindu cinta rindu cinta rindu selesaiselamat selamatpak pakcinta cintarindu rinducinta cintarindu rinducinta cintarindu selesaiselamatpak selamatpakcinta pakcintarindu cintarinducinta rinducintarindu cintarinducinta rinducintarindu</t>
+  </si>
+  <si>
+    <t>jawab skak mat mas hadap kartu nya si jae apa punya banyak kartu kalau kaya keluar negeri jawabskak skakmat matmas mashadap hadapkartu kartunya nyasi sijae jaeapa apapunya punyabanyak banyakkartu kartukalau kalaukaya kayakeluar keluarnegeri jawabskakmat skakmatmas matmashadap mashadapkartu hadapkartunya kartunyasi nyasijae sijaeapa jaeapapunya apapunyabanyak punyabanyakkartu banyakkartukalau kartukalaukaya kalaukayakeluar kayakeluarnegeri</t>
+  </si>
+  <si>
+    <t>menang telak sih anjay bantai cara telak debat gilak brutal malam menangtelak telaksih sihanjay anjaybantai bantaicara caratelak telakdebat debatgilak gilakbrutal brutalmalam menangtelaksih telaksihanjay sihanjaybantai anjaybantaicara bantaicaratelak caratelakdebat telakdebatgilak debatgilakbrutal gilakbrutalmalam</t>
+  </si>
+  <si>
+    <t>duh pak baik banget kalau bicara bahasa inggris arti tahu kalau pak gak bahasa inggris duhpak pakbaik baikbanget bangetkalau kalaubicara bicarabahasa bahasainggris inggrisarti artitahu tahukalau kalaupak pakgak gakbahasa bahasainggris duhpakbaik pakbaikbanget baikbangetkalau bangetkalaubicara kalaubicarabahasa bicarabahasainggris bahasainggrisarti inggrisartitahu artitahukalau tahukalaupak kalaupakgak pakgakbahasa gakbahasainggris</t>
+  </si>
+  <si>
+    <t>tdk percaya tni sedang sipil aku sangat percaya tni pemerintahandilan tdkpercaya percayatni tnisedang sedangsipil sipilaku akusangat sangatpercaya percayatni tnipemerintahandilan tdkpercayatni percayatnisedang tnisedangsipil sedangsipilaku sipilakusangat akusangatpercaya sangatpercayatni percayatnipemerintahandilan</t>
+  </si>
+  <si>
+    <t>pak kalau diplomasi jadi nice guy pak faham betul ddiplomasihy batas ramah tamah pakkalau kalaudiplomasi diplomasijadi jadinice niceguy guypak pakfaham fahambetul betulddiplomasihy ddiplomasihybatas batasramah ramahtamah pakkalaudiplomasi kalaudiplomasijadi diplomasijadinice jadiniceguy niceguypak guypakfaham pakfahambetul fahambetulddiplomasihy betulddiplomasihybatas ddiplomasihybatasramah batasramahtamah</t>
+  </si>
+  <si>
+    <t>wongsai kok ngajak perang lama yaa selalu ajak maju indonesia si mental ciken selalu lihat keburu wongsaikok kokngajak ngajakperang peranglama lamayaa yaaselalu selaluajak ajakmaju majuindonesia indonesiasi simental mentalciken cikenselalu selalulihat lihatkeburu wongsaikokngajak kokngajakperang ngajakperanglama peranglamayaa lamayaaselalu yaaselaluajak selaluajakmaju ajakmajuindonesia majuindonesiasi indonesiasimental simentalciken mentalcikenselalu cikenselalulihat selalulihatkeburu</t>
+  </si>
+  <si>
+    <t>bagai minoritas yakin pak bang dapat mandat rakyat kuat rasa satu bagaiminoritas minoritasyakin yakinpak pakbang bangdapat dapatmandat mandatrakyat rakyatkuat kuatrasa rasasatu bagaiminoritasyakin minoritasyakinpak yakinpakbang pakbangdapat bangdapatmandat dapatmandatrakyat mandatrakyatkuat rakyatkuatrasa kuatrasasatu</t>
+  </si>
+  <si>
+    <t>salam presiden insyallah debat mlm bapak pukau salam sayang dr rakyat pak bravo salampresiden presideninsyallah insyallahdebat debatmlm mlmbapak bapakpukau pukausalam salamsayang sayangdr drrakyat rakyatpak pakbravo salampresideninsyallah presideninsyallahdebat insyallahdebatmlm debatmlmbapak mlmbapakpukau bapakpukausalam pukausalamsayang salamsayangdr sayangdrrakyat drrakyatpak rakyatpakbravo</t>
+  </si>
+  <si>
+    <t>siapa capres tampil lebih baik debatpilpres 2019 malam pemilunesia debatpilpres 2019 siapacapres caprestampil tampillebih lebihbaik baikdebatpilpres debatpilpres2019 2019malam malampemilunesia pemilunesiadebatpilpres debatpilpres2019 siapacaprestampil caprestampillebih tampillebihbaik lebihbaikdebatpilpres baikdebatpilpres2019 debatpilpres2019malam 2019malampemilunesia malampemilunesiadebatpilpres pemilunesiadebatpilpres2019</t>
+  </si>
+  <si>
+    <t>lihat kalian fitnah anti islam beliau mmbangun uiii universitas islam international indonesia lihatkalian kalianfitnah fitnahanti antiislam islambeliau beliaummbangun mmbangunuiii uiiiuniversitas universitasislam islaminternational internationalindonesia lihatkalianfitnah kalianfitnahanti fitnahantiislam antiislambeliau islambeliaummbangun beliaummbangunuiii mmbangunuiiiuniversitas uiiiuniversitasislam universitasislaminternational islaminternationalindonesia</t>
+  </si>
+  <si>
+    <t>malam tamat sepakat retwet 01caprespendustaabadi malamtamat tamatsepakat sepakatretwet retwet01caprespendustaabadi malamtamatsepakat tamatsepakatretwet sepakatretwet01caprespendustaabadi</t>
+  </si>
+  <si>
+    <t>pak kalau badan gemuk tinggi bapak baik kalau pake stelan jas jangan yg model double breastest pakkalau kalaubadan badangemuk gemuktinggi tinggibapak bapakbaik baikkalau kalaupake pakestelan stelanjas jasjangan janganyg ygmodel modeldouble doublebreastest pakkalaubadan kalaubadangemuk badangemuktinggi gemuktinggibapak tinggibapakbaik bapakbaikkalau baikkalaupake kalaupakestelan pakestelanjas stelanjasjangan jasjanganyg janganygmodel ygmodeldouble modeldoublebreastest</t>
+  </si>
+  <si>
+    <t>tegas skali presiden malam jangan kasih kendor jendral idola tunjuk dunia prabowobentengnkri tegasskali skalipresiden presidenmalam malamjangan jangankasih kasihkendor kendorjendral jendralidola idolatunjuk tunjukdunia duniaprabowobentengnkri tegasskalipresiden skalipresidenmalam presidenmalamjangan malamjangankasih jangankasihkendor kasihkendorjendral kendorjendralidola jendralidolatunjuk idolatunjukdunia tunjukduniaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>clossing pak debat kali sangat luarbiasa tuju sama bapak sahabat memang nomer 1 clossingpak pakdebat debatkali kalisangat sangatluarbiasa luarbiasatuju tujusama samabapak bapaksahabat sahabatmemang memangnomer nomer1 clossingpakdebat pakdebatkali debatkalisangat kalisangatluarbiasa sangatluarbiasatuju luarbiasatujusama tujusamabapak samabapaksahabat bapaksahabatmemang sahabatmemangnomer memangnomer1</t>
+  </si>
+  <si>
+    <t>suka banget video pak memang juara terimakasihistriku https t co nm5n7irsie sukabanget bangetvideo videopak pakmemang memangjuara juaraterimakasihistriku terimakasihistrikuhttps httpst tco conm5n7irsie sukabangetvideo bangetvideopak videopakmemang pakmemangjuara memangjuaraterimakasihistriku juaraterimakasihistrikuhttps terimakasihistrikuhttpst httpstco tconm5n7irsie</t>
+  </si>
+  <si>
+    <t>bukti indonesia lebih maju bawah pimpin presiden menangjokowilagi buktiindonesia indonesialebih lebihmaju majubawah bawahpimpin pimpinpresiden presidenmenangjokowilagi buktiindonesialebih indonesialebihmaju lebihmajubawah majubawahpimpin bawahpimpinpresiden pimpinpresidenmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>butuh pimpin optimis pak bukan orang pesimis marah butuhpimpin pimpinoptimis optimispak pakbukan bukanorang orangpesimis pesimismarah butuhpimpinoptimis pimpinoptimispak optimispakbukan pakbukanorang bukanorangpesimis orangpesimismarah</t>
+  </si>
+  <si>
+    <t>bareng pak jadi indonesia lebih maju selalu optimis kerja bangun bangsa barengpak pakjadi jadiindonesia indonesialebih lebihmaju majuselalu selaluoptimis optimiskerja kerjabangun bangunbangsa barengpakjadi pakjadiindonesia jadiindonesialebih indonesialebihmaju lebihmajuselalu majuselaluoptimis selaluoptimiskerja optimiskerjabangun kerjabangunbangsa</t>
+  </si>
+  <si>
+    <t>mewek curhat pak lihat tuh pak lama 4 5 th tuduh pki beliau biasa 2 sj mewekcurhat curhatpak paklihat lihattuh tuhpak paklama lama4 45 5th thtuduh tuduhpki pkibeliau beliaubiasa biasa2 2sj mewekcurhatpak curhatpaklihat paklihattuh lihattuhpak tuhpaklama paklama4 lama45 45th 5thtuduh thtuduhpki tuduhpkibeliau pkibeliaubiasa beliaubiasa2 biasa2sj</t>
+  </si>
+  <si>
+    <t>prediksi gw debat empat non-prabowo 38 pak bang 62 popular vote jaga baik 2 tps 2 prediksigw gwdebat debatempat empatnon-prabowo non-prabowo38 38pak pakbang bang62 62popular popularvote votejaga jagabaik baik2 2tps tps2 prediksigwdebat gwdebatempat debatempatnon-prabowo empatnon-prabowo38 non-prabowo38pak 38pakbang pakbang62 bang62popular 62popularvote popularvotejaga votejagabaik jagabaik2 baik2tps 2tps2</t>
+  </si>
+  <si>
+    <t>masalah kondisi negara sekarang suatu distrust elite perintah masalahkondisi kondisinegara negarasekarang sekarangsuatu suatudistrust distrustelite eliteperintah masalahkondisinegara kondisinegarasekarang negarasekarangsuatu sekarangsuatudistrust suatudistrustelite distrusteliteperintah</t>
+  </si>
+  <si>
+    <t>sial nyata cuma orang boneka prabowobentengnkri sialnyata nyatacuma cumaorang orangboneka bonekaprabowobentengnkri sialnyatacuma nyatacumaorang cumaorangboneka orangbonekaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>orang indonesia miskin ikan beberapa karung beras mereka vote saya orangindonesia indonesiamiskin miskinikan ikanbeberapa beberapakarung karungberas berasmereka merekavote votesaya orangindonesiamiskin indonesiamiskinikan miskinikanbeberapa ikanbeberapakarung beberapakarungberas karungberasmereka berasmerekavote merekavotesaya</t>
+  </si>
+  <si>
+    <t>sangat kagum sikap ramah dukung prabowopresidenke 2019 https t co 3fzmdf48el sangatkagum kagumsikap sikapramah ramahdukung dukungprabowopresidenke prabowopresidenke2019 2019https httpst tco co3fzmdf48el sangatkagumsikap kagumsikapramah sikapramahdukung ramahdukungprabowopresidenke dukungprabowopresidenke2019 prabowopresidenke2019https 2019httpst httpstco tco3fzmdf48el</t>
+  </si>
+  <si>
+    <t>debat 4 lbh panjang lagi jadi showcase atas hasil progress perintah debat4 4lbh lbhpanjang panjanglagi lagijadi jadishowcase showcaseatas atashasil hasilprogress progressperintah debat4lbh 4lbhpanjang lbhpanjanglagi panjanglagijadi lagijadishowcase jadishowcaseatas showcaseatashasil atashasilprogress hasilprogressperintah</t>
+  </si>
+  <si>
+    <t>dgn sombong klaim diri lebih tni para tni mana nyata yg angkuh emosional dgnsombong sombongklaim klaimdiri dirilebih lebihtni tnipara paratni tnimana mananyata nyatayg ygangkuh angkuhemosional dgnsombongklaim sombongklaimdiri klaimdirilebih dirilebihtni lebihtnipara tniparatni paratnimana tnimananyata mananyatayg nyataygangkuh ygangkuhemosional</t>
+  </si>
+  <si>
+    <t>jkw intelijen strategis sy kata 20 thn kedpn tdk ada invasi dr negara jkwintelijen intelijenstrategis strategissy sykata kata20 20thn thnkedpn kedpntdk tdkada adainvasi invasidr drnegara jkwintelijenstrategis intelijenstrategissy strategissykata sykata20 kata20thn 20thnkedpn thnkedpntdk kedpntdkada tdkadainvasi adainvasidr invasidrnegara</t>
+  </si>
+  <si>
+    <t>pemerintahandilan perintah bas digital jadi prestasi pak tengak revolusi industri 4 0 pemerintahandilanperintah perintahbas basdigital digitaljadi jadiprestasi prestasipak paktengak tengakrevolusi revolusiindustri industri4 40 pemerintahandilanperintahbas perintahbasdigital basdigitaljadi digitaljadiprestasi jadiprestasipak prestasipaktengak paktengakrevolusi tengakrevolusiindustri revolusiindustri4 industri40</t>
+  </si>
+  <si>
+    <t>pak tahan indonesia terlalu lemah iya gimana pak kalo chat hay sama mantan aja langsung mikir besok paktahan tahanindonesia indonesiaterlalu terlalulemah lemahiya iyagimana gimanapak pakkalo kalochat chathay haysama samamantan mantanaja ajalangsung langsungmikir mikirbesok paktahanindonesia tahanindonesiaterlalu indonesiaterlalulemah terlalulemahiya lemahiyagimana iyagimanapak gimanapakkalo pakkalochat kalochathay chathaysama haysamamantan samamantanaja mantanajalangsung ajalangsungmikir langsungmikirbesok</t>
+  </si>
+  <si>
+    <t>kini tegas tentang diri khalifah sama itu kabar buruk hti dukung kinitegas tegastentang tentangdiri dirikhalifah khalifahsama samaitu itukabar kabarburuk burukhti htidukung kinitegastentang tegastentangdiri tentangdirikhalifah dirikhalifahsama khalifahsamaitu samaitukabar itukabarburuk kabarburukhti burukhtidukung</t>
+  </si>
+  <si>
+    <t>pak langsung ban klarifikasi tuduh kubu tahana tuduh khilafah paklangsung langsungban banklarifikasi klarifikasituduh tuduhkubu kubutahana tahanatuduh tuduhkhilafah paklangsungban langsungbanklarifikasi banklarifikasituduh klarifikasituduhkubu tuduhkubutahana kubutahanatuduh tahanatuduhkhilafah</t>
+  </si>
+  <si>
+    <t>bismillah pak sukses debat mohon maaf tidak tani krn sudah janji anak 2 muda bismillahpak paksukses suksesdebat debatmohon mohonmaaf maaftidak tidaktani tanikrn krnsudah sudahjanji janjianak anak2 2muda bismillahpaksukses paksuksesdebat suksesdebatmohon debatmohonmaaf mohonmaaftidak maaftidaktani tidaktanikrn tanikrnsudah krnsudahjanji sudahjanjianak janjianak2 anak2muda</t>
+  </si>
+  <si>
+    <t>highlight debatpilpres 2019 kali presiden sangat jelas masa kini masa depan realita solusi masalah highlightdebatpilpres debatpilpres2019 2019kali kalipresiden presidensangat sangatjelas jelasmasa masakini kinimasa masadepan depanrealita realitasolusi solusimasalah highlightdebatpilpres2019 debatpilpres2019kali 2019kalipresiden kalipresidensangat presidensangatjelas sangatjelasmasa jelasmasakini masakinimasa kinimasadepan masadepanrealita depanrealitasolusi realitasolusimasalah</t>
+  </si>
+  <si>
+    <t>pak pidato bicara dg bahasa inggris yg baik benar teks forum 2 internasional pakpidato pidatobicara bicaradg dgbahasa bahasainggris inggrisyg ygbaik baikbenar benarteks teksforum forum2 2internasional pakpidatobicara pidatobicaradg bicaradgbahasa dgbahasainggris bahasainggrisyg inggrisygbaik ygbaikbenar baikbenarteks benarteksforum teksforum2 forum2internasional</t>
+  </si>
+  <si>
+    <t>indonesia syukur hasil survei lembaga independen indikasi menang telak menangjokowilagi indonesiasyukur syukurhasil hasilsurvei surveilembaga lembagaindependen independenindikasi indikasimenang menangtelak telakmenangjokowilagi indonesiasyukurhasil syukurhasilsurvei hasilsurveilembaga surveilembagaindependen lembagaindependenindikasi independenindikasimenang indikasimenangtelak menangtelakmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>yg golput besok kalo udah kelar pilpres terus udah jalan perintah ada salah jangan nyalahin perintah yggolput golputbesok besokkalo kaloudah udahkelar kelarpilpres pilpresterus terusudah udahjalan jalanperintah perintahada adasalah salahjangan jangannyalahin nyalahinperintah yggolputbesok golputbesokkalo besokkaloudah kaloudahkelar udahkelarpilpres kelarpilpresterus pilpresterusudah terusudahjalan udahjalanperintah jalanperintahada perintahadasalah adasalahjangan salahjangannyalahin jangannyalahinperintah</t>
+  </si>
+  <si>
+    <t>kecewa larang perintah kampanye akbar dalam stadion pakansari bangun rakyat ujar kecewalarang larangperintah perintahkampanye kampanyeakbar akbardalam dalamstadion stadionpakansari pakansaribangun bangunrakyat rakyatujar kecewalarangperintah larangperintahkampanye perintahkampanyeakbar kampanyeakbardalam akbardalamstadion dalamstadionpakansari stadionpakansaribangun pakansaribangunrakyat bangunrakyatujar</t>
+  </si>
+  <si>
+    <t>debat sikap kok sama persis sikap dukung khilafah selalu sebar takut debatsikap sikapkok koksama samapersis persissikap sikapdukung dukungkhilafah khilafahselalu selalusebar sebartakut debatsikapkok sikapkoksama koksamapersis samapersissikap persissikapdukung sikapdukungkhilafah dukungkhilafahselalu khilafahselalusebar selalusebartakut</t>
+  </si>
+  <si>
+    <t>jawab telak pak hadap kartu gak penting apa punya banyak kartu jawabtelak telakpak pakhadap hadapkartu kartugak gakpenting pentingapa apapunya punyabanyak banyakkartu jawabtelakpak telakpakhadap pakhadapkartu hadapkartugak kartugakpenting gakpentingapa pentingapapunya apapunyabanyak punyabanyakkartu</t>
+  </si>
+  <si>
+    <t>benteng nkri negara belanda simpan dokumentasi selamat sandra papua prabowobentengnkri bentengnkri nkrinegara negarabelanda belandasimpan simpandokumentasi dokumentasiselamat selamatsandra sandrapapua papuaprabowobentengnkri bentengnkrinegara nkrinegarabelanda negarabelandasimpan belandasimpandokumentasi simpandokumentasiselamat dokumentasiselamatsandra selamatsandrapapua sandrapapuaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>bukti bangun indonesia maju adab lebih baik menangjokowilagi buktibangun bangunindonesia indonesiamaju majuadab adablebih lebihbaik baikmenangjokowilagi buktibangunindonesia bangunindonesiamaju indonesiamajuadab majuadablebih adablebihbaik lebihbaikmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>simak sebar doauntukprabowosandi menang pilpres 2019 hampir pasti laju simaksebar sebardoauntukprabowosandi doauntukprabowosandimenang menangpilpres pilpres2019 2019hampir hampirpasti pastilaju simaksebardoauntukprabowosandi sebardoauntukprabowosandimenang doauntukprabowosandimenangpilpres menangpilpres2019 pilpres2019hampir 2019hampirpasti hampirpastilaju</t>
+  </si>
+  <si>
+    <t>bagai muslim senang tulis yuk baca guys yang muslim baik dukung bagaimuslim muslimsenang senangtulis tulisyuk yukbaca bacaguys guysyang yangmuslim muslimbaik baikdukung bagaimuslimsenang muslimsenangtulis senangtulisyuk tulisyukbaca yukbacaguys bacaguysyang guysyangmuslim yangmuslimbaik muslimbaikdukung</t>
+  </si>
+  <si>
+    <t>tcakepp neyh debat pintar dgn mal layan publik dihrpkn kcptan pelyanan sdh bs dibrikan kpda usaha tcakeppneyh neyhdebat debatpintar pintardgn dgnmal mallayan layanpublik publikdihrpkn dihrpknkcptan kcptanpelyanan pelyanansdh sdhbs bsdibrikan dibrikankpda kpdausaha tcakeppneyhdebat neyhdebatpintar debatpintardgn pintardgnmal dgnmallayan mallayanpublik layanpublikdihrpkn publikdihrpknkcptan dihrpknkcptanpelyanan kcptanpelyanansdh pelyanansdhbs sdhbsdibrikan bsdibrikankpda dibrikankpdausaha</t>
+  </si>
+  <si>
+    <t>aman semua pak kendali pak radar cukup pak budaya indonesia abs jadi mohon kaji tahan sangat penting amansemua semuapak pakkendali kendalipak pakradar radarcukup cukuppak pakbudaya budayaindonesia indonesiaabs absjadi jadimohon mohonkaji kajitahan tahansangat sangatpenting amansemuapak semuapakkendali pakkendalipak kendalipakradar pakradarcukup radarcukuppak cukuppakbudaya pakbudayaindonesia budayaindonesiaabs indonesiaabsjadi absjadimohon jadimohonkaji mohonkajitahan kajitahansangat tahansangatpenting</t>
+  </si>
+  <si>
+    <t>jaaauh kelas banding jae barusan kan gaees presiden 2019-2024 sepakat retwet 19harilagicoblo jaaauhkelas kelasbanding bandingjae jaebarusan barusankan kangaees gaeespresiden presiden2019-2024 2019-2024sepakat sepakatretwet retwet19harilagicoblo jaaauhkelasbanding kelasbandingjae bandingjaebarusan jaebarusankan barusankangaees kangaeespresiden gaeespresiden2019-2024 presiden2019-2024sepakat 2019-2024sepakatretwet sepakatretwet19harilagicoblo</t>
+  </si>
+  <si>
+    <t>pak jokuwi sering tunduk lemas lihat papar jendral turut tuipers apa yg pikir jokuwi pakjokuwi jokuwisering seringtunduk tunduklemas lemaslihat lihatpapar paparjendral jendralturut turuttuipers tuipersapa apayg ygpikir pikirjokuwi pakjokuwisering jokuwiseringtunduk seringtunduklemas tunduklemaslihat lemaslihatpapar lihatpaparjendral paparjendralturut jendralturuttuipers turuttuipersapa tuipersapayg apaygpikir ygpikirjokuwi</t>
+  </si>
+  <si>
+    <t>masyaallah speechless rp 200 juta sumbang buruh migran tki tkw - sandi cibinong masyaallahspeechless speechlessrp rp200 200juta jutasumbang sumbangburuh buruhmigran migrantki tkitkw tkw- -sandi sandicibinong masyaallahspeechlessrp speechlessrp200 rp200juta 200jutasumbang jutasumbangburuh sumbangburuhmigran buruhmigrantki migrantkitkw tkitkw- tkw-sandi -sandicibinong</t>
+  </si>
+  <si>
+    <t>sandi juang seluruh rakyat indonesia bentuk perintah bersih tegas sama sandijuang juangseluruh seluruhrakyat rakyatindonesia indonesiabentuk bentukperintah perintahbersih bersihtegas tegassama sandijuangseluruh juangseluruhrakyat seluruhrakyatindonesia rakyatindonesiabentuk indonesiabentukperintah bentukperintahbersih perintahbersihtegas bersihtegassama</t>
+  </si>
+  <si>
+    <t>tuju sekali pak selesai soal korupsi memang benah sistem bisa potong rantai tujusekali sekalipak pakselesai selesaisoal soalkorupsi korupsimemang memangbenah benahsistem sistembisa bisapotong potongrantai tujusekalipak sekalipakselesai pakselesaisoal selesaisoalkorupsi soalkorupsimemang korupsimemangbenah memangbenahsistem benahsistembisa sistembisapotong bisapotongrantai</t>
+  </si>
+  <si>
+    <t>stuju pas pak bilang ngajak toleransi dalam jalan politik politik satu stujupas paspak pakbilang bilangngajak ngajaktoleransi toleransidalam dalamjalan jalanpolitik politikpolitik politiksatu stujupaspak paspakbilang pakbilangngajak bilangngajaktoleransi ngajaktoleransidalam toleransidalamjalan dalamjalanpolitik jalanpolitikpolitik politikpolitiksatu</t>
+  </si>
+  <si>
+    <t>akhir rezim guna pasal karet guna bungkam lawan politik sama - sandi akhirrezim rezimguna gunapasal pasalkaret karetguna gunabungkam bungkamlawan lawanpolitik politiksama sama- -sandi akhirrezimguna rezimgunapasal gunapasalkaret pasalkaretguna karetgunabungkam gunabungkamlawan bungkamlawanpolitik lawanpolitiksama politiksama- sama-sandi</t>
+  </si>
+  <si>
+    <t>pak jg tegas penting maju teknologi utk transparansi efektitivitas efisiensi perintah pakjg jgtegas tegaspenting pentingmaju majuteknologi teknologiutk utktransparansi transparansiefektitivitas efektitivitasefisiensi efisiensiperintah pakjgtegas jgtegaspenting tegaspentingmaju pentingmajuteknologi majuteknologiutk teknologiutktransparansi utktransparansiefektitivitas transparansiefektitivitasefisiensi efektitivitasefisiensiperintah</t>
+  </si>
+  <si>
+    <t>sekian lama pecat tni laku culi mungkin simpan dendam sekianlama lamapecat pecattni tnilaku lakuculi culimungkin mungkinsimpan simpandendam sekianlamapecat lamapecattni pecattnilaku tnilakuculi lakuculimungkin culimungkinsimpan mungkinsimpandendam</t>
+  </si>
+  <si>
+    <t>haters bilang marah kalimat bapak bilang ada sedih kalimat pak hatersbilang bilangmarah marahkalimat kalimatbapak bapakbilang bilangada adasedih sedihkalimat kalimatpak hatersbilangmarah bilangmarahkalimat marahkalimatbapak kalimatbapakbilang bapakbilangada bilangadasedih adasedihkalimat sedihkalimatpak</t>
+  </si>
+  <si>
+    <t>tenang kalo sampe perang gue yakin pak udah mikirin musti gimana gak didiemin lah sistem tahan tenangkalo kalosampe sampeperang peranggue gueyakin yakinpak pakudah udahmikirin mikirinmusti mustigimana gimanagak gakdidiemin didieminlah lahsistem sistemtahan tenangkalosampe kalosampeperang sampeperanggue peranggueyakin gueyakinpak yakinpakudah pakudahmikirin udahmikirinmusti mikirinmustigimana mustigimanagak gimanagakdidiemin gakdidieminlah didieminlahsistem lahsistemtahan</t>
+  </si>
+  <si>
+    <t>percaya pak pancasila-is tuduh khilafah saya juga percaya pak pancasilais percayapak pakpancasila-is pancasila-istuduh tuduhkhilafah khilafahsaya sayajuga jugapercaya percayapak pakpancasilais percayapakpancasila-is pakpancasila-istuduh pancasila-istuduhkhilafah tuduhkhilafahsaya khilafahsayajuga sayajugapercaya jugapercayapak percayapakpancasilais</t>
+  </si>
+  <si>
+    <t>presiden tukar negara kembali normal sesuai pancasila cara pilih sandi presidentukar tukarnegara negarakembali kembalinormal normalsesuai sesuaipancasila pancasilacara carapilih pilihsandi presidentukarnegara tukarnegarakembali negarakembalinormal kembalinormalsesuai normalsesuaipancasila sesuaipancasilacara pancasilacarapilih carapilihsandi</t>
+  </si>
+  <si>
+    <t>lepas substansi debat khawatir sikap emosional pak cenderung labil merespon suatu masalah lepassubstansi substansidebat debatkhawatir khawatirsikap sikapemosional emosionalpak pakcenderung cenderunglabil labilmerespon meresponsuatu suatumasalah lepassubstansidebat substansidebatkhawatir debatkhawatirsikap khawatirsikapemosional sikapemosionalpak emosionalpakcenderung pakcenderunglabil cenderunglabilmerespon labilmeresponsuatu meresponsuatumasalah</t>
+  </si>
+  <si>
+    <t>optimisindonesiamaju kalo tetap percaya sama orang walau sering tuduh itu uwuwuwuwu optimisindonesiamajukalo kalotetap tetappercaya percayasama samaorang orangwalau walausering seringtuduh tuduhitu ituuwuwuwuwu optimisindonesiamajukalotetap kalotetappercaya tetappercayasama percayasamaorang samaorangwalau orangwalausering walauseringtuduh seringtuduhitu tuduhituuwuwuwuwu</t>
+  </si>
+  <si>
+    <t>cuma analis bodoh yg menganalisa keyword https t co latbu 4q1xn cumaanalis analisbodoh bodohyg ygmenganalisa menganalisakeyword keywordhttps httpst tco colatbu latbu4q1xn cumaanalisbodoh analisbodohyg bodohygmenganalisa ygmenganalisakeyword menganalisakeywordhttps keywordhttpst httpstco tcolatbu colatbu4q1xn</t>
+  </si>
+  <si>
+    <t>do a tulus orang ibu gendong anak rupa fans berat 02 bpk jadi presiden ri doa atulus tulusorang orangibu ibugendong gendonganak anakrupa rupafans fansberat berat02 02bpk bpkjadi jadipresiden presidenri doatulus atulusorang tulusorangibu orangibugendong ibugendonganak gendonganakrupa anakrupafans rupafansberat fansberat02 berat02bpk 02bpkjadi bpkjadipresiden jadipresidenri</t>
+  </si>
+  <si>
+    <t>dong pak sangat pro ekonomi digital pemerintahandilan https t co heqqtohzri dongpak paksangat sangatpro proekonomi ekonomidigital digitalpemerintahandilan pemerintahandilanhttps httpst tco coheqqtohzri dongpaksangat paksangatpro sangatproekonomi proekonomidigital ekonomidigitalpemerintahandilan digitalpemerintahandilanhttps pemerintahandilanhttpst httpstco tcoheqqtohzri</t>
+  </si>
+  <si>
+    <t>aura menang mas makin lihat jelas kalau mas menang apa akan kamu laku sobat tuips jokowid auramenang menangmas masmakin makinlihat lihatjelas jelaskalau kalaumas masmenang menangapa apaakan akankamu kamulaku lakusobat sobattuips tuipsjokowid auramenangmas menangmasmakin masmakinlihat makinlihatjelas lihatjelaskalau jelaskalaumas kalaumasmenang masmenangapa menangapaakan apaakankamu akankamulaku kamulakusobat lakusobattuips sobattuipsjokowid</t>
+  </si>
+  <si>
+    <t>mantep banget neh ust tak perlu ganti presiden cukup pilih pak di tps mantepbanget bangetneh nehust usttak takperlu perluganti gantipresiden presidencukup cukuppilih pilihpak pakdi ditps mantepbangetneh bangetnehust nehusttak usttakperlu takperluganti perlugantipresiden gantipresidencukup presidencukuppilih cukuppilihpak pilihpakdi pakditps</t>
+  </si>
+  <si>
+    <t>kalau mau jadi nice guy jadi mediator monggo kalau juang indonesia hormat indonesia kuat kalaumau maujadi jadinice niceguy guyjadi jadimediator mediatormonggo monggokalau kalaujuang juangindonesia indonesiahormat hormatindonesia indonesiakuat kalaumaujadi maujadinice jadiniceguy niceguyjadi guyjadimediator jadimediatormonggo mediatormonggokalau monggokalaujuang kalaujuangindonesia juangindonesiahormat indonesiahormatindonesia hormatindonesiakuat</t>
+  </si>
+  <si>
+    <t>pak percaya pbb peran indonesia selesai kasus rohingya datang tiba pakpercaya percayapbb pbbperan peranindonesia indonesiaselesai selesaikasus kasusrohingya rohingyadatang datangtiba pakpercayapbb percayapbbperan pbbperanindonesia peranindonesiaselesai indonesiaselesaikasus selesaikasusrohingya kasusrohingyadatang rohingyadatangtiba</t>
+  </si>
+  <si>
+    <t>lagi bohong diri sendiri rakyat soal radar tahan indonesia kuat lagibohong bohongdiri dirisendiri sendirirakyat rakyatsoal soalradar radartahan tahanindonesia indonesiakuat lagibohongdiri bohongdirisendiri dirisendirirakyat sendirirakyatsoal rakyatsoalradar soalradartahan radartahanindonesia tahanindonesiakuat</t>
+  </si>
+  <si>
+    <t>pak kaya ken banget perang gabung twitter aja pak hampir tiap hari perang optimisindonesiamaju pakkaya kayaken kenbanget bangetperang peranggabung gabungtwitter twitteraja ajapak pakhampir hampirtiap tiaphari hariperang perangoptimisindonesiamaju pakkayaken kayakenbanget kenbangetperang bangetperanggabung peranggabungtwitter gabungtwitteraja twitterajapak ajapakhampir pakhampirtiap hampirtiaphari tiaphariperang hariperangoptimisindonesiamaju</t>
+  </si>
+  <si>
+    <t>bukan tidak percaya tni ini tni taruh nyawa di tni lebih tni banyak tni bukantidak tidakpercaya percayatni tniini initni tnitaruh taruhnyawa nyawadi ditni tnilebih lebihtni tnibanyak banyaktni bukantidakpercaya tidakpercayatni percayatniini tniinitni initnitaruh tnitaruhnyawa taruhnyawadi nyawaditni ditnilebih tnilebihtni lebihtnibanyak tnibanyaktni</t>
+  </si>
+  <si>
+    <t>bukan figur pimpin sempurna kalau liat debat ya lebih yakin rival tahu mau laku bukanfigur figurpimpin pimpinsempurna sempurnakalau kalauliat liatdebat debatya yalebih lebihyakin yakinrival rivaltahu tahumau maulaku bukanfigurpimpin figurpimpinsempurna pimpinsempurnakalau sempurnakalauliat kalauliatdebat liatdebatya debatyalebih yalebihyakin lebihyakinrival yakinrivaltahu rivaltahumau tahumaulaku</t>
+  </si>
+  <si>
+    <t>tampil mas debat capres malam kejut beda 2 debat tampilmas masdebat debatcapres capresmalam malamkejut kejutbeda beda2 2debat tampilmasdebat masdebatcapres debatcapresmalam capresmalamkejut malamkejutbeda kejutbeda2 beda2debat</t>
+  </si>
+  <si>
+    <t>dgn tampil lbh semangat tegas rada ofensif justru lihat sangat natural cerdas keluar dgntampil tampillbh lbhsemangat semangattegas tegasrada radaofensif ofensifjustru justrulihat lihatsangat sangatnatural naturalcerdas cerdaskeluar dgntampillbh tampillbhsemangat lbhsemangattegas semangattegasrada tegasradaofensif radaofensifjustru ofensifjustrulihat justrulihatsangat lihatsangatnatural sangatnaturalcerdas naturalcerdaskeluar</t>
+  </si>
+  <si>
+    <t>apa cepat kalau kaya alir luar negeri lebih baik pakai tehnologi lama kaya indonesia apacepat cepatkalau kalaukaya kayaalir alirluar luarnegeri negerilebih lebihbaik baikpakai pakaitehnologi tehnologilama lamakaya kayaindonesia apacepatkalau cepatkalaukaya kalaukayaalir kayaalirluar alirluarnegeri luarnegerilebih negerilebihbaik lebihbaikpakai baikpakaitehnologi pakaitehnologilama tehnologilamakaya lamakayaindonesia</t>
+  </si>
+  <si>
+    <t>seluruh rakyat siap bangun indonesia sama menangjokowilagi seluruhrakyat rakyatsiap siapbangun bangunindonesia indonesiasama samamenangjokowilagi seluruhrakyatsiap rakyatsiapbangun siapbangunindonesia bangunindonesiasama indonesiasamamenangjokowilagi</t>
+  </si>
+  <si>
+    <t>jangan uang indonesia lari keluar negeri kata iya pak yang link yaa janganuang uangindonesia indonesialari larikeluar keluarnegeri negerikata kataiya iyapak pakyang yanglink linkyaa janganuangindonesia uangindonesialari indonesialarikeluar larikeluarnegeri keluarnegerikata negerikataiya kataiyapak iyapakyang pakyanglink yanglinkyaa</t>
+  </si>
+  <si>
+    <t>biasa cuma lantang retorika kata dulu banyak panglima lapor abs biasacuma cumalantang lantangretorika retorikakata katadulu dulubanyak banyakpanglima panglimalapor laporabs biasacumalantang cumalantangretorika lantangretorikakata retorikakatadulu katadulubanyak dulubanyakpanglima banyakpanglimalapor panglimalaporabs</t>
+  </si>
+  <si>
+    <t>real leader liat aja closing statement jadi ngikut begitu orang leader realleader leaderliat liataja ajaclosing closingstatement statementjadi jadingikut ngikutbegitu begituorang orangleader realleaderliat leaderliataja liatajaclosing ajaclosingstatement closingstatementjadi statementjadingikut jadingikutbegitu ngikutbegituorang begituorangleader</t>
+  </si>
+  <si>
+    <t>visi misi tawar yang baru baharu yg lebih visioner lebih detail pemerintahandilan visimisi misitawar tawaryang yangbaru barubaharu baharuyg yglebih lebihvisioner visionerlebih lebihdetail detailpemerintahandilan visimisitawar misitawaryang tawaryangbaru yangbarubaharu barubaharuyg baharuyglebih yglebihvisioner lebihvisionerlebih visionerlebihdetail lebihdetailpemerintahandilan</t>
+  </si>
+  <si>
+    <t>detik detik marah marah di tertawa debatkeempatpilpres 2019 jokowimengubahsemua 01dilanjutkan detikdetik detikmarah marahmarah marahdi ditertawa tertawadebatkeempatpilpres debatkeempatpilpres2019 2019jokowimengubahsemua jokowimengubahsemua01dilanjutkan detikdetikmarah detikmarahmarah marahmarahdi marahditertawa ditertawadebatkeempatpilpres tertawadebatkeempatpilpres2019 debatkeempatpilpres2019jokowimengubahsemua 2019jokowimengubahsemua01dilanjutkan</t>
+  </si>
+  <si>
+    <t>allah maha dengar simpuh hadap mohon pak bang beri mudah allahmaha mahadengar dengarsimpuh simpuhhadap hadapmohon mohonpak pakbang bangberi berimudah allahmahadengar mahadengarsimpuh dengarsimpuhhadap simpuhhadapmohon hadapmohonpak mohonpakbang pakbangberi bangberimudah</t>
+  </si>
+  <si>
+    <t>ucap orang prajurit tak ragu tulus prabowo ucaporang orangprajurit prajurittak takragu ragutulus tulusprabowo ucaporangprajurit orangprajurittak prajurittakragu takragutulus ragutulusprabowo</t>
+  </si>
+  <si>
+    <t>satu tak lebih megalomaniak puja diri sendiri anggap diri paling hebat tni satutak taklebih lebihmegalomaniak megalomaniakpuja pujadiri dirisendiri sendirianggap anggapdiri diripaling palinghebat hebattni satutaklebih taklebihmegalomaniak lebihmegalomaniakpuja megalomaniakpujadiri pujadirisendiri dirisendirianggap sendirianggapdiri anggapdiripaling diripalinghebat palinghebattni</t>
+  </si>
+  <si>
+    <t>sistem 1 jalur mana bagai izin jadi 1 tempat ide luar biasa pakde abah sistem1 1jalur jalurmana manabagai bagaiizin izinjadi jadi1 1tempat tempatide ideluar luarbiasa biasapakde pakdeabah sistem1jalur 1jalurmana jalurmanabagai manabagaiizin bagaiizinjadi izinjadi1 jadi1tempat 1tempatide tempatideluar ideluarbiasa luarbiasapakde biasapakdeabah</t>
+  </si>
+  <si>
+    <t>soal ungsi rohingya ada tuh peran yg jelas dr perintah pulang ungsi dr cox bazar wah hoaks soalungsi ungsirohingya rohingyaada adatuh tuhperan peranyg ygjelas jelasdr drperintah perintahpulang pulangungsi ungsidr drcox coxbazar bazarwah wahhoaks soalungsirohingya ungsirohingyaada rohingyaadatuh adatuhperan tuhperanyg peranygjelas ygjelasdr jelasdrperintah drperintahpulang perintahpulangungsi pulangungsidr ungsidrcox drcoxbazar coxbazarwah bazarwahhoaks</t>
+  </si>
+  <si>
+    <t>keluarga bisa ajar bagaimana cara sabar terus jalan keluargabisa bisaajar ajarbagaimana bagaimanacara carasabar sabarterus terusjalan keluargabisaajar bisaajarbagaimana ajarbagaimanacara bagaimanacarasabar carasabarterus sabarterusjalan selalu bangkit selalubangkit</t>
+  </si>
+  <si>
+    <t>bukan emosi bos tegas tu nama nya jelas kan hadap orng yg buta hati nya bukanemosi emosibos bostegas tegastu tunama namanya nyajelas jelaskan kanhadap hadaporng orngyg ygbuta butahati hatinya bukanemosibos emosibostegas bostegastu tegastunama tunamanya namanyajelas nyajelaskan jelaskanhadap kanhadaporng hadaporngyg orngygbuta ygbutahati butahatinya</t>
+  </si>
+  <si>
+    <t>woyy dah menang telak santai dikit napa ngapain sibuk nampolin cebi dongo biar halu alam woyydah dahmenang menangtelak telaksantai santaidikit dikitnapa napangapain ngapainsibuk sibuknampolin nampolincebi cebidongo dongobiar biarhalu halualam woyydahmenang dahmenangtelak menangtelaksantai telaksantaidikit santaidikitnapa dikitnapangapain napangapainsibuk ngapainsibuknampolin sibuknampolincebi nampolincebidongo cebidongobiar dongobiarhalu biarhalualam</t>
+  </si>
+  <si>
+    <t>tahan lemah kalian ketawa sila kalian ketawa dukung memang nyata goblok dungu tahanlemah lemahkalian kalianketawa ketawasila silakalian kalianketawa ketawadukung dukungmemang memangnyata nyatagoblok goblokdungu tahanlemahkalian lemahkalianketawa kalianketawasila ketawasilakalian silakalianketawa kalianketawadukung ketawadukungmemang dukungmemangnyata memangnyatagoblok nyatagoblokdungu</t>
+  </si>
+  <si>
+    <t>pak kalian ketawa pak pakkalian kalianketawa ketawapak pakkalianketawa kalianketawapak</t>
+  </si>
+  <si>
+    <t>biar rakyat tentu pilih baik bangsa negara prabowobentengnkri biarrakyat rakyattentu tentupilih pilihbaik baikbangsa bangsanegara negaraprabowobentengnkri biarrakyattentu rakyattentupilih tentupilihbaik pilihbaikbangsa baikbangsanegara bangsanegaraprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>rap 2 bilang lebih tni banding tni macam hina hadap tni dendam pribadi rap2 2bilang bilanglebih lebihtni tnibanding bandingtni tnimacam macamhina hinahadap hadaptni tnidendam dendampribadi rap2bilang 2bilanglebih bilanglebihtni lebihtnibanding tnibandingtni bandingtnimacam tnimacamhina macamhinahadap hinahadaptni hadaptnidendam tnidendampribadi</t>
+  </si>
+  <si>
+    <t>orang adalah njenengan sendiri pak sama debatasyikjokowi karnajokowi https t co khmy 7knh85 orangadalah adalahnjenengan njenengansendiri sendiripak paksama samadebatasyikjokowi debatasyikjokowikarnajokowi karnajokowihttps httpst tco cokhmy khmy7knh85 orangadalahnjenengan adalahnjenengansendiri njenengansendiripak sendiripaksama paksamadebatasyikjokowi samadebatasyikjokowikarnajokowi debatasyikjokowikarnajokowihttps karnajokowihttpst httpstco tcokhmy cokhmy7knh85</t>
+  </si>
+  <si>
+    <t>mas janji tingkat rasio pajak jadi 16 gaji pns akan naik tagih janji bapak masjanji janjitingkat tingkatrasio rasiopajak pajakjadi jadi16 16gaji gajipns pnsakan akannaik naiktagih tagihjanji janjibapak masjanjitingkat janjitingkatrasio tingkatrasiopajak rasiopajakjadi pajakjadi16 jadi16gaji 16gajipns gajipnsakan pnsakannaik akannaiktagih naiktagihjanji tagihjanjibapak</t>
+  </si>
+  <si>
+    <t>makanya jae bedah tuh buku undercover kampus 2019gantipresiden https t co 4udrafliab makanyajae jaebedah bedahtuh tuhbuku bukuundercover undercoverkampus kampus2019gantipresiden 2019gantipresidenhttps httpst tco co4udrafliab makanyajaebedah jaebedahtuh bedahtuhbuku tuhbukuundercover bukuundercoverkampus undercoverkampus2019gantipresiden kampus2019gantipresidenhttps 2019gantipresidenhttpst httpstco tco4udrafliab</t>
+  </si>
+  <si>
+    <t>kutip benar 30 persen apbn singapura belanja militer https t co 8roepzmp87 kutipbenar benar30 30persen persenapbn apbnsingapura singapurabelanja belanjamiliter militerhttps httpst tco co8roepzmp87 kutipbenar30 benar30persen 30persenapbn persenapbnsingapura apbnsingapurabelanja singapurabelanjamiliter belanjamiliterhttps militerhttpst httpstco tco8roepzmp87</t>
+  </si>
+  <si>
+    <t>bahasa inggris p keren indonesia pandang top dunia quote-nya bobot bahasainggris inggrisp pkeren kerenindonesia indonesiapandang pandangtop topdunia duniaquote-nya quote-nyabobot bahasainggrisp inggrispkeren pkerenindonesia kerenindonesiapandang indonesiapandangtop pandangtopdunia topduniaquote-nya duniaquote-nyabobot</t>
+  </si>
+  <si>
+    <t>mas puas malam dgn aura tampil pak kan garang tegas berani maspuas puasmalam malamdgn dgnaura auratampil tampilpak pakkan kangarang garangtegas tegasberani maspuasmalam puasmalamdgn malamdgnaura dgnauratampil auratampilpak tampilpakkan pakkangarang kangarangtegas garangtegasberani</t>
+  </si>
+  <si>
+    <t>kembali jaya indonesia kawal bapak tuju istana negara prabowobentengnkri prabowobentengnkri kembalijaya jayaindonesia indonesiakawal kawalbapak bapaktuju tujuistana istananegara negaraprabowobentengnkri prabowobentengnkriprabowobentengnkri kembalijayaindonesia jayaindonesiakawal indonesiakawalbapak kawalbapaktuju bapaktujuistana tujuistananegara istananegaraprabowobentengnkri negaraprabowobentengnkriprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>jawab pak tanggap tahan rapuh yang sipil sangat percaya tni jawabpak paktanggap tanggaptahan tahanrapuh rapuhyang yangsipil sipilsangat sangatpercaya percayatni jawabpaktanggap paktanggaptahan tanggaptahanrapuh tahanrapuhyang rapuhyangsipil yangsipilsangat sipilsangatpercaya sangatpercayatni</t>
+  </si>
+  <si>
+    <t>bismillah pak inshaa allah mudah debat hari semangat sukses pak https t co xer 1pigoxr bismillahpak pakinshaa inshaaallah allahmudah mudahdebat debathari harisemangat semangatsukses suksespak pakhttps httpst tco coxer xer1pigoxr bismillahpakinshaa pakinshaaallah inshaaallahmudah allahmudahdebat mudahdebathari debatharisemangat harisemangatsukses semangatsuksespak suksespakhttps pakhttpst httpstco tcoxer coxer1pigoxr</t>
+  </si>
+  <si>
+    <t>kata korupsi indonesia ada taraf parah kalau sakit sudah stadium 4 katakorupsi korupsiindonesia indonesiaada adataraf tarafparah parahkalau kalausakit sakitsudah sudahstadium stadium4 katakorupsiindonesia korupsiindonesiaada indonesiaadataraf adatarafparah tarafparahkalau parahkalausakit kalausakitsudah sakitsudahstadium sudahstadium4</t>
+  </si>
+  <si>
+    <t>telaaak momen blejekin si doi pak dhe kereeen debatkeempatpilpres 2019 jokowimengubahsemua 01dila telaaakmomen momenblejekin blejekinsi sidoi doipak pakdhe dhekereeen kereeendebatkeempatpilpres debatkeempatpilpres2019 2019jokowimengubahsemua jokowimengubahsemua01dila telaaakmomenblejekin momenblejekinsi blejekinsidoi sidoipak doipakdhe pakdhekereeen dhekereeendebatkeempatpilpres kereeendebatkeempatpilpres2019 debatkeempatpilpres2019jokowimengubahsemua 2019jokowimengubahsemua01dila</t>
+  </si>
+  <si>
+    <t>tertawa puas takut marah larang ingat pilih biar bebas tertawa batas tertawapuas puastakut takutmarah marahlarang larangingat ingatpilih pilihbiar biarbebas bebastertawa tertawabatas tertawapuastakut puastakutmarah takutmarahlarang marahlarangingat larangingatpilih ingatpilihbiar pilihbiarbebas biarbebastertawa bebastertawabatas</t>
+  </si>
+  <si>
+    <t>nilai besar jumlah duduk muslim jadi salah satu kuat diplomasi indonesia nilaibesar besarjumlah jumlahduduk dudukmuslim muslimjadi jadisalah salahsatu satukuat kuatdiplomasi diplomasiindonesia nilaibesarjumlah besarjumlahduduk jumlahdudukmuslim dudukmuslimjadi muslimjadisalah jadisalahsatu salahsatukuat satukuatdiplomasi kuatdiplomasiindonesia</t>
+  </si>
+  <si>
+    <t>pak tekan soal kecil anggar tahan pak paktekan tekansoal soalkecil kecilanggar anggartahan tahanpak paktekansoal tekansoalkecil soalkecilanggar kecilanggartahan anggartahanpak</t>
+  </si>
+  <si>
+    <t>kalo sederhana bunyi jadi besar pilih tolol https t co 5jtydtkg5c kalosederhana sederhanabunyi bunyijadi jadibesar besarpilih pilihtolol tololhttps httpst tco co5jtydtkg5c kalosederhanabunyi sederhanabunyijadi bunyijadibesar jadibesarpilih besarpilihtolol pilihtololhttps tololhttpst httpstco tco5jtydtkg5c</t>
+  </si>
+  <si>
+    <t>pak tinggal panggung kepala tegak laksana ayam jago habis menang tarung keren paktinggal tinggalpanggung panggungkepala kepalategak tegaklaksana laksanaayam ayamjago jagohabis habismenang menangtarung tarungkeren paktinggalpanggung tinggalpanggungkepala panggungkepalategak kepalategaklaksana tegaklaksanaayam laksanaayamjago ayamjagohabis jagohabismenang habismenangtarung menangtarungkeren</t>
+  </si>
+  <si>
+    <t>alhamdulillah sudah tiba hotel shangri-la siap dukung pak debat empat pilpres 2019 bismilllah alhamdulillahsudah sudahtiba tibahotel hotelshangri-la shangri-lasiap siapdukung dukungpak pakdebat debatempat empatpilpres pilpres2019 2019bismilllah alhamdulillahsudahtiba sudahtibahotel tibahotelshangri-la hotelshangri-lasiap shangri-lasiapdukung siapdukungpak dukungpakdebat pakdebatempat debatempatpilpres empatpilpres2019 pilpres2019bismilllah</t>
+  </si>
+  <si>
+    <t>pak kalo benar pikir bapak soal tahan aman mohon maaf bapak layak ganti pakkalo kalobenar benarpikir pikirbapak bapaksoal soaltahan tahanaman amanmohon mohonmaaf maafbapak bapaklayak layakganti pakkalobenar kalobenarpikir benarpikirbapak pikirbapaksoal bapaksoaltahan soaltahanaman tahanamanmohon amanmohonmaaf mohonmaafbapak maafbapaklayak bapaklayakganti</t>
+  </si>
+  <si>
+    <t>debat malam final sedikit tdk ragu lg kpd orang subianto ttg ideologi pancasila debatmalam malamfinal finalsedikit sedikittdk tdkragu ragulg lgkpd kpdorang orangsubianto subiantottg ttgideologi ideologipancasila debatmalamfinal malamfinalsedikit finalsedikittdk sedikittdkragu tdkragulg ragulgkpd lgkpdorang kpdorangsubianto orangsubiantottg subiantottgideologi ttgideologipancasila</t>
+  </si>
+  <si>
+    <t>sila puas bangga jd negara mediator international tp sindir krn banyak hutang silapuas puasbangga banggajd jdnegara negaramediator mediatorinternational internationaltp tpsindir sindirkrn krnbanyak banyakhutang silapuasbangga puasbanggajd banggajdnegara jdnegaramediator negaramediatorinternational mediatorinternationaltp internationaltpsindir tpsindirkrn sindirkrnbanyak krnbanyakhutang</t>
+  </si>
+  <si>
+    <t>uno jika unojika menang 1 5 pdb alokasi sektor hankam https t co 8toa5jljcg menang1 15 5pdb pdbalokasi alokasisektor sektorhankam hankamhttps httpst tco co8toa5jljcg menang15 15pdb 5pdbalokasi pdbalokasisektor alokasisektorhankam sektorhankamhttps hankamhttpst httpstco tco8toa5jljcg</t>
+  </si>
+  <si>
+    <t>kayak kalau jadi presiden baru tahun udah perang deh dilikirin perang mulu kayakkalau kalaujadi jadipresiden presidenbaru barutahun tahunudah udahperang perangdeh dehdilikirin dilikirinperang perangmulu kayakkalaujadi kalaujadipresiden jadipresidenbaru presidenbarutahun barutahunudah tahunudahperang udahperangdeh perangdehdilikirin dehdilikirinperang dilikirinperangmulu</t>
+  </si>
+  <si>
+    <t>good bye pak sandi beres semua laku scaling makmur goodbye byepak paksandi sandiberes beressemua semualaku lakuscaling scalingmakmur goodbyepak byepaksandi paksandiberes sandiberessemua beressemualaku semualakuscaling lakuscalingmakmur</t>
+  </si>
+  <si>
+    <t>pak kata nasionalis tinggi pak usah swis indonesia sdh lebih dr 20 thn masa saham blm nasional pakkata katanasionalis nasionalistinggi tinggipak pakusah usahswis swisindonesia indonesiasdh sdhlebih lebihdr dr20 20thn thnmasa masasaham sahamblm blmnasional pakkatanasionalis katanasionalistinggi nasionalistinggipak tinggipakusah pakusahswis usahswisindonesia swisindonesiasdh indonesiasdhlebih sdhlebihdr lebihdr20 dr20thn 20thnmasa thnmasasaham masasahamblm sahamblmnasional</t>
+  </si>
+  <si>
+    <t>pmerintahan yng sigap layan rakyt bravoo pak pemerintahandilan https t co phy 5t8pclm pmerintahanyng yngsigap sigaplayan layanrakyt rakytbravoo bravoopak pakpemerintahandilan pemerintahandilanhttps httpst tco cophy phy5t8pclm pmerintahanyngsigap yngsigaplayan sigaplayanrakyt layanrakytbravoo rakytbravoopak bravoopakpemerintahandilan pakpemerintahandilanhttps pemerintahandilanhttpst httpstco tcophy cophy5t8pclm</t>
+  </si>
+  <si>
+    <t>bukan apa dari sudut kota kecil jogjakarta punya semangat menang prabowo-sandi bukanapa apadari darisudut sudutkota kotakecil keciljogjakarta jogjakartapunya punyasemangat semangatmenang menangprabowo-sandi bukanapadari apadarisudut darisudutkota sudutkotakecil kotakeciljogjakarta keciljogjakartapunya jogjakartapunyasemangat punyasemangatmenang semangatmenangprabowo-sandi</t>
+  </si>
+  <si>
+    <t>pemerintahandilan perintah percaya tni mantul jokowilagi https t co ws2xjlvdz9 pemerintahandilanperintah perintahpercaya percayatni tnimantul mantuljokowilagi jokowilagihttps httpst tco cows2xjlvdz9 pemerintahandilanperintahpercaya perintahpercayatni percayatnimantul tnimantuljokowilagi mantuljokowilagihttps jokowilagihttpst httpstco tcows2xjlvdz9</t>
+  </si>
+  <si>
+    <t>sejak 2012 dukung thn 2014 tetap dukung menang ya tetap ngamen ga imbal proyek sejak2012 2012dukung dukungthn thn2014 2014tetap tetapdukung dukungmenang menangya yatetap tetapngamen ngamenga gaimbal imbalproyek sejak2012dukung 2012dukungthn dukungthn2014 thn2014tetap 2014tetapdukung tetapdukungmenang dukungmenangya menangyatetap yatetapngamen tetapngamenga ngamengaimbal gaimbalproyek</t>
+  </si>
+  <si>
+    <t>mantul makin yakin indonesia menang kami pancasila ideologi final kami tekad mempertahankanya mantulmakin makinyakin yakinindonesia indonesiamenang menangkami kamipancasila pancasilaideologi ideologifinal finalkami kamitekad tekadmempertahankanya mantulmakinyakin makinyakinindonesia yakinindonesiamenang indonesiamenangkami menangkamipancasila kamipancasilaideologi pancasilaideologifinal ideologifinalkami finalkamitekad kamitekadmempertahankanya</t>
+  </si>
+  <si>
+    <t>jiwa sangat nasionalis its you pak debat malam sungguh sangat luar biassaa prabowobentengnkri jiwasangat sangatnasionalis nasionalisits itsyou youpak pakdebat debatmalam malamsungguh sungguhsangat sangatluar luarbiassaa biassaaprabowobentengnkri jiwasangatnasionalis sangatnasionalisits nasionalisitsyou itsyoupak youpakdebat pakdebatmalam debatmalamsungguh malamsungguhsangat sungguhsangatluar sangatluarbiassaa luarbiassaaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>ngajak maju ngajak perang jd clear yah gaes siapa yg hrs pilih 01 pemerintahandilan ngajakmaju majungajak ngajakperang perangjd jdclear clearyah yahgaes gaessiapa siapayg yghrs hrspilih pilih01 01pemerintahandilan ngajakmajungajak majungajakperang ngajakperangjd perangjdclear jdclearyah clearyahgaes yahgaessiapa gaessiapayg siapayghrs yghrspilih hrspilih01 pilih01pemerintahandilan</t>
+  </si>
+  <si>
+    <t>sila kalian ketawa kaya bilang bocor 2014 lalu sekarang soal tahan klean ketawa silakalian kalianketawa ketawakaya kayabilang bilangbocor bocor2014 2014lalu lalusekarang sekarangsoal soaltahan tahanklean kleanketawa silakalianketawa kalianketawakaya ketawakayabilang kayabilangbocor bilangbocor2014 bocor2014lalu 2014lalusekarang lalusekarangsoal sekarangsoaltahan soaltahanklean tahankleanketawa</t>
+  </si>
+  <si>
+    <t>capres nilai unggul debat capres 2019 klaim kuasa soal kait tema debat capresnilai nilaiunggul ungguldebat debatcapres capres2019 2019klaim klaimkuasa kuasasoal soalkait kaittema temadebat capresnilaiunggul nilaiungguldebat ungguldebatcapres debatcapres2019 capres2019klaim 2019klaimkuasa klaimkuasasoal kuasasoalkait soalkaittema kaittemadebat</t>
+  </si>
+  <si>
+    <t>https t co mmjebjk 6md pemerintahandilan cawapres ma ruf amin kata tampil sesuai harap httpst tco commjebjk mmjebjk6md 6mdpemerintahandilan pemerintahandilancawapres cawapresma maruf rufamin aminkata katatampil tampilsesuai sesuaiharap httpstco tcommjebjk commjebjk6md mmjebjk6mdpemerintahandilan 6mdpemerintahandilancawapres pemerintahandilancawapresma cawapresmaruf marufamin rufaminkata aminkatatampil katatampilsesuai tampilsesuaiharap</t>
+  </si>
+  <si>
+    <t>deklarasi rawan nasution saudara deklarasi mutk dukung pasang prabowo-sandi pilpres alhamdulillah deklarasirawan rawannasution nasutionsaudara saudaradeklarasi deklarasimutk mutkdukung dukungpasang pasangprabowo-sandi prabowo-sandipilpres pilpresalhamdulillah deklarasirawannasution rawannasutionsaudara nasutionsaudaradeklarasi saudaradeklarasimutk deklarasimutkdukung mutkdukungpasang dukungpasangprabowo-sandi pasangprabowo-sandipilpres prabowo-sandipilpresalhamdulillah</t>
+  </si>
+  <si>
+    <t>manusia yg di kubu 02 tuuh selalu akal sehat manusiayg ygdi dikubu kubu02 02tuuh tuuhselalu selaluakal akalsehat manusiaygdi ygdikubu dikubu02 kubu02tuuh 02tuuhselalu tuuhselaluakal selaluakalsehat</t>
+  </si>
+  <si>
+    <t>sekali rendah tni bilang lebih tni tni cukk apa maksude sekalirendah rendahtni tnibilang bilanglebih lebihtni tnitni tnicukk cukkapa apamaksude sekalirendahtni rendahtnibilang tnibilanglebih bilanglebihtni lebihtnitni tnitnicukk tnicukkapa cukkapamaksude</t>
+  </si>
+  <si>
+    <t>ps gak nyerang bang beliau bicara jujur otentik gak pk poles apa knp bs gt psgak gaknyerang nyerangbang bangbeliau beliaubicara bicarajujur jujurotentik otentikgak gakpk pkpoles polesapa apaknp knpbs bsgt psgaknyerang gaknyerangbang nyerangbangbeliau bangbeliaubicara beliaubicarajujur bicarajujurotentik jujurotentikgak otentikgakpk gakpkpoles pkpolesapa polesapaknp apaknpbs knpbsgt</t>
+  </si>
+  <si>
+    <t>pak korupsi turun sistem yg baik bravo pak pemerintahandilan pakkorupsi korupsiturun turunsistem sistemyg ygbaik baikbravo bravopak pakpemerintahandilan pakkorupsiturun korupsiturunsistem turunsistemyg sistemygbaik ygbaikbravo baikbravopak bravopakpemerintahandilan</t>
+  </si>
+  <si>
+    <t>buzzer bayar siap ikut polling nih rakyat mau lawan liat siapa yg menang prabowo buzzerbayar bayarsiap siapikut ikutpolling pollingnih nihrakyat rakyatmau maulawan lawanliat liatsiapa siapayg ygmenang menangprabowo buzzerbayarsiap bayarsiapikut siapikutpolling ikutpollingnih pollingnihrakyat nihrakyatmau rakyatmaulawan maulawanliat lawanliatsiapa liatsiapayg siapaygmenang ygmenangprabowo</t>
+  </si>
+  <si>
+    <t>rada ijid ningali bobotoh deklarasi dukung paslon rek deklarasi milih radaijid ijidningali ningalibobotoh bobotohdeklarasi deklarasidukung dukungpaslon paslonrek rekdeklarasi deklarasimilih radaijidningali ijidningalibobotoh ningalibobotohdeklarasi bobotohdeklarasidukung deklarasidukungpaslon dukungpaslonrek paslonrekdeklarasi rekdeklarasimilih</t>
+  </si>
+  <si>
+    <t>ujung debat capres pak hasil jinak emosi dgn satu kalimat santun sahabat tdk pernah putus ujungdebat debatcapres caprespak pakhasil hasiljinak jinakemosi emosidgn dgnsatu satukalimat kalimatsantun santunsahabat sahabattdk tdkpernah pernahputus ujungdebatcapres debatcaprespak caprespakhasil pakhasiljinak hasiljinakemosi jinakemosidgn emosidgnsatu dgnsatukalimat satukalimatsantun kalimatsantunsahabat santunsahabattdk sahabattdkpernah tdkpernahputus</t>
+  </si>
+  <si>
+    <t>kuis pilpres capres mana suka joged 2 telanjang dada muka umum https t co jn0ui9jd3s c7 - kuispilpres pilprescapres capresmana manasuka sukajoged joged2 2telanjang telanjangdada dadamuka mukaumum umumhttps httpst tco cojn0ui9jd3s jn0ui9jd3sc7 c7- kuispilprescapres pilprescapresmana capresmanasuka manasukajoged sukajoged2 joged2telanjang 2telanjangdada telanjangdadamuka dadamukaumum mukaumumhttps umumhttpst httpstco tcojn0ui9jd3s cojn0ui9jd3sc7 jn0ui9jd3sc7-</t>
+  </si>
+  <si>
+    <t>visi misi kok kayak orang surup promosi kok marah visimisi misikok kokkayak kayakorang orangsurup suruppromosi promosikok kokmarah visimisikok misikokkayak kokkayakorang kayakorangsurup orangsuruppromosi suruppromosikok promosikokmarah</t>
+  </si>
+  <si>
+    <t>ni adek bagi kelompok radikal mau ganti pancasila wajah aja udah rem dukung sandi niadek adekbagi bagikelompok kelompokradikal radikalmau mauganti gantipancasila pancasilawajah wajahaja ajaudah udahrem remdukung dukungsandi niadekbagi adekbagikelompok bagikelompokradikal kelompokradikalmau radikalmauganti maugantipancasila gantipancasilawajah pancasilawajahaja wajahajaudah ajaudahrem udahremdukung remdukungsandi</t>
+  </si>
+  <si>
+    <t>imho pak lebih baik tak dalam debat kali imhopak paklebih lebihbaik baiktak takdalam dalamdebat debatkali imhopaklebih paklebihbaik lebihbaiktak baiktakdalam takdalamdebat dalamdebatkali</t>
+  </si>
+  <si>
+    <t>malam bungkam juga dukung tidak ada ria sorak gembira malambungkam bungkamjuga jugadukung dukungtidak tidakada adaria riasorak sorakgembira malambungkamjuga bungkamjugadukung jugadukungtidak dukungtidakada tidakadaria adariasorak riasorakgembira</t>
+  </si>
+  <si>
+    <t>tahan aman indonesia harga mati jendral kalo dunia internasional lihat balik tahanaman amanindonesia indonesiaharga hargamati matijendral jendralkalo kalodunia duniainternasional internasionallihat lihatbalik tahanamanindonesia amanindonesiaharga indonesiahargamati hargamatijendral matijendralkalo jendralkalodunia kaloduniainternasional duniainternasionallihat internasionallihatbalik</t>
+  </si>
+  <si>
+    <t>tuh bingung jadi pak prab masak balik jadul makin yakin kalau pak aja 01indonesiamaju tuhbingung bingungjadi jadipak pakprab prabmasak masakbalik balikjadul jadulmakin makinyakin yakinkalau kalaupak pakaja aja01indonesiamaju tuhbingungjadi bingungjadipak jadipakprab pakprabmasak prabmasakbalik masakbalikjadul balikjadulmakin jadulmakinyakin makinyakinkalau yakinkalaupak kalaupakaja pakaja01indonesiamaju</t>
+  </si>
+  <si>
+    <t>serentak kompak naik jokowidiambangkekalahan kita sambut pimpin baru - sandi serentakkompak kompaknaik naikjokowidiambangkekalahan jokowidiambangkekalahankita kitasambut sambutpimpin pimpinbaru baru- -sandi serentakkompaknaik kompaknaikjokowidiambangkekalahan naikjokowidiambangkekalahankita jokowidiambangkekalahankitasambut kitasambutpimpin sambutpimpinbaru pimpinbaru- baru-sandi</t>
+  </si>
+  <si>
+    <t>pak lebih percaya teknologi lama https t co nfiq 982l67 paklebih lebihpercaya percayateknologi teknologilama lamahttps httpst tco confiq nfiq982l67 paklebihpercaya lebihpercayateknologi percayateknologilama teknologilamahttps lamahttpst httpstco tconfiq confiq982l67</t>
+  </si>
+  <si>
+    <t>kuat tahan sangat rapuh lemah bukan salah pak tapi tidak tahu salah siapa kuattahan tahansangat sangatrapuh rapuhlemah lemahbukan bukansalah salahpak paktapi tapitidak tidaktahu tahusalah salahsiapa kuattahansangat tahansangatrapuh sangatrapuhlemah rapuhlemahbukan lemahbukansalah bukansalahpak salahpaktapi paktapitidak tapitidaktahu tidaktahusalah tahusalahsiapa</t>
+  </si>
+  <si>
+    <t>sering sedang naik sepeda rantai putus percaya saya pak rantai sahabat tidak pernah putus seringsedang sedangnaik naiksepeda sepedarantai rantaiputus putuspercaya percayasaya sayapak pakrantai rantaisahabat sahabattidak tidakpernah pernahputus seringsedangnaik sedangnaiksepeda naiksepedarantai sepedarantaiputus rantaiputuspercaya putuspercayasaya percayasayapak sayapakrantai pakrantaisahabat rantaisahabattidak sahabattidakpernah tidakpernahputus</t>
+  </si>
+  <si>
+    <t>percaya rantai sahabat percayarantai rantaisahabat percayarantaisahabat pak yakin akan pernah putus sweet banget sih pakdee pakyakin yakinakan akanpernah pernahputus putussweet sweetbanget bangetsih sihpakdee pakyakinakan yakinakanpernah akanpernahputus pernahputussweet putussweetbanget sweetbangetsih bangetsihpakdee</t>
+  </si>
+  <si>
+    <t>emosi kontrol parah audiens orang begini bahaya kalau pimpin emosikontrol kontrolparah parahaudiens audiensorang orangbegini beginibahaya bahayakalau kalaupimpin emosikontrolparah kontrolparahaudiens parahaudiensorang audiensorangbegini orangbeginibahaya beginibahayakalau bahayakalaupimpin</t>
+  </si>
+  <si>
+    <t>silah tertawa jadi presiden kalo beliau menang ketawa larang silahtertawa tertawajadi jadipresiden presidenkalo kalobeliau beliaumenang menangketawa ketawalarang silahtertawajadi tertawajadipresiden jadipresidenkalo presidenkalobeliau kalobeliaumenang beliaumenangketawa menangketawalarang</t>
+  </si>
+  <si>
+    <t>jkw faham model perang depan perang apa kalau jadi cyber war space war jkwfaham fahammodel modelperang perangdepan depanperang perangapa apakalau kalaujadi jadicyber cyberwar warspace spacewar jkwfahammodel fahammodelperang modelperangdepan perangdepanperang depanperangapa perangapakalau apakalaujadi kalaujadicyber jadicyberwar cyberwarspace warspacewar</t>
+  </si>
+  <si>
+    <t>in all seriousness gue ga ngerti topik military and defense harus jadi sisi kuat malah beranta gitu inall allseriousness seriousnessgue guega gangerti ngertitopik topikmilitary militaryand anddefense defenseharus harusjadi jadisisi sisikuat kuatmalah malahberanta berantagitu inallseriousness allseriousnessgue seriousnessguega guegangerti gangertitopik ngertitopikmilitary topikmilitaryand militaryanddefense anddefenseharus defenseharusjadi harusjadisisi jadisisikuat sisikuatmalah kuatmalahberanta malahberantagitu</t>
+  </si>
+  <si>
+    <t>merinding tanda cinta rakyat hadap pak moga lanjut periode gaspoljokowijempol merindingtanda tandacinta cintarakyat rakyathadap hadappak pakmoga mogalanjut lanjutperiode periodegaspoljokowijempol merindingtandacinta tandacintarakyat cintarakyathadap rakyathadappak hadappakmoga pakmogalanjut mogalanjutperiode lanjutperiodegaspoljokowijempol</t>
+  </si>
+  <si>
+    <t>harap harap rakyat yg ubah utk indonesia adil makmur 17 april coblos 02 pilih harapharap haraprakyat rakyatyg ygubah ubahutk utkindonesia indonesiaadil adilmakmur makmur17 17april aprilcoblos coblos02 02pilih harapharaprakyat haraprakyatyg rakyatygubah ygubahutk ubahutkindonesia utkindonesiaadil indonesiaadilmakmur adilmakmur17 makmur17april 17aprilcoblos aprilcoblos02 coblos02pilih</t>
+  </si>
+  <si>
+    <t>saya bela rakyat hormat sangat mulia subianto prabowobentengnkri sayabela belarakyat rakyathormat hormatsangat sangatmulia muliasubianto subiantoprabowobentengnkri sayabelarakyat belarakyathormat rakyathormatsangat hormatsangatmulia sangatmuliasubianto muliasubiantoprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>perintah yng sigap layan rakyatm bravoo pak pemerintahandilan https t co 328hggut9c perintahyng yngsigap sigaplayan layanrakyatm rakyatmbravoo bravoopak pakpemerintahandilan pemerintahandilanhttps httpst tco co328hggut9c perintahyngsigap yngsigaplayan sigaplayanrakyatm layanrakyatmbravoo rakyatmbravoopak bravoopakpemerintahandilan pakpemerintahandilanhttps pemerintahandilanhttpst httpstco tco328hggut9c</t>
+  </si>
+  <si>
+    <t>debat hari lah sifat asli pak mulai keluar nampaknya beliau gak tahan sandiwara jadi orang baik debathari harilah lahsifat sifatasli aslipak pakmulai mulaikeluar keluarnampaknya nampaknyabeliau beliaugak gaktahan tahansandiwara sandiwarajadi jadiorang orangbaik debatharilah harilahsifat lahsifatasli sifataslipak aslipakmulai pakmulaikeluar mulaikeluarnampaknya keluarnampaknyabeliau nampaknyabeliaugak beliaugaktahan gaktahansandiwara tahansandiwarajadi sandiwarajadiorang jadiorangbaik</t>
+  </si>
+  <si>
+    <t>lihat ganas malam tapi lihat prihatin seperti gak habis pikir gemas sendiri dgn bisik 2 lihatganas ganasmalam malamtapi tapilihat lihatprihatin prihatinseperti sepertigak gakhabis habispikir pikirgemas gemassendiri sendiridgn dgnbisik bisik2 lihatganasmalam ganasmalamtapi malamtapilihat tapilihatprihatin lihatprihatinseperti prihatinsepertigak sepertigakhabis gakhabispikir habispikirgemas pikirgemassendiri gemassendiridgn sendiridgnbisik dgnbisik2</t>
+  </si>
+  <si>
+    <t>perintah an yg sigap layan rakyay bravoo pak pemerintahandilan https t co vwhecy 74nd perintahan anyg ygsigap sigaplayan layanrakyay rakyaybravoo bravoopak pakpemerintahandilan pemerintahandilanhttps httpst tco covwhecy vwhecy74nd perintahanyg anygsigap ygsigaplayan sigaplayanrakyay layanrakyaybravoo rakyaybravoopak bravoopakpemerintahandilan pakpemerintahandilanhttps pemerintahandilanhttpst httpstco tcovwhecy covwhecy74nd</t>
+  </si>
+  <si>
+    <t>yuk satu satu lebih asyik pemerintahandilan https t co oejifofpsx yuksatu satusatu satulebih lebihasyik asyikpemerintahandilan pemerintahandilanhttps httpst tco cooejifofpsx yuksatusatu satusatulebih satulebihasyik lebihasyikpemerintahandilan asyikpemerintahandilanhttps pemerintahandilanhttpst httpstco tcooejifofpsx</t>
+  </si>
+  <si>
+    <t>dulu ken ketawa takut dosa sekarang ken ketawa takut dimarahin pak duluken kenketawa ketawatakut takutdosa dosasekarang sekarangken kenketawa ketawatakut takutdimarahin dimarahinpak dulukenketawa kenketawatakut ketawatakutdosa takutdosasekarang dosasekarangken sekarangkenketawa kenketawatakut ketawatakutdimarahin takutdimarahinpak</t>
+  </si>
+  <si>
+    <t>debat capres malam sy ikan score 10-0 buat menang pak bisa lihat carakter pimpin yg kuat debatcapres capresmalam malamsy syikan ikanscore score10-0 10-0buat buatmenang menangpak pakbisa bisalihat lihatcarakter carakterpimpin pimpinyg ygkuat debatcapresmalam capresmalamsy malamsyikan syikanscore ikanscore10-0 score10-0buat 10-0buatmenang buatmenangpak menangpakbisa pakbisalihat bisalihatcarakter lihatcarakterpimpin carakterpimpinyg pimpinygkuat</t>
+  </si>
+  <si>
+    <t>sebut betul koruptor orang baik pilih jadi presiden diri beri sempat sebutbetul betulkoruptor koruptororang orangbaik baikpilih pilihjadi jadipresiden presidendiri diriberi berisempat sebutbetulkoruptor betulkoruptororang koruptororangbaik orangbaikpilih baikpilihjadi pilihjadipresiden jadipresidendiri presidendiriberi diriberisempat</t>
+  </si>
+  <si>
+    <t>kalau bicara ttg nasionalisme p semangat jgn ketawa dg lemah itu reaksi spontan yg patriotik kalaubicara bicarattg ttgnasionalisme nasionalismep psemangat semangatjgn jgnketawa ketawadg dglemah lemahitu itureaksi reaksispontan spontanyg ygpatriotik kalaubicarattg bicarattgnasionalisme ttgnasionalismep nasionalismepsemangat psemangatjgn semangatjgnketawa jgnketawadg ketawadglemah dglemahitu lemahitureaksi itureaksispontan reaksispontanyg spontanygpatriotik</t>
+  </si>
+  <si>
+    <t>tertawa tertawa larang sama pak debatpilpres 2019 tertawatertawa tertawalarang larangsama samapak pakdebatpilpres debatpilpres2019 tertawatertawalarang tertawalarangsama larangsamapak samapakdebatpilpres pakdebatpilpres2019</t>
+  </si>
+  <si>
+    <t>perlu garis bawah ke afganistan tdk pake rompi anti peluru perlugaris garisbawah bawahke keafganistan afganistantdk tdkpake pakerompi rompianti antipeluru perlugarisbawah garisbawahke bawahkeafganistan keafganistantdk afganistantdkpake tdkpakerompi pakerompianti rompiantipeluru</t>
+  </si>
+  <si>
+    <t>haissshhh sih pak panggil dil debatpilpres 2019 kali pemerintahandilan haissshhhsih sihpak pakpanggil panggildil dildebatpilpres debatpilpres2019 2019kali kalipemerintahandilan haissshhhsihpak sihpakpanggil pakpanggildil panggildildebatpilpres dildebatpilpres2019 debatpilpres2019kali 2019kalipemerintahandilan</t>
+  </si>
+  <si>
+    <t>milu legislatif pilih presiden 17 april besok habis biaya tidak sedikit triliun rupiah milulegislatif legislatifpilih pilihpresiden presiden17 17april aprilbesok besokhabis habisbiaya biayatidak tidaksedikit sedikittriliun triliunrupiah milulegislatifpilih legislatifpilihpresiden pilihpresiden17 presiden17april 17aprilbesok aprilbesokhabis besokhabisbiaya habisbiayatidak biayatidaksedikit tidaksedikittriliun sedikittriliunrupiah</t>
+  </si>
+  <si>
+    <t>warga negara baik pilih pimpin baik jawab baik kita semua 01dilanjutkan warganegara negarabaik baikpilih pilihpimpin pimpinbaik baikjawab jawabbaik baikkita kitasemua semua01dilanjutkan warganegarabaik negarabaikpilih baikpilihpimpin pilihpimpinbaik pimpinbaikjawab baikjawabbaik jawabbaikkita baikkitasemua kitasemua01dilanjutkan</t>
+  </si>
+  <si>
+    <t>pak masalah apa si sini cerita sini jan marah marah mulu dong kek dosen kalo ngambek mahasiswa nya pakmasalah masalahapa apasi sisini sinicerita ceritasini sinijan janmarah marahmarah marahmulu muludong dongkek kekdosen dosenkalo kalongambek ngambekmahasiswa mahasiswanya pakmasalahapa masalahapasi apasisini sisinicerita siniceritasini ceritasinijan sinijanmarah janmarahmarah marahmarahmulu marahmuludong muludongkek dongkekdosen kekdosenkalo dosenkalongambek kalongambekmahasiswa ngambekmahasiswanya</t>
+  </si>
+  <si>
+    <t>serang dgn emosi pak tetap kata bukan salah bapak salut engkau sungguh jiwa besar serangdgn dgnemosi emosipak paktetap tetapkata katabukan bukansalah salahbapak bapaksalut salutengkau engkausungguh sungguhjiwa jiwabesar serangdgnemosi dgnemosipak emosipaktetap paktetapkata tetapkatabukan katabukansalah bukansalahbapak salahbapaksalut bapaksalutengkau salutengkausungguh engkausungguhjiwa sungguhjiwabesar</t>
+  </si>
+  <si>
+    <t>pak timses bilang anak ingus nih tertib pak bapak hormat bangsa paktimses timsesbilang bilanganak anakingus ingusnih nihtertib tertibpak pakbapak bapakhormat hormatbangsa paktimsesbilang timsesbilanganak bilanganakingus anakingusnih ingusnihtertib nihtertibpak tertibpakbapak pakbapakhormat bapakhormatbangsa</t>
+  </si>
+  <si>
+    <t>papar visi misi klaim praktik korupsi perintah turut lemah negara paparvisi visimisi misiklaim klaimpraktik praktikkorupsi korupsiperintah perintahturut turutlemah lemahnegara paparvisimisi visimisiklaim misiklaimpraktik klaimpraktikkorupsi praktikkorupsiperintah korupsiperintahturut perintahturutlemah turutlemahnegara</t>
+  </si>
+  <si>
+    <t>kata pak bukan lemah kalah kuat yang lambat kalah yang cepat katapak pakbukan bukanlemah lemahkalah kalahkuat kuatyang yanglambat lambatkalah kalahyang yangcepat katapakbukan pakbukanlemah bukanlemahkalah lemahkalahkuat kalahkuatyang kuatyanglambat yanglambatkalah lambatkalahyang kalahyangcepat</t>
+  </si>
+  <si>
+    <t>kpu angkat bicara soal alokasi waktu cara adil masih aja bilang main curang hmmm kpuangkat angkatbicara bicarasoal soalalokasi alokasiwaktu waktucara caraadil adilmasih masihaja ajabilang bilangmain maincurang curanghmmm kpuangkatbicara angkatbicarasoal bicarasoalalokasi soalalokasiwaktu alokasiwaktucara waktucaraadil caraadilmasih adilmasihaja masihajabilang ajabilangmain bilangmaincurang maincuranghmmm</t>
+  </si>
+  <si>
+    <t>moga pak beri mudah lancar malam al fatihah prabowobentengnkri https t co gmhz 1husuk mogapak pakberi berimudah mudahlancar lancarmalam malamal alfatihah fatihahprabowobentengnkri prabowobentengnkrihttps httpst tco cogmhz gmhz1husuk mogapakberi pakberimudah berimudahlancar mudahlancarmalam lancarmalamal malamalfatihah alfatihahprabowobentengnkri fatihahprabowobentengnkrihttps prabowobentengnkrihttpst httpstco tcogmhz cogmhz1husuk</t>
+  </si>
+  <si>
+    <t>bawah pimpin prabowo-sandi akan komitmen hadir harga bahan pokok stabil jangkau bawahpimpin pimpinprabowo-sandi prabowo-sandiakan akankomitmen komitmenhadir hadirharga hargabahan bahanpokok pokokstabil stabiljangkau bawahpimpinprabowo-sandi pimpinprabowo-sandiakan prabowo-sandiakankomitmen akankomitmenhadir komitmenhadirharga hadirhargabahan hargabahanpokok bahanpokokstabil pokokstabiljangkau</t>
+  </si>
+  <si>
+    <t>yg mengatakn mobil esemka hoax moga dosa 2nya ampun allah swt yg fitnah kait ini pak ygmengatakn mengataknmobil mobilesemka esemkahoax hoaxmoga mogadosa dosa2nya 2nyaampun ampunallah allahswt swtyg ygfitnah fitnahkait kaitini inipak ygmengataknmobil mengataknmobilesemka mobilesemkahoax esemkahoaxmoga hoaxmogadosa mogadosa2nya dosa2nyaampun 2nyaampunallah ampunallahswt allahswtyg swtygfitnah ygfitnahkait fitnahkaitini kaitinipak</t>
+  </si>
+  <si>
+    <t>insya allah menang indonesia jd macan asia bukan cebong asia insyaallah allahmenang menangindonesia indonesiajd jdmacan macanasia asiabukan bukancebong cebongasia insyaallahmenang allahmenangindonesia menangindonesiajd indonesiajdmacan jdmacanasia macanasiabukan asiabukancebong bukancebongasia</t>
+  </si>
+  <si>
+    <t>sama 02 indonesia kuat prabowobentengnkri sama02 02indonesia indonesiakuat kuatprabowobentengnkri sama02indonesia 02indonesiakuat indonesiakuatprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>press conference pasca debat tkn 01 cara baca data pak kena kuat militer banding anggar pressconference conferencepasca pascadebat debattkn tkn01 01cara carabaca bacadata datapak pakkena kenakuat kuatmiliter militerbanding bandinganggar pressconferencepasca conferencepascadebat pascadebattkn debattkn01 tkn01cara 01carabaca carabacadata bacadatapak datapakkena pakkenakuat kenakuatmiliter kuatmiliterbanding militerbandinganggar</t>
+  </si>
+  <si>
+    <t>warga negara baik pilih pimpin baik jawab baik menangjokowilagi warganegara negarabaik baikpilih pilihpimpin pimpinbaik baikjawab jawabbaik baikmenangjokowilagi warganegarabaik negarabaikpilih baikpilihpimpin pilihpimpinbaik pimpinbaikjawab baikjawabbaik jawabbaikmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>saling hujat saling remeh saling toleransi kawan sahabat idola salinghujat hujatsaling salingremeh remehsaling salingtoleransi toleransikawan kawansahabat sahabatidola salinghujatsaling hujatsalingremeh salingremehsaling remehsalingtoleransi salingtoleransikawan toleransikawansahabat kawansahabatidola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debat empat pilpres 2019 tutup momen manis debatempat empatpilpres pilpres2019 2019tutup tutupmomen momenmanis debatempatpilpres empatpilpres2019 pilpres2019tutup 2019tutupmomen tutupmomenmanis </t>
+  </si>
+  <si>
+    <t>konsep pak indonesia maju mantul menangjokowilagi konseppak pakindonesia indonesiamaju majumantul mantulmenangjokowilagi konseppakindonesia pakindonesiamaju indonesiamajumantul majumantulmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>buah tangan perintah pak sby saja aku debat aneh demen main klaim buahtangan tanganperintah perintahpak paksby sbysaja sajaaku akudebat debataneh anehdemen demenmain mainklaim buahtanganperintah tanganperintahpak perintahpaksby paksbysaja sbysajaaku sajaakudebat akudebataneh debatanehdemen anehdemenmain demenmainklaim</t>
+  </si>
+  <si>
+    <t>salut bangga dgn pakde walaupun sipil bagai panglima tinggi yg baik harga kerja keras salutbangga banggadgn dgnpakde pakdewalaupun walaupunsipil sipilbagai bagaipanglima panglimatinggi tinggiyg ygbaik baikharga hargakerja kerjakeras salutbanggadgn banggadgnpakde dgnpakdewalaupun pakdewalaupunsipil walaupunsipilbagai sipilbagaipanglima bagaipanglimatinggi panglimatinggiyg tinggiygbaik ygbaikharga baikhargakerja hargakerjakeras</t>
+  </si>
+  <si>
+    <t>indonesia kini sama jadi negara hebat menangjokowilagi https t co pyphejzzou indonesiakini kinisama samajadi jadinegara negarahebat hebatmenangjokowilagi menangjokowilagihttps httpst tco copyphejzzou indonesiakinisama kinisamajadi samajadinegara jadinegarahebat negarahebatmenangjokowilagi hebatmenangjokowilagihttps menangjokowilagihttpst httpstco tcopyphejzzou</t>
+  </si>
+  <si>
+    <t>tukang kayu lebih ngerti militer yg pernah jadi militer lebih tni tni tukangkayu kayulebih lebihngerti ngertimiliter militeryg ygpernah pernahjadi jadimiliter militerlebih lebihtni tnitni tukangkayulebih kayulebihngerti lebihngertimiliter ngertimiliteryg militerygpernah ygpernahjadi pernahjadimiliter jadimiliterlebih militerlebihtni lebihtnitni</t>
+  </si>
+  <si>
+    <t>nyawa saya taruh republik jangan ragu nasionalisme mas nyawasaya sayataruh taruhrepublik republikjangan janganragu ragunasionalisme nasionalismemas nyawasayataruh sayataruhrepublik taruhrepublikjangan republikjanganragu janganragunasionalisme ragunasionalismemas</t>
+  </si>
+  <si>
+    <t>pancasila hasil suatu komporomi besar cemerlang generasi diri bangsa indonesia pancasilahasil hasilsuatu suatukomporomi komporomibesar besarcemerlang cemerlanggenerasi generasidiri diribangsa bangsaindonesia pancasilahasilsuatu hasilsuatukomporomi suatukomporomibesar komporomibesarcemerlang besarcemerlanggenerasi cemerlanggenerasidiri generasidiribangsa diribangsaindonesia</t>
+  </si>
+  <si>
+    <t>paling sewot sayagolput dukung kami ingat pada alam bawah sadar bahwa kalah palingsewot sewotsayagolput sayagolputdukung dukungkami kamiingat ingatpada padaalam alambawah bawahsadar sadarbahwa bahwakalah palingsewotsayagolput sewotsayagolputdukung sayagolputdukungkami dukungkamiingat kamiingatpada ingatpadaalam padaalambawah alambawahsadar bawahsadarbahwa sadarbahwakalah</t>
+  </si>
+  <si>
+    <t>jember siang tadi rombong wi sambut guru honorer ria jembersiang siangtadi tadirombong rombongwi wisambut sambutguru guruhonorer honorerria jembersiangtadi siangtadirombong tadirombongwi rombongwisambut wisambutguru sambutguruhonorer guruhonorerria</t>
+  </si>
+  <si>
+    <t>dengan tekad kuat rubah bangsa pak mampu beri ubah bagai lini bangsa dengantekad tekadkuat kuatrubah rubahbangsa bangsapak pakmampu mampuberi beriubah ubahbagai bagailini linibangsa dengantekadkuat tekadkuatrubah kuatrubahbangsa rubahbangsapak bangsapakmampu pakmampuberi mampuberiubah beriubahbagai ubahbagailini bagailinibangsa</t>
+  </si>
+  <si>
+    <t>yg tau definisi polyglot coba cek google deh nyata pak adlh orang polyglot ygtau taudefinisi definisipolyglot polyglotcoba cobacek cekgoogle googledeh dehnyata nyatapak pakadlh adlhorang orangpolyglot ygtaudefinisi taudefinisipolyglot definisipolyglotcoba polyglotcobacek cobacekgoogle cekgoogledeh googledehnyata dehnyatapak nyatapakadlh pakadlhorang adlhorangpolyglot</t>
+  </si>
+  <si>
+    <t>sangat haru salam pisah dr pak jkw barusan sahabat nomer satu presiden no 02 sangatharu harusalam salampisah pisahdr drpak pakjkw jkwbarusan barusansahabat sahabatnomer nomersatu satupresiden presidenno no02 sangatharusalam harusalampisah salampisahdr pisahdrpak drpakjkw pakjkwbarusan jkwbarusansahabat barusansahabatnomer sahabatnomersatu nomersatupresiden satupresidenno presidenno02</t>
+  </si>
+  <si>
+    <t>kuat 2an adu isu elektabilitas media tulis elektabilitas non-prabowo sulit kejar kuat2an 2anadu aduisu isuelektabilitas elektabilitasmedia mediatulis tuliselektabilitas elektabilitasnon-prabowo non-prabowosulit sulitkejar kuat2anadu 2anaduisu aduisuelektabilitas isuelektabilitasmedia elektabilitasmediatulis mediatuliselektabilitas tuliselektabilitasnon-prabowo elektabilitasnon-prabowosulit non-prabowosulitkejar</t>
+  </si>
+  <si>
+    <t>rakyat percaya tni 01dilanjutkan https t co fhdmwypu 5w rakyatpercaya percayatni tni01dilanjutkan 01dilanjutkanhttps httpst tco cofhdmwypu fhdmwypu5w rakyatpercayatni percayatni01dilanjutkan tni01dilanjutkanhttps 01dilanjutkanhttpst httpstco tcofhdmwypu cofhdmwypu5w</t>
+  </si>
+  <si>
+    <t>pak nih kalo tongkrong tipikal yg semangat cerita panjang lebar tp ga ditanggepin sm anak anak skip aja gitu paknih nihkalo kalotongkrong tongkrongtipikal tipikalyg ygsemangat semangatcerita ceritapanjang panjanglebar lebartp tpga gaditanggepin ditanggepinsm smanak anakanak anakskip skipaja ajagitu paknihkalo nihkalotongkrong kalotongkrongtipikal tongkrongtipikalyg tipikalygsemangat ygsemangatcerita semangatceritapanjang ceritapanjanglebar panjanglebartp lebartpga tpgaditanggepin gaditanggepinsm ditanggepinsmanak smanakanak anakanakskip anakskipaja skipajagitu</t>
+  </si>
+  <si>
+    <t>pemerintahandilan keren tingkat puas publik thd kerja perintah jokowi-jk msh tinggi atas 70 pemerintahandilankeren kerentingkat tingkatpuas puaspublik publikthd thdkerja kerjaperintah perintahjokowi-jk jokowi-jkmsh mshtinggi tinggiatas atas70 pemerintahandilankerentingkat kerentingkatpuas tingkatpuaspublik puaspublikthd publikthdkerja thdkerjaperintah kerjaperintahjokowi-jk perintahjokowi-jkmsh jokowi-jkmshtinggi mshtinggiatas tinggiatas70</t>
+  </si>
+  <si>
+    <t>2 tahan bidang hankam terlalu lemah anggar sangat kecil yang kita baik 2tahan tahanbidang bidanghankam hankamterlalu terlalulemah lemahanggar anggarsangat sangatkecil kecilyang yangkita kitabaik 2tahanbidang tahanbidanghankam bidanghankamterlalu hankamterlalulemah terlalulemahanggar lemahanggarsangat anggarsangatkecil sangatkecilyang kecilyangkita yangkitabaik</t>
+  </si>
+  <si>
+    <t>selamat pagi penganten lebih paham mana yg coblos mana yg pilih goyang jari pilih selamatpagi pagipenganten pengantenlebih lebihpaham pahammana manayg ygcoblos coblosmana manayg ygpilih pilihgoyang goyangjari jaripilih selamatpagipenganten pagipengantenlebih pengantenlebihpaham lebihpahammana pahammanayg manaygcoblos ygcoblosmana coblosmanayg manaygpilih ygpilihgoyang pilihgoyangjari goyangjaripilih</t>
+  </si>
+  <si>
+    <t>indonesia maju infrastruktur yg baik menang 01dilanjutkan https t co muddzx 0kwx indonesiamaju majuinfrastruktur infrastrukturyg ygbaik baikmenang menang01dilanjutkan 01dilanjutkanhttps httpst tco comuddzx muddzx0kwx indonesiamajuinfrastruktur majuinfrastrukturyg infrastrukturygbaik ygbaikmenang baikmenang01dilanjutkan menang01dilanjutkanhttps 01dilanjutkanhttpst httpstco tcomuddzx comuddzx0kwx</t>
+  </si>
+  <si>
+    <t>selamat nama jadi trending yg paling banyak bicara good job buat anak 2 twitter dukung 02 selamatnama namajadi jaditrending trendingyg ygpaling palingbanyak banyakbicara bicaragood goodjob jobbuat buatanak anak2 2twitter twitterdukung dukung02 selamatnamajadi namajaditrending jaditrendingyg trendingygpaling ygpalingbanyak palingbanyakbicara banyakbicaragood bicaragoodjob goodjobbuat jobbuatanak buatanak2 anak2twitter 2twitterdukung twitterdukung02</t>
+  </si>
+  <si>
+    <t>insya allah pak menang telak prabowobentengnkri https t co qptegiu 2ua insyaallah allahpak pakmenang menangtelak telakprabowobentengnkri prabowobentengnkrihttps httpst tco coqptegiu qptegiu2ua insyaallahpak allahpakmenang pakmenangtelak menangtelakprabowobentengnkri telakprabowobentengnkrihttps prabowobentengnkrihttpst httpstco tcoqptegiu coqptegiu2ua</t>
+  </si>
+  <si>
+    <t>wajah prabohong pucet gara-gara tau apa yg kata pak kualitas lanjut pemerintahandilan wajahprabohong prabohongpucet pucetgara-gara gara-garatau tauapa apayg ygkata katapak pakkualitas kualitaslanjut lanjutpemerintahandilan wajahprabohongpucet prabohongpucetgara-gara pucetgara-garatau gara-garatauapa tauapayg apaygkata ygkatapak katapakkualitas pakkualitaslanjut kualitaslanjutpemerintahandilan</t>
+  </si>
+  <si>
+    <t>khas pak kena kemeja putih lengan panjang gulung 01dilanjutkan https t co re2jvkcqto khaspak pakkena kenakemeja kemejaputih putihlengan lenganpanjang panjanggulung gulung01dilanjutkan 01dilanjutkanhttps httpst tco core2jvkcqto khaspakkena pakkenakemeja kenakemejaputih kemejaputihlengan putihlenganpanjang lenganpanjanggulung panjanggulung01dilanjutkan gulung01dilanjutkanhttps 01dilanjutkanhttpst httpstco tcore2jvkcqto</t>
+  </si>
+  <si>
+    <t>jalan demokrasi yg baik laksana sekarang kok tolak belakang prabowobentengnkri jalandemokrasi demokrasiyg ygbaik baiklaksana laksanasekarang sekarangkok koktolak tolakbelakang belakangprabowobentengnkri jalandemokrasiyg demokrasiygbaik ygbaiklaksana baiklaksanasekarang laksanasekarangkok sekarangkoktolak koktolakbelakang tolakbelakangprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>personifikasi debat empat sangat kuat itu kokoh pribadi diri sbg orang yg patriotik personifikasidebat debatempat empatsangat sangatkuat kuatitu itukokoh kokohpribadi pribadidiri dirisbg sbgorang orangyg ygpatriotik personifikasidebatempat debatempatsangat empatsangatkuat sangatkuatitu kuatitukokoh itukokohpribadi kokohpribadidiri pribadidirisbg dirisbgorang sbgorangyg orangygpatriotik</t>
+  </si>
+  <si>
+    <t>sama orang hebat indonesia maju unggul menangjokowilagi samaorang oranghebat hebatindonesia indonesiamaju majuunggul unggulmenangjokowilagi samaoranghebat oranghebatindonesia hebatindonesiamaju indonesiamajuunggul majuunggulmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>marah tahan negara lemah tertawa bukti ybs paranoid atas ancam asing marahtahan tahannegara negaralemah lemahtertawa tertawabukti buktiybs ybsparanoid paranoidatas atasancam ancamasing marahtahannegara tahannegaralemah negaralemahtertawa lemahtertawabukti tertawabuktiybs buktiybsparanoid ybsparanoidatas paranoidatasancam atasancamasing</t>
+  </si>
+  <si>
+    <t>jumlah massa kampanye akbar pakansari hingga jalan capai satu juta orang luar biasa bogor jumlahmassa massakampanye kampanyeakbar akbarpakansari pakansarihingga hinggajalan jalancapai capaisatu satujuta jutaorang orangluar luarbiasa biasabogor jumlahmassakampanye massakampanyeakbar kampanyeakbarpakansari akbarpakansarihingga pakansarihinggajalan hinggajalancapai jalancapaisatu capaisatujuta satujutaorang jutaorangluar orangluarbiasa luarbiasabogor</t>
+  </si>
+  <si>
+    <t>kita banding pakai hati nurani akal sehat pancasila beri sejak dini kitabanding bandingpakai pakaihati hatinurani nuraniakal akalsehat sehatpancasila pancasilaberi berisejak sejakdini kitabandingpakai bandingpakaihati pakaihatinurani hatinuraniakal nuraniakalsehat akalsehatpancasila sehatpancasilaberi pancasilaberisejak berisejakdini</t>
+  </si>
+  <si>
+    <t>mumpung debatpilpres 2019 break senyum manis dulu salam bismillah indonesia mumpungdebatpilpres debatpilpres2019 2019break breaksenyum senyummanis manisdulu dulusalam salambismillah bismillahindonesia mumpungdebatpilpres2019 debatpilpres2019break 2019breaksenyum breaksenyummanis senyummanisdulu manisdulusalam dulusalambismillah salambismillahindonesia</t>
+  </si>
+  <si>
+    <t>hei kelen yg suka nyinyirin bapak jelek 2an blio maaf sll ad bukti bhw blio orang baik tanggungjawab heikelen kelenyg ygsuka sukanyinyirin nyinyirinbapak bapakjelek jelek2an 2anblio bliomaaf maafsll sllad adbukti buktibhw bhwblio blioorang orangbaik baiktanggungjawab heikelenyg kelenygsuka ygsukanyinyirin sukanyinyirinbapak nyinyirinbapakjelek bapakjelek2an jelek2anblio 2anbliomaaf bliomaafsll maafsllad slladbukti adbuktibhw buktibhwblio bhwblioorang blioorangbaik orangbaiktanggungjawab</t>
+  </si>
+  <si>
+    <t>jual beli jabat waris sejak perintah mantan mertua pak memang susah rubah mental orde baru jualbeli belijabat jabatwaris warissejak sejakperintah perintahmantan mantanmertua mertuapak pakmemang memangsusah susahrubah rubahmental mentalorde ordebaru jualbelijabat belijabatwaris jabatwarissejak warissejakperintah sejakperintahmantan perintahmantanmertua mantanmertuapak mertuapakmemang pakmemangsusah memangsusahrubah susahrubahmental rubahmentalorde mentalordebaru</t>
+  </si>
+  <si>
+    <t>orasi politik ketua umum pan tegas jawa barat salah satu kunci menang orasipolitik politikketua ketuaumum umumpan pantegas tegasjawa jawabarat baratsalah salahsatu satukunci kuncimenang orasipolitikketua politikketuaumum ketuaumumpan umumpantegas pantegasjawa tegasjawabarat jawabaratsalah baratsalahsatu salahsatukunci satukuncimenang</t>
+  </si>
+  <si>
+    <t>mantap bang cebong marahin mala ketawa dasar dungu akut mantapbang bangcebong cebongmarahin marahinmala malaketawa ketawadasar dasardungu dunguakut mantapbangcebong bangcebongmarahin cebongmarahinmala marahinmalaketawa malaketawadasar ketawadasardungu dasardunguakut</t>
+  </si>
+  <si>
+    <t>saya inti perintah bahwa lembaga perintah harus bersih korupsi sayainti intiperintah perintahbahwa bahwalembaga lembagaperintah perintahharus harusbersih bersihkorupsi sayaintiperintah intiperintahbahwa perintahbahwalembaga bahwalembagaperintah lembagaperintahharus perintahharusbersih harusbersihkorupsi</t>
+  </si>
+  <si>
+    <t>omong pak capres pecat tni begitu pantes pecat wong sering gagal paham https t co etacadeg 8n omongpak pakcapres caprespecat pecattni tnibegitu begitupantes pantespecat pecatwong wongsering seringgagal gagalpaham pahamhttps httpst tco coetacadeg etacadeg8n omongpakcapres pakcaprespecat caprespecattni pecattnibegitu tnibegitupantes begitupantespecat pantespecatwong pecatwongsering wongseringgagal seringgagalpaham gagalpahamhttps pahamhttpst httpstco tcoetacadeg coetacadeg8n</t>
+  </si>
+  <si>
+    <t>sangat dukung kembang ekonomi digital lalu pemerintahandilan usaha pelihara stratup sangatdukung dukungkembang kembangekonomi ekonomidigital digitallalu lalupemerintahandilan pemerintahandilanusaha usahapelihara peliharastratup sangatdukungkembang dukungkembangekonomi kembangekonomidigital ekonomidigitallalu digitallalupemerintahandilan lalupemerintahandilanusaha pemerintahandilanusahapelihara usahapeliharastratup</t>
+  </si>
+  <si>
+    <t>benar pak sdh td bahwasannya perintah sekarang banyak teori yg sesuai nyata benarpak paksdh sdhtd tdbahwasannya bahwasannyaperintah perintahsekarang sekarangbanyak banyakteori teoriyg ygsesuai sesuainyata benarpaksdh paksdhtd sdhtdbahwasannya tdbahwasannyaperintah bahwasannyaperintahsekarang perintahsekarangbanyak sekarangbanyakteori banyakteoriyg teoriygsesuai ygsesuainyata</t>
+  </si>
+  <si>
+    <t>ada wiranto luhut hendro agum masak jenderal dukung bila pki sendiri jenderal adawiranto wirantoluhut luhuthendro hendroagum agummasak masakjenderal jenderaldukung dukungbila bilapki pkisendiri sendirijenderal adawirantoluhut wirantoluhuthendro luhuthendroagum hendroagummasak agummasakjenderal masakjenderaldukung jenderaldukungbila dukungbilapki bilapkisendiri pkisendirijenderal</t>
+  </si>
+  <si>
+    <t>culik yaa culik hati milenial tionghoa kuaile de zhandou selamat juang culikyaa yaaculik culikhati hatimilenial milenialtionghoa tionghoakuaile kuailede dezhandou zhandouselamat selamatjuang culikyaaculik yaaculikhati culikhatimilenial hatimilenialtionghoa milenialtionghoakuaile tionghoakuailede kuailedezhandou dezhandouselamat zhandouselamatjuang</t>
+  </si>
+  <si>
+    <t>nonton kok jurus 2 aja monoton contoh yg bahas korupsi lg lg jurus yg kemaren 2 nontonkok kokjurus jurus2 2aja ajamonoton monotoncontoh contohyg ygbahas bahaskorupsi korupsilg lglg lgjurus jurusyg ygkemaren kemaren2 nontonkokjurus kokjurus2 jurus2aja 2ajamonoton ajamonotoncontoh monotoncontohyg contohygbahas ygbahaskorupsi bahaskorupsilg korupsilglg lglgjurus lgjurusyg jurusygkemaren ygkemaren2</t>
+  </si>
+  <si>
+    <t>rawan muda gelar nobar tekan golput kalang milenial https t co w4k3nrowfy rawanmuda mudagelar gelarnobar nobartekan tekangolput golputkalang kalangmilenial milenialhttps httpst tco cow4k3nrowfy rawanmudagelar mudagelarnobar gelarnobartekan nobartekangolput tekangolputkalang golputkalangmilenial kalangmilenialhttps milenialhttpst httpstco tcow4k3nrowfy</t>
+  </si>
+  <si>
+    <t>salah satu contoh kecil prestasi hasil nya jelas silah cek sendiri data salahsatu satucontoh contohkecil kecilprestasi prestasihasil hasilnya nyajelas jelassilah silahcek ceksendiri sendiridata salahsatucontoh satucontohkecil contohkecilprestasi kecilprestasihasil prestasihasilnya hasilnyajelas nyajelassilah jelassilahcek silahceksendiri ceksendiridata</t>
+  </si>
+  <si>
+    <t>sumber foto jenderal goblok udah edit eh foto orang kamboja keren cici 2 kamboja dukung sumberfoto fotojenderal jenderalgoblok goblokudah udahedit editeh ehfoto fotoorang orangkamboja kambojakeren kerencici cici2 2kamboja kambojadukung sumberfotojenderal fotojenderalgoblok jenderalgoblokudah goblokudahedit udahediteh editehfoto ehfotoorang fotoorangkamboja orangkambojakeren kambojakerencici kerencici2 cici2kamboja 2kambojadukung</t>
+  </si>
+  <si>
+    <t>pak mau indonesia hormat tp tahu cara capa tahu cara pidato pakmau mauindonesia indonesiahormat hormattp tptahu tahucara caracapa capatahu tahucara carapidato pakmauindonesia mauindonesiahormat indonesiahormattp hormattptahu tptahucara tahucaracapa caracapatahu capatahucara tahucarapidato</t>
+  </si>
+  <si>
+    <t>closing statement yg aku kuat lawan closingstatement statementyg ygaku akukuat kuatlawan closingstatementyg statementygaku ygakukuat akukuatlawan</t>
+  </si>
+  <si>
+    <t>beberapa pimpin organisasi bobotoh para suporter persib bandung deklarasi dukung pak beberapapimpin pimpinorganisasi organisasibobotoh bobotohpara parasuporter suporterpersib persibbandung bandungdeklarasi deklarasidukung dukungpak beberapapimpinorganisasi pimpinorganisasibobotoh organisasibobotohpara bobotohparasuporter parasuporterpersib suporterpersibbandung persibbandungdeklarasi bandungdeklarasidukung deklarasidukungpak</t>
+  </si>
+  <si>
+    <t>saya bukan salah saya kuat tahan sangat rapuh lemah bukan salah bapak sayabukan bukansalah salahsaya sayakuat kuattahan tahansangat sangatrapuh rapuhlemah lemahbukan bukansalah salahbapak sayabukansalah bukansalahsaya salahsayakuat sayakuattahan kuattahansangat tahansangatrapuh sangatrapuhlemah rapuhlemahbukan lemahbukansalah bukansalahbapak</t>
+  </si>
+  <si>
+    <t>soal freeport sangat untung buat apalagi emas perak tembaga soalfreeport freeportsangat sangatuntung untungbuat buatapalagi apalagiemas emasperak peraktembaga soalfreeportsangat freeportsangatuntung sangatuntungbuat untungbuatapalagi buatapalagiemas apalagiemasperak emasperaktembaga</t>
+  </si>
+  <si>
+    <t>kata p anggar tni harus naik n perlu tni yg kuat utk tahan wilayah katap panggar anggartni tniharus harusnaik naikn nperlu perlutni tniyg ygkuat kuatutk utktahan tahanwilayah katapanggar panggartni anggartniharus tniharusnaik harusnaikn naiknperlu nperlutni perlutniyg tniygkuat ygkuatutk kuatutktahan utktahanwilayah</t>
+  </si>
+  <si>
+    <t>jenderal lawan umur 18 tahun taruh nyawa pancasila untuk republik jenderallawan lawanumur umur18 18tahun tahuntaruh taruhnyawa nyawapancasila pancasilauntuk untukrepublik jenderallawanumur lawanumur18 umur18tahun 18tahuntaruh tahuntaruhnyawa taruhnyawapancasila nyawapancasilauntuk pancasilauntukrepublik</t>
+  </si>
+  <si>
+    <t>pak serang hujat tahan bilang kalah yg nyerang akibat selalu keluar konteks yg brtahan sesuai tema pakserang seranghujat hujattahan tahanbilang bilangkalah kalahyg ygnyerang nyerangakibat akibatselalu selalukeluar keluarkonteks konteksyg ygbrtahan brtahansesuai sesuaitema pakseranghujat seranghujattahan hujattahanbilang tahanbilangkalah bilangkalahyg kalahygnyerang ygnyerangakibat nyerangakibatselalu akibatselalukeluar selalukeluarkonteks keluarkonteksyg konteksygbrtahan ygbrtahansesuai brtahansesuaitema</t>
+  </si>
+  <si>
+    <t>mantul kali capresku pak malam cerdas tegas prabowomenangdebat mantulkali kalicapresku capreskupak pakmalam malamcerdas cerdastegas tegasprabowomenangdebat mantulkalicapresku kalicapreskupak capreskupakmalam pakmalamcerdas malamcerdastegas cerdastegasprabowomenangdebat</t>
+  </si>
+  <si>
+    <t>statemen soal gak usah ngurusin masalah negara adalah pukul telak buat dukung statemensoal soalgak gakusah usahngurusin ngurusinmasalah masalahnegara negaraadalah adalahpukul pukultelak telakbuat buatdukung statemensoalgak soalgakusah gakusahngurusin usahngurusinmasalah ngurusinmasalahnegara masalahnegaraadalah negaraadalahpukul adalahpukultelak pukultelakbuat telakbuatdukung</t>
+  </si>
+  <si>
+    <t>wah salah nih mas kasih tahu litbang wahsalah salahnih nihmas maskasih kasihtahu tahulitbang wahsalahnih salahnihmas nihmaskasih maskasihtahu kasihtahulitbang</t>
+  </si>
+  <si>
+    <t>kait aspek tahan keamananan point penting debatpilpres 2019 nyata penting kembang alutista kaitaspek aspektahan tahankeamananan keamanananpoint pointpenting pentingdebatpilpres debatpilpres2019 2019nyata nyatapenting pentingkembang kembangalutista kaitaspektahan aspektahankeamananan tahankeamanananpoint keamanananpointpenting pointpentingdebatpilpres pentingdebatpilpres2019 debatpilpres2019nyata 2019nyatapenting nyatapentingkembang pentingkembangalutista</t>
+  </si>
+  <si>
+    <t>senang naik sepeda sering rantai putus yakin rantai sahabat sy dgn tak pernah putus senangnaik naiksepeda sepedasering seringrantai rantaiputus putusyakin yakinrantai rantaisahabat sahabatsy sydgn dgntak takpernah pernahputus senangnaiksepeda naiksepedasering sepedaseringrantai seringrantaiputus rantaiputusyakin putusyakinrantai yakinrantaisahabat rantaisahabatsy sahabatsydgn sydgntak dgntakpernah takpernahputus</t>
+  </si>
+  <si>
+    <t>yang sipil sangat percaya tni beliau lebih percaya tni pada mantan tni yg pecat yangsipil sipilsangat sangatpercaya percayatni tnibeliau beliaulebih lebihpercaya percayatni tnipada padamantan mantantni tniyg ygpecat yangsipilsangat sipilsangatpercaya sangatpercayatni percayatnibeliau tnibeliaulebih beliaulebihpercaya lebihpercayatni percayatnipada tnipadamantan padamantantni mantantniyg tniygpecat</t>
+  </si>
+  <si>
+    <t>pak tadi maju gak pakai teks gestur di luar kepala lulus fort benning gitu paktadi tadimaju majugak gakpakai pakaiteks teksgestur gesturdi diluar luarkepala kepalalulus lulusfort fortbenning benninggitu paktadimaju tadimajugak majugakpakai gakpakaiteks pakaiteksgestur teksgesturdi gesturdiluar diluarkepala luarkepalalulus kepalalulusfort lulusfortbenning fortbenninggitu</t>
+  </si>
+  <si>
+    <t>indonesia bawah jadi bangsa emis utang peran dunia internasional hilang presiden tak bicara indonesiabawah bawahjadi jadibangsa bangsaemis emisutang utangperan perandunia duniainternasional internasionalhilang hilangpresiden presidentak takbicara indonesiabawahjadi bawahjadibangsa jadibangsaemis bangsaemisutang emisutangperan utangperandunia peranduniainternasional duniainternasionalhilang internasionalhilangpresiden hilangpresidentak presidentakbicara</t>
+  </si>
+  <si>
+    <t>dennger tuh kata pak saling harga https t co l143x7rvt5 denngertuh tuhkata katapak paksaling salingharga hargahttps httpst tco col143x7rvt5 denngertuhkata tuhkatapak katapaksaling paksalingharga salinghargahttps hargahttpst httpstco tcol143x7rvt5</t>
+  </si>
+  <si>
+    <t>kaya suatu bangsa kalau jaga suatu kuat tahan kuat tidak mungkin kayasuatu suatubangsa bangsakalau kalaujaga jagasuatu suatukuat kuattahan tahankuat kuattidak tidakmungkin kayasuatubangsa suatubangsakalau bangsakalaujaga kalaujagasuatu jagasuatukuat suatukuattahan kuattahankuat tahankuattidak kuattidakmungkin</t>
+  </si>
+  <si>
+    <t>wkkwkwkwkk asli salah satu omong wowo yg ngaco pecatanlebihtnidaritni mending jauh pak mana 2 wkkwkwkwkkasli aslisalah salahsatu satuomong omongwowo wowoyg ygngaco ngacopecatanlebihtnidaritni pecatanlebihtnidaritnimending mendingjauh jauhpak pakmana mana2 wkkwkwkwkkaslisalah aslisalahsatu salahsatuomong satuomongwowo omongwowoyg wowoygngaco ygngacopecatanlebihtnidaritni ngacopecatanlebihtnidaritnimending pecatanlebihtnidaritnimendingjauh mendingjauhpak jauhpakmana pakmana2</t>
+  </si>
+  <si>
+    <t>mbakyu bpn jgn mau tipu sama hti angin surga buat hti gak buat dukung mbakyubpn bpnjgn jgnmau mautipu tipusama samahti htiangin anginsurga surgabuat buathti htigak gakbuat buatdukung mbakyubpnjgn bpnjgnmau jgnmautipu mautipusama tipusamahti samahtiangin htianginsurga anginsurgabuat surgabuathti buathtigak htigakbuat gakbuatdukung</t>
+  </si>
+  <si>
+    <t>marah cinta hadap negara kalian goreng sedang bohong manis si jae malah kalian puji marahcinta cintahadap hadapnegara negarakalian kaliangoreng gorengsedang sedangbohong bohongmanis manissi sijae jaemalah malahkalian kalianpuji marahcintahadap cintahadapnegara hadapnegarakalian negarakaliangoreng kaliangorengsedang gorengsedangbohong sedangbohongmanis bohongmanissi manissijae sijaemalah jaemalahkalian malahkalianpuji</t>
+  </si>
+  <si>
+    <t>pilpres 2019 tarung akal sehat akal dungu jokowidiambangkekalahan https t co 0ygyvuuior pilpres2019 2019tarung tarungakal akalsehat sehatakal akaldungu dungujokowidiambangkekalahan jokowidiambangkekalahanhttps httpst tco co0ygyvuuior pilpres2019tarung 2019tarungakal tarungakalsehat akalsehatakal sehatakaldungu akaldungujokowidiambangkekalahan dungujokowidiambangkekalahanhttps jokowidiambangkekalahanhttpst httpstco tco0ygyvuuior</t>
+  </si>
+  <si>
+    <t>pak selalu tampil elegant negarawan tampil lepas penuh canda tawa tak segan joget riang pakselalu selalutampil tampilelegant elegantnegarawan negarawantampil tampillepas lepaspenuh penuhcanda candatawa tawatak taksegan seganjoget jogetriang pakselalutampil selalutampilelegant tampilelegantnegarawan elegantnegarawantampil negarawantampillepas tampillepaspenuh lepaspenuhcanda penuhcandatawa candatawatak tawataksegan takseganjoget seganjogetriang</t>
+  </si>
+  <si>
+    <t>issue khilafah issue kaum keok-ers katolik pilih pimpin jujur bapak issuekhilafah khilafahissue issuekaum kaumkeok-ers keok-erskatolik katolikpilih pilihpimpin pimpinjujur jujurbapak issuekhilafahissue khilafahissuekaum issuekaumkeok-ers kaumkeok-erskatolik keok-erskatolikpilih katolikpilihpimpin pilihpimpinjujur pimpinjujurbapak</t>
+  </si>
+  <si>
+    <t>sumpah tahan pancasila titik darah akhir bohong ah bapak luka dikit aja udah pakai sarung tangan sumpahtahan tahanpancasila pancasilatitik titikdarah darahakhir akhirbohong bohongah ahbapak bapakluka lukadikit dikitaja ajaudah udahpakai pakaisarung sarungtangan sumpahtahanpancasila tahanpancasilatitik pancasilatitikdarah titikdarahakhir darahakhirbohong akhirbohongah bohongahbapak ahbapakluka bapaklukadikit lukadikitaja dikitajaudah ajaudahpakai udahpakaisarung pakaisarungtangan</t>
+  </si>
+  <si>
+    <t>kalau kayak gin performa pak jd menhan perintah presiden pd 2019-2024 tak pantas kalaukayak kayakgin ginperforma performapak pakjd jdmenhan menhanperintah perintahpresiden presidenpd pd2019-2024 2019-2024tak takpantas kalaukayakgin kayakginperforma ginperformapak performapakjd pakjdmenhan jdmenhanperintah menhanperintahpresiden perintahpresidenpd presidenpd2019-2024 pd2019-2024tak 2019-2024takpantas</t>
+  </si>
+  <si>
+    <t>bpk info yg sesat petinggi tni woooiii om wowo lupa yaa bukankah lebih parah diboongin sama dukung sendiri bpkinfo infoyg ygsesat sesatpetinggi petinggitni tniwoooiii woooiiiom omwowo wowolupa lupayaa yaabukankah bukankahlebih lebihparah parahdiboongin diboonginsama samadukung dukungsendiri bpkinfoyg infoygsesat ygsesatpetinggi sesatpetinggitni petinggitniwoooiii tniwoooiiiom woooiiiomwowo omwowolupa wowolupayaa lupayaabukankah yaabukankahlebih bukankahlebihparah lebihparahdiboongin parahdiboonginsama diboonginsamadukung samadukungsendiri</t>
+  </si>
+  <si>
+    <t>alhamdulillah debat 4 langsung lancar berkat doa semua cinta indonesia sayang alhamdulillahdebat debat4 4langsung langsunglancar lancarberkat berkatdoa doasemua semuacinta cintaindonesia indonesiasayang alhamdulillahdebat4 debat4langsung 4langsunglancar langsunglancarberkat lancarberkatdoa berkatdoasemua doasemuacinta semuacintaindonesia cintaindonesiasayang</t>
+  </si>
+  <si>
+    <t>lebih tni tni bagus pak aku overdosis jadi makin mudah kami pilih presiden lebihtni tnitni tnibagus baguspak pakaku akuoverdosis overdosisjadi jadimakin makinmudah mudahkami kamipilih pilihpresiden lebihtnitni tnitnibagus tnibaguspak baguspakaku pakakuoverdosis akuoverdosisjadi overdosisjadimakin jadimakinmudah makinmudahkami mudahkamipilih kamipilihpresiden</t>
+  </si>
+  <si>
+    <t>subianto ragu mampu ri bidang tahan situs global fire power fokus masalah subiantoragu ragumampu mampuri ribidang bidangtahan tahansitus situsglobal globalfire firepower powerfokus fokusmasalah subiantoragumampu ragumampuri mampuribidang ribidangtahan bidangtahansitus tahansitusglobal situsglobalfire globalfirepower firepowerfokus powerfokusmasalah</t>
+  </si>
+  <si>
+    <t>satu sisi tegas bilang tdk ubah nkri jadi khilafah di sisi bpn malah janji hti hidup satusisi sisitegas tegasbilang bilangtdk tdkubah ubahnkri nkrijadi jadikhilafah khilafahdi disisi sisibpn bpnmalah malahjanji janjihti htihidup satusisitegas sisitegasbilang tegasbilangtdk bilangtdkubah tdkubahnkri ubahnkrijadi nkrijadikhilafah jadikhilafahdi khilafahdisisi disisibpn sisibpnmalah bpnmalahjanji malahjanjihti janjihtihidup</t>
+  </si>
+  <si>
+    <t>siap bawa indonesia maju cuma pak 01dilanjutkan https t co mhvlauseoz siapbawa bawaindonesia indonesiamaju majucuma cumapak pak01dilanjutkan 01dilanjutkanhttps httpst tco comhvlauseoz siapbawaindonesia bawaindonesiamaju indonesiamajucuma majucumapak cumapak01dilanjutkan pak01dilanjutkanhttps 01dilanjutkanhttpst httpstco tcomhvlauseoz</t>
+  </si>
+  <si>
+    <t>2beer unpopular opinion pak mungkin punya track record gak gitu baik gue percaya kalau beliau orang baik 2beerunpopular unpopularopinion opinionpak pakmungkin mungkinpunya punyatrack trackrecord recordgak gakgitu gitubaik baikgue guepercaya percayakalau kalaubeliau beliauorang orangbaik 2beerunpopularopinion unpopularopinionpak opinionpakmungkin pakmungkinpunya mungkinpunyatrack punyatrackrecord trackrecordgak recordgakgitu gakgitubaik gitubaikgue baikguepercaya guepercayakalau percayakalaubeliau kalaubeliauorang beliauorangbaik</t>
+  </si>
+  <si>
+    <t>apa yg mas ttg tema debat isi tegas lugas mudah erti sesuai lapang apayg ygmas masttg ttgtema temadebat debatisi isitegas tegaslugas lugasmudah mudaherti ertisesuai sesuailapang apaygmas ygmasttg masttgtema ttgtemadebat temadebatisi debatisitegas isitegaslugas tegaslugasmudah lugasmudaherti mudahertisesuai ertisesuailapang</t>
+  </si>
+  <si>
+    <t>pak biar paham rata 2 skor cpi dunia th 2018 43 kalau indonesia 38 arti bawah rata pakbiar biarpaham pahamrata rata2 2skor skorcpi cpidunia duniath th2018 201843 43kalau kalauindonesia indonesia38 38arti artibawah bawahrata pakbiarpaham biarpahamrata pahamrata2 rata2skor 2skorcpi skorcpidunia cpiduniath duniath2018 th201843 201843kalau 43kalauindonesia kalauindonesia38 indonesia38arti 38artibawah artibawahrata</t>
+  </si>
+  <si>
+    <t>pak all out debat malam semua umpan lawan lahap habis bahkan jawab kerap jadi serang balik pakall allout outdebat debatmalam malamsemua semuaumpan umpanlawan lawanlahap lahaphabis habisbahkan bahkanjawab jawabkerap kerapjadi jadiserang serangbalik pakallout alloutdebat outdebatmalam debatmalamsemua malamsemuaumpan semuaumpanlawan umpanlawanlahap lawanlahaphabis lahaphabisbahkan habisbahkanjawab bahkanjawabkerap jawabkerapjadi kerapjadiserang jadiserangbalik</t>
+  </si>
+  <si>
+    <t>rekam jejak bersih segala kasus langgar hukum menangjokowilagi rekamjejak jejakbersih bersihsegala segalakasus kasuslanggar langgarhukum hukummenangjokowilagi rekamjejakbersih jejakbersihsegala bersihsegalakasus segalakasuslanggar kasuslanggarhukum langgarhukummenangjokowilagi</t>
+  </si>
+  <si>
+    <t>ketua umum pan insya allah jawa barat jadi menang pan - sandi ketuaumum umumpan paninsya insyaallah allahjawa jawabarat baratjadi jadimenang menangpan pan- -sandi ketuaumumpan umumpaninsya paninsyaallah insyaallahjawa allahjawabarat jawabaratjadi baratjadimenang jadimenangpan menangpan- pan-sandi</t>
+  </si>
+  <si>
+    <t>ken cepet 2 punya presiden yg tegas berkharisma prabowobentengnkri kencepet cepet2 2punya punyapresiden presidenyg ygtegas tegasberkharisma berkharismaprabowobentengnkri kencepet2 cepet2punya 2punyapresiden punyapresidenyg presidenygtegas ygtegasberkharisma tegasberkharismaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>paling penting bagaimana beri didik palingpenting pentingbagaimana bagaimanaberi berididik palingpentingbagaimana pentingbagaimanaberi bagaimanaberididik</t>
+  </si>
+  <si>
+    <t>jadi keliru kalau bpn beri angin hti dg harap suara hti justru hti tdk percaya dg demokrasi jadikeliru kelirukalau kalaubpn bpnberi beriangin anginhti htidg dgharap harapsuara suarahti htijustru justruhti htitdk tdkpercaya percayadg dgdemokrasi jadikelirukalau kelirukalaubpn kalaubpnberi bpnberiangin berianginhti anginhtidg htidgharap dgharapsuara harapsuarahti suarahtijustru htijustruhti justruhtitdk htitdkpercaya tdkpercayadg percayadgdemokrasi</t>
+  </si>
+  <si>
+    <t>juang sama sama rakyat biar rakyat yg juangsama samasama samarakyat rakyatbiar biarrakyat rakyatyg juangsamasama samasamarakyat samarakyatbiar rakyatbiarrakyat biarrakyatyg</t>
+  </si>
+  <si>
+    <t>pakdhe budhe iriana yg suka kampanye suasana positif optimis penuh canda tawa ceria pakdhebudhe budheiriana irianayg ygsuka sukakampanye kampanyesuasana suasanapositif positifoptimis optimispenuh penuhcanda candatawa tawaceria pakdhebudheiriana budheirianayg irianaygsuka ygsukakampanye sukakampanyesuasana kampanyesuasanapositif suasanapositifoptimis positifoptimispenuh optimispenuhcanda penuhcandatawa candatawaceria</t>
+  </si>
+  <si>
+    <t>astaga 2nya ngmg kl dukung 01 yg nuduh soal khilafah 2 yg jelek 2in astaga2nya 2nyangmg ngmgkl kldukung dukung01 01yg ygnuduh nuduhsoal soalkhilafah khilafah2 2yg ygjelek jelek2in astaga2nyangmg 2nyangmgkl ngmgkldukung kldukung01 dukung01yg 01ygnuduh ygnuduhsoal nuduhsoalkhilafah soalkhilafah2 khilafah2yg 2ygjelek ygjelek2in</t>
+  </si>
+  <si>
+    <t>kena tuduh pro-khilafah milik argumen menep mentah 2 olah bela khilafah kenatuduh tuduhpro-khilafah pro-khilafahmilik milikargumen argumenmenep menepmentah mentah2 2olah olahbela belakhilafah kenatuduhpro-khilafah tuduhpro-khilafahmilik pro-khilafahmilikargumen milikargumenmenep argumenmenepmentah menepmentah2 mentah2olah 2olahbela olahbelakhilafah</t>
+  </si>
+  <si>
+    <t>pimpin garus beri contoh jaga satu bukan pecah belah mantap mas pimpingarus garusberi bericontoh contohjaga jagasatu satubukan bukanpecah pecahbelah belahmantap mantapmas pimpingarusberi garusbericontoh bericontohjaga contohjagasatu jagasatubukan satubukanpecah bukanpecahbelah pecahbelahmantap belahmantapmas</t>
+  </si>
+  <si>
+    <t>mantap sekali nyata pak moga selalu konsisten prabowobentengnkri https t co apdde 5ubll mantapsekali sekalinyata nyatapak pakmoga mogaselalu selalukonsisten konsistenprabowobentengnkri prabowobentengnkrihttps httpst tco coapdde apdde5ubll mantapsekalinyata sekalinyatapak nyatapakmoga pakmogaselalu mogaselalukonsisten selalukonsistenprabowobentengnkri konsistenprabowobentengnkrihttps prabowobentengnkrihttpst httpstco tcoapdde coapdde5ubll</t>
+  </si>
+  <si>
+    <t>mantaaab yg tunggu 2 argument cerdas tegas dr bpk pkivspancasila 18harilagicobloscapres02 mantaaabyg ygtunggu tunggu2 2argument argumentcerdas cerdastegas tegasdr drbpk bpkpkivspancasila pkivspancasila18harilagicobloscapres02 mantaaabygtunggu ygtunggu2 tunggu2argument 2argumentcerdas argumentcerdastegas cerdastegasdr tegasdrbpk drbpkpkivspancasila bpkpkivspancasila18harilagicobloscapres02</t>
+  </si>
+  <si>
+    <t>hasil prediksi menang telak tema ahli belio yg notabene milik wawasanya hasilprediksi prediksimenang menangtelak telaktema temaahli ahlibelio belioyg ygnotabene notabenemilik milikwawasanya hasilprediksimenang prediksimenangtelak menangtelaktema telaktemaahli temaahlibelio ahlibelioyg belioygnotabene ygnotabenemilik notabenemilikwawasanya</t>
+  </si>
+  <si>
+    <t>msh andal jual kartu bangga layan satu pintu bangga dgn program it yg kata mpu kurang korupsi mshandal andaljual jualkartu kartubangga banggalayan layansatu satupintu pintubangga banggadgn dgnprogram programit ityg ygkata katampu mpukurang kurangkorupsi mshandaljual andaljualkartu jualkartubangga kartubanggalayan banggalayansatu layansatupintu satupintubangga pintubanggadgn banggadgnprogram dgnprogramit programityg itygkata ygkatampu katampukurang mpukurangkorupsi</t>
+  </si>
+  <si>
+    <t>lihat dr segi mana pak lebih unggul prabowobentengnkri https t co ksmrfawt 0c lihatdr drsegi segimana manapak paklebih lebihunggul unggulprabowobentengnkri prabowobentengnkrihttps httpst tco coksmrfawt ksmrfawt0c lihatdrsegi drsegimana segimanapak manapaklebih paklebihunggul lebihunggulprabowobentengnkri unggulprabowobentengnkrihttps prabowobentengnkrihttpst httpstco tcoksmrfawt coksmrfawt0c</t>
+  </si>
+  <si>
+    <t>dukung waktu 2014 fitnah kristen hebertus bla bla bla semua yg tuduh malah di dukungwaktu waktu2014 2014fitnah fitnahkristen kristenhebertus hebertusbla blabla blabla blasemua semuayg ygtuduh tuduhmalah malahdi dukungwaktu2014 waktu2014fitnah 2014fitnahkristen fitnahkristenhebertus kristenhebertusbla hebertusblabla blablabla blablasemua blasemuayg semuaygtuduh ygtuduhmalah tuduhmalahdi</t>
+  </si>
+  <si>
+    <t>2014 gue dukung pak sukarela buat avatar dukung 2019 gue dukung pak 2014gue guedukung dukungpak paksukarela sukarelabuat buatavatar avatardukung dukung2019 2019gue guedukung dukungpak 2014guedukung guedukungpak dukungpaksukarela paksukarelabuat sukarelabuatavatar buatavatardukung avatardukung2019 dukung2019gue 2019guedukung guedukungpak</t>
+  </si>
+  <si>
+    <t>deklarasi maaruf amin menang yang singkat sebut jomang gagal laksana karna deklarasimaaruf maarufamin aminmenang menangyang yangsingkat singkatsebut sebutjomang jomanggagal gagallaksana laksanakarna deklarasimaarufamin maarufaminmenang aminmenangyang menangyangsingkat yangsingkatsebut singkatsebutjomang sebutjomanggagal jomanggagallaksana gagallaksanakarna</t>
+  </si>
+  <si>
+    <t>tenaga medis paham penting sehat jantung jantung pak tetap sehat tenagamedis medispaham pahampenting pentingsehat sehatjantung jantungjantung jantungpak paktetap tetapsehat tenagamedispaham medispahampenting pahampentingsehat pentingsehatjantung sehatjantungjantung jantungjantungpak jantungpaktetap paktetapsehat</t>
+  </si>
+  <si>
+    <t>debatpilpres 2019 paling kasihan sama orang percaya jadi aparat debatpilpres2019 2019paling palingkasihan kasihansama samaorang orangpercaya percayajadi jadiaparat debatpilpres2019paling 2019palingkasihan palingkasihansama kasihansamaorang samaorangpercaya orangpercayajadi percayajadiaparat</t>
+  </si>
+  <si>
+    <t>jangan putus saudara biar rakyat tentu siapa baik bangsa - janganputus putussaudara saudarabiar biarrakyat rakyattentu tentusiapa siapabaik baikbangsa bangsa- janganputussaudara putussaudarabiar saudarabiarrakyat biarrakyattentu rakyattentusiapa tentusiapabaik siapabaikbangsa baikbangsa-</t>
+  </si>
+  <si>
+    <t>sih pak selalu bandingin kondisi tni jaman sukarno jelas dulu anceman militer tinggi sihpak pakselalu selalubandingin bandinginkondisi kondisitni tnijaman jamansukarno sukarnojelas jelasdulu duluanceman ancemanmiliter militertinggi sihpakselalu pakselalubandingin selalubandinginkondisi bandinginkondisitni kondisitnijaman tnijamansukarno jamansukarnojelas sukarnojelasdulu jelasduluanceman duluancemanmiliter ancemanmilitertinggi</t>
+  </si>
+  <si>
+    <t>baru telepon ibu maryani djoyohadikusumo kakak pak subianto memang kenal baik beliau barutelepon teleponibu ibumaryani maryanidjoyohadikusumo djoyohadikusumokakak kakakpak paksubianto subiantomemang memangkenal kenalbaik baikbeliau baruteleponibu teleponibumaryani ibumaryanidjoyohadikusumo maryanidjoyohadikusumokakak djoyohadikusumokakakpak kakakpaksubianto paksubiantomemang subiantomemangkenal memangkenalbaik kenalbaikbeliau</t>
+  </si>
+  <si>
+    <t>jangan ketawa kalian ketawa tahan indonesia rapuh kalian ketawa lucu kok lucu kata janganketawa ketawakalian kalianketawa ketawatahan tahanindonesia indonesiarapuh rapuhkalian kalianketawa ketawalucu lucukok koklucu lucukata janganketawakalian ketawakalianketawa kalianketawatahan ketawatahanindonesia tahanindonesiarapuh indonesiarapuhkalian rapuhkalianketawa kalianketawalucu ketawalucukok lucukoklucu koklucukata</t>
+  </si>
+  <si>
+    <t>abis sih 01 telanjang debat mantul pak debatpilpres 2019 prabowobentengnkri abissih sih01 01telanjang telanjangdebat debatmantul mantulpak pakdebatpilpres debatpilpres2019 2019prabowobentengnkri abissih01 sih01telanjang 01telanjangdebat telanjangdebatmantul debatmantulpak mantulpakdebatpilpres pakdebatpilpres2019 debatpilpres2019prabowobentengnkri</t>
+  </si>
+  <si>
+    <t>kmi brharap kelak negeri maju brsama prabowo-sandi bnyak bisa bantu pak kmibrharap brharapkelak kelaknegeri negerimaju majubrsama brsamaprabowo-sandi prabowo-sandibnyak bnyakbisa bisabantu bantupak kmibrharapkelak brharapkelaknegeri kelaknegerimaju negerimajubrsama majubrsamaprabowo-sandi brsamaprabowo-sandibnyak prabowo-sandibnyakbisa bnyakbisabantu bisabantupak</t>
+  </si>
+  <si>
+    <t>paling mantap debat malam prabowobentengnkri prabowomenangdebat palingmantap mantapdebat debatmalam malamprabowobentengnkri prabowobentengnkriprabowomenangdebat palingmantapdebat mantapdebatmalam debatmalamprabowobentengnkri malamprabowobentengnkriprabowomenangdebat</t>
+  </si>
+  <si>
+    <t>perintah kuat pimpin tegas pihak prabowo-sandi yakin wujud jadi harap perintahkuat kuatpimpin pimpintegas tegaspihak pihakprabowo-sandi prabowo-sandiyakin yakinwujud wujudjadi jadiharap perintahkuatpimpin kuatpimpintegas pimpintegaspihak tegaspihakprabowo-sandi pihakprabowo-sandiyakin prabowo-sandiyakinwujud yakinwujudjadi wujudjadiharap</t>
+  </si>
+  <si>
+    <t>pak mungkin inspirasi dr netijen yg haus tikai makanya mara 2 gt pakmungkin mungkininspirasi inspirasidr drnetijen netijenyg yghaus haustikai tikaimakanya makanyamara mara2 2gt pakmungkininspirasi mungkininspirasidr inspirasidrnetijen drnetijenyg netijenyghaus yghaustikai haustikaimakanya tikaimakanyamara makanyamara2 mara2gt</t>
+  </si>
+  <si>
+    <t>menang mbak sepenuh yakin pak menang menangmbak mbaksepenuh sepenuhyakin yakinpak pakmenang menangmbaksepenuh mbaksepenuhyakin sepenuhyakinpak yakinpakmenang</t>
+  </si>
+  <si>
+    <t>moga pak selalu sehat aamiin debatasyikjokowi https t co lww 2w8bb30 mogapak pakselalu selalusehat sehataamiin aamiindebatasyikjokowi debatasyikjokowihttps httpst tco colww lww2w8bb30 mogapakselalu pakselalusehat selalusehataamiin sehataamiindebatasyikjokowi aamiindebatasyikjokowihttps debatasyikjokowihttpst httpstco tcolww colww2w8bb30</t>
+  </si>
+  <si>
+    <t>capres 02 nilai tak keluar narasi besar sendiri tak tampil istimewa capres02 02nilai nilaitak takkeluar keluarnarasi narasibesar besarsendiri sendiritak taktampil tampilistimewa capres02nilai 02nilaitak nilaitakkeluar takkeluarnarasi keluarnarasibesar narasibesarsendiri besarsendiritak sendiritaktampil taktampilistimewa</t>
+  </si>
+  <si>
+    <t>paslon capres 01 jokowi-kh ma ruf amin terima deklarasi dukung kelompok supporter sepak bola viking bandung pasloncapres capres01 01jokowi-kh jokowi-khma maruf rufamin aminterima terimadeklarasi deklarasidukung dukungkelompok kelompoksupporter supportersepak sepakbola bolaviking vikingbandung pasloncapres01 capres01jokowi-kh 01jokowi-khma jokowi-khmaruf marufamin rufaminterima aminterimadeklarasi terimadeklarasidukung deklarasidukungkelompok dukungkelompoksupporter kelompoksupportersepak supportersepakbola sepakbolaviking bolavikingbandung</t>
+  </si>
+  <si>
+    <t>naaah pas jokowidiambangkekalahan prabowobentengnkri prabowobentengnkri naaahpas pasjokowidiambangkekalahan jokowidiambangkekalahanprabowobentengnkri prabowobentengnkriprabowobentengnkri naaahpasjokowidiambangkekalahan pasjokowidiambangkekalahanprabowobentengnkri jokowidiambangkekalahanprabowobentengnkriprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>beda kelas bapak 08 true warrior ksatria sejati bedakelas kelasbapak bapak08 08true truewarrior warriorksatria ksatriasejati bedakelasbapak kelasbapak08 bapak08true 08truewarrior truewarriorksatria warriorksatriasejati</t>
+  </si>
+  <si>
+    <t>mantap pak malam anda tunjuk sikap tegas nasionalis patriot sejati tolong jaga emosi mantappak pakmalam malamanda andatunjuk tunjuksikap sikaptegas tegasnasionalis nasionalispatriot patriotsejati sejatitolong tolongjaga jagaemosi mantappakmalam pakmalamanda malamandatunjuk andatunjuksikap tunjuksikaptegas sikaptegasnasionalis tegasnasionalispatriot nasionalispatriotsejati patriotsejatitolong sejatitolongjaga tolongjagaemosi</t>
+  </si>
+  <si>
+    <t>wowo kali 2 ingat pak bapak hati 2 kpd bisik bapak kena tahan wowokali kali2 2ingat ingatpak pakbapak bapakhati hati2 2kpd kpdbisik bisikbapak bapakkena kenatahan wowokali2 kali2ingat 2ingatpak ingatpakbapak pakbapakhati bapakhati2 hati2kpd 2kpdbisik kpdbisikbapak bisikbapakkena bapakkenatahan</t>
+  </si>
+  <si>
+    <t>malam mantap prabowomenangdebat jokowidiambangkekalahan malammantap mantapprabowomenangdebat prabowomenangdebatjokowidiambangkekalahan malammantapprabowomenangdebat mantapprabowomenangdebatjokowidiambangkekalahan</t>
+  </si>
+  <si>
+    <t>insyaalloh jatim solid dukung 02 nahdliyinbukanjokower nahdliyindukung 02 sayanusayamilih 02 insyaallohjatim jatimsolid soliddukung dukung02 02nahdliyinbukanjokower nahdliyinbukanjokowernahdliyindukung nahdliyindukung02 02sayanusayamilih sayanusayamilih02 insyaallohjatimsolid jatimsoliddukung soliddukung02 dukung02nahdliyinbukanjokower 02nahdliyinbukanjokowernahdliyindukung nahdliyinbukanjokowernahdliyindukung02 nahdliyindukung02sayanusayamilih 02sayanusayamilih02</t>
+  </si>
+  <si>
+    <t>jangan bilang salah hanya mau bilang fakta saya pulang kampung begini kondisi infrastruktur janganbilang bilangsalah salahhanya hanyamau maubilang bilangfakta faktasaya sayapulang pulangkampung kampungbegini beginikondisi kondisiinfrastruktur janganbilangsalah bilangsalahhanya salahhanyamau hanyamaubilang maubilangfakta bilangfaktasaya faktasayapulang sayapulangkampung pulangkampungbegini kampungbeginikondisi beginikondisiinfrastruktur</t>
+  </si>
+  <si>
+    <t>singkir kali akan gagal akan lantik jadi presiden republik indonesia ke - 8 singkirkali kaliakan akangagal gagalakan akanlantik lantikjadi jadipresiden presidenrepublik republikindonesia indonesiake ke- -8 singkirkaliakan kaliakangagal akangagalakan gagalakanlantik akanlantikjadi lantikjadipresiden jadipresidenrepublik presidenrepublikindonesia republikindonesiake indonesiake- ke-8</t>
+  </si>
+  <si>
+    <t>ngeriii kalau lihat dukung beri viking amin jokowimengubahsemua 01jokowi3pdip kusukajokowiamin ngeriiikalau kalaulihat lihatdukung dukungberi beriviking vikingamin aminjokowimengubahsemua jokowimengubahsemua01jokowi3pdip 01jokowi3pdipkusukajokowiamin ngeriiikalaulihat kalaulihatdukung lihatdukungberi dukungberiviking berivikingamin vikingaminjokowimengubahsemua aminjokowimengubahsemua01jokowi3pdip jokowimengubahsemua01jokowi3pdipkusukajokowiamin</t>
+  </si>
+  <si>
+    <t>kalau cuma pinter bahasa inggris gak usah cinta laura tukang becak dijogja jg banyak kalaucuma cumapinter pinterbahasa bahasainggris inggrisgak gakusah usahcinta cintalaura lauratukang tukangbecak becakdijogja dijogjajg jgbanyak kalaucumapinter cumapinterbahasa pinterbahasainggris bahasainggrisgak inggrisgakusah gakusahcinta usahcintalaura cintalauratukang lauratukangbecak tukangbecakdijogja becakdijogjajg dijogjajgbanyak</t>
+  </si>
+  <si>
+    <t>sedih pilpres buat orang orang jadi benci lebih sekaligus puja lebih sama sama babi buta sedihpilpres pilpresbuat buatorang orangorang orangjadi jadibenci bencilebih lebihsekaligus sekaliguspuja pujalebih lebihsama samasama samababi babibuta sedihpilpresbuat pilpresbuatorang buatorangorang orangorangjadi orangjadibenci jadibencilebih bencilebihsekaligus lebihsekaliguspuja sekaliguspujalebih pujalebihsama lebihsamasama samasamababi samababibuta</t>
+  </si>
+  <si>
+    <t>deklarasi bobotoh dukung bobotohngahiji https t co ck2zv5jzvq deklarasibobotoh bobotohdukung dukungbobotohngahiji bobotohngahijihttps httpst tco cock2zv5jzvq deklarasibobotohdukung bobotohdukungbobotohngahiji dukungbobotohngahijihttps bobotohngahijihttpst httpstco tcock2zv5jzvq</t>
+  </si>
+  <si>
+    <t>sandi cita cita indonesia adil makmur berdikari bidang ekonomi yuuk terus gerak indonenesia sandicita citacita citaindonesia indonesiaadil adilmakmur makmurberdikari berdikaribidang bidangekonomi ekonomiyuuk yuukterus terusgerak gerakindonenesia sandicitacita citacitaindonesia citaindonesiaadil indonesiaadilmakmur adilmakmurberdikari makmurberdikaribidang berdikaribidangekonomi bidangekonomiyuuk ekonomiyuukterus yuukterusgerak terusgerakindonenesia</t>
+  </si>
+  <si>
+    <t>ambil sudut pandang pas ledak boom dilan 2014 cc prabowobentengnkri jokowidiambang ambilsudut sudutpandang pandangpas pasledak ledakboom boomdilan dilan2014 2014cc ccprabowobentengnkri prabowobentengnkrijokowidiambang ambilsudutpandang sudutpandangpas pandangpasledak pasledakboom ledakboomdilan boomdilan2014 dilan2014cc 2014ccprabowobentengnkri ccprabowobentengnkrijokowidiambang</t>
+  </si>
+  <si>
+    <t>suka heran sama org yg benci parah sm pak disakitin sakit apa sih https t co efc 7clo0mb sukaheran heransama samaorg orgyg ygbenci benciparah parahsm smpak pakdisakitin disakitinsakit sakitapa apasih sihhttps httpst tco coefc efc7clo0mb sukaheransama heransamaorg samaorgyg orgygbenci ygbenciparah benciparahsm parahsmpak smpakdisakitin pakdisakitinsakit disakitinsakitapa sakitapasih apasihhttps sihhttpst httpstco tcoefc coefc7clo0mb</t>
+  </si>
+  <si>
+    <t>lihat pak percaya tni 2019 lihatpak pakpercaya percayatni tni2019 lihatpakpercaya pakpercayatni percayatni2019</t>
+  </si>
+  <si>
+    <t>lah malah ngulang omong lahmalah malahngulang ngulangomong lahmalahngulang malahngulangomong</t>
+  </si>
+  <si>
+    <t>insya allah aroma menang buat pak bang sudah nampak jelas lihat tinggal kawal menang insyaallah allaharoma aromamenang menangbuat buatpak pakbang bangsudah sudahnampak nampakjelas jelaslihat lihattinggal tinggalkawal kawalmenang insyaallaharoma allaharomamenang aromamenangbuat menangbuatpak buatpakbang pakbangsudah bangsudahnampak sudahnampakjelas nampakjelaslihat jelaslihattinggal lihattinggalkawal tinggalkawalmenang</t>
+  </si>
+  <si>
+    <t>pak benar orang baik pilih jadi presiden yg kali pakbenar benarorang orangbaik baikpilih pilihjadi jadipresiden presidenyg ygkali pakbenarorang benarorangbaik orangbaikpilih baikpilihjadi pilihjadipresiden jadipresidenyg presidenygkali</t>
+  </si>
+  <si>
+    <t>turut ini tampil pak paling lepas benar 2 turutini initampil tampilpak pakpaling palinglepas lepasbenar benar2 turutinitampil initampilpak tampilpakpaling pakpalinglepas palinglepasbenar lepasbenar2</t>
+  </si>
+  <si>
+    <t>20 100 alas pilih prabowo menang debat 17 april coblos sandi 20100 100alas alaspilih pilihprabowo prabowomenang menangdebat debat17 17april aprilcoblos coblossandi 20100alas 100alaspilih alaspilihprabowo pilihprabowomenang prabowomenangdebat menangdebat17 debat17april 17aprilcoblos aprilcoblossandi</t>
+  </si>
+  <si>
+    <t>udah deh cor gak usah banyak omong viking bobotoh buat deklarasi utk dukung udahdeh dehcor corgak gakusah usahbanyak banyakomong omongviking vikingbobotoh bobotohbuat buatdeklarasi deklarasiutk utkdukung udahdehcor dehcorgak corgakusah gakusahbanyak usahbanyakomong banyakomongviking omongvikingbobotoh vikingbobotohbuat bobotohbuatdeklarasi buatdeklarasiutk deklarasiutkdukung</t>
+  </si>
+  <si>
+    <t>pak mantap jawab tenang jokowimengubahsemua nya jadi lebih baik maju jokowilagi pakmantap mantapjawab jawabtenang tenangjokowimengubahsemua jokowimengubahsemuanya nyajadi jadilebih lebihbaik baikmaju majujokowilagi pakmantapjawab mantapjawabtenang jawabtenangjokowimengubahsemua tenangjokowimengubahsemuanya jokowimengubahsemuanyajadi nyajadilebih jadilebihbaik lebihbaikmaju baikmajujokowilagi</t>
+  </si>
+  <si>
+    <t>tuju pak presiden aamiin klo lembaga 2 perintah kuat korupsi jual beli jabat tujupak pakpresiden presidenaamiin aamiinklo klolembaga lembaga2 2perintah perintahkuat kuatkorupsi korupsijual jualbeli belijabat tujupakpresiden pakpresidenaamiin presidenaamiinklo aamiinklolembaga klolembaga2 lembaga2perintah 2perintahkuat perintahkuatkorupsi kuatkorupsijual korupsijualbeli jualbelijabat</t>
+  </si>
+  <si>
+    <t>pemerintahandilan tol langit rupa karya bangun bukti mampu dukung maju ekonomi digital pemerintahandilantol tollangit langitrupa rupakarya karyabangun bangunbukti buktimampu mampudukung dukungmaju majuekonomi ekonomidigital pemerintahandilantollangit tollangitrupa langitrupakarya rupakaryabangun karyabangunbukti bangunbuktimampu buktimampudukung mampudukungmaju dukungmajuekonomi majuekonomidigital</t>
+  </si>
+  <si>
+    <t>bangga baris pak prabowobentengnkri banggabaris barispak pakprabowobentengnkri banggabarispak barispakprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>milenial love yah gaya milenial kena ott ahy partai demokrat demokrat dukung mileniallove loveyah yahgaya gayamilenial milenialkena kenaott ottahy ahypartai partaidemokrat demokratdemokrat demokratdukung milenialloveyah loveyahgaya yahgayamilenial gayamilenialkena milenialkenaott kenaottahy ottahypartai ahypartaidemokrat partaidemokratdemokrat demokratdemokratdukung</t>
+  </si>
+  <si>
+    <t>lebih tni banyak tni 2019 yeaahhh lebihtni tnibanyak banyaktni tni2019 2019yeaahhh lebihtnibanyak tnibanyaktni banyaktni2019 tni2019yeaahhh</t>
+  </si>
+  <si>
+    <t>sistem alat teknologi semua bagus layan publik inti perintah bersih korupsi sistemalat alatteknologi teknologisemua semuabagus baguslayan layanpublik publikinti intiperintah perintahbersih bersihkorupsi sistemalatteknologi alatteknologisemua teknologisemuabagus semuabaguslayan baguslayanpublik layanpublikinti publikintiperintah intiperintahbersih perintahbersihkorupsi</t>
+  </si>
+  <si>
+    <t>isu khilafah hembus sutradara utk gempur patah ronde pertama katolik makin percaya isukhilafah khilafahhembus hembussutradara sutradarautk utkgempur gempurpatah patahronde rondepertama pertamakatolik katolikmakin makinpercaya isukhilafahhembus khilafahhembussutradara hembussutradarautk sutradarautkgempur utkgempurpatah gempurpatahronde patahrondepertama rondepertamakatolik pertamakatolikmakin katolikmakinpercaya</t>
+  </si>
+  <si>
+    <t>dil digital layan lebih baik guna teknologi lama pel deh pikir dildigital digitallayan layanlebih lebihbaik baikguna gunateknologi teknologilama lamapel peldeh dehpikir dildigitallayan digitallayanlebih layanlebihbaik lebihbaikguna baikgunateknologi gunateknologilama teknologilamapel lamapeldeh peldehpikir</t>
+  </si>
+  <si>
+    <t>clossing statement isyarat pisah bangga bapak segera gegas pulang serah kuasa clossingstatement statementisyarat isyaratpisah pisahbangga banggabapak bapaksegera segeragegas gegaspulang pulangserah serahkuasa clossingstatementisyarat statementisyaratpisah isyaratpisahbangga pisahbanggabapak banggabapaksegera bapaksegeragegas segeragegaspulang gegaspulangserah pulangserahkuasa</t>
+  </si>
+  <si>
+    <t>lihat pak percaya tni telak sekali bro tak kutik lihatpak pakpercaya percayatni tnitelak telaksekali sekalibro brotak takkutik lihatpakpercaya pakpercayatni percayatnitelak tnitelaksekali telaksekalibro sekalibrotak brotakkutik</t>
+  </si>
+  <si>
+    <t>bikin tonton ketawa saat bilang bukan salah bapak gak tau salah siapa bikintonton tontonketawa ketawasaat saatbilang bilangbukan bukansalah salahbapak bapakgak gaktau tausalah salahsiapa bikintontonketawa tontonketawasaat ketawasaatbilang saatbilangbukan bilangbukansalah bukansalahbapak salahbapakgak bapakgaktau gaktausalah tausalahsiapa</t>
+  </si>
+  <si>
+    <t>siapa bicara scr umum soal ini jgn korupsi perintah bersih siapabicara bicarascr scrumum umumsoal soalini inijgn jgnkorupsi korupsiperintah perintahbersih siapabicarascr bicarascrumum scrumumsoal umumsoalini soalinijgn inijgnkorupsi jgnkorupsiperintah korupsiperintahbersih</t>
+  </si>
+  <si>
+    <t>6 indonesia adlh negara dg duduk muslim besar dunia percaya selesai banyak yg besar 6indonesia indonesiaadlh adlhnegara negaradg dgduduk dudukmuslim muslimbesar besardunia duniapercaya percayaselesai selesaibanyak banyakyg ygbesar 6indonesiaadlh indonesiaadlhnegara adlhnegaradg negaradgduduk dgdudukmuslim dudukmuslimbesar muslimbesardunia besarduniapercaya duniapercayaselesai percayaselesaibanyak selesaibanyakyg banyakygbesar</t>
+  </si>
+  <si>
+    <t>baru kali tenang banget prabowobentengnkri barukali kalitenang tenangbanget bangetprabowobentengnkri barukalitenang kalitenangbanget tenangbangetprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>milenial cinta pemerintahandilan keren https t co gg7eokdtnw milenialcinta cintapemerintahandilan pemerintahandilankeren kerenhttps httpst tco cogg7eokdtnw milenialcintapemerintahandilan cintapemerintahandilankeren pemerintahandilankerenhttps kerenhttpst httpstco tcogg7eokdtnw</t>
+  </si>
+  <si>
+    <t>yth bapak debat momen baik papar gagas rencana hadap benang kusut bangsa ythbapak bapakdebat debatmomen momenbaik baikpapar papargagas gagasrencana rencanahadap hadapbenang benangkusut kusutbangsa ythbapakdebat bapakdebatmomen debatmomenbaik momenbaikpapar baikpapargagas papargagasrencana gagasrencanahadap rencanahadapbenang hadapbenangkusut benangkusutbangsa</t>
+  </si>
+  <si>
+    <t>tuduh itu tp diam tidak jawab bohong beud prabowobentengnkri tuduhitu itutp tpdiam diamtidak tidakjawab jawabbohong bohongbeud beudprabowobentengnkri tuduhitutp itutpdiam tpdiamtidak diamtidakjawab tidakjawabbohong jawabbohongbeud bohongbeudprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>rendah dukung tahana rupa bukti bila cara tak langsung sedang hukum publik rendahdukung dukungtahana tahanarupa rupabukti buktibila bilacara caratak taklangsung langsungsedang sedanghukum hukumpublik rendahdukungtahana dukungtahanarupa tahanarupabukti rupabuktibila buktibilacara bilacaratak carataklangsung taklangsungsedang langsungsedanghukum sedanghukumpublik</t>
+  </si>
+  <si>
+    <t>leceh tagar 02capresabadi lama 4 5 thn juang ubah dah bobo cantik aja sana lecehtagar tagar02capresabadi 02capresabadilama lama4 45 5thn thnjuang juangubah ubahdah dahbobo bobocantik cantikaja ajasana lecehtagar02capresabadi tagar02capresabadilama 02capresabadilama4 lama45 45thn 5thnjuang thnjuangubah juangubahdah ubahdahbobo dahbobocantik bobocantikaja cantikajasana</t>
+  </si>
+  <si>
+    <t>tetap fokus doa allah maha kuasa menang indonesia satu tetapfokus fokusdoa doaallah allahmaha mahakuasa kuasamenang menangindonesia indonesiasatu tetapfokusdoa fokusdoaallah doaallahmaha allahmahakuasa mahakuasamenang kuasamenangindonesia menangindonesiasatu</t>
+  </si>
+  <si>
+    <t>percaya tni pecatanlebihtnidaritni https t co qtfysc 93hd percayatni tnipecatanlebihtnidaritni pecatanlebihtnidaritnihttps httpst tco coqtfysc qtfysc93hd percayatnipecatanlebihtnidaritni tnipecatanlebihtnidaritnihttps pecatanlebihtnidaritnihttpst httpstco tcoqtfysc coqtfysc93hd</t>
+  </si>
+  <si>
+    <t>depan negara yg cepat mebgalahka negara yg lambat kata pak cepat super cepat lompat depan depannegara negarayg ygcepat cepatmebgalahka mebgalahkanegara negarayg yglambat lambatkata katapak pakcepat cepatsuper supercepat cepatlompat lompatdepan depannegarayg negaraygcepat ygcepatmebgalahka cepatmebgalahkanegara mebgalahkanegarayg negarayglambat yglambatkata lambatkatapak katapakcepat pakcepatsuper cepatsupercepat supercepatlompat cepatlompatdepan</t>
+  </si>
+  <si>
+    <t>makin yakin rakyat ubah tunjuk kelas bagai orang memang paham soal bangsa depan makinyakin yakinrakyat rakyatubah ubahtunjuk tunjukkelas kelasbagai bagaiorang orangmemang memangpaham pahamsoal soalbangsa bangsadepan makinyakinrakyat yakinrakyatubah rakyatubahtunjuk ubahtunjukkelas tunjukkelasbagai kelasbagaiorang bagaiorangmemang orangmemangpaham memangpahamsoal pahamsoalbangsa soalbangsadepan</t>
+  </si>
+  <si>
+    <t>lhooo kok ngeles paak td kata tdk perang skrg bilang hny kira kok pucat lhoookok kokngeles ngelespaak paaktd tdkata katatdk tdkperang perangskrg skrgbilang bilanghny hnykira kirakok kokpucat lhoookokngeles kokngelespaak ngelespaaktd paaktdkata tdkatatdk katatdkperang tdkperangskrg perangskrgbilang skrgbilanghny bilanghnykira hnykirakok kirakokpucat</t>
+  </si>
+  <si>
+    <t>repost jokowi amin pak hidup pancasila pimpin bisa beri contoh baik repostjokowi jokowiamin aminpak pakhidup hiduppancasila pancasilapimpin pimpinbisa bisaberi bericontoh contohbaik repostjokowiamin jokowiaminpak aminpakhidup pakhiduppancasila hiduppancasilapimpin pancasilapimpinbisa pimpinbisaberi bisabericontoh bericontohbaik</t>
+  </si>
+  <si>
+    <t>telah debat capres kpu setel lagu mesra jangan cepat lalu romantisasi sahabat telahdebat debatcapres capreskpu kpusetel setellagu lagumesra mesrajangan jangancepat cepatlalu laluromantisasi romantisasisahabat telahdebatcapres debatcapreskpu capreskpusetel kpusetellagu setellagumesra lagumesrajangan mesrajangancepat jangancepatlalu cepatlaluromantisasi laluromantisasisahabat</t>
+  </si>
+  <si>
+    <t>siap nonton debatpilpreskeempat tema debat malam untung p krn kuasa tema debat siapnonton nontondebatpilpreskeempat debatpilpreskeempattema temadebat debatmalam malamuntung untungp pkrn krnkuasa kuasatema temadebat siapnontondebatpilpreskeempat nontondebatpilpreskeempattema debatpilpreskeempattemadebat temadebatmalam debatmalamuntung malamuntungp untungpkrn pkrnkuasa krnkuasatema kuasatemadebat</t>
+  </si>
+  <si>
+    <t>hebat sekali dlm respon akhir debat pilpres tegas bgs indonesia kuat berdikari hebatsekali sekalidlm dlmrespon responakhir akhirdebat debatpilpres pilprestegas tegasbgs bgsindonesia indonesiakuat kuatberdikari hebatsekalidlm sekalidlmrespon dlmresponakhir responakhirdebat akhirdebatpilpres debatpilprestegas pilprestegasbgs tegasbgsindonesia bgsindonesiakuat indonesiakuatberdikari</t>
+  </si>
+  <si>
+    <t>nyerocos pakai bahas inggris debatpilpres 2019 malam sontak hilang kosentrasi fokus nyerocospakai pakaibahas bahasinggris inggrisdebatpilpres debatpilpres2019 2019malam malamsontak sontakhilang hilangkosentrasi kosentrasifokus nyerocospakaibahas pakaibahasinggris bahasinggrisdebatpilpres inggrisdebatpilpres2019 debatpilpres2019malam 2019malamsontak malamsontakhilang sontakhilangkosentrasi hilangkosentrasifokus</t>
+  </si>
+  <si>
+    <t>dong selalu fokus masalah bicara perlu banyak kerja kepoinpemilu jokowimengubahsemua dongselalu selalufokus fokusmasalah masalahbicara bicaraperlu perlubanyak banyakkerja kerjakepoinpemilu kepoinpemilujokowimengubahsemua dongselalufokus selalufokusmasalah fokusmasalahbicara masalahbicaraperlu bicaraperlubanyak perlubanyakkerja banyakkerjakepoinpemilu kerjakepoinpemilujokowimengubahsemua</t>
+  </si>
+  <si>
+    <t>prinsip perintah pak era revolusi 40 cepat tele 2 simple pak yakin kata 2 prinsipperintah perintahpak pakera erarevolusi revolusi40 40cepat cepattele tele2 2simple simplepak pakyakin yakinkata kata2 prinsipperintahpak perintahpakera pakerarevolusi erarevolusi40 revolusi40cepat 40cepattele cepattele2 tele2simple 2simplepak simplepakyakin pakyakinkata yakinkata2</t>
+  </si>
+  <si>
+    <t>yoiii gigi gua ampe hilang sakit gegara lihat performent pak keren nendang jae yoiiigigi gigigua guaampe ampehilang hilangsakit sakitgegara gegaralihat lihatperforment performentpak pakkeren kerennendang nendangjae yoiiigigigua gigiguaampe guaampehilang ampehilangsakit hilangsakitgegara sakitgegaralihat gegaralihatperforment lihatperformentpak performentpakkeren pakkerennendang kerennendangjae</t>
+  </si>
+  <si>
+    <t>terimakasih pak malam sekali bapak bukti mereka juang rakyat terimakasihpak pakmalam malamsekali sekalibapak bapakbukti buktimereka merekajuang juangrakyat terimakasihpakmalam pakmalamsekali malamsekalibapak sekalibapakbukti bapakbuktimereka buktimerekajuang merekajuangrakyat</t>
+  </si>
+  <si>
+    <t>dulur sebut apa buat optimis pak 01dilanjutkan kata tagar dulursebut sebutapa apabuat buatoptimis optimispak pak01dilanjutkan 01dilanjutkankata katatagar dulursebutapa sebutapabuat apabuatoptimis buatoptimispak optimispak01dilanjutkan pak01dilanjutkankata 01dilanjutkankatatagar</t>
+  </si>
+  <si>
+    <t>pak gimana bilang orang asing indonesia punya potensial besar bukan nya bersukur di doa sama pakgimana gimanabilang bilangorang orangasing asingindonesia indonesiapunya punyapotensial potensialbesar besarbukan bukannya nyabersukur bersukurdi didoa doasama pakgimanabilang gimanabilangorang bilangorangasing orangasingindonesia asingindonesiapunya indonesiapunyapotensial punyapotensialbesar potensialbesarbukan besarbukannya bukannyabersukur nyabersukurdi bersukurdidoa didoasama</t>
+  </si>
+  <si>
+    <t>acu adalah mertua bukti keluarga mertua di baris yang mau mundur masa lalu acuadalah adalahmertua mertuabukti buktikeluarga keluargamertua mertuadi dibaris barisyang yangmau maumundur mundurmasa masalalu acuadalahmertua adalahmertuabukti mertuabuktikeluarga buktikeluargamertua keluargamertuadi mertuadibaris dibarisyang barisyangmau yangmaumundur maumundurmasa mundurmasalalu</t>
+  </si>
+  <si>
+    <t>baru kali mau fitnah labil kadang bilang gak sholat bukan islam gak pernah jumat barukali kalimau maufitnah fitnahlabil labilkadang kadangbilang bilanggak gaksholat sholatbukan bukanislam islamgak gakpernah pernahjumat barukalimau kalimaufitnah maufitnahlabil fitnahlabilkadang labilkadangbilang kadangbilanggak bilanggaksholat gaksholatbukan sholatbukanislam bukanislamgak islamgakpernah gakpernahjumat</t>
+  </si>
+  <si>
+    <t>juga pak hendro pak luhut coba lihat dukung sandi biar gak mikirin khilafah terus jugapak pakhendro hendropak pakluhut luhutcoba cobalihat lihatdukung dukungsandi sandibiar biargak gakmikirin mikirinkhilafah khilafahterus jugapakhendro pakhendropak hendropakluhut pakluhutcoba luhutcobalihat cobalihatdukung lihatdukungsandi dukungsandibiar sandibiargak biargakmikirin gakmikirinkhilafah mikirinkhilafahterus</t>
+  </si>
+  <si>
+    <t>https t co gfse 1zynfq siap indonesia hadap industri 4 0 makin siap pakde tau cara httpst tco cogfse gfse1zynfq 1zynfqsiap siapindonesia indonesiahadap hadapindustri industri4 40 0makin makinsiap siappakde pakdetau taucara httpstco tcogfse cogfse1zynfq gfse1zynfqsiap 1zynfqsiapindonesia siapindonesiahadap indonesiahadapindustri hadapindustri4 industri40 40makin 0makinsiap makinsiappakde siappakdetau pakdetaucara</t>
+  </si>
+  <si>
+    <t>debat hari konfirmasi menang terima kasih mas tampil mas bowo hari ruarbiasa debathari harikonfirmasi konfirmasimenang menangterima terimakasih kasihmas mastampil tampilmas masbowo bowohari hariruarbiasa debatharikonfirmasi harikonfirmasimenang konfirmasimenangterima menangterimakasih terimakasihmas kasihmastampil mastampilmas tampilmasbowo masbowohari bowohariruarbiasa</t>
+  </si>
+  <si>
+    <t>kadang bingung sih dukung sama antem substansi saling jatuh kadangbingung bingungsih sihdukung dukungsama samaantem antemsubstansi substansisaling salingjatuh kadangbingungsih bingungsihdukung sihdukungsama dukungsamaantem samaantemsubstansi antemsubstansisaling substansisalingjatuh</t>
+  </si>
+  <si>
+    <t>itu nyata raut wajah tampak lelah pucat pasrah akhir sadar ucap salam pisah itunyata nyataraut rautwajah wajahtampak tampaklelah lelahpucat pucatpasrah pasrahakhir akhirsadar sadarucap ucapsalam salampisah itunyataraut nyatarautwajah rautwajahtampak wajahtampaklelah tampaklelahpucat lelahpucatpasrah pucatpasrahakhir pasrahakhirsadar akhirsadarucap sadarucapsalam ucapsalampisah</t>
+  </si>
+  <si>
+    <t>orang dungu yg mberi label kubu kubu dukung khilafah smtr waktu mrk membully orangdungu dunguyg ygmberi mberilabel labelkubu kubukubu kubudukung dukungkhilafah khilafahsmtr smtrwaktu waktumrk mrkmembully orangdunguyg dunguygmberi ygmberilabel mberilabelkubu labelkubukubu kubukubudukung kubudukungkhilafah dukungkhilafahsmtr khilafahsmtrwaktu smtrwaktumrk waktumrkmembully</t>
+  </si>
+  <si>
+    <t>pak masalah nasional bisa selesai cara emosional maaf sekadar ingat pakmasalah masalahnasional nasionalbisa bisaselesai selesaicara caraemosional emosionalmaaf maafsekadar sekadaringat pakmasalahnasional masalahnasionalbisa nasionalbisaselesai bisaselesaicara selesaicaraemosional caraemosionalmaaf emosionalmaafsekadar maafsekadaringat</t>
+  </si>
+  <si>
+    <t>bagai tni wakaf jiwa raga bela negara walo mati medan laga bagaitni tniwakaf wakafjiwa jiwaraga ragabela belanegara negarawalo walomati matimedan medanlaga bagaitniwakaf tniwakafjiwa wakafjiwaraga jiwaragabela ragabelanegara belanegarawalo negarawalomati walomatimedan matimedanlaga</t>
+  </si>
+  <si>
+    <t>pakde beri fasilitas lalu bangun gedung injubasi para laku usaha rintis starup pakdeberi berifasilitas fasilitaslalu lalubangun bangungedung gedunginjubasi injubasipara paralaku lakuusaha usaharintis rintisstarup pakdeberifasilitas berifasilitaslalu fasilitaslalubangun lalubangungedung bangungedunginjubasi gedunginjubasipara injubasiparalaku paralakuusaha lakuusaharintis usaharintisstarup</t>
+  </si>
+  <si>
+    <t>malam hebat miss makin yakin indonesia menang prabowobentengnkri malamhebat hebatmiss missmakin makinyakin yakinindonesia indonesiamenang menangprabowobentengnkri malamhebatmiss hebatmissmakin missmakinyakin makinyakinindonesia yakinindonesiamenang indonesiamenangprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>cetar bahana porak poranda tahana buat gua suka gaya lo jendral prabowobentengnkri cetarbahana bahanaporak porakporanda porandatahana tahanabuat buatgua guasuka sukagaya gayalo lojendral jendralprabowobentengnkri cetarbahanaporak bahanaporakporanda porakporandatahana porandatahanabuat tahanabuatgua buatguasuka guasukagaya sukagayalo gayalojendral lojendralprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>mbakyu jaga stamina istirahat yg pas mbakyujaga jagastamina staminaistirahat istirahatyg ygpas mbakyujagastamina jagastaminaistirahat staminaistirahatyg istirahatygpas</t>
+  </si>
+  <si>
+    <t>terima kasih bpk atas tampil luar biasa malam saya keluarga histeria doa bapak menang terimakasih kasihbpk bpkatas atastampil tampilluar luarbiasa biasamalam malamsaya sayakeluarga keluargahisteria histeriadoa doabapak bapakmenang terimakasihbpk kasihbpkatas bpkatastampil atastampilluar tampilluarbiasa luarbiasamalam biasamalamsaya malamsayakeluarga sayakeluargahisteria keluargahisteriadoa histeriadoabapak doabapakmenang</t>
+  </si>
+  <si>
+    <t>jadi benar sepakat semua usul program pak tuju silah lanjut periode jadibenar benarsepakat sepakatsemua semuausul usulprogram programpak paktuju tujusilah silahlanjut lanjutperiode jadibenarsepakat benarsepakatsemua sepakatsemuausul semuausulprogram usulprogrampak programpaktuju paktujusilah tujusilahlanjut silahlanjutperiode</t>
+  </si>
+  <si>
+    <t>sekarang begini utk uji nyali berani gak nyata libas juang hizbut tahrir sekarangbegini beginiutk utkuji ujinyali nyaliberani beranigak gaknyata nyatalibas libasjuang juanghizbut hizbuttahrir sekarangbeginiutk beginiutkuji utkujinyali ujinyaliberani nyaliberanigak beranigaknyata gaknyatalibas nyatalibasjuang libasjuanghizbut juanghizbuttahrir</t>
+  </si>
+  <si>
+    <t>eh tunggu jual beli jabat angkat pak 90 menteri sumber internal perintah sekarang ehtunggu tunggujual jualbeli belijabat jabatangkat angkatpak pak90 90menteri menterisumber sumberinternal internalperintah perintahsekarang ehtunggujual tunggujualbeli jualbelijabat belijabatangkat jabatangkatpak angkatpak90 pak90menteri 90menterisumber menterisumberinternal sumberinternalperintah internalperintahsekarang</t>
+  </si>
+  <si>
+    <t>jae muka merah saya lawan - jokowidiambangkekalahan jokowidiambangkekalahan jaemuka mukamerah merahsaya sayalawan lawan- -jokowidiambangkekalahan jokowidiambangkekalahanjokowidiambangkekalahan jaemukamerah mukamerahsaya merahsayalawan sayalawan- lawan-jokowidiambangkekalahan -jokowidiambangkekalahanjokowidiambangkekalahan</t>
+  </si>
+  <si>
+    <t>perintah yng sigap layan rakyatm bravoo pak pemerintahandilan https t co nugbqspxbc perintahyng yngsigap sigaplayan layanrakyatm rakyatmbravoo bravoopak pakpemerintahandilan pemerintahandilanhttps httpst tco conugbqspxbc perintahyngsigap yngsigaplayan sigaplayanrakyatm layanrakyatmbravoo rakyatmbravoopak bravoopakpemerintahandilan pakpemerintahandilanhttps pemerintahandilanhttpst httpstco tconugbqspxbc</t>
+  </si>
+  <si>
+    <t>colokin nih jendral pecat militer indonesia lebih kuat israel australia - the global firepower colokinnih nihjendral jendralpecat pecatmiliter militerindonesia indonesialebih lebihkuat kuatisrael israelaustralia australia- -the theglobal globalfirepower colokinnihjendral nihjendralpecat jendralpecatmiliter pecatmiliterindonesia militerindonesialebih indonesialebihkuat lebihkuatisrael kuatisraelaustralia israelaustralia- australia-the -theglobal theglobalfirepower</t>
+  </si>
+  <si>
+    <t>istimewa sangat istimewa closing statement pak betul 2 tunjuk beliau mmg orang negarawan istimewasangat sangatistimewa istimewaclosing closingstatement statementpak pakbetul betul2 2tunjuk tunjukbeliau beliaummg mmgorang orangnegarawan istimewasangatistimewa sangatistimewaclosing istimewaclosingstatement closingstatementpak statementpakbetul pakbetul2 betul2tunjuk 2tunjukbeliau tunjukbeliaummg beliaummgorang mmgorangnegarawan</t>
+  </si>
+  <si>
+    <t>tau betul emak 2 dukung kang dukung bukan ganti pancasila taubetul betulemak emak2 2dukung dukungkang kangdukung dukungbukan bukanganti gantipancasila taubetulemak betulemak2 emak2dukung 2dukungkang dukungkangdukung kangdukungbukan dukungbukanganti bukangantipancasila</t>
+  </si>
+  <si>
+    <t>milik gagas yg cerdas beliau rela mati indonesia benar prabowobentengnkri milikgagas gagasyg ygcerdas cerdasbeliau beliaurela relamati matiindonesia indonesiabenar benarprabowobentengnkri milikgagasyg gagasygcerdas ygcerdasbeliau cerdasbeliaurela beliaurelamati relamatiindonesia matiindonesiabenar indonesiabenarprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>era jaman skarang teknologi sangat penting pak bangga unicorn indonesia erajaman jamanskarang skarangteknologi teknologisangat sangatpenting pentingpak pakbangga banggaunicorn unicornindonesia erajamanskarang jamanskarangteknologi skarangteknologisangat teknologisangatpenting sangatpentingpak pentingpakbangga pakbanggaunicorn banggaunicornindonesia</t>
+  </si>
+  <si>
+    <t>pas bilang pernah militer pak cuma senyum 2 pecat koq bangga sich wowo tuch gak punya malu pasbilang bilangpernah pernahmiliter militerpak pakcuma cumasenyum senyum2 2pecat pecatkoq koqbangga banggasich sichwowo wowotuch tuchgak gakpunya punyamalu pasbilangpernah bilangpernahmiliter pernahmiliterpak militerpakcuma pakcumasenyum cumasenyum2 senyum2pecat 2pecatkoq pecatkoqbangga koqbanggasich banggasichwowo sichwowotuch wowotuchgak tuchgakpunya gakpunyamalu</t>
+  </si>
+  <si>
+    <t>subianto figur hebat panglima tinggi ri seluruh komponen bangsa dukung subiantofigur figurhebat hebatpanglima panglimatinggi tinggiri riseluruh seluruhkomponen komponenbangsa bangsadukung subiantofigurhebat figurhebatpanglima hebatpanglimatinggi panglimatinggiri tinggiriseluruh riseluruhkomponen seluruhkomponenbangsa komponenbangsadukung</t>
+  </si>
+  <si>
+    <t>apk yg pesan kami ke akar rumput semua ni sisih kan uang belanja ubah apkyg ygpesan pesankami kamike keakar akarrumput rumputsemua semuani nisisih sisihkan kanuang uangbelanja belanjaubah apkygpesan ygpesankami pesankamike kamikeakar keakarrumput akarrumputsemua rumputsemuani semuanisisih nisisihkan sisihkanuang kanuangbelanja uangbelanjaubah</t>
+  </si>
+  <si>
+    <t>malam pak luar biasa menangjokowilagi malampak pakluar luarbiasa biasamenangjokowilagi malampakluar pakluarbiasa luarbiasamenangjokowilagi</t>
+  </si>
+  <si>
+    <t>tadbir nan pantas layan rakyat bravo bandela pemerintahandilan https t co gkgy 6lrpko tadbirnan nanpantas pantaslayan layanrakyat rakyatbravo bravobandela bandelapemerintahandilan pemerintahandilanhttps httpst tco cogkgy gkgy6lrpko tadbirnanpantas nanpantaslayan pantaslayanrakyat layanrakyatbravo rakyatbravobandela bravobandelapemerintahandilan bandelapemerintahandilanhttps pemerintahandilanhttpst httpstco tcogkgy cogkgy6lrpko</t>
+  </si>
+  <si>
+    <t>debatpilpres 2019 pancasila ideologi final pancasila ideologi final debatpilpres2019 2019pancasila pancasilaideologi ideologifinal finalpancasila pancasilaideologi ideologifinal debatpilpres2019pancasila 2019pancasilaideologi pancasilaideologifinal ideologifinalpancasila finalpancasilaideologi pancasilaideologifinal</t>
+  </si>
+  <si>
+    <t>gak apa pake teknologi lama ajar ilmu perang ribu tahun hahaha gin kali kalo ikut pilpres mulu gakapa apapake paketeknologi teknologilama lamaajar ajarilmu ilmuperang perangribu ributahun tahunhahaha hahahagin ginkali kalikalo kaloikut ikutpilpres pilpresmulu gakapapake apapaketeknologi paketeknologilama teknologilamaajar lamaajarilmu ajarilmuperang ilmuperangribu perangributahun ributahunhahaha tahunhahahagin hahahaginkali ginkalikalo kalikaloikut kaloikutpilpres ikutpilpresmulu</t>
+  </si>
+  <si>
+    <t>jangan biar pak juang sendiri ayo satu suara satu pilih 17 april coblos 01 baju putih janganbiar biarpak pakjuang juangsendiri sendiriayo ayosatu satusuara suarasatu satupilih pilih17 17april aprilcoblos coblos01 01baju bajuputih janganbiarpak biarpakjuang pakjuangsendiri juangsendiriayo sendiriayosatu ayosatusuara satusuarasatu suarasatupilih satupilih17 pilih17april 17aprilcoblos aprilcoblos01 coblos01baju 01bajuputih</t>
+  </si>
+  <si>
+    <t>sedih khawatir pd diri prabowobentengnkri prabowobentengnkri https t co xoemzw 201d sedihkhawatir khawatirpd pddiri diriprabowobentengnkri prabowobentengnkriprabowobentengnkri prabowobentengnkrihttps httpst tco coxoemzw xoemzw201d sedihkhawatirpd khawatirpddiri pddiriprabowobentengnkri diriprabowobentengnkriprabowobentengnkri prabowobentengnkriprabowobentengnkrihttps prabowobentengnkrihttpst httpstco tcoxoemzw coxoemzw201d</t>
+  </si>
+  <si>
+    <t>tampil paling hebat lama prabowomenangdebat prabowobentengnkri tampilpaling palinghebat hebatlama lamaprabowomenangdebat prabowomenangdebatprabowobentengnkri tampilpalinghebat palinghebatlama hebatlamaprabowomenangdebat lamaprabowomenangdebatprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>apresiasi saudara 2 di papua utk pakde jadi percuma kalian tebar bohong bhw papua derita apresiasisaudara saudara2 2di dipapua papuautk utkpakde pakdejadi jadipercuma percumakalian kaliantebar tebarbohong bohongbhw bhwpapua papuaderita apresiasisaudara2 saudara2di 2dipapua dipapuautk papuautkpakde utkpakdejadi pakdejadipercuma jadipercumakalian percumakaliantebar kaliantebarbohong tebarbohongbhw bohongbhwpapua bhwpapuaderita</t>
+  </si>
+  <si>
+    <t>pak yusril tegas pbb dukung insya allah siap kawal pancasila tidak ganti pakyusril yusriltegas tegaspbb pbbdukung dukunginsya insyaallah allahsiap siapkawal kawalpancasila pancasilatidak tidakganti pakyusriltegas yusriltegaspbb tegaspbbdukung pbbdukunginsya dukunginsyaallah insyaallahsiap allahsiapkawal siapkawalpancasila kawalpancasilatidak pancasilatidakganti</t>
+  </si>
+  <si>
+    <t>ehem ah nyenyak tidur insyaalloh yakin presiden aamiin prabowobentengnkri ehemah ahnyenyak nyenyaktidur tidurinsyaalloh insyaallohyakin yakinpresiden presidenaamiin aamiinprabowobentengnkri ehemahnyenyak ahnyenyaktidur nyenyaktidurinsyaalloh tidurinsyaallohyakin insyaallohyakinpresiden yakinpresidenaamiin presidenaamiinprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>kawan semua kita dukung pemerintahandilan jutkan era untuk pimpin indonesia makin baik kawansemua semuakita kitadukung dukungpemerintahandilan pemerintahandilanjutkan jutkanera erauntuk untukpimpin pimpinindonesia indonesiamakin makinbaik kawansemuakita semuakitadukung kitadukungpemerintahandilan dukungpemerintahandilanjutkan pemerintahandilanjutkanera jutkanerauntuk erauntukpimpin untukpimpinindonesia pimpinindonesiamakin indonesiamakinbaik</t>
+  </si>
+  <si>
+    <t>rejim halal segala cara utk kuasa tak duli mrk meski bangsa hancur porak poranda rejimhalal halalsegala segalacara carautk utkkuasa kuasatak takduli dulimrk mrkmeski meskibangsa bangsahancur hancurporak porakporanda rejimhalalsegala halalsegalacara segalacarautk carautkkuasa utkkuasatak kuasatakduli takdulimrk dulimrkmeski mrkmeskibangsa meskibangsahancur bangsahancurporak hancurporakporanda</t>
+  </si>
+  <si>
+    <t>satu yakin dngn tni yg satu pesimis jadi pemerintahandilan jutkan 01 utk indonesia maju satuyakin yakindngn dngntni tniyg ygsatu satupesimis pesimisjadi jadipemerintahandilan pemerintahandilanjutkan jutkan01 01utk utkindonesia indonesiamaju satuyakindngn yakindngntni dngntniyg tniygsatu ygsatupesimis satupesimisjadi pesimisjadipemerintahandilan jadipemerintahandilanjutkan pemerintahandilanjutkan01 jutkan01utk 01utkindonesia utkindonesiamaju</t>
+  </si>
+  <si>
+    <t>https t co m1u7nlbagq insyaallah pak bang menang tgl 17 april 2019 amiinn httpst tco com1u7nlbagq m1u7nlbagqinsyaallah insyaallahpak pakbang bangmenang menangtgl tgl17 17april april2019 2019amiinn httpstco tcom1u7nlbagq com1u7nlbagqinsyaallah m1u7nlbagqinsyaallahpak insyaallahpakbang pakbangmenang bangmenangtgl menangtgl17 tgl17april 17april2019 april2019amiinn</t>
+  </si>
+  <si>
+    <t>semangat salam kompak all tnt-pepes semua dukung 02 juang sama pak tuju indonesia jaya semangatsalam salamkompak kompakall alltnt-pepes tnt-pepessemua semuadukung dukung02 02juang juangsama samapak paktuju tujuindonesia indonesiajaya semangatsalamkompak salamkompakall kompakalltnt-pepes alltnt-pepessemua tnt-pepessemuadukung semuadukung02 dukung02juang 02juangsama juangsamapak samapaktuju paktujuindonesia tujuindonesiajaya</t>
+  </si>
+  <si>
+    <t>kapabilitas dlm break down materi debat jelas tanggap trengginas gilas kapabilitasdlm dlmbreak breakdown downmateri materidebat debatjelas jelastanggap tanggaptrengginas trengginasgilas kapabilitasdlmbreak dlmbreakdown breakdownmateri downmateridebat materidebatjelas debatjelastanggap jelastanggaptrengginas tanggaptrengginasgilas</t>
+  </si>
+  <si>
+    <t>pilpres kali kurang seru krn 02 hny sebar ilusi takut jargon jatuh 01 visi misi program yg lebih baik pilpreskali kalikurang kurangseru serukrn krn02 02hny hnysebar sebarilusi ilusitakut takutjargon jargonjatuh jatuh01 01visi visimisi misiprogram programyg yglebih lebihbaik pilpreskalikurang kalikurangseru kurangserukrn serukrn02 krn02hny 02hnysebar hnysebarilusi sebarilusitakut ilusitakutjargon takutjargonjatuh jargonjatuh01 jatuh01visi 01visimisi visimisiprogram misiprogramyg programyglebih yglebihbaik</t>
+  </si>
+  <si>
+    <t>tadbir nan pantas layan rakyat bravo bandela pemerintahandilan https t co dmjpr 2uqyg tadbirnan nanpantas pantaslayan layanrakyat rakyatbravo bravobandela bandelapemerintahandilan pemerintahandilanhttps httpst tco codmjpr dmjpr2uqyg tadbirnanpantas nanpantaslayan pantaslayanrakyat layanrakyatbravo rakyatbravobandela bravobandelapemerintahandilan bandelapemerintahandilanhttps pemerintahandilanhttpst httpstco tcodmjpr codmjpr2uqyg</t>
+  </si>
+  <si>
+    <t>paranoid perang mulu sama asing padahal dikhawatirin benar justru perang sodara paranoidperang perangmulu mulusama samaasing asingpadahal padahaldikhawatirin dikhawatirinbenar benarjustru justruperang perangsodara paranoidperangmulu perangmulusama mulusamaasing samaasingpadahal asingpadahaldikhawatirin padahaldikhawatirinbenar dikhawatirinbenarjustru benarjustruperang justruperangsodara</t>
+  </si>
+  <si>
+    <t>duuuhhh sumpah merinding dengar pidato mas ini negarawan sejati yg selalu usaha abdi duuuhhhsumpah sumpahmerinding merindingdengar dengarpidato pidatomas masini ininegarawan negarawansejati sejatiyg ygselalu selaluusaha usahaabdi duuuhhhsumpahmerinding sumpahmerindingdengar merindingdengarpidato dengarpidatomas pidatomasini masininegarawan ininegarawansejati negarawansejatiyg sejatiygselalu ygselaluusaha selaluusahaabdi</t>
+  </si>
+  <si>
+    <t>dear pak 5 taun bapak jabat akan awas kritisi omel bapak coblooosss temiik dearpak pak5 5taun taunbapak bapakjabat jabatakan akanawas awaskritisi kritisiomel omelbapak bapakcoblooosss coblooossstemiik dearpak5 pak5taun 5taunbapak taunbapakjabat bapakjabatakan jabatakanawas akanawaskritisi awaskritisiomel kritisiomelbapak omelbapakcoblooosss bapakcoblooossstemiik</t>
+  </si>
+  <si>
+    <t>01caprespendustaabadi bayang pun kecoh dusta 01caprespendustaabadibayang bayangpun punkecoh kecohdusta 01caprespendustaabadibayangpun bayangpunkecoh punkecohdusta</t>
+  </si>
+  <si>
+    <t>enak dukung 01 ajak pak tatap masa depan optimis hadap dinamika era iot klo 02 ajak balik masa lalu enakdukung dukung01 01ajak ajakpak paktatap tatapmasa masadepan depanoptimis optimishadap hadapdinamika dinamikaera eraiot iotklo klo02 02ajak ajakbalik balikmasa masalalu enakdukung01 dukung01ajak 01ajakpak ajakpaktatap paktatapmasa tatapmasadepan masadepanoptimis depanoptimishadap optimishadapdinamika hadapdinamikaera dinamikaeraiot eraiotklo iotklo02 klo02ajak 02ajakbalik ajakbalikmasa balikmasalalu</t>
+  </si>
+  <si>
+    <t>pak aja sampe korban nyawa ibu pertiwi knapa tidak pakaja ajasampe sampekorban korbannyawa nyawaibu ibupertiwi pertiwiknapa knapatidak pakajasampe ajasampekorban sampekorbannyawa korbannyawaibu nyawaibupertiwi ibupertiwiknapa pertiwiknapatidak</t>
+  </si>
+  <si>
+    <t>mas tegas lawan siapa yg rubah ideologi pancasila dengerin tuh bong mastegas tegaslawan lawansiapa siapayg ygrubah rubahideologi ideologipancasila pancasiladengerin dengerintuh tuhbong mastegaslawan tegaslawansiapa lawansiapayg siapaygrubah ygrubahideologi rubahideologipancasila ideologipancasiladengerin pancasiladengerintuh dengerintuhbong</t>
+  </si>
+  <si>
+    <t>memang sekarang jaman digital broh perintah pemerintahandilan dong keren digital layan memangsekarang sekarangjaman jamandigital digitalbroh brohperintah perintahpemerintahandilan pemerintahandilandong dongkeren kerendigital digitallayan memangsekarangjaman sekarangjamandigital jamandigitalbroh digitalbrohperintah brohperintahpemerintahandilan perintahpemerintahandilandong pemerintahandilandongkeren dongkerendigital kerendigitallayan</t>
+  </si>
+  <si>
+    <t>kerja perintah jelas unggul 01dilanjutkan https t co yjves 25euq kerjaperintah perintahjelas jelasunggul unggul01dilanjutkan 01dilanjutkanhttps httpst tco coyjves yjves25euq kerjaperintahjelas perintahjelasunggul jelasunggul01dilanjutkan unggul01dilanjutkanhttps 01dilanjutkanhttpst httpstco tcoyjves coyjves25euq</t>
+  </si>
+  <si>
+    <t>mantulll pak tegas cerdazzz mantulllpak paktegas tegascerdazzz mantulllpaktegas paktegascerdazzz</t>
+  </si>
+  <si>
+    <t>aq gk hadir sama emak 2 tp bahagia banget acara bpk bal luarbiasa aqgk gkhadir hadirsama samaemak emak2 2tp tpbahagia bahagiabanget bangetacara acarabpk bpkbal balluarbiasa aqgkhadir gkhadirsama hadirsamaemak samaemak2 emak2tp 2tpbahagia tpbahagiabanget bahagiabangetacara bangetacarabpk acarabpkbal bpkballuarbiasa</t>
+  </si>
+  <si>
+    <t>closing statement pak gambar demokrasi yang sungguh closingstatement statementpak pakgambar gambardemokrasi demokrasiyang yangsungguh closingstatementpak statementpakgambar pakgambardemokrasi gambardemokrasiyang demokrasiyangsungguh</t>
+  </si>
+  <si>
+    <t>benar 2 bangsa jadi bangsa yg kuat segani bukan besar sanjung benar2 2bangsa bangsajadi jadibangsa bangsayg ygkuat kuatsegani seganibukan bukanbesar besarsanjung benar2bangsa 2bangsajadi bangsajadibangsa jadibangsayg bangsaygkuat ygkuatsegani kuatseganibukan seganibukanbesar bukanbesarsanjung</t>
+  </si>
+  <si>
+    <t>lihat udah cukup percaya diri sama base konservatif religius makanya berani kenal narasi lihatudah udahcukup cukuppercaya percayadiri dirisama samabase basekonservatif konservatifreligius religiusmakanya makanyaberani beranikenal kenalnarasi lihatudahcukup udahcukuppercaya cukuppercayadiri percayadirisama dirisamabase samabasekonservatif basekonservatifreligius konservatifreligiusmakanya religiusmakanyaberani makanyaberanikenal beranikenalnarasi</t>
+  </si>
+  <si>
+    <t>malam bapak jadi serang tangguh bravo pak bikin tahana ngelap keringet mulu malambapak bapakjadi jadiserang serangtangguh tangguhbravo bravopak pakbikin bikintahana tahanangelap ngelapkeringet keringetmulu malambapakjadi bapakjadiserang jadiserangtangguh serangtangguhbravo tangguhbravopak bravopakbikin pakbikintahana bikintahanangelap tahanangelapkeringet ngelapkeringetmulu</t>
+  </si>
+  <si>
+    <t>sobat sekali milu adl ajang gembira dlm beda aja pak kena baju putih tps sobatsekali sekalimilu miluadl adlajang ajanggembira gembiradlm dlmbeda bedaaja ajapak pakkena kenabaju bajuputih putihtps sobatsekalimilu sekalimiluadl miluadlajang adlajanggembira ajanggembiradlm gembiradlmbeda dlmbedaaja bedaajapak ajapakkena pakkenabaju kenabajuputih bajuputihtps</t>
+  </si>
+  <si>
+    <t>sama presiden perintah indonesia konsisten bela negara palestina bagai warga dunia 01dilanjutkan samapresiden presidenperintah perintahindonesia indonesiakonsisten konsistenbela belanegara negarapalestina palestinabagai bagaiwarga wargadunia dunia01dilanjutkan samapresidenperintah presidenperintahindonesia perintahindonesiakonsisten indonesiakonsistenbela konsistenbelanegara belanegarapalestina negarapalestinabagai palestinabagaiwarga bagaiwargadunia wargadunia01dilanjutkan</t>
+  </si>
+  <si>
+    <t>dapat lembaga perintah kuat dapatlembaga lembagaperintah perintahkuat dapatlembagaperintah lembagaperintahkuat</t>
+  </si>
+  <si>
+    <t>sepakat sama om trik basi it 2 minggu kelar ga jadi 2 mau 2 periode sepakatsama samaom omtrik trikbasi basiit it2 2minggu minggukelar kelarga gajadi jadi2 2mau mau2 2periode sepakatsamaom samaomtrik omtrikbasi trikbasiit basiit2 it2minggu 2minggukelar minggukelarga kelargajadi gajadi2 jadi2mau 2mau2 mau2periode</t>
+  </si>
+  <si>
+    <t>hal perintah bukan teori soal bagaimana jalan perintah baik halperintah perintahbukan bukanteori teorisoal soalbagaimana bagaimanajalan jalanperintah perintahbaik halperintahbukan perintahbukanteori bukanteorisoal teorisoalbagaimana soalbagaimanajalan bagaimanajalanperintah jalanperintahbaik</t>
+  </si>
+  <si>
+    <t>loh cak yg bs mbentengi nkri yg sgt phm betul sistem tahan negara lohcak cakyg ygbs bsmbentengi mbentenginkri nkriyg ygsgt sgtphm phmbetul betulsistem sistemtahan tahannegara lohcakyg cakygbs ygbsmbentengi bsmbentenginkri mbentenginkriyg nkriygsgt ygsgtphm sgtphmbetul phmbetulsistem betulsistemtahan sistemtahannegara</t>
+  </si>
+  <si>
+    <t>rizal ramli pak mau revisi uu ite kubu jkw nggk tanggpan rr sebut uu ite seram rizalramli ramlipak pakmau maurevisi revisiuu uuite itekubu kubujkw jkwnggk nggktanggpan tanggpanrr rrsebut sebutuu uuite iteseram rizalramlipak ramlipakmau pakmaurevisi maurevisiuu revisiuuite uuitekubu itekubujkw kubujkwnggk jkwnggktanggpan nggktanggpanrr tanggpanrrsebut rrsebutuu sebutuuite uuiteseram</t>
+  </si>
+  <si>
+    <t>memang sosok pimpin teladan bangga 01dilanjutkan memangsosok sosokpimpin pimpinteladan teladanbangga bangga01dilanjutkan memangsosokpimpin sosokpimpinteladan pimpinteladanbangga teladanbangga01dilanjutkan</t>
+  </si>
+  <si>
+    <t>pak debat 1 2 kemaren gak kasih amunisi kayak debat 4 saya paling suka cara bapak debat pakdebat debat1 12 2kemaren kemarengak gakkasih kasihamunisi amunisikayak kayakdebat debat4 4saya sayapaling palingsuka sukacara carabapak bapakdebat pakdebat1 debat12 12kemaren 2kemarengak kemarengakkasih gakkasihamunisi kasihamunisikayak amunisikayakdebat kayakdebat4 debat4saya 4sayapaling sayapalingsuka palingsukacara sukacarabapak carabapakdebat</t>
+  </si>
+  <si>
+    <t>pak pribadi sederhana senang semua kalang menangjokowilagi pakpribadi pribadisederhana sederhanasenang senangsemua semuakalang kalangmenangjokowilagi pakpribadisederhana pribadisederhanasenang sederhanasenangsemua senangsemuakalang semuakalangmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>untung pilpres 2014 pak menang makanya bangun tol proyek tol perdana aceh rumah khusus utk msyrakat untungpilpres pilpres2014 2014pak pakmenang menangmakanya makanyabangun banguntol tolproyek proyektol tolperdana perdanaaceh acehrumah rumahkhusus khususutk utkmsyrakat untungpilpres2014 pilpres2014pak 2014pakmenang pakmenangmakanya menangmakanyabangun makanyabanguntol banguntolproyek tolproyektol proyektolperdana tolperdanaaceh perdanaacehrumah acehrumahkhusus rumahkhususutk khususutkmsyrakat</t>
+  </si>
+  <si>
+    <t>perintah mau keluar paris agreement kata mikirin masa depan indonesia mau keluar pakta perintahmau maukeluar keluarparis parisagreement agreementkata katamikirin mikirinmasa masadepan depanindonesia indonesiamau maukeluar keluarpakta perintahmaukeluar maukeluarparis keluarparisagreement parisagreementkata agreementkatamikirin katamikirinmasa mikirinmasadepan masadepanindonesia depanindonesiamau indonesiamaukeluar maukeluarpakta</t>
+  </si>
+  <si>
+    <t>pak bijak sikap hasil survei nyata menang tebal menangjokowilagi pakbijak bijaksikap sikaphasil hasilsurvei surveinyata nyatamenang menangtebal tebalmenangjokowilagi pakbijaksikap bijaksikaphasil sikaphasilsurvei hasilsurveinyata surveinyatamenang nyatamenangtebal menangtebalmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>lihat jujur pak indonesia beliau segan tegur siapa tertawa indonesia lihatjujur jujurpak pakindonesia indonesiabeliau beliausegan segantegur tegursiapa siapatertawa tertawaindonesia lihatjujurpak jujurpakindonesia pakindonesiabeliau indonesiabeliausegan beliausegantegur segantegursiapa tegursiapatertawa siapatertawaindonesia</t>
+  </si>
+  <si>
+    <t>adalah agum gumelar yg dgn lantang wajah bicara jelek hadap sby adalahagum agumgumelar gumelaryg ygdgn dgnlantang lantangwajah wajahbicara bicarajelek jelekhadap hadapsby adalahagumgumelar agumgumelaryg gumelarygdgn ygdgnlantang dgnlantangwajah lantangwajahbicara wajahbicarajelek bicarajelekhadap jelekhadapsby</t>
+  </si>
+  <si>
+    <t>kaya rakyat indonesia sedot luar negeri kaya sendiri numpuk di luar negeri huehehehe - kayarakyat rakyatindonesia indonesiasedot sedotluar luarnegeri negerikaya kayasendiri sendirinumpuk numpukdi diluar luarnegeri negerihuehehehe huehehehe- kayarakyatindonesia rakyatindonesiasedot indonesiasedotluar sedotluarnegeri luarnegerikaya negerikayasendiri kayasendirinumpuk sendirinumpukdi numpukdiluar diluarnegeri luarnegerihuehehehe negerihuehehehe-</t>
+  </si>
+  <si>
+    <t>kalau pak jadi presiden hidup mau ketawa aja dimarahin kalaupak pakjadi jadipresiden presidenhidup hidupmau mauketawa ketawaaja ajadimarahin kalaupakjadi pakjadipresiden jadipresidenhidup presidenhidupmau hidupmauketawa mauketawaaja ketawaajadimarahin</t>
+  </si>
+  <si>
+    <t>kalo kalian mau jadi kaum abs jae kuasa hak kalian gw suka tampil malam kalokalian kalianmau maujadi jadikaum kaumabs absjae jaekuasa kuasahak hakkalian kaliangw gwsuka sukatampil tampilmalam kalokalianmau kalianmaujadi maujadikaum jadikaumabs kaumabsjae absjaekuasa jaekuasahak kuasahakkalian hakkaliangw kaliangwsuka gwsukatampil sukatampilmalam</t>
+  </si>
+  <si>
+    <t>lbih tni tni jangan kamu maling muka manusia sombong lbihtni tnitni tnijangan jangankamu kamumaling malingmuka mukamanusia manusiasombong lbihtnitni tnitnijangan tnijangankamu jangankamumaling kamumalingmuka malingmukamanusia mukamanusiasombong</t>
+  </si>
+  <si>
+    <t>bongkar data uang orang kaya indonesia swiss ga yang korupsi simpan uang sana bongkardata datauang uangorang orangkaya kayaindonesia indonesiaswiss swissga gayang yangkorupsi korupsisimpan simpanuang uangsana bongkardatauang datauangorang uangorangkaya orangkayaindonesia kayaindonesiaswiss indonesiaswissga swissgayang gayangkorupsi yangkorupsisimpan korupsisimpanuang simpanuangsana</t>
+  </si>
+  <si>
+    <t>sumpah debat pilpres x pak benar 2 cadas keren prabowobentengnkri sumpahdebat debatpilpres pilpresx xpak pakbenar benar2 2cadas cadaskeren kerenprabowobentengnkri sumpahdebatpilpres debatpilpresx pilpresxpak xpakbenar pakbenar2 benar2cadas 2cadaskeren cadaskerenprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>pak kata bhw tahan lemah kompak tertawa kira 2 alas apa pakkata katabhw bhwtahan tahanlemah lemahkompak kompaktertawa tertawakira kira2 2alas alasapa pakkatabhw katabhwtahan bhwtahanlemah tahanlemahkompak lemahkompaktertawa kompaktertawakira tertawakira2 kira2alas 2alasapa</t>
+  </si>
+  <si>
+    <t>tertawa tertawa larang pemerintahandilan 01dilanjutkan debatkeempatpilpres 2019 tertawatertawa tertawalarang larangpemerintahandilan pemerintahandilan01dilanjutkan 01dilanjutkandebatkeempatpilpres debatkeempatpilpres2019 tertawatertawalarang tertawalarangpemerintahandilan larangpemerintahandilan01dilanjutkan pemerintahandilan01dilanjutkandebatkeempatpilpres 01dilanjutkandebatkeempatpilpres2019</t>
+  </si>
+  <si>
+    <t>bukan tni sudah pecat sandang gelar purnawirawan bukantni tnisudah sudahpecat pecatsandang sandanggelar gelarpurnawirawan bukantnisudah tnisudahpecat sudahpecatsandang pecatsandanggelar sandanggelarpurnawirawan</t>
+  </si>
+  <si>
+    <t>debatpilpres 2019 malam telah balik ia jadi sosok luar biasa efek kejut debatpilpres2019 2019malam malamtelah telahbalik balikia iajadi jadisosok sosokluar luarbiasa biasaefek efekkejut debatpilpres2019malam 2019malamtelah malamtelahbalik telahbalikia balikiajadi iajadisosok jadisosokluar sosokluarbiasa luarbiasaefek biasaefekkejut</t>
+  </si>
+  <si>
+    <t>anak bangsa perlu bapak tegas bisa bangun karakter disiplin lihat debat babeh anakbangsa bangsaperlu perlubapak bapaktegas tegasbisa bisabangun bangunkarakter karakterdisiplin disiplinlihat lihatdebat debatbabeh anakbangsaperlu bangsaperlubapak perlubapaktegas bapaktegasbisa tegasbisabangun bisabangunkarakter bangunkarakterdisiplin karakterdisiplinlihat disiplinlihatdebat lihatdebatbabeh</t>
+  </si>
+  <si>
+    <t>turut konflik sosial libat muslim rohingya rakhine konflik sudah sangat lama sulit turutkonflik konfliksosial sosiallibat libatmuslim muslimrohingya rohingyarakhine rakhinekonflik konfliksudah sudahsangat sangatlama lamasulit turutkonfliksosial konfliksosiallibat sosiallibatmuslim libatmuslimrohingya muslimrohingyarakhine rohingyarakhinekonflik rakhinekonfliksudah konfliksudahsangat sudahsangatlama sangatlamasulit</t>
+  </si>
+  <si>
+    <t>dulu ken ketawa takut dosa sekarang ken ketawa takut marah debatpilpres 2019 duluken kenketawa ketawatakut takutdosa dosasekarang sekarangken kenketawa ketawatakut takutmarah marahdebatpilpres debatpilpres2019 dulukenketawa kenketawatakut ketawatakutdosa takutdosasekarang dosasekarangken sekarangkenketawa kenketawatakut ketawatakutmarah takutmarahdebatpilpres marahdebatpilpres2019</t>
+  </si>
+  <si>
+    <t>pak beri harap optimisme 01dilanjutkan https t co rxwogeijvs pakberi beriharap harapoptimisme optimisme01dilanjutkan 01dilanjutkanhttps httpst tco corxwogeijvs pakberiharap beriharapoptimisme harapoptimisme01dilanjutkan optimisme01dilanjutkanhttps 01dilanjutkanhttpst httpstco tcorxwogeijvs</t>
+  </si>
+  <si>
+    <t>pak bilang pancasila final kalau mungkin beliau larang bendera larang hti kampanye pakbilang bilangpancasila pancasilafinal finalkalau kalaumungkin mungkinbeliau beliaularang larangbendera benderalarang laranghti htikampanye pakbilangpancasila bilangpancasilafinal pancasilafinalkalau finalkalaumungkin kalaumungkinbeliau mungkinbeliaularang beliaularangbendera larangbenderalarang benderalaranghti laranghtikampanye</t>
+  </si>
+  <si>
+    <t>hahaha habis peluru ni si bikin cerita pak marah segala lah hahahahabis habispeluru peluruni nisi sibikin bikincerita ceritapak pakmarah marahsegala segalalah hahahahabispeluru habispeluruni pelurunisi nisibikin sibikincerita bikinceritapak ceritapakmarah pakmarahsegala marahsegalalah</t>
+  </si>
+  <si>
+    <t>malam minggu adalah malam baik kita saksi pak sangat elegan malamminggu mingguadalah adalahmalam malambaik baikkita kitasaksi saksipak paksangat sangatelegan malammingguadalah mingguadalahmalam adalahmalambaik malambaikkita baikkitasaksi kitasaksipak saksipaksangat paksangatelegan</t>
+  </si>
+  <si>
+    <t>bong optimis unggul debat 4 usung tema ideologi aman tahan bongoptimis optimisunggul ungguldebat debat4 4usung usungtema temaideologi ideologiaman amantahan bongoptimisunggul optimisungguldebat ungguldebat4 debat4usung 4usungtema usungtemaideologi temaideologiaman ideologiamantahan</t>
+  </si>
+  <si>
+    <t>pak klo ngeritik gak punya gagas tanding yg lebih baik jelas ketidakpastian pakklo klongeritik ngeritikgak gakpunya punyagagas gagastanding tandingyg yglebih lebihbaik baikjelas jelasketidakpastian pakklongeritik klongeritikgak ngeritikgakpunya gakpunyagagas punyagagastanding gagastandingyg tandingyglebih yglebihbaik lebihbaikjelas baikjelasketidakpastian</t>
+  </si>
+  <si>
+    <t>takar kadar pancasila harga mati capres sini pak capres pecat tni kok gak pernah bilang dukung takarkadar kadarpancasila pancasilaharga hargamati maticapres capressini sinipak pakcapres caprespecat pecattni tnikok kokgak gakpernah pernahbilang bilangdukung takarkadarpancasila kadarpancasilaharga pancasilahargamati hargamaticapres maticapressini capressinipak sinipakcapres pakcaprespecat caprespecattni pecattnikok tnikokgak kokgakpernah gakpernahbilang pernahbilangdukung</t>
+  </si>
+  <si>
+    <t>senyum optimis pak dhe sukses lancar debat malam ya pak tuhan kati senyumoptimis optimispak pakdhe dhesukses sukseslancar lancardebat debatmalam malamya yapak paktuhan tuhankati senyumoptimispak optimispakdhe pakdhesukses dhesukseslancar sukseslancardebat lancardebatmalam debatmalamya malamyapak yapaktuhan paktuhankati</t>
+  </si>
+  <si>
+    <t>kalau tidak nonton debat pak menang jadi tidur alhamdulillah nyata pakde hajar kalautidak tidaknonton nontondebat debatpak pakmenang menangjadi jaditidur tiduralhamdulillah alhamdulillahnyata nyatapakde pakdehajar kalautidaknonton tidaknontondebat nontondebatpak debatpakmenang pakmenangjadi menangjaditidur jaditiduralhamdulillah tiduralhamdulillahnyata alhamdulillahnyatapakde nyatapakdehajar</t>
+  </si>
+  <si>
+    <t>raja hutang satu 2nya capres dgn beban hutang nila rp 7 6 triliun apa rajahutang hutangsatu satu2nya 2nyacapres capresdgn dgnbeban bebanhutang hutangnila nilarp rp7 76 6triliun triliunapa rajahutangsatu hutangsatu2nya satu2nyacapres 2nyacapresdgn capresdgnbeban dgnbebanhutang bebanhutangnila hutangnilarp nilarp7 rp76 76triliun 6triliunapa</t>
+  </si>
+  <si>
+    <t>tak sisa sedikit celah buat lawan argumentasi emang gk paham prabowobentengnkri taksisa sisasedikit sedikitcelah celahbuat buatlawan lawanargumentasi argumentasiemang emanggk gkpaham pahamprabowobentengnkri taksisasedikit sisasedikitcelah sedikitcelahbuat celahbuatlawan buatlawanargumentasi lawanargumentasiemang argumentasiemanggk emanggkpaham gkpahamprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>fix bagai orang purbalingga banyumasan dukung pak fixbagai bagaiorang orangpurbalingga purbalinggabanyumasan banyumasandukung dukungpak fixbagaiorang bagaiorangpurbalingga orangpurbalinggabanyumasan purbalinggabanyumasandukung banyumasandukungpak</t>
+  </si>
+  <si>
+    <t>kuat apa kexurangan insya alah teyap gagal prabowobentengnkri kuatapa apakexurangan kexuranganinsya insyaalah alahteyap teyapgagal gagalprabowobentengnkri kuatapakexurangan apakexuranganinsya kexuranganinsyaalah insyaalahteyap alahteyapgagal teyapgagalprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>gua sampe bingung banyak kutip yg luar biasa tohok banget guasampe sampebingung bingungbanyak banyakkutip kutipyg ygluar luarbiasa biasatohok tohokbanget guasampebingung sampebingungbanyak bingungbanyakkutip banyakkutipyg kutipygluar ygluarbiasa luarbiasatohok biasatohokbanget</t>
+  </si>
+  <si>
+    <t>siapa pilih rakyat akan tunduk patuh - karawang 29 maret 2019 https t co h7ihhwk8sr siapapilih pilihrakyat rakyatakan akantunduk tundukpatuh patuh- -karawang karawang29 29maret maret2019 2019https httpst tco coh7ihhwk8sr siapapilihrakyat pilihrakyatakan rakyatakantunduk akantundukpatuh tundukpatuh- patuh-karawang -karawang29 karawang29maret 29maret2019 maret2019https 2019httpst httpstco tcoh7ihhwk8sr</t>
+  </si>
+  <si>
+    <t>pak lebih tni tni bapak jangan inferior begini dong kata negara tak hormat paklebih lebihtni tnitni tnibapak bapakjangan janganinferior inferiorbegini beginidong dongkata katanegara negaratak takhormat paklebihtni lebihtnitni tnitnibapak tnibapakjangan bapakjanganinferior janganinferiorbegini inferiorbeginidong beginidongkata dongkatanegara katanegaratak negaratakhormat</t>
+  </si>
+  <si>
+    <t>pecaaahh banget mashaallah sama wujud indonesia adil makmur pecaaahhbanget bangetmashaallah mashaallahsama samawujud wujudindonesia indonesiaadil adilmakmur pecaaahhbangetmashaallah bangetmashaallahsama mashaallahsamawujud samawujudindonesia wujudindonesiaadil indonesiaadilmakmur</t>
+  </si>
+  <si>
+    <t>pikir kalau bener serang armada perang yg sekarang bukan ketawa malah nang darah pikirkalau kalaubener benerserang serangarmada armadaperang perangyg ygsekarang sekarangbukan bukanketawa ketawamalah malahnang nangdarah pikirkalaubener kalaubenerserang benerserangarmada serangarmadaperang armadaperangyg perangygsekarang ygsekarangbukan sekarangbukanketawa bukanketawamalah ketawamalahnang malahnangdarah</t>
+  </si>
+  <si>
+    <t>terima kasih rakyat jambi insya allah akan jumpa di masa lebih baik merdeka https t co ms7crkhozf terimakasih kasihrakyat rakyatjambi jambiinsya insyaallah allahakan akanjumpa jumpadi dimasa masalebih lebihbaik baikmerdeka merdekahttps httpst tco coms7crkhozf terimakasihrakyat kasihrakyatjambi rakyatjambiinsya jambiinsyaallah insyaallahakan allahakanjumpa akanjumpadi jumpadimasa dimasalebih masalebihbaik lebihbaikmerdeka baikmerdekahttps merdekahttpst httpstco tcoms7crkhozf</t>
+  </si>
+  <si>
+    <t>ibu fatimah kalla adik pak jusuf kalla dukung sandi jaenudin silah ngaciro ibufatimah fatimahkalla kallaadik adikpak pakjusuf jusufkalla kalladukung dukungsandi sandijaenudin jaenudinsilah silahngaciro ibufatimahkalla fatimahkallaadik kallaadikpak adikpakjusuf pakjusufkalla jusufkalladukung kalladukungsandi dukungsandijaenudin sandijaenudinsilah jaenudinsilahngaciro</t>
+  </si>
+  <si>
+    <t>pantai panjang bengkulu bumi raflesia terima kasih jaga tps kalian masing-masing jangan demokrasi akal pantaipanjang panjangbengkulu bengkulubumi bumiraflesia raflesiaterima terimakasih kasihjaga jagatps tpskalian kalianmasing-masing masing-masingjangan jangandemokrasi demokrasiakal pantaipanjangbengkulu panjangbengkulubumi bengkulubumiraflesia bumiraflesiaterima raflesiaterimakasih terimakasihjaga kasihjagatps jagatpskalian tpskalianmasing-masing kalianmasing-masingjangan masing-masingjangandemokrasi jangandemokrasiakal</t>
+  </si>
+  <si>
+    <t>marah 2 si jayen sok tahu sebut indonesia ratus suku bangsa marah2 2si sijayen jayensok soktahu tahusebut sebutindonesia indonesiaratus ratussuku sukubangsa marah2si 2sijayen sijayensok jayensoktahu soktahusebut tahusebutindonesia sebutindonesiaratus indonesiaratussuku ratussukubangsa</t>
+  </si>
+  <si>
+    <t>kok malah bangga songong betul sih om eee panjoel genderuwo kokmalah malahbangga banggasongong songongbetul betulsih sihom omeee eeepanjoel panjoelgenderuwo kokmalahbangga malahbanggasongong banggasongongbetul songongbetulsih betulsihom sihomeee omeeepanjoel eeepanjoelgenderuwo</t>
+  </si>
+  <si>
+    <t>duh jadi melow gitu akhir mas tak laku closing statement yg lebih prabowobentengnkri duhjadi jadimelow melowgitu gituakhir akhirmas mastak taklaku lakuclosing closingstatement statementyg yglebih lebihprabowobentengnkri duhjadimelow jadimelowgitu melowgituakhir gituakhirmas akhirmastak mastaklaku taklakuclosing lakuclosingstatement closingstatementyg statementyglebih yglebihprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>agak fatal ketika sampai klaim orang banyumas sebut keras salah banget agakfatal fatalketika ketikasampai sampaiklaim klaimorang orangbanyumas banyumassebut sebutkeras kerassalah salahbanget agakfatalketika fatalketikasampai ketikasampaiklaim sampaiklaimorang klaimorangbanyumas orangbanyumassebut banyumassebutkeras sebutkerassalah kerassalahbanget</t>
+  </si>
+  <si>
+    <t>innalillaahi wa innailaihiraaji un keluarga besar turut duka cita innalillaahiwa wainnailaihiraaji innailaihiraajiun unkeluarga keluargabesar besarturut turutduka dukacita innalillaahiwainnailaihiraaji wainnailaihiraajiun innailaihiraajiunkeluarga unkeluargabesar keluargabesarturut besarturutduka turutdukacita bela sungkawa belasungkawa</t>
+  </si>
+  <si>
+    <t>kata tni milik budaya abs asal bapak senang ini efek pernah pecat tni katatni tnimilik milikbudaya budayaabs absasal asalbapak bapaksenang senangini iniefek efekpernah pernahpecat pecattni katatnimilik tnimilikbudaya milikbudayaabs budayaabsasal absasalbapak asalbapaksenang bapaksenangini senanginiefek iniefekpernah efekpernahpecat pernahpecattni</t>
+  </si>
+  <si>
+    <t>pak tenang banget hari paktenang tenangbanget bangethari paktenangbanget tenangbangethari</t>
+  </si>
+  <si>
+    <t>trus kok si pecat mbacot ejek hina tni rapuh truskok koksi sipecat pecatmbacot mbacotejek ejekhina hinatni tnirapuh truskoksi koksipecat sipecatmbacot pecatmbacotejek mbacotejekhina ejekhinatni hinatnirapuh</t>
+  </si>
+  <si>
+    <t>salawi masuk neraka neraka panas mana aja mana infrastruktur langit yg kalian janji salawimasuk masukneraka nerakaneraka nerakapanas panasmana manaaja ajamana manainfrastruktur infrastrukturlangit langityg ygkalian kalianjanji salawimasukneraka masuknerakaneraka nerakanerakapanas nerakapanasmana panasmanaaja manaajamana ajamanainfrastruktur manainfrastrukturlangit infrastrukturlangityg langitygkalian ygkalianjanji</t>
+  </si>
+  <si>
+    <t>catat pak sudah laku delapan bohong besar tahun 2018 beberapa bohong lai catatpak paksudah sudahlaku lakudelapan delapanbohong bohongbesar besartahun tahun2018 2018beberapa beberapabohong bohonglai catatpaksudah paksudahlaku sudahlakudelapan lakudelapanbohong delapanbohongbesar bohongbesartahun besartahun2018 tahun2018beberapa 2018beberapabohong beberapabohonglai</t>
+  </si>
+  <si>
+    <t>arus ubah tak bendung era tiba prabowobentengnkri arusubah ubahtak takbendung bendungera eratiba tibaprabowobentengnkri arusubahtak ubahtakbendung takbendungera bendungeratiba eratibaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>mberikan kesan sbg orang orator tp cara essensi banyak yg terlalu subjektif mberikankesan kesansbg sbgorang orangorator oratortp tpcara caraessensi essensibanyak banyakyg ygterlalu terlalusubjektif mberikankesansbg kesansbgorang sbgorangorator orangoratortp oratortpcara tpcaraessensi caraessensibanyak essensibanyakyg banyakygterlalu ygterlalusubjektif</t>
+  </si>
+  <si>
+    <t>rindu cinta sayang hrs mariii menang beliau jemput pulang rinducinta cintasayang sayanghrs hrsmariii mariiimenang menangbeliau beliaujemput jemputpulang rinducintasayang cintasayanghrs sayanghrsmariii hrsmariiimenang mariiimenangbeliau menangbeliaujemput beliaujemputpulang</t>
+  </si>
+  <si>
+    <t>lihat yg kalian fitnah anti islam mesjid at-taqarrub luluh lantak gempa aceh 2016 lalu lihatyg ygkalian kalianfitnah fitnahanti antiislam islammesjid mesjidat-taqarrub at-taqarrubluluh luluhlantak lantakgempa gempaaceh aceh2016 2016lalu lihatygkalian ygkalianfitnah kalianfitnahanti fitnahantiislam antiislammesjid islammesjidat-taqarrub mesjidat-taqarrubluluh at-taqarrubluluhlantak luluhlantakgempa lantakgempaaceh gempaaceh2016 aceh2016lalu</t>
+  </si>
+  <si>
+    <t>lho kok aneh sini menang sy tdk punya partai bkn buser pampang nyata lhokok kokaneh anehsini sinimenang menangsy sytdk tdkpunya punyapartai partaibkn bknbuser buserpampang pampangnyata lhokokaneh kokanehsini anehsinimenang sinimenangsy menangsytdk sytdkpunya tdkpunyapartai punyapartaibkn partaibknbuser bknbuserpampang buserpampangnyata</t>
+  </si>
+  <si>
+    <t>emak emak lawan biar larang kampanye mall penting menang prabowodansandipilihanrakyat emakemak emaklawan lawanbiar biarlarang larangkampanye kampanyemall mallpenting pentingmenang menangprabowodansandipilihanrakyat emakemaklawan emaklawanbiar lawanbiarlarang biarlarangkampanye larangkampanyemall kampanyemallpenting mallpentingmenang pentingmenangprabowodansandipilihanrakyat</t>
+  </si>
+  <si>
+    <t>yes akhir bilang turut pribadi yang jahat orang belakang pak yesakhir akhirbilang bilangturut turutpribadi pribadiyang yangjahat jahatorang orangbelakang belakangpak yesakhirbilang akhirbilangturut bilangturutpribadi turutpribadiyang pribadiyangjahat yangjahatorang jahatorangbelakang orangbelakangpak</t>
+  </si>
+  <si>
+    <t>arti jokowidiambangkekalahan lihat lebih banyak tunduk tolah toleh bingung artijokowidiambangkekalahan jokowidiambangkekalahanlihat lihatlebih lebihbanyak banyaktunduk tunduktolah tolahtoleh tolehbingung artijokowidiambangkekalahanlihat jokowidiambangkekalahanlihatlebih lihatlebihbanyak lebihbanyaktunduk banyaktunduktolah tunduktolahtoleh tolahtolehbingung</t>
+  </si>
+  <si>
+    <t>sebut budaya abs asal bapak senang kental kalang tni sebutbudaya budayaabs absasal asalbapak bapaksenang senangkental kentalkalang kalangtni sebutbudayaabs budayaabsasal absasalbapak asalbapaksenang bapaksenangkental senangkentalkalang kentalkalangtni</t>
+  </si>
+  <si>
+    <t>terima kasih jend ku malam km mmberikan harap rakyat utk yakin pilih tepat 02 terimakasih kasihjend jendku kumalam malamkm kmmmberikan mmberikanharap haraprakyat rakyatutk utkyakin yakinpilih pilihtepat tepat02 terimakasihjend kasihjendku jendkumalam kumalamkm malamkmmmberikan kmmmberikanharap mmberikanharaprakyat haraprakyatutk rakyatutkyakin utkyakinpilih yakinpilihtepat pilihtepat02</t>
+  </si>
+  <si>
+    <t>dasar tukang bohong kapan henti bohong pak kpk diri tahun 2002 ngawur kowe jok dasartukang tukangbohong bohongkapan kapanhenti hentibohong bohongpak pakkpk kpkdiri diritahun tahun2002 2002ngawur ngawurkowe kowejok dasartukangbohong tukangbohongkapan bohongkapanhenti kapanhentibohong hentibohongpak bohongpakkpk pakkpkdiri kpkdiritahun diritahun2002 tahun2002ngawur 2002ngawurkowe ngawurkowejok</t>
+  </si>
+  <si>
+    <t>sejahtera tni lama 5 thn perintah gaji tni tdk pernah naik sejahtera tni aja kurang sejahteratni tnilama lama5 5thn thnperintah perintahgaji gajitni tnitdk tdkpernah pernahnaik naiksejahtera sejahteratni tniaja ajakurang sejahteratnilama tnilama5 lama5thn 5thnperintah thnperintahgaji perintahgajitni gajitnitdk tnitdkpernah tdkpernahnaik pernahnaiksejahtera naiksejahteratni sejahteratniaja tniajakurang</t>
+  </si>
+  <si>
+    <t>catat tanggal siap diri putih gbk bareng sabtu 13 april 2019 asjb barengjokowi asjb putihkangbk catattanggal tanggalsiap siapdiri diriputih putihgbk gbkbareng barengsabtu sabtu13 13april april2019 2019asjb asjbbarengjokowi barengjokowiasjb asjbputihkangbk catattanggalsiap tanggalsiapdiri siapdiriputih diriputihgbk putihgbkbareng gbkbarengsabtu barengsabtu13 sabtu13april 13april2019 april2019asjb 2019asjbbarengjokowi asjbbarengjokowiasjb barengjokowiasjbputihkangbk</t>
+  </si>
+  <si>
+    <t>kaya suatu bangsa kalau jaga suatu kuat tahan kuat tidak mungkin - kayasuatu suatubangsa bangsakalau kalaujaga jagasuatu suatukuat kuattahan tahankuat kuattidak tidakmungkin mungkin- kayasuatubangsa suatubangsakalau bangsakalaujaga kalaujagasuatu jagasuatukuat suatukuattahan kuattahankuat tahankuattidak kuattidakmungkin tidakmungkin-</t>
+  </si>
+  <si>
+    <t>tanah papua memang selalu penuh hangat kunjung merauke lebih asa pulang kampung pada kampanye tanahpapua papuamemang memangselalu selalupenuh penuhhangat hangatkunjung kunjungmerauke meraukelebih lebihasa asapulang pulangkampung kampungpada padakampanye tanahpapuamemang papuamemangselalu memangselalupenuh selalupenuhhangat penuhhangatkunjung hangatkunjungmerauke kunjungmeraukelebih meraukelebihasa lebihasapulang asapulangkampung pulangkampungpada kampungpadakampanye</t>
+  </si>
+  <si>
+    <t>lama kawan lalu musuh lama tetangga lalu tak saling bicara semua karena beda pilih lamakawan kawanlalu lalumusuh musuhlama lamatetangga tetanggalalu lalutak taksaling salingbicara bicarasemua semuakarena karenabeda bedapilih lamakawanlalu kawanlalumusuh lalumusuhlama musuhlamatetangga lamatetanggalalu tetanggalalutak lalutaksaling taksalingbicara salingbicarasemua bicarasemuakarena semuakarenabeda karenabedapilih</t>
+  </si>
+  <si>
+    <t>sangat percaya mampu tni kata capres pecat tni https t co kc5cpgca0n sangatpercaya percayamampu mamputni tnikata katacapres caprespecat pecattni tnihttps httpst tco cokc5cpgca0n sangatpercayamampu percayamamputni mamputnikata tnikatacapres katacaprespecat caprespecattni pecattnihttps tnihttpst httpstco tcokc5cpgca0n</t>
+  </si>
+  <si>
+    <t>tidak paham ekonomi investasi asing lingkup bisnis di-framing olah negara asai asing cara militan tidakpaham pahamekonomi ekonomiinvestasi investasiasing asinglingkup lingkupbisnis bisnisdi-framing di-framingolah olahnegara negaraasai asaiasing asingcara caramilitan tidakpahamekonomi pahamekonomiinvestasi ekonomiinvestasiasing investasiasinglingkup asinglingkupbisnis lingkupbisnisdi-framing bisnisdi-framingolah di-framingolahnegara olahnegaraasai negaraasaiasing asaiasingcara asingcaramilitan</t>
+  </si>
+  <si>
+    <t>wow pakai bahasa inggris debat bikin plonga plongo https t co chujvskyv 4 prabowomenangdebat wowpakai pakaibahasa bahasainggris inggrisdebat debatbikin bikinplonga plongaplongo plongohttps httpst tco cochujvskyv chujvskyv4 4prabowomenangdebat wowpakaibahasa pakaibahasainggris bahasainggrisdebat inggrisdebatbikin debatbikinplonga bikinplongaplongo plongaplongohttps plongohttpst httpstco tcochujvskyv cochujvskyv4 chujvskyv4prabowomenangdebat</t>
+  </si>
+  <si>
+    <t>closing statement 01 orang pamit nuansa khawatir takut tinggal kalo kalah closingstatement statement01 01orang orangpamit pamitnuansa nuansakhawatir khawatirtakut takuttinggal tinggalkalo kalokalah closingstatement01 statement01orang 01orangpamit orangpamitnuansa pamitnuansakhawatir nuansakhawatirtakut khawatirtakuttinggal takuttinggalkalo tinggalkalokalah</t>
+  </si>
+  <si>
+    <t>terima kasih papua terima kasih rakyat merauke moga temu ada lebih baik terimakasih kasihpapua papuaterima terimakasih kasihrakyat rakyatmerauke meraukemoga mogatemu temuada adalebih lebihbaik terimakasihpapua kasihpapuaterima papuaterimakasih terimakasihrakyat kasihrakyatmerauke rakyatmeraukemoga meraukemogatemu mogatemuada temuadalebih adalebihbaik</t>
+  </si>
+  <si>
+    <t>hari jum at mrk nanya prabowojumatandimana nanya jauh mana islam harijum jumat atmrk mrknanya nanyaprabowojumatandimana prabowojumatandimanananya nanyajauh jauhmana manaislam harijumat jumatmrk atmrknanya mrknanyaprabowojumatandimana nanyaprabowojumatandimanananya prabowojumatandimanananyajauh nanyajauhmana jauhmanaislam</t>
+  </si>
+  <si>
+    <t>pesta demokrasi nama pesta harus fun gitulooo man teman pak sm pak bisa saling santai pestademokrasi demokrasinama namapesta pestaharus harusfun fungitulooo gituloooman manteman temanpak paksm smpak pakbisa bisasaling salingsantai pestademokrasinama demokrasinamapesta namapestaharus pestaharusfun harusfungitulooo fungituloooman gitulooomanteman mantemanpak temanpaksm paksmpak smpakbisa pakbisasaling bisasalingsantai</t>
+  </si>
+  <si>
+    <t>jadi presiden berat biar pak prabowobentengnkri jokowidiambangkekalahan https t co ehlgdl 2mcx jadipresiden presidenberat beratbiar biarpak pakprabowobentengnkri prabowobentengnkrijokowidiambangkekalahan jokowidiambangkekalahanhttps httpst tco coehlgdl ehlgdl2mcx jadipresidenberat presidenberatbiar beratbiarpak biarpakprabowobentengnkri pakprabowobentengnkrijokowidiambangkekalahan prabowobentengnkrijokowidiambangkekalahanhttps jokowidiambangkekalahanhttpst httpstco tcoehlgdl coehlgdl2mcx</t>
+  </si>
+  <si>
+    <t>terimakasih pak datang manado bangga salam sama bapak insya allah bapak bang sandi menang terimakasihpak pakdatang datangmanado manadobangga banggasalam salamsama samabapak bapakinsya insyaallah allahbapak bapakbang bangsandi sandimenang terimakasihpakdatang pakdatangmanado datangmanadobangga manadobanggasalam banggasalamsama salamsamabapak samabapakinsya bapakinsyaallah insyaallahbapak allahbapakbang bapakbangsandi bangsandimenang</t>
+  </si>
+  <si>
+    <t>makin baik sama pak menangjokowilagi makinbaik baiksama samapak pakmenangjokowilagi makinbaiksama baiksamapak samapakmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>berangkat bawah ke pucuk tinggi makanya tak pernah takut https t co 7ftilehkv1 berangkatbawah bawahke kepucuk pucuktinggi tinggimakanya makanyatak takpernah pernahtakut takuthttps httpst tco co7ftilehkv1 berangkatbawahke bawahkepucuk kepucuktinggi pucuktinggimakanya tinggimakanyatak makanyatakpernah takpernahtakut pernahtakuthttps takuthttpst httpstco tco7ftilehkv1</t>
+  </si>
+  <si>
+    <t>fpi hti jelas di balik kalo yg bantah jelas sedang bohong https t co mwfxk 96sye fpihti htijelas jelasdi dibalik balikkalo kaloyg ygbantah bantahjelas jelassedang sedangbohong bohonghttps httpst tco comwfxk mwfxk96sye fpihtijelas htijelasdi jelasdibalik dibalikkalo balikkaloyg kaloygbantah ygbantahjelas bantahjelassedang jelassedangbohong sedangbohonghttps bohonghttpst httpstco tcomwfxk comwfxk96sye</t>
+  </si>
+  <si>
+    <t>bangga prabowobentengnkri banggaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>contoh orang yg gabisa ajak maju debatpilpres 2019 jokowimengubahsemua https t co omp 0spnmur contohorang orangyg yggabisa gabisaajak ajakmaju majudebatpilpres debatpilpres2019 2019jokowimengubahsemua jokowimengubahsemuahttps httpst tco coomp omp0spnmur contohorangyg orangyggabisa yggabisaajak gabisaajakmaju ajakmajudebatpilpres majudebatpilpres2019 debatpilpres2019jokowimengubahsemua 2019jokowimengubahsemuahttps jokowimengubahsemuahttpst httpstco tcoomp coomp0spnmur</t>
+  </si>
+  <si>
+    <t>the strong will do what they can the weak will suffer nilai tahan indonesia terlalu lemah thestrong strongwill willdo dowhat whatthey theycan canthe theweak weakwill willsuffer suffernilai nilaitahan tahanindonesia indonesiaterlalu terlalulemah thestrongwill strongwilldo willdowhat dowhatthey whattheycan theycanthe cantheweak theweakwill weakwillsuffer willsuffernilai suffernilaitahan nilaitahanindonesia tahanindonesiaterlalu indonesiaterlalulemah</t>
+  </si>
+  <si>
+    <t>rantai sahabat pak pak akan putus gara 2 debatpilpres 2019 dengerin tuh tkn-bpn cebongs kampret rantaisahabat sahabatpak pakpak pakakan akanputus putusgara gara2 2debatpilpres debatpilpres2019 2019dengerin dengerintuh tuhtkn-bpn tkn-bpncebongs cebongskampret rantaisahabatpak sahabatpakpak pakpakakan pakakanputus akanputusgara putusgara2 gara2debatpilpres 2debatpilpres2019 debatpilpres2019dengerin 2019dengerintuh dengerintuhtkn-bpn tuhtkn-bpncebongs tkn-bpncebongskampret</t>
+  </si>
+  <si>
+    <t>dengar pak meski sangat lambat https t co aydhf 1aca7 dengarpak pakmeski meskisangat sangatlambat lambathttps httpst tco coaydhf aydhf1aca7 dengarpakmeski pakmeskisangat meskisangatlambat sangatlambathttps lambathttpst httpstco tcoaydhf coaydhf1aca7</t>
+  </si>
+  <si>
+    <t>pak jangan jelek tni ini lho salah satu prestasi tni 01dilanjutkan https t co ibgmfaixw 1 pakjangan janganjelek jelektni tniini inilho lhosalah salahsatu satuprestasi prestasitni tni01dilanjutkan 01dilanjutkanhttps httpst tco coibgmfaixw ibgmfaixw1 pakjanganjelek janganjelektni jelektniini tniinilho inilhosalah lhosalahsatu salahsatuprestasi satuprestasitni prestasitni01dilanjutkan tni01dilanjutkanhttps 01dilanjutkanhttpst httpstco tcoibgmfaixw coibgmfaixw1</t>
+  </si>
+  <si>
+    <t>sepakat bang pak menang sejak pikir mental menang yang ngga milik pak sepakatbang bangpak pakmenang menangsejak sejakpikir pikirmental mentalmenang menangyang yangngga nggamilik milikpak sepakatbangpak bangpakmenang pakmenangsejak menangsejakpikir sejakpikirmental pikirmentalmenang mentalmenangyang menangyangngga yangnggamilik nggamilikpak</t>
+  </si>
+  <si>
+    <t>debat malam mas tampil luar biasa tegas lugas cerdas wibawa jadi macan indonesia perkasa debatmalam malammas mastampil tampilluar luarbiasa biasategas tegaslugas lugascerdas cerdaswibawa wibawajadi jadimacan macanindonesia indonesiaperkasa debatmalammas malammastampil mastampilluar tampilluarbiasa luarbiasategas biasategaslugas tegaslugascerdas lugascerdaswibawa cerdaswibawajadi wibawajadimacan jadimacanindonesia macanindonesiaperkasa</t>
+  </si>
+  <si>
+    <t>percaya pak rantai sahabat tidak pernah putus iya pak pun saya hormat percayapak pakrantai rantaisahabat sahabattidak tidakpernah pernahputus putusiya iyapak pakpun punsaya sayahormat percayapakrantai pakrantaisahabat rantaisahabattidak sahabattidakpernah tidakpernahputus pernahputusiya putusiyapak iyapakpun pakpunsaya punsayahormat</t>
+  </si>
+  <si>
+    <t>insya allah p kuasa debat malam dg elegan n presidential sy saksi dr studio insyaallah allahp pkuasa kuasadebat debatmalam malamdg dgelegan elegann npresidential presidentialsy sysaksi saksidr drstudio insyaallahp allahpkuasa pkuasadebat kuasadebatmalam debatmalamdg malamdgelegan dgelegann elegannpresidential npresidentialsy presidentialsysaksi sysaksidr saksidrstudio</t>
+  </si>
+  <si>
+    <t>mlm pak tampil serang lugas skakmaat mlmpak paktampil tampilserang seranglugas lugasskakmaat mlmpaktampil paktampilserang tampilseranglugas seranglugasskakmaat</t>
+  </si>
+  <si>
+    <t>prabowomenangdebat insya allah menang pilpres 2019 prabowomenangdebatinsya insyaallah allahmenang menangpilpres pilpres2019 prabowomenangdebatinsyaallah insyaallahmenang allahmenangpilpres menangpilpres2019</t>
+  </si>
+  <si>
+    <t>debat kali tidak pegang telinga tanda tidak pikir panjang debat sorot mata tebar kosong debatkali kalitidak tidakpegang pegangtelinga telingatanda tandatidak tidakpikir pikirpanjang panjangdebat debatsorot sorotmata matatebar tebarkosong debatkalitidak kalitidakpegang tidakpegangtelinga pegangtelingatanda telingatandatidak tandatidakpikir tidakpikirpanjang pikirpanjangdebat panjangdebatsorot debatsorotmata sorotmatatebar matatebarkosong</t>
+  </si>
+  <si>
+    <t>lah pa ga lupa dg sahabat tp hal ada masalah hukum lahpa paga galupa lupadg dgsahabat sahabattp tphal halada adamasalah masalahhukum lahpaga pagalupa galupadg lupadgsahabat dgsahabattp sahabattphal tphalada haladamasalah adamasalahhukum</t>
+  </si>
+  <si>
+    <t>bravo pak lebih tni tni lucu nuduh ga percaya tni lah wong pak ex militer bravopak paklebih lebihtni tnitni tnilucu lucunuduh nuduhga gapercaya percayatni tnilah lahwong wongpak pakex exmiliter bravopaklebih paklebihtni lebihtnitni tnitnilucu tnilucunuduh lucunuduhga nuduhgapercaya gapercayatni percayatnilah tnilahwong lahwongpak wongpakex pakexmiliter</t>
+  </si>
+  <si>
+    <t>politik luar negeri makin turun sering absen p forum 2 internasional n sidang pbb politikluar luarnegeri negerimakin makinturun turunsering seringabsen absenp pforum forum2 2internasional internasionaln nsidang sidangpbb politikluarnegeri luarnegerimakin negerimakinturun makinturunsering turunseringabsen seringabsenp absenpforum pforum2 forum2internasional 2internasionaln internasionalnsidang nsidangpbb</t>
+  </si>
+  <si>
+    <t>jng pilih pimpin bohong ingkar janji provokasi rakyat kacang lupa kulit pilih pimpin yg jujur jngpilih pilihpimpin pimpinbohong bohongingkar ingkarjanji janjiprovokasi provokasirakyat rakyatkacang kacanglupa lupakulit kulitpilih pilihpimpin pimpinyg ygjujur jngpilihpimpin pilihpimpinbohong pimpinbohongingkar bohongingkarjanji ingkarjanjiprovokasi janjiprovokasirakyat provokasirakyatkacang rakyatkacanglupa kacanglupakulit lupakulitpilih kulitpilihpimpin pilihpimpinyg pimpinygjujur</t>
+  </si>
+  <si>
+    <t>lihat pak percaya tni saya sipil sangat percaya tni - lihatpak pakpercaya percayatni tnisaya sayasipil sipilsangat sangatpercaya percayatni tni- lihatpakpercaya pakpercayatni percayatnisaya tnisayasipil sayasipilsangat sipilsangatpercaya sangatpercayatni percayatni-</t>
+  </si>
+  <si>
+    <t>makanya klw 2024 pilpres ada debat jgn beri tahu bikin rusuh makanyaklw klw2024 2024pilpres pilpresada adadebat debatjgn jgnberi beritahu tahubikin bikinrusuh makanyaklw2024 klw2024pilpres 2024pilpresada pilpresadadebat adadebatjgn debatjgnberi jgnberitahu beritahubikin tahubikinrusuh</t>
+  </si>
+  <si>
+    <t>sepakat malam pak kabul semua harap dukung debat kali nampol banget sepakatmalam malampak pakkabul kabulsemua semuaharap harapdukung dukungdebat debatkali kalinampol nampolbanget sepakatmalampak malampakkabul pakkabulsemua kabulsemuaharap semuaharapdukung harapdukungdebat dukungdebatkali debatkalinampol kalinampolbanget</t>
+  </si>
+  <si>
+    <t>political will cermin praktik berantas korupsi kata pula demokrasi politicalwill willcermin cerminpraktik praktikberantas berantaskorupsi korupsikata katapula pulademokrasi politicalwillcermin willcerminpraktik cerminpraktikberantas praktikberantaskorupsi berantaskorupsikata korupsikatapula katapulademokrasi</t>
+  </si>
+  <si>
+    <t>industri kreatif indonesia era presiden tumbuh sangat pesat industrikreatif kreatifindonesia indonesiaera erapresiden presidentumbuh tumbuhsangat sangatpesat industrikreatifindonesia kreatifindonesiaera indonesiaerapresiden erapresidentumbuh presidentumbuhsangat tumbuhsangatpesat</t>
+  </si>
+  <si>
+    <t>sudah jelas bisa ikut rombong wong sejak awal visi beda visi commuter line mau bikin maju aja sudahjelas jelasbisa bisaikut ikutrombong rombongwong wongsejak sejakawal awalvisi visibeda bedavisi visicommuter commuterline linemau maubikin bikinmaju majuaja sudahjelasbisa jelasbisaikut bisaikutrombong ikutrombongwong rombongwongsejak wongsejakawal sejakawalvisi awalvisibeda visibedavisi bedavisicommuter visicommuterline commuterlinemau linemaubikin maubikinmaju bikinmajuaja</t>
+  </si>
+  <si>
+    <t>helmy faishal debat kandidat tahap empat menang alam https t co 5iueilxkxo helmyfaishal faishaldebat debatkandidat kandidattahap tahapempat empatmenang menangalam alamhttps httpst tco co5iueilxkxo helmyfaishaldebat faishaldebatkandidat debatkandidattahap kandidattahapempat tahapempatmenang empatmenangalam menangalamhttps alamhttpst httpstco tco5iueilxkxo</t>
+  </si>
+  <si>
+    <t>juang hormat akan diri kaki sendiri kita tidak akan import pangan juanghormat hormatakan akandiri dirikaki kakisendiri sendirikita kitatidak tidakakan akanimport importpangan juanghormatakan hormatakandiri akandirikaki dirikakisendiri kakisendirikita sendirikitatidak kitatidakakan tidakakanimport akanimportpangan</t>
+  </si>
+  <si>
+    <t>korupsi parah stadium empat https t co 4sqd2cyjnw prabowobentengnkri korupsiparah parahstadium stadiumempat empathttps httpst tco co4sqd2cyjnw 4sqd2cyjnwprabowobentengnkri korupsiparahstadium parahstadiumempat stadiumempathttps empathttpst httpstco tco4sqd2cyjnw co4sqd2cyjnwprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>sangat untung jadi orang kualitas ilmu minim bisa jadi orang presiden sangatuntung untungjadi jadiorang orangkualitas kualitasilmu ilmuminim minimbisa bisajadi jadiorang orangpresiden sangatuntungjadi untungjadiorang jadiorangkualitas orangkualitasilmu kualitasilmuminim ilmuminimbisa minimbisajadi bisajadiorang jadiorangpresiden</t>
+  </si>
+  <si>
+    <t>dulu jg pernah abs abs dy sujud sukur live loh tv one apa gtu live loh abs nya wuihhh dulujg jgpernah pernahabs absabs absdy dysujud sujudsukur sukurlive liveloh lohtv tvone oneapa apagtu gtulive liveloh lohabs absnya nyawuihhh dulujgpernah jgpernahabs pernahabsabs absabsdy absdysujud dysujudsukur sujudsukurlive sukurliveloh livelohtv lohtvone tvoneapa oneapagtu apagtulive gtuliveloh livelohabs lohabsnya absnyawuihhh</t>
+  </si>
+  <si>
+    <t>selow bingits screamo mantap jadi pasang bagus kek jokowi-ahok selowbingits bingitsscreamo screamomantap mantapjadi jadipasang pasangbagus baguskek kekjokowi-ahok selowbingitsscreamo bingitsscreamomantap screamomantapjadi mantapjadipasang jadipasangbagus pasangbaguskek baguskekjokowi-ahok</t>
+  </si>
+  <si>
+    <t>pak trauma pecat tni begini ngomongnya justru pak sipil percaya sama tni paktrauma traumapecat pecattni tnibegini beginingomongnya ngomongnyajustru justrupak paksipil sipilpercaya percayasama samatni paktraumapecat traumapecattni pecattnibegini tnibeginingomongnya beginingomongnyajustru ngomongnyajustrupak justrupaksipil paksipilpercaya sipilpercayasama percayasamatni</t>
+  </si>
+  <si>
+    <t>07 debatpilpres 2019 ngebacot kaya luar negeri ngomongin diri sendiri https t co tirpkmgt 4g 07debatpilpres debatpilpres2019 2019ngebacot ngebacotkaya kayaluar luarnegeri negeringomongin ngomongindiri dirisendiri sendirihttps httpst tco cotirpkmgt tirpkmgt4g 07debatpilpres2019 debatpilpres2019ngebacot 2019ngebacotkaya ngebacotkayaluar kayaluarnegeri luarnegeringomongin negeringomongindiri ngomongindirisendiri dirisendirihttps sendirihttpst httpstco tcotirpkmgt cotirpkmgt4g</t>
+  </si>
+  <si>
+    <t>nkri harga mati pancasila selalu hati presidennnya tetap pancasilavskhilafah tim 88untukjokowi tim 88 nkriharga hargamati matipancasila pancasilaselalu selaluhati hatipresidennnya presidennnyatetap tetappancasilavskhilafah pancasilavskhilafahtim tim88untukjokowi 88untukjokowitim tim88 nkrihargamati hargamatipancasila matipancasilaselalu pancasilaselaluhati selaluhatipresidennnya hatipresidennnyatetap presidennnyatetappancasilavskhilafah tetappancasilavskhilafahtim pancasilavskhilafahtim88untukjokowi tim88untukjokowitim 88untukjokowitim88</t>
+  </si>
+  <si>
+    <t>kritik solusi bagai kaca air keruh kerja beri solusi nyata tumbuh ekonomi kritiksolusi solusibagai bagaikaca kacaair airkeruh keruhkerja kerjaberi berisolusi solusinyata nyatatumbuh tumbuhekonomi kritiksolusibagai solusibagaikaca bagaikacaair kacaairkeruh airkeruhkerja keruhkerjaberi kerjaberisolusi berisolusinyata solusinyatatumbuh nyatatumbuhekonomi</t>
+  </si>
+  <si>
+    <t>si bacot soal tax rio rendah perusaaan sendiri nunggak pajak 26 miliar sibacot bacotsoal soaltax taxrio riorendah rendahperusaaan perusaaansendiri sendirinunggak nunggakpajak pajak26 26miliar sibacotsoal bacotsoaltax soaltaxrio taxriorendah riorendahperusaaan rendahperusaaansendiri perusaaansendirinunggak sendirinunggakpajak nunggakpajak26 pajak26miliar</t>
+  </si>
+  <si>
+    <t>pres bisa tidak bicara detail alutista indonesia itu yang sensitif tahan presbisa bisatidak tidakbicara bicaradetail detailalutista alutistaindonesia indonesiaitu ituyang yangsensitif sensitiftahan presbisatidak bisatidakbicara tidakbicaradetail bicaradetailalutista detailalutistaindonesia alutistaindonesiaitu indonesiaituyang ituyangsensitif yangsensitiftahan</t>
+  </si>
+  <si>
+    <t>malam inj sya gak ikut nonton debtamu pak krn sy sbgai dukung yg ikut gemetar pak takut sprti lalu malaminj injsya syagak gakikut ikutnonton nontondebtamu debtamupak pakkrn krnsy sysbgai sbgaidukung dukungyg ygikut ikutgemetar gemetarpak paktakut takutsprti sprtilalu malaminjsya injsyagak syagakikut gakikutnonton ikutnontondebtamu nontondebtamupak debtamupakkrn pakkrnsy krnsysbgai sysbgaidukung sbgaidukungyg dukungygikut ygikutgemetar ikutgemetarpak gemetarpaktakut paktakutsprti takutsprtilalu</t>
+  </si>
+  <si>
+    <t>malam benar 2 keren prabowotidakmenyalahkanboneka prabowomenangdebat jokowidiambangkekalahan malambenar benar2 2keren kerenprabowotidakmenyalahkanboneka prabowotidakmenyalahkanbonekaprabowomenangdebat prabowomenangdebatjokowidiambangkekalahan malambenar2 benar2keren 2kerenprabowotidakmenyalahkanboneka kerenprabowotidakmenyalahkanbonekaprabowomenangdebat prabowotidakmenyalahkanbonekaprabowomenangdebatjokowidiambangkekalahan</t>
+  </si>
+  <si>
+    <t>haha yen wahid bilang salah cara ngebaca data anggar tahan hahayen yenwahid wahidbilang bilangsalah salahcara carangebaca ngebacadata dataanggar anggartahan hahayenwahid yenwahidbilang wahidbilangsalah bilangsalahcara salahcarangebaca carangebacadata ngebacadataanggar dataanggartahan</t>
+  </si>
+  <si>
+    <t>closing statement yg adem pak makin mantap 17aprilcoblosbajuputih https t co gu7yd7owzz closingstatement statementyg ygadem adempak pakmakin makinmantap mantap17aprilcoblosbajuputih 17aprilcoblosbajuputihhttps httpst tco cogu7yd7owzz closingstatementyg statementygadem ygadempak adempakmakin pakmakinmantap makinmantap17aprilcoblosbajuputih mantap17aprilcoblosbajuputihhttps 17aprilcoblosbajuputihhttpst httpstco tcogu7yd7owzz</t>
+  </si>
+  <si>
+    <t>pokok malam pak jos gandos mantul banget bikin lawan klepek-klepek kaya ikan kurang air pokokmalam malampak pakjos josgandos gandosmantul mantulbanget bangetbikin bikinlawan lawanklepek-klepek klepek-klepekkaya kayaikan ikankurang kurangair pokokmalampak malampakjos pakjosgandos josgandosmantul gandosmantulbanget mantulbangetbikin bangetbikinlawan bikinlawanklepek-klepek lawanklepek-klepekkaya klepek-klepekkayaikan kayaikankurang ikankurangair</t>
+  </si>
+  <si>
+    <t>debat udah selesai unggul 10 - 0 satu pujat 01caprespendustaabadi prabowomenangdebat debatudah udahselesai selesaiunggul unggul10 10- -0 0satu satupujat pujat01caprespendustaabadi 01caprespendustaabadiprabowomenangdebat debatudahselesai udahselesaiunggul selesaiunggul10 unggul10- 10-0 -0satu 0satupujat satupujat01caprespendustaabadi pujat01caprespendustaabadiprabowomenangdebat</t>
+  </si>
+  <si>
+    <t>kalau terima mandat akan bersih kuat lembaga perintah prabowobentengnkri kalauterima terimamandat mandatakan akanbersih bersihkuat kuatlembaga lembagaperintah perintahprabowobentengnkri kalauterimamandat terimamandatakan mandatakanbersih akanbersihkuat bersihkuatlembaga kuatlembagaperintah lembagaperintahprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>lebih semangat jaga momentum sd 17 april prabowobentengnkri https t co evpzax 3bax lebihsemangat semangatjaga jagamomentum momentumsd sd17 17april aprilprabowobentengnkri prabowobentengnkrihttps httpst tco coevpzax evpzax3bax lebihsemangatjaga semangatjagamomentum jagamomentumsd momentumsd17 sd17april 17aprilprabowobentengnkri aprilprabowobentengnkrihttps prabowobentengnkrihttpst httpstco tcoevpzax coevpzax3bax</t>
+  </si>
+  <si>
+    <t>bidang tahan aman masih terlalu lemah anggar terlalu kecil yang kita baik bidangtahan tahanaman amanmasih masihterlalu terlalulemah lemahanggar anggarterlalu terlalukecil kecilyang yangkita kitabaik bidangtahanaman tahanamanmasih amanmasihterlalu masihterlalulemah terlalulemahanggar lemahanggarterlalu anggarterlalukecil terlalukecilyang kecilyangkita yangkitabaik</t>
+  </si>
+  <si>
+    <t>membully pak tak istri lalu pamer mesra dgn keluarga membullypak paktak takistri istrilalu lalupamer pamermesra mesradgn dgnkeluarga membullypaktak paktakistri takistrilalu istrilalupamer lalupamermesra pamermesradgn mesradgnkeluarga</t>
+  </si>
+  <si>
+    <t>yakin lubuk hati dukung pada malu liat jagoanya kaya gitu mata publik yakinlubuk lubukhati hatidukung dukungpada padamalu maluliat liatjagoanya jagoanyakaya kayagitu gitumata matapublik yakinlubukhati lubukhatidukung hatidukungpada dukungpadamalu padamaluliat maluliatjagoanya liatjagoanyakaya jagoanyakayagitu kayagitumata gitumatapublik</t>
+  </si>
+  <si>
+    <t>pemerintahandilan tekan layan perintah baik butuh efektifitas efisiensi pemerintahandilantekan tekanlayan layanperintah perintahbaik baikbutuh butuhefektifitas efektifitasefisiensi pemerintahandilantekanlayan tekanlayanperintah layanperintahbaik perintahbaikbutuh baikbutuhefektifitas butuhefektifitasefisiensi</t>
+  </si>
+  <si>
+    <t>hakul yakin indonesia hebat rakyat sejahtera wujud sama - prabowomenangdebat hakulyakin yakinindonesia indonesiahebat hebatrakyat rakyatsejahtera sejahterawujud wujudsama sama- -prabowomenangdebat hakulyakinindonesia yakinindonesiahebat indonesiahebatrakyat hebatrakyatsejahtera rakyatsejahterawujud sejahterawujudsama wujudsama- sama-prabowomenangdebat</t>
+  </si>
+  <si>
+    <t>10 debatpilpres 2019 gimana mau maju tni kalo baru jadi mayor aja udah pensiun sekarang jadi timses bapak 10debatpilpres debatpilpres2019 2019gimana gimanamau maumaju majutni tnikalo kalobaru barujadi jadimayor mayoraja ajaudah udahpensiun pensiunsekarang sekarangjadi jaditimses timsesbapak 10debatpilpres2019 debatpilpres2019gimana 2019gimanamau gimanamaumaju maumajutni majutnikalo tnikalobaru kalobarujadi barujadimayor jadimayoraja mayorajaudah ajaudahpensiun udahpensiunsekarang pensiunsekarangjadi sekarangjaditimses jaditimsesbapak</t>
+  </si>
+  <si>
+    <t>turut pk diplomasi arti tahan core national interest bukan cuma senyam-senyum turutpk pkdiplomasi diplomasiarti artitahan tahancore corenational nationalinterest interestbukan bukancuma cumasenyam-senyum turutpkdiplomasi pkdiplomasiarti diplomasiartitahan artitahancore tahancorenational corenationalinterest nationalinterestbukan interestbukancuma bukancumasenyam-senyum</t>
+  </si>
+  <si>
+    <t>bisik si jae lbh sibuk cari cara gebuk lawan politik waspada jaga nkri bisiksi sijae jaelbh lbhsibuk sibukcari caricara caragebuk gebuklawan lawanpolitik politikwaspada waspadajaga jagankri bisiksijae sijaelbh jaelbhsibuk lbhsibukcari sibukcaricara caricaragebuk caragebuklawan gebuklawanpolitik lawanpolitikwaspada politikwaspadajaga waspadajagankri</t>
+  </si>
+  <si>
+    <t>bukan percaya sama tni tni lebih tni para tni orang patriot cinta nkri bukanpercaya percayasama samatni tnitni tnilebih lebihtni tnipara paratni tniorang orangpatriot patriotcinta cintankri bukanpercayasama percayasamatni samatnitni tnitnilebih tnilebihtni lebihtnipara tniparatni paratniorang tniorangpatriot orangpatriotcinta patriotcintankri</t>
+  </si>
+  <si>
+    <t>ketawa kalian ketawa tahan indonesia rapuh kalian ketawa lucu kok lucu ujar ketawakalian kalianketawa ketawatahan tahanindonesia indonesiarapuh rapuhkalian kalianketawa ketawalucu lucukok koklucu lucuujar ketawakalianketawa kalianketawatahan ketawatahanindonesia tahanindonesiarapuh indonesiarapuhkalian rapuhkalianketawa kalianketawalucu ketawalucukok lucukoklucu koklucuujar</t>
+  </si>
+  <si>
+    <t>20 debatpilpres 2019 gak harga internasional tuh doang mah dihargain kok 20debatpilpres debatpilpres2019 2019gak gakharga hargainternasional internasionaltuh tuhdoang doangmah mahdihargain dihargainkok 20debatpilpres2019 debatpilpres2019gak 2019gakharga gakhargainternasional hargainternasionaltuh internasionaltuhdoang tuhdoangmah doangmahdihargain mahdihargainkok</t>
+  </si>
+  <si>
+    <t>komplit tukang bohong main curang piye pak de komplittukang tukangbohong bohongmain maincurang curangpiye piyepak pakde komplittukangbohong tukangbohongmain bohongmaincurang maincurangpiye curangpiyepak piyepakde</t>
+  </si>
+  <si>
+    <t>01 dong pak sangat percaya tni jokowidilan pemerintahandilan https t co uunuy 9su9e 01dong dongpak paksangat sangatpercaya percayatni tnijokowidilan jokowidilanpemerintahandilan pemerintahandilanhttps httpst tco couunuy uunuy9su9e 01dongpak dongpaksangat paksangatpercaya sangatpercayatni percayatnijokowidilan tnijokowidilanpemerintahandilan jokowidilanpemerintahandilanhttps pemerintahandilanhttpst httpstco tcouunuy couunuy9su9e</t>
+  </si>
+  <si>
+    <t>unggul 17 april yesss menangjokowilagi unggul17 17april aprilyesss yesssmenangjokowilagi unggul17april 17aprilyesss aprilyesssmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>saat perintah kibal-kibul akhir jokowidiambangkekalahan masyarakat hilang percaya perintah saatperintah perintahkibal-kibul kibal-kibulakhir akhirjokowidiambangkekalahan jokowidiambangkekalahanmasyarakat masyarakathilang hilangpercaya percayaperintah saatperintahkibal-kibul perintahkibal-kibulakhir kibal-kibulakhirjokowidiambangkekalahan akhirjokowidiambangkekalahanmasyarakat jokowidiambangkekalahanmasyarakathilang masyarakathilangpercaya hilangpercayaperintah</t>
+  </si>
+  <si>
+    <t>politik luar negeri sampai tak sesuai realitas dia sering tak hadir forum internasional politikluar luarnegeri negerisampai sampaitak taksesuai sesuairealitas realitasdia diasering seringtak takhadir hadirforum foruminternasional politikluarnegeri luarnegerisampai negerisampaitak sampaitaksesuai taksesuairealitas sesuairealitasdia realitasdiasering diaseringtak seringtakhadir takhadirforum hadirforuminternasional</t>
+  </si>
+  <si>
+    <t>distrust paham apa makna hanya plonga-plongo debatpilpres 2019 https t co qpr 2qpbcj1 distrustpaham pahamapa apamakna maknahanya hanyaplonga-plongo plonga-plongodebatpilpres debatpilpres2019 2019https httpst tco coqpr qpr2qpbcj1 distrustpahamapa pahamapamakna apamaknahanya maknahanyaplonga-plongo hanyaplonga-plongodebatpilpres plonga-plongodebatpilpres2019 debatpilpres2019https 2019httpst httpstco tcoqpr coqpr2qpbcj1</t>
+  </si>
+  <si>
+    <t>harus utama tuju perintah sendiri tuju perintah jelas akan jadi gaduh harusutama utamatuju tujuperintah perintahsendiri sendirituju tujuperintah perintahjelas jelasakan akanjadi jadigaduh harusutamatuju utamatujuperintah tujuperintahsendiri perintahsendirituju sendiritujuperintah tujuperintahjelas perintahjelasakan jelasakanjadi akanjadigaduh</t>
+  </si>
+  <si>
+    <t>depan mau ubah pancasila hadap https t co znzz 94ncaj depanmau mauubah ubahpancasila pancasilahadap hadaphttps httpst tco coznzz znzz94ncaj depanmauubah mauubahpancasila ubahpancasilahadap pancasilahadaphttps hadaphttpst httpstco tcoznzz coznzz94ncaj</t>
+  </si>
+  <si>
+    <t>menang gagas menang debat menang pilpres prabowobentengnkri menanggagas gagasmenang menangdebat debatmenang menangpilpres pilpresprabowobentengnkri menanggagasmenang gagasmenangdebat menangdebatmenang debatmenangpilpres menangpilpresprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>anak beri tahu toleransi kita beda - optimisindonesiamaju anakberi beritahu tahutoleransi toleransikita kitabeda beda- -optimisindonesiamaju anakberitahu beritahutoleransi tahutoleransikita toleransikitabeda kitabeda- beda-optimisindonesiamaju</t>
+  </si>
+  <si>
+    <t>nama benteng harus kokoh in syaa allah uji waktu kondisi namabenteng bentengharus haruskokoh kokohin insyaa syaaallah allahuji ujiwaktu waktukondisi namabentengharus bentengharuskokoh haruskokohin kokohinsyaa insyaaallah syaaallahuji allahujiwaktu ujiwaktukondisi</t>
+  </si>
+  <si>
+    <t>percaya kalo pak pimpin baik pemerintahandilan percayakalo kalopak pakpimpin pimpinbaik baikpemerintahandilan percayakalopak kalopakpimpin pakpimpinbaik pimpinbaikpemerintahandilan</t>
+  </si>
+  <si>
+    <t>pak ini sering naik sepeda rantai sering putus paksa ganti rantai makan pak pakini inisering seringnaik naiksepeda sepedarantai rantaisering seringputus putuspaksa paksaganti gantirantai rantaimakan makanpak pakinisering iniseringnaik seringnaiksepeda naiksepedarantai sepedarantaisering rantaiseringputus seringputuspaksa putuspaksaganti paksagantirantai gantirantaimakan rantaimakanpak</t>
+  </si>
+  <si>
+    <t>meski indonesia milik saham 51 persen freeport sebut untung freeport jauh lebih besar meskiindonesia indonesiamilik miliksaham saham51 51persen persenfreeport freeportsebut sebutuntung untungfreeport freeportjauh jauhlebih lebihbesar meskiindonesiamilik indonesiamiliksaham miliksaham51 saham51persen 51persenfreeport persenfreeportsebut freeportsebutuntung sebutuntungfreeport untungfreeportjauh freeportjauhlebih jauhlebihbesar</t>
+  </si>
+  <si>
+    <t>ghiroh kab kalong menang sungguh haru bangga dlm parau suara brandal ghirohkab kabkalong kalongmenang menangsungguh sungguhharu harubangga banggadlm dlmparau parausuara suarabrandal ghirohkabkalong kabkalongmenang kalongmenangsungguh menangsungguhharu sungguhharubangga harubanggadlm banggadlmparau dlmparausuara parausuarabrandal</t>
+  </si>
+  <si>
+    <t>mantap pak jokowidiambangkekalahan https t co 5aqu8vfkic mantappak pakjokowidiambangkekalahan jokowidiambangkekalahanhttps httpst tco co5aqu8vfkic mantappakjokowidiambangkekalahan pakjokowidiambangkekalahanhttps jokowidiambangkekalahanhttpst httpstco tco5aqu8vfkic</t>
+  </si>
+  <si>
+    <t>benteng nkri benteng bukan banteng prabowobentengnkri bentengnkri nkribenteng bentengbukan bukanbanteng bantengprabowobentengnkri bentengnkribenteng nkribentengbukan bentengbukanbanteng bukanbantengprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>pak siap papar visi misi beliau tema debat malam 01dilanjutkan paksiap siappapar paparvisi visimisi misibeliau beliautema temadebat debatmalam malam01dilanjutkan paksiappapar siappaparvisi paparvisimisi visimisibeliau misibeliautema beliautemadebat temadebatmalam debatmalam01dilanjutkan</t>
+  </si>
+  <si>
+    <t>sosok pimpin baik maka tak ada alas golput 01dilanjutkan sosokpimpin pimpinbaik baikmaka makatak takada adaalas alasgolput golput01dilanjutkan sosokpimpinbaik pimpinbaikmaka baikmakatak makatakada takadaalas adaalasgolput alasgolput01dilanjutkan</t>
+  </si>
+  <si>
+    <t>debat capres kali seperti lihat orang dewasa wawas santun lawan debatcapres capreskali kaliseperti sepertilihat lihatorang orangdewasa dewasawawas wawassantun santunlawan debatcapreskali capreskaliseperti kalisepertilihat sepertilihatorang lihatorangdewasa orangdewasawawas dewasawawassantun wawassantunlawan</t>
+  </si>
+  <si>
+    <t>kalau mandat akan bersih kuat lembaga perintah akan hilang korupsi indonesia kalaumandat mandatakan akanbersih bersihkuat kuatlembaga lembagaperintah perintahakan akanhilang hilangkorupsi korupsiindonesia kalaumandatakan mandatakanbersih akanbersihkuat bersihkuatlembaga kuatlembagaperintah lembagaperintahakan perintahakanhilang akanhilangkorupsi hilangkorupsiindonesia</t>
+  </si>
+  <si>
+    <t>nahhh inti juang hasil panen raya jaga lumbung tikus nahhhinti intijuang juanghasil hasilpanen panenraya rayajaga jagalumbung lumbungtikus nahhhintijuang intijuanghasil juanghasilpanen hasilpanenraya panenrayajaga rayajagalumbung jagalumbungtikus</t>
+  </si>
+  <si>
+    <t>wrga karawang yg mana klau knytaan y laut manusia yg hadir mnyambut presiden qt wrgakarawang karawangyg ygmana manaklau klauknytaan knytaany ylaut lautmanusia manusiayg yghadir hadirmnyambut mnyambutpresiden presidenqt wrgakarawangyg karawangygmana ygmanaklau manaklauknytaan klauknytaany knytaanylaut ylautmanusia lautmanusiayg manusiayghadir yghadirmnyambut hadirmnyambutpresiden mnyambutpresidenqt</t>
+  </si>
+  <si>
+    <t>cuma doa moga terima nyata walaupun pahit 2019 rakyat presiden ri cumadoa doamoga mogaterima terimanyata nyatawalaupun walaupunpahit pahit2019 2019rakyat rakyatpresiden presidenri cumadoamoga doamogaterima mogaterimanyata terimanyatawalaupun nyatawalaupunpahit walaupunpahit2019 pahit2019rakyat 2019rakyatpresiden rakyatpresidenri</t>
+  </si>
+  <si>
+    <t>simpul debat mlm sangat cinta nkri jae sangat cinta dagang prabowobentengnkri prabowobentengnkri simpuldebat debatmlm mlmsangat sangatcinta cintankri nkrijae jaesangat sangatcinta cintadagang dagangprabowobentengnkri prabowobentengnkriprabowobentengnkri simpuldebatmlm debatmlmsangat mlmsangatcinta sangatcintankri cintankrijae nkrijaesangat jaesangatcinta sangatcintadagang cintadagangprabowobentengnkri dagangprabowobentengnkriprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>lembaga perintah kuat baru negara kuat program bangun laksana lembagaperintah perintahkuat kuatbaru barunegara negarakuat kuatprogram programbangun bangunlaksana lembagaperintahkuat perintahkuatbaru kuatbarunegara barunegarakuat negarakuatprogram kuatprogrambangun programbangunlaksana</t>
+  </si>
+  <si>
+    <t>lebih baik pakai teknologi lama kaya indonesia keluar indonesia - lebihbaik baikpakai pakaiteknologi teknologilama lamakaya kayaindonesia indonesiakeluar keluarindonesia indonesia- lebihbaikpakai baikpakaiteknologi pakaiteknologilama teknologilamakaya lamakayaindonesia kayaindonesiakeluar indonesiakeluarindonesia keluarindonesia-</t>
+  </si>
+  <si>
+    <t>bapak info abs also https t co 11g3jkmdz3 bapakinfo infoabs absalso alsohttps httpst tco co11g3jkmdz3 bapakinfoabs infoabsalso absalsohttps alsohttpst httpstco tco11g3jkmdz3</t>
+  </si>
+  <si>
+    <t>indonesia maju sama pemerintahandilan https t co ue10thkyey indonesiamaju majusama samapemerintahandilan pemerintahandilanhttps httpst tco coue10thkyey indonesiamajusama majusamapemerintahandilan samapemerintahandilanhttps pemerintahandilanhttpst httpstco tcoue10thkyey</t>
+  </si>
+  <si>
+    <t>warkop dki tagline warkop dki memang visioner lol prabowomarah https t co 8wsgualxi6 warkopdki dkitagline taglinewarkop warkopdki dkimemang memangvisioner visionerlol lolprabowomarah prabowomarahhttps httpst tco co8wsgualxi6 warkopdkitagline dkitaglinewarkop taglinewarkopdki warkopdkimemang dkimemangvisioner memangvisionerlol visionerlolprabowomarah lolprabowomarahhttps prabowomarahhttpst httpstco tco8wsgualxi6</t>
+  </si>
+  <si>
+    <t>nahkan sistem perintah udah oke banget deh poko pemerintahandilan keren pak https t co 1tomcggkxy nahkansistem sistemperintah perintahudah udahoke okebanget bangetdeh dehpoko pokopemerintahandilan pemerintahandilankeren kerenpak pakhttps httpst tco co1tomcggkxy nahkansistemperintah sistemperintahudah perintahudahoke udahokebanget okebangetdeh bangetdehpoko dehpokopemerintahandilan pokopemerintahandilankeren pemerintahandilankerenpak kerenpakhttps pakhttpst httpstco tco1tomcggkxy</t>
+  </si>
+  <si>
+    <t>debat 4 terima bagai saudara wahai mualaf politik memang pantas pimpin nkri debat4 4terima terimabagai bagaisaudara saudarawahai wahaimualaf mualafpolitik politikmemang memangpantas pantaspimpin pimpinnkri debat4terima 4terimabagai terimabagaisaudara bagaisaudarawahai saudarawahaimualaf wahaimualafpolitik mualafpolitikmemang politikmemangpantas memangpantaspimpin pantaspimpinnkri</t>
+  </si>
+  <si>
+    <t>kalo pecat dapet pensiun dong bpk pensiun kalopecat pecatdapet dapetpensiun pensiundong dongbpk bpkpensiun kalopecatdapet pecatdapetpensiun dapetpensiundong pensiundongbpk dongbpkpensiun</t>
+  </si>
+  <si>
+    <t>karawang 29 maret 2019 siapa pilih rakyat akan tunduk patuh - negarawan sejati karawang29 29maret maret2019 2019siapa siapapilih pilihrakyat rakyatakan akantunduk tundukpatuh patuh- -negarawan negarawansejati karawang29maret 29maret2019 maret2019siapa 2019siapapilih siapapilihrakyat pilihrakyatakan rakyatakantunduk akantundukpatuh tundukpatuh- patuh-negarawan -negarawansejati</t>
+  </si>
+  <si>
+    <t>apa pak paham skor cpi indonesia 38 indonesia masuk kategori hybrid regime apapak pakpaham pahamskor skorcpi cpiindonesia indonesia38 38indonesia indonesiamasuk masukkategori kategorihybrid hybridregime apapakpaham pakpahamskor pahamskorcpi skorcpiindonesia cpiindonesia38 indonesia38indonesia 38indonesiamasuk indonesiamasukkategori masukkategorihybrid kategorihybridregime</t>
+  </si>
+  <si>
+    <t>perintah dil digital layan sangat perlu perintahdil dildigital digitallayan layansangat sangatperlu perintahdildigital dildigitallayan digitallayansangat layansangatperlu</t>
+  </si>
+  <si>
+    <t>teknologi lama kaya tetap di negara sendiri kata duh maksud internetan pake dial-up teknologilama lamakaya kayatetap tetapdi dinegara negarasendiri sendirikata kataduh duhmaksud maksudinternetan internetanpake pakedial-up teknologilamakaya lamakayatetap kayatetapdi tetapdinegara dinegarasendiri negarasendirikata sendirikataduh kataduhmaksud duhmaksudinternetan maksudinternetanpake internetanpakedial-up</t>
+  </si>
+  <si>
+    <t>dr bumi pertiwi yg sdh lepas nyata gera separatis hantu drbumi bumipertiwi pertiwiyg ygsdh sdhlepas lepasnyata nyatagera geraseparatis separatishantu drbumipertiwi bumipertiwiyg pertiwiygsdh ygsdhlepas sdhlepasnyata lepasnyatagera nyatageraseparatis geraseparatishantu</t>
+  </si>
+  <si>
+    <t>bantu retuitya manteman seluruh dunia paham kalo sosok yg sgt depan toleransi banturetuitya retuityamanteman mantemanseluruh seluruhdunia duniapaham pahamkalo kalososok sosokyg ygsgt sgtdepan depantoleransi banturetuityamanteman retuityamantemanseluruh mantemanseluruhdunia seluruhduniapaham duniapahamkalo pahamkalososok kalososokyg sosokygsgt ygsgtdepan sgtdepantoleransi</t>
+  </si>
+  <si>
+    <t>itu ma ruf amin senang tak provokasi https t co fmhnp 7nafz ituma maruf rufamin aminsenang senangtak takprovokasi provokasihttps httpst tco cofmhnp fmhnp7nafz itumaruf marufamin rufaminsenang aminsenangtak senangtakprovokasi takprovokasihttps provokasihttpst httpstco tcofmhnp cofmhnp7nafz</t>
+  </si>
+  <si>
+    <t>mc kepada pak sila tanggap nyata pak kira ada beda yah mckepada kepadapak paksila silatanggap tanggapnyata nyatapak pakkira kiraada adabeda bedayah mckepadapak kepadapaksila paksilatanggap silatanggapnyata tanggapnyatapak nyatapakkira pakkiraada kiraadabeda adabedayah</t>
+  </si>
+  <si>
+    <t>jadi presiden aja prabohong udah ngamuk tertawa kok larang hancurrr prabowomarah jadipresiden presidenaja ajaprabohong prabohongudah udahngamuk ngamuktertawa tertawakok koklarang laranghancurrr hancurrrprabowomarah jadipresidenaja presidenajaprabohong ajaprabohongudah prabohongudahngamuk udahngamuktertawa ngamuktertawakok tertawakoklarang koklaranghancurrr laranghancurrrprabowomarah</t>
+  </si>
+  <si>
+    <t>prb bahasa terlalu tinggi bikin planga plongo prbbahasa bahasaterlalu terlalutinggi tinggibikin bikinplanga plangaplongo prbbahasaterlalu bahasaterlalutinggi terlalutinggibikin tinggibikinplanga bikinplangaplongo</t>
+  </si>
+  <si>
+    <t>aman negara malah ketawa ngawur tidak nasionalis tuh pak tegor aja prabowomenangdebat amannegara negaramalah malahketawa ketawangawur ngawurtidak tidaknasionalis nasionalistuh tuhpak paktegor tegoraja ajaprabowomenangdebat amannegaramalah negaramalahketawa malahketawangawur ketawangawurtidak ngawurtidaknasionalis tidaknasionalistuh nasionalistuhpak tuhpaktegor paktegoraja tegorajaprabowomenangdebat</t>
+  </si>
+  <si>
+    <t>debat pak serang tp beliau sabar tdk balas debatpak pakserang serangtp tpbeliau beliausabar sabartdk tdkbalas debatpakserang pakserangtp serangtpbeliau tpbeliausabar beliausabartdk sabartdkbalas</t>
+  </si>
+  <si>
+    <t>harus buat sistem henti bocor cegah korupsi prabowobentengnkri harusbuat buatsistem sistemhenti hentibocor bocorcegah cegahkorupsi korupsiprabowobentengnkri harusbuatsistem buatsistemhenti sistemhentibocor hentibocorcegah bocorcegahkorupsi cegahkorupsiprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>prabowomenangdebat prabowobentengnkri malam jadi kuat tekad sama menang prabowomenangdebatprabowobentengnkri prabowobentengnkrimalam malamjadi jadikuat kuattekad tekadsama samamenang prabowomenangdebatprabowobentengnkrimalam prabowobentengnkrimalamjadi malamjadikuat jadikuattekad kuattekadsama tekadsamamenang</t>
+  </si>
+  <si>
+    <t>entah tahan negara mana maksud lemah palelu diketawain tonton tonton bentak ngeri entahtahan tahannegara negaramana manamaksud maksudlemah lemahpalelu paleludiketawain diketawaintonton tontontonton tontonbentak bentakngeri entahtahannegara tahannegaramana negaramanamaksud manamaksudlemah maksudlemahpalelu lemahpaleludiketawain paleludiketawaintonton diketawaintontontonton tontontontonbentak tontonbentakngeri</t>
+  </si>
+  <si>
+    <t>negara yg rakyat makmur selalu iring tehnologi yg mumpuni keterrtinggalan tehnologi negarayg ygrakyat rakyatmakmur makmurselalu selaluiring iringtehnologi tehnologiyg ygmumpuni mumpuniketerrtinggalan keterrtinggalantehnologi negaraygrakyat ygrakyatmakmur rakyatmakmurselalu makmurselaluiring selaluiringtehnologi iringtehnologiyg tehnologiygmumpuni ygmumpuniketerrtinggalan mumpuniketerrtinggalantehnologi</t>
+  </si>
+  <si>
+    <t>do a sama pak moga allah subhanahu wa ta ala meridhoi beri menang buat beliau doa asama samapak pakmoga mogaallah allahsubhanahu subhanahuwa wata taala alameridhoi meridhoiberi berimenang menangbuat buatbeliau doasama asamapak samapakmoga pakmogaallah mogaallahsubhanahu allahsubhanahuwa subhanahuwata wataala taalameridhoi alameridhoiberi meridhoiberimenang berimenangbuat menangbuatbeliau</t>
+  </si>
+  <si>
+    <t>ini muncul survei senang debatpilpres 2019 ideasrabbani inimuncul munculsurvei surveisenang senangdebatpilpres debatpilpres2019 2019ideasrabbani inimunculsurvei munculsurveisenang surveisenangdebatpilpres senangdebatpilpres2019 debatpilpres2019ideasrabbani</t>
+  </si>
+  <si>
+    <t>pemerintahandilan turun tingkat korupsi https t co cwcotkvzyo pemerintahandilanturun turuntingkat tingkatkorupsi korupsihttps httpst tco cocwcotkvzyo pemerintahandilanturuntingkat turuntingkatkorupsi tingkatkorupsihttps korupsihttpst httpstco tcocwcotkvzyo</t>
+  </si>
+  <si>
+    <t>turut pimpin politik boleh buat situasi pecah belah nasional https t co butzybqt 6a turutpimpin pimpinpolitik politikboleh bolehbuat buatsituasi situasipecah pecahbelah belahnasional nasionalhttps httpst tco cobutzybqt butzybqt6a turutpimpinpolitik pimpinpolitikboleh politikbolehbuat bolehbuatsituasi buatsituasipecah situasipecahbelah pecahbelahnasional belahnasionalhttps nasionalhttpst httpstco tcobutzybqt cobutzybqt6a</t>
+  </si>
+  <si>
+    <t>moga pak pimpin negara dgn adil cipta makmur prabowobentengnkri mogapak pakpimpin pimpinnegara negaradgn dgnadil adilcipta ciptamakmur makmurprabowobentengnkri mogapakpimpin pakpimpinnegara pimpinnegaradgn negaradgnadil dgnadilcipta adilciptamakmur ciptamakmurprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>capres 02 sempat geram debat capres langsung bicara soal tahan aman lemah capres02 02sempat sempatgeram geramdebat debatcapres capreslangsung langsungbicara bicarasoal soaltahan tahanaman amanlemah capres02sempat 02sempatgeram sempatgeramdebat geramdebatcapres debatcapreslangsung capreslangsungbicara langsungbicarasoal bicarasoaltahan soaltahanaman tahanamanlemah</t>
+  </si>
+  <si>
+    <t>memang benar pak cenderung optimistis sisi pak cenderung pesimistis memangbenar benarpak pakcenderung cenderungoptimistis optimistissisi sisipak pakcenderung cenderungpesimistis memangbenarpak benarpakcenderung pakcenderungoptimistis cenderungoptimistissisi optimistissisipak sisipakcenderung pakcenderungpesimistis</t>
+  </si>
+  <si>
+    <t>sebut budaya abs asal bapak senang kental dunia militer nasional https t co andtnmbmi 6 sebutbudaya budayaabs absasal asalbapak bapaksenang senangkental kentaldunia duniamiliter militernasional nasionalhttps httpst tco coandtnmbmi andtnmbmi6 sebutbudayaabs budayaabsasal absasalbapak asalbapaksenang bapaksenangkental senangkentaldunia kentalduniamiliter duniamiliternasional militernasionalhttps nasionalhttpst httpstco tcoandtnmbmi coandtnmbmi6</t>
+  </si>
+  <si>
+    <t>buat yg rindu negeri maju jadi masa depan anak cucu pak jokowi pimpin yg dekat kesana tentu sempurna buatyg ygrindu rindunegeri negerimaju majujadi jadimasa masadepan depananak anakcucu cucupak pakjokowi jokowipimpin pimpinyg ygdekat dekatkesana kesanatentu tentusempurna buatygrindu ygrindunegeri rindunegerimaju negerimajujadi majujadimasa jadimasadepan masadepananak depananakcucu anakcucupak cucupakjokowi pakjokowipimpin jokowipimpinyg pimpinygdekat ygdekatkesana dekatkesanatentu kesanatentusempurna</t>
+  </si>
+  <si>
+    <t>ustad maheer bahaya bisa jadi oceh frontal seluruh dukung kena cap khilafah curiga nih ustadmaheer maheerbahaya bahayabisa bisajadi jadioceh ocehfrontal frontalseluruh seluruhdukung dukungkena kenacap capkhilafah khilafahcuriga curiganih ustadmaheerbahaya maheerbahayabisa bahayabisajadi bisajadioceh jadiocehfrontal ocehfrontalseluruh frontalseluruhdukung seluruhdukungkena dukungkenacap kenacapkhilafah capkhilafahcuriga khilafahcuriganih</t>
+  </si>
+  <si>
+    <t>wahai berani 2nya bilang indonesia defenseless fakta indonesia capai minimum essential force wahaiberani berani2nya 2nyabilang bilangindonesia indonesiadefenseless defenselessfakta faktaindonesia indonesiacapai capaiminimum minimumessential essentialforce wahaiberani2nya berani2nyabilang 2nyabilangindonesia bilangindonesiadefenseless indonesiadefenselessfakta defenselessfaktaindonesia faktaindonesiacapai indonesiacapaiminimum capaiminimumessential minimumessentialforce</t>
+  </si>
+  <si>
+    <t>selalu tiap sempat ada tanya nikah culi kudeta apa bosan bung selalutiap tiapsempat sempatada adatanya tanyanikah nikahculi culikudeta kudetaapa apabosan bosanbung selalutiapsempat tiapsempatada sempatadatanya adatanyanikah tanyanikahculi nikahculikudeta culikudetaapa kudetaapabosan apabosanbung</t>
+  </si>
+  <si>
+    <t>21 debatpilpres 2019 laku gak harga internasional puas kau langgar ham 21debatpilpres debatpilpres2019 2019laku lakugak gakharga hargainternasional internasionalpuas puaskau kaulanggar langgarham 21debatpilpres2019 debatpilpres2019laku 2019lakugak lakugakharga gakhargainternasional hargainternasionalpuas internasionalpuaskau puaskaulanggar kaulanggarham</t>
+  </si>
+  <si>
+    <t>istilah tak kenal tak peduli kita jalin silaturahmi ada saudara tanya tanya istilahtak takkenal kenaltak takpeduli pedulikita kitajalin jalinsilaturahmi silaturahmiada adasaudara saudaratanya tanyatanya istilahtakkenal takkenaltak kenaltakpeduli takpedulikita pedulikitajalin kitajalinsilaturahmi jalinsilaturahmiada silaturahmiadasaudara adasaudaratanya saudaratanyatanya</t>
+  </si>
+  <si>
+    <t>bang kmi yg jauh pelosok kalimantan rasa bangga lihat debat malam bangkmi kmiyg ygjauh jauhpelosok pelosokkalimantan kalimantanrasa rasabangga banggalihat lihatdebat debatmalam bangkmiyg kmiygjauh ygjauhpelosok jauhpelosokkalimantan pelosokkalimantanrasa kalimantanrasabangga rasabanggalihat banggalihatdebat lihatdebatmalam</t>
+  </si>
+  <si>
+    <t>dil digital layan mantap pak pemerintahandilan dildigital digitallayan layanmantap mantappak pakpemerintahandilan dildigitallayan digitallayanmantap layanmantappak mantappakpemerintahandilan</t>
+  </si>
+  <si>
+    <t>sdh ucap selamat pak yg cara naluri aku bagai menang pilpres 2019 sdhucap ucapselamat selamatpak pakyg ygcara caranaluri naluriaku akubagai bagaimenang menangpilpres pilpres2019 sdhucapselamat ucapselamatpak selamatpakyg pakygcara ygcaranaluri caranaluriaku naluriakubagai akubagaimenang bagaimenangpilpres menangpilpres2019</t>
+  </si>
+  <si>
+    <t>diplomasi kalau senyum jadi nice guy yah begitu pak prabowobentengnkri diplomasikalau kalausenyum senyumjadi jadinice niceguy guyyah yahbegitu begitupak pakprabowobentengnkri diplomasikalausenyum kalausenyumjadi senyumjadinice jadiniceguy niceguyyah guyyahbegitu yahbegitupak begitupakprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>prabowo-sandi beri sempat anak bangsa bisa karya jadi main negara sendiri prabowo-sandiberi berisempat sempatanak anakbangsa bangsabisa bisakarya karyajadi jadimain mainnegara negarasendiri prabowo-sandiberisempat berisempatanak sempatanakbangsa anakbangsabisa bangsabisakarya bisakaryajadi karyajadimain jadimainnegara mainnegarasendiri</t>
+  </si>
+  <si>
+    <t>lembaga perintah kuat baru program pembanguanan kuat subianto prabowobentengnkri debatpilpres 2019 lembagaperintah perintahkuat kuatbaru baruprogram programpembanguanan pembanguanankuat kuatsubianto subiantoprabowobentengnkri prabowobentengnkridebatpilpres debatpilpres2019 lembagaperintahkuat perintahkuatbaru kuatbaruprogram baruprogrampembanguanan programpembanguanankuat pembanguanankuatsubianto kuatsubiantoprabowobentengnkri subiantoprabowobentengnkridebatpilpres prabowobentengnkridebatpilpres2019</t>
+  </si>
+  <si>
+    <t>refleksi buat dia kutuk jahat jahat tatap jadi satu diri refleksibuat buatdia diakutuk kutukjahat jahatjahat jahattatap tatapjadi jadisatu satudiri refleksibuatdia buatdiakutuk diakutukjahat kutukjahatjahat jahatjahattatap jahattatapjadi tatapjadisatu jadisatudiri</t>
+  </si>
+  <si>
+    <t>menang telak prabowomenangdebat menangtelak telakprabowomenangdebat menangtelakprabowomenangdebat</t>
+  </si>
+  <si>
+    <t>swear deh gw puas banget malam ni nengok mr planga plongo tak kutik hajar macan asia sweardeh dehgw gwpuas puasbanget bangetmalam malamni ninengok nengokmr mrplanga plangaplongo plongotak takkutik kutikhajar hajarmacan macanasia sweardehgw dehgwpuas gwpuasbanget puasbangetmalam bangetmalamni malamninengok ninengokmr nengokmrplanga mrplangaplongo plangaplongotak plongotakkutik takkutikhajar kutikhajarmacan hajarmacanasia</t>
+  </si>
+  <si>
+    <t>pagelaran kelas pilpres dukung asing sangat penting jgnkan kelas suharto bisa kondisi asing pagelarankelas kelaspilpres pilpresdukung dukungasing asingsangat sangatpenting pentingjgnkan jgnkankelas kelassuharto suhartobisa bisakondisi kondisiasing pagelarankelaspilpres kelaspilpresdukung pilpresdukungasing dukungasingsangat asingsangatpenting sangatpentingjgnkan pentingjgnkankelas jgnkankelassuharto kelassuhartobisa suhartobisakondisi bisakondisiasing</t>
+  </si>
+  <si>
+    <t>tegas sekali debat kali insyaallah allah hendak bapa jadi presiden ri 8 prabowobentengnkri tegassekali sekalidebat debatkali kaliinsyaallah insyaallahallah allahhendak hendakbapa bapajadi jadipresiden presidenri ri8 8prabowobentengnkri tegassekalidebat sekalidebatkali debatkaliinsyaallah kaliinsyaallahallah insyaallahallahhendak allahhendakbapa hendakbapajadi bapajadipresiden jadipresidenri presidenri8 ri8prabowobentengnkri</t>
+  </si>
+  <si>
+    <t>udahlah matiin aja tipi simpilkan aja kalau pak kalah debat masa iya capres gak optimis udahlahmatiin matiinaja ajatipi tipisimpilkan simpilkanaja ajakalau kalaupak pakkalah kalahdebat debatmasa masaiya iyacapres capresgak gakoptimis udahlahmatiinaja matiinajatipi ajatipisimpilkan tipisimpilkanaja simpilkanajakalau ajakalaupak kalaupakkalah pakkalahdebat kalahdebatmasa debatmasaiya masaiyacapres iyacapresgak capresgakoptimis</t>
+  </si>
+  <si>
+    <t>ditanyain diplomasi luar negeri jawab putar jarak peluru kendali oke ditanyaindiplomasi diplomasiluar luarnegeri negerijawab jawabputar putarjarak jarakpeluru pelurukendali kendalioke ditanyaindiplomasiluar diplomasiluarnegeri luarnegerijawab negerijawabputar jawabputarjarak putarjarakpeluru jarakpelurukendali pelurukendalioke</t>
+  </si>
+  <si>
+    <t>hahahaha yg bakar jenggot sama imbau pakai baju putih tps hahahahayg ygbakar bakarjenggot jenggotsama samaimbau imbaupakai pakaibaju bajuputih putihtps hahahahaygbakar ygbakarjenggot bakarjenggotsama jenggotsamaimbau samaimbaupakai imbaupakaibaju pakaibajuputih bajuputihtps</t>
+  </si>
+  <si>
+    <t>wuizz menang tebal nih mantap pak lanjut 01dilanj wuizzmenang menangtebal tebalnih nihmantap mantappak paklanjut lanjut01dilanj wuizzmenangtebal menangtebalnih tebalnihmantap nihmantappak mantappaklanjut paklanjut01dilanj</t>
+  </si>
+  <si>
+    <t>yg penting jgn abs kata sindir prabowobentengnkri krn abs ga tau kondisi riil rakyat ygpenting pentingjgn jgnabs abskata katasindir sindirprabowobentengnkri prabowobentengnkrikrn krnabs absga gatau taukondisi kondisiriil riilrakyat ygpentingjgn pentingjgnabs jgnabskata abskatasindir katasindirprabowobentengnkri sindirprabowobentengnkrikrn prabowobentengnkrikrnabs krnabsga absgatau gataukondisi taukondisiriil kondisiriilrakyat</t>
+  </si>
+  <si>
+    <t>ingin negara kuat ekonomi pilih ingin negara kuat tentara pilih gitu kok repot inginnegara negarakuat kuatekonomi ekonomipilih pilihingin inginnegara negarakuat kuattentara tentarapilih pilihgitu gitukok kokrepot inginnegarakuat negarakuatekonomi kuatekonomipilih ekonomipilihingin pilihinginnegara inginnegarakuat negarakuattentara kuattentarapilih tentarapilihgitu pilihgitukok gitukokrepot</t>
+  </si>
+  <si>
+    <t>kok nyata sabar luarbiasa maaf kok seperti persepsi distortif lama koknyata nyatasabar sabarluarbiasa luarbiasamaaf maafkok kokseperti sepertipersepsi persepsidistortif distortiflama koknyatasabar nyatasabarluarbiasa sabarluarbiasamaaf luarbiasamaafkok maafkokseperti koksepertipersepsi sepertipersepsidistortif persepsidistortiflama</t>
+  </si>
+  <si>
+    <t>betul prabowomenangdebat jelas lah prabowobentengnkri betulprabowomenangdebat prabowomenangdebatjelas jelaslah lahprabowobentengnkri betulprabowomenangdebatjelas prabowomenangdebatjelaslah jelaslahprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>lihat semua hasil kerja nyata ubah semua besar bangsa indonesia ubah semua lihatsemua semuahasil hasilkerja kerjanyata nyataubah ubahsemua semuabesar besarbangsa bangsaindonesia indonesiaubah ubahsemua lihatsemuahasil semuahasilkerja hasilkerjanyata kerjanyataubah nyataubahsemua ubahsemuabesar semuabesarbangsa besarbangsaindonesia bangsaindonesiaubah indonesiaubahsemua</t>
+  </si>
+  <si>
+    <t>zaman teknologi 4 0 ko msh mau pake teknologi jadul makin tinggal bangsa dooong pak zamanteknologi teknologi4 40 0ko komsh mshmau maupake paketeknologi teknologijadul jadulmakin makintinggal tinggalbangsa bangsadooong dooongpak zamanteknologi4 teknologi40 40ko 0komsh komshmau mshmaupake maupaketeknologi paketeknologijadul teknologijadulmakin jadulmakintinggal makintinggalbangsa tinggalbangsadooong bangsadooongpak</t>
+  </si>
+  <si>
+    <t>sandi ga penting manusia biasa kalian maa syaa allah ga pernah mimpi dekat dengan presiden sandiga gapenting pentingmanusia manusiabiasa biasakalian kalianmaa maasyaa syaaallah allahga gapernah pernahmimpi mimpidekat dekatdengan denganpresiden sandigapenting gapentingmanusia pentingmanusiabiasa manusiabiasakalian biasakalianmaa kalianmaasyaa maasyaaallah syaaallahga allahgapernah gapernahmimpi pernahmimpidekat mimpidekatdengan dekatdenganpresiden</t>
+  </si>
+  <si>
+    <t>tenang pak papar pemerintahandilan solusi tepat baik birokrasi perintah tenangpak pakpapar paparpemerintahandilan pemerintahandilansolusi solusitepat tepatbaik baikbirokrasi birokrasiperintah tenangpakpapar pakpaparpemerintahandilan paparpemerintahandilansolusi pemerintahandilansolusitepat solusitepatbaik tepatbaikbirokrasi baikbirokrasiperintah</t>
+  </si>
+  <si>
+    <t>wow jawab bpk ps atas tanya 2 bikin yg onoh nelen ludah deh macaaan asia bpk mulaaai wowjawab jawabbpk bpkps psatas atastanya tanya2 2bikin bikinyg ygonoh onohnelen nelenludah ludahdeh dehmacaaan macaaanasia asiabpk bpkmulaaai wowjawabbpk jawabbpkps bpkpsatas psatastanya atastanya2 tanya2bikin 2bikinyg bikinygonoh ygonohnelen onohnelenludah nelenludahdeh ludahdehmacaaan dehmacaaanasia macaaanasiabpk asiabpkmulaaai</t>
+  </si>
+  <si>
+    <t>mantaf malam nih pak semua debat yg oaling oke prabowobentengnkri mantafmalam malamnih nihpak paksemua semuadebat debatyg ygoaling oalingoke okeprabowobentengnkri mantafmalamnih malamnihpak nihpaksemua paksemuadebat semuadebatyg debatygoaling ygoalingoke oalingokeprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>indonesia sentris yg laksana pak sangat luar biasa menang 01dilanjutkan https t co dbeyzg 9edb indonesiasentris sentrisyg yglaksana laksanapak paksangat sangatluar luarbiasa biasamenang menang01dilanjutkan 01dilanjutkanhttps httpst tco codbeyzg dbeyzg9edb indonesiasentrisyg sentrisyglaksana yglaksanapak laksanapaksangat paksangatluar sangatluarbiasa luarbiasamenang biasamenang01dilanjutkan menang01dilanjutkanhttps 01dilanjutkanhttpst httpstco tcodbeyzg codbeyzg9edb</t>
+  </si>
+  <si>
+    <t>saja subianto visi jauh depan tp tdk lupa sejahtera rakyat mantap sajasubianto subiantovisi visijauh jauhdepan depantp tptdk tdklupa lupasejahtera sejahterarakyat rakyatmantap sajasubiantovisi subiantovisijauh visijauhdepan jauhdepantp depantptdk tptdklupa tdklupasejahtera lupasejahterarakyat sejahterarakyatmantap</t>
+  </si>
+  <si>
+    <t>capres subianto sebut di garda depan tumpas bahaya komunis masuk gera radikal capressubianto subiantosebut sebutdi digarda gardadepan depantumpas tumpasbahaya bahayakomunis komunismasuk masukgera geraradikal capressubiantosebut subiantosebutdi sebutdigarda digardadepan gardadepantumpas depantumpasbahaya tumpasbahayakomunis bahayakomunismasuk komunismasukgera masukgeraradikal</t>
+  </si>
+  <si>
+    <t>malu - arogan - emosi - pesimis - tak taat atur debat - ngedongeng bilang lebih tni tni malu- -arogan arogan- -emosi emosi- -pesimis pesimis- -tak taktaat taatatur aturdebat debat- -ngedongeng ngedongengbilang bilanglebih lebihtni tnitni malu-arogan -arogan- arogan-emosi -emosi- emosi-pesimis -pesimis- pesimis-tak -taktaat taktaatatur taataturdebat aturdebat- debat-ngedongeng -ngedongengbilang ngedongengbilanglebih bilanglebihtni lebihtnitni</t>
+  </si>
+  <si>
+    <t>pemerintahandilan presiden selalu usaha tingkat mutu tenaga kerja pemerintahandilanpresiden presidenselalu selaluusaha usahatingkat tingkatmutu mututenaga tenagakerja pemerintahandilanpresidenselalu presidenselaluusaha selaluusahatingkat usahatingkatmutu tingkatmututenaga mututenagakerja</t>
+  </si>
+  <si>
+    <t>apa bosan terus tuding - nya kritik habis apabosan bosanterus terustuding tuding- -nya nyakritik kritikhabis apabosanterus bosanterustuding terustuding- tuding-nya -nyakritik nyakritikhabis</t>
+  </si>
+  <si>
+    <t>pak komitmen dukung e-government salah satu e-budgeting konkrit cegah korupsi pakkomitmen komitmendukung dukunge-government e-governmentsalah salahsatu satue-budgeting e-budgetingkonkrit konkritcegah cegahkorupsi pakkomitmendukung komitmendukunge-government dukunge-governmentsalah e-governmentsalahsatu salahsatue-budgeting satue-budgetingkonkrit e-budgetingkonkritcegah konkritcegahkorupsi</t>
+  </si>
+  <si>
+    <t>tuju sama tompi cukup baik eksekutif pilih legislatif perlu baik tujusama samatompi tompicukup cukupbaik baikeksekutif eksekutifpilih pilihlegislatif legislatifperlu perlubaik tujusamatompi samatompicukup tompicukupbaik cukupbaikeksekutif baikeksekutifpilih eksekutifpilihlegislatif pilihlegislatifperlu legislatifperlubaik</t>
+  </si>
+  <si>
+    <t>debatkeempatpilpres 2019 capres tanggap teknologi cepat ala debatkeempatpilpres2019 2019capres caprestanggap tanggapteknologi teknologicepat cepatala debatkeempatpilpres2019capres 2019caprestanggap caprestanggapteknologi tanggapteknologicepat teknologicepatala</t>
+  </si>
+  <si>
+    <t>dukung capres no urut 01 jokowi-ma ruf kali datang viking makin dekat hari coblos dukung terus dukungcapres capresno nourut urut01 01jokowi-ma jokowi-maruf rufkali kalidatang datangviking vikingmakin makindekat dekathari haricoblos coblosdukung dukungterus dukungcapresno capresnourut nourut01 urut01jokowi-ma 01jokowi-maruf jokowi-marufkali rufkalidatang kalidatangviking datangvikingmakin vikingmakindekat makindekathari dekatharicoblos haricoblosdukung coblosdukungterus</t>
+  </si>
+  <si>
+    <t>nampak debatpilpres 2019 dari sisi ilmu komplit alam bijaksana perilaku jelas lebih unggul nampakdebatpilpres debatpilpres2019 2019dari darisisi sisiilmu ilmukomplit komplitalam alambijaksana bijaksanaperilaku perilakujelas jelaslebih lebihunggul nampakdebatpilpres2019 debatpilpres2019dari 2019darisisi darisisiilmu sisiilmukomplit ilmukomplitalam komplitalambijaksana alambijaksanaperilaku bijaksanaperilakujelas perilakujelaslebih jelaslebihunggul</t>
+  </si>
+  <si>
+    <t>aje maling teriak maling bung ajemaling malingteriak teriakmaling malingbung ajemalingteriak malingteriakmaling teriakmalingbung</t>
+  </si>
+  <si>
+    <t>pak bilang beri contoh toleransi tetapi dukung kerap laku tindak intoleran pakbilang bilangberi bericontoh contohtoleransi toleransitetapi tetapidukung dukungkerap keraplaku lakutindak tindakintoleran pakbilangberi bilangbericontoh bericontohtoleransi contohtoleransitetapi toleransitetapidukung tetapidukungkerap dukungkeraplaku keraplakutindak lakutindakintoleran</t>
+  </si>
+  <si>
+    <t>debat pilpres empat tutup statement tutup penuh damai dua capres bikin adem debatpilpres pilpresempat empattutup tutupstatement statementtutup tutuppenuh penuhdamai damaidua duacapres capresbikin bikinadem debatpilpresempat pilpresempattutup empattutupstatement tutupstatementtutup statementtutuppenuh tutuppenuhdamai penuhdamaidua damaiduacapres duacapresbikin capresbikinadem</t>
+  </si>
+  <si>
+    <t>pak beri contoh dewasa memang lahir dalam diri 01dilanjutkan https t co 68tqfjd530 pakberi bericontoh contohdewasa dewasamemang memanglahir lahirdalam dalamdiri diri01dilanjutkan 01dilanjutkanhttps httpst tco co68tqfjd530 pakbericontoh bericontohdewasa contohdewasamemang dewasamemanglahir memanglahirdalam lahirdalamdiri dalamdiri01dilanjutkan diri01dilanjutkanhttps 01dilanjutkanhttpst httpstco tco68tqfjd530</t>
+  </si>
+  <si>
+    <t>optimisme pak ragu bagai warga sipil pak sangat percaya tentara 2 nasional optimismepak pakragu ragubagai bagaiwarga wargasipil sipilpak paksangat sangatpercaya percayatentara tentara2 2nasional optimismepakragu pakragubagai ragubagaiwarga bagaiwargasipil wargasipilpak sipilpaksangat paksangatpercaya sangatpercayatentara percayatentara2 tentara2nasional</t>
+  </si>
+  <si>
+    <t>lembaga polmark indonesia rilis rilis survei yg tunjuk elektabilitas pasang milik elektabilitas lembagapolmark polmarkindonesia indonesiarilis rilisrilis rilissurvei surveiyg ygtunjuk tunjukelektabilitas elektabilitaspasang pasangmilik milikelektabilitas lembagapolmarkindonesia polmarkindonesiarilis indonesiarilisrilis rilisrilissurvei rilissurveiyg surveiygtunjuk ygtunjukelektabilitas tunjukelektabilitaspasang elektabilitaspasangmilik pasangmilikelektabilitas</t>
+  </si>
+  <si>
+    <t>hari perintah bawah pak sangat maju infrastruktur udara ada hariperintah perintahbawah bawahpak paksangat sangatmaju majuinfrastruktur infrastrukturudara udaraada hariperintahbawah perintahbawahpak bawahpaksangat paksangatmaju sangatmajuinfrastruktur majuinfrastrukturudara infrastrukturudaraada</t>
+  </si>
+  <si>
+    <t>kasihan pak tahan ketawa pecatanlebihtnidaritni kasihanpak paktahan tahanketawa ketawapecatanlebihtnidaritni kasihanpaktahan paktahanketawa tahanketawapecatanlebihtnidaritni</t>
+  </si>
+  <si>
+    <t>rendah dukung kpd tahana rupa bukti rupa bukti bila cara tak langsung sedang hukum publik rendahdukung dukungkpd kpdtahana tahanarupa rupabukti buktirupa rupabukti buktibila bilacara caratak taklangsung langsungsedang sedanghukum hukumpublik rendahdukungkpd dukungkpdtahana kpdtahanarupa tahanarupabukti rupabuktirupa buktirupabukti rupabuktibila buktibilacara bilacaratak carataklangsung taklangsungsedang langsungsedanghukum sedanghukumpublik</t>
+  </si>
+  <si>
+    <t>pak kaget tingkah laku jabat perintah sendiri laku jual beli jabat pakkaget kagettingkah tingkahlaku lakujabat jabatperintah perintahsendiri sendirilaku lakujual jualbeli belijabat pakkagettingkah kagettingkahlaku tingkahlakujabat lakujabatperintah jabatperintahsendiri perintahsendirilaku sendirilakujual lakujualbeli jualbelijabat</t>
+  </si>
+  <si>
+    <t>semua kata mas benar indonesia luas uni eropa jumlah tni cuma segitu lemah pak semuakata katamas masbenar benarindonesia indonesialuas luasuni unieropa eropajumlah jumlahtni tnicuma cumasegitu segitulemah lemahpak semuakatamas katamasbenar masbenarindonesia benarindonesialuas indonesialuasuni luasunieropa unieropajumlah eropajumlahtni jumlahtnicuma tnicumasegitu cumasegitulemah segitulemahpak</t>
+  </si>
+  <si>
+    <t>pulau kecil tambang jaya tani nelayan ikut ruang hidup terus ancam parah baik maupun pulaukecil keciltambang tambangjaya jayatani taninelayan nelayanikut ikutruang ruanghidup hidupterus terusancam ancamparah parahbaik baikmaupun pulaukeciltambang keciltambangjaya tambangjayatani jayataninelayan taninelayanikut nelayanikutruang ikutruanghidup ruanghidupterus hidupterusancam terusancamparah ancamparahbaik parahbaikmaupun</t>
+  </si>
+  <si>
+    <t>daniel sibolang durian medan nyanyi lagu kocak kamu pingin kaya kerja tidur aja danielsibolang sibolangdurian durianmedan medannyanyi nyanyilagu lagukocak kocakkamu kamupingin pinginkaya kayakerja kerjatidur tiduraja danielsibolangdurian sibolangdurianmedan durianmedannyanyi medannyanyilagu nyanyilagukocak lagukocakkamu kocakkamupingin kamupinginkaya pinginkayakerja kayakerjatidur kerjatiduraja</t>
+  </si>
+  <si>
+    <t>perintah oss dulunya kalau urus izin 6 bulan bahkan tahun sekarang 9 izin keluar 3 jam kata perintahoss ossdulunya dulunyakalau kalauurus urusizin izin6 6bulan bulanbahkan bahkantahun tahunsekarang sekarang9 9izin izinkeluar keluar3 3jam jamkata perintahossdulunya ossdulunyakalau dulunyakalauurus kalauurusizin urusizin6 izin6bulan 6bulanbahkan bulanbahkantahun bahkantahunsekarang tahunsekarang9 sekarang9izin 9izinkeluar izinkeluar3 keluar3jam 3jamkata</t>
+  </si>
+  <si>
+    <t>org golkar adl dukung jadi jangan heran kalau bowo sedang main politik kaki utk jatuh orggolkar golkaradl adldukung dukungjadi jadijangan janganheran herankalau kalaubowo bowosedang sedangmain mainpolitik politikkaki kakiutk utkjatuh orggolkaradl golkaradldukung adldukungjadi dukungjadijangan jadijanganheran janganherankalau herankalaubowo kalaubowosedang bowosedangmain sedangmainpolitik mainpolitikkaki politikkakiutk kakiutkjatuh</t>
+  </si>
+  <si>
+    <t>admin gamau bahas kata yg militer lemah https t co raliyooy 3e admingamau gamaubahas bahaskata katayg ygmiliter militerlemah lemahhttps httpst tco coraliyooy raliyooy3e admingamaubahas gamaubahaskata bahaskatayg kataygmiliter ygmiliterlemah militerlemahhttps lemahhttpst httpstco tcoraliyooy coraliyooy3e</t>
+  </si>
+  <si>
+    <t>gpp to h pecat pada presiden bohong nggedabrus plonga plongo gppto toh hpecat pecatpada padapresiden presidenbohong bohongnggedabrus nggedabrusplonga plongaplongo gpptoh tohpecat hpecatpada pecatpadapresiden padapresidenbohong presidenbohongnggedabrus bohongnggedabrusplonga nggedabrusplongaplongo</t>
+  </si>
+  <si>
+    <t>bang kalo jadi presiden siapa ibu negara apa benar kita jadi negara piatu bangkalo kalojadi jadipresiden presidensiapa siapaibu ibunegara negaraapa apabenar benarkita kitajadi jadinegara negarapiatu bangkalojadi kalojadipresiden jadipresidensiapa presidensiapaibu siapaibunegara ibunegaraapa negaraapabenar apabenarkita benarkitajadi kitajadinegara jadinegarapiatu</t>
+  </si>
+  <si>
+    <t>dukung terus pak pemerintahandilan https t co rzz 6pqhmus dukungterus teruspak pakpemerintahandilan pemerintahandilanhttps httpst tco corzz rzz6pqhmus dukungteruspak teruspakpemerintahandilan pakpemerintahandilanhttps pemerintahandilanhttpst httpstco tcorzz corzz6pqhmus</t>
+  </si>
+  <si>
+    <t>pemerintahandilan kh ma ruf amin ungkap hasil presiden pak hanya lihat proyek pemerintahandilankh khma maruf rufamin aminungkap ungkaphasil hasilpresiden presidenpak pakhanya hanyalihat lihatproyek pemerintahandilankhma khmaruf marufamin rufaminungkap aminungkaphasil ungkaphasilpresiden hasilpresidenpak presidenpakhanya pakhanyalihat hanyalihatproyek</t>
+  </si>
+  <si>
+    <t>lihat pak percaya tni pemerintahandilan memang nampol lihatpak pakpercaya percayatni tnipemerintahandilan pemerintahandilanmemang memangnampol lihatpakpercaya pakpercayatni percayatnipemerintahandilan tnipemerintahandilanmemang pemerintahandilanmemangnampol</t>
+  </si>
+  <si>
+    <t>calon presiden nomor urut 01 sangat siap tema debat ideologi perintah tahan aman calonpresiden presidennomor nomorurut urut01 01sangat sangatsiap siaptema temadebat debatideologi ideologiperintah perintahtahan tahanaman calonpresidennomor presidennomorurut nomorurut01 urut01sangat 01sangatsiap sangatsiaptema siaptemadebat temadebatideologi debatideologiperintah ideologiperintahtahan perintahtahanaman</t>
+  </si>
+  <si>
+    <t>pemerintahandilan siap data akan bagai amunisi debat malam semangat pagi pemerintahandilansiap siapdata dataakan akanbagai bagaiamunisi amunisidebat debatmalam malamsemangat semangatpagi pemerintahandilansiapdata siapdataakan dataakanbagai akanbagaiamunisi bagaiamunisidebat amunisidebatmalam debatmalamsemangat malamsemangatpagi</t>
+  </si>
+  <si>
+    <t>bidang perintah pak kuat lembaga lembaga yg kuat prabowobentengnkri negara kuat bidangperintah perintahpak pakkuat kuatlembaga lembagalembaga lembagayg ygkuat kuatprabowobentengnkri prabowobentengnkrinegara negarakuat bidangperintahpak perintahpakkuat pakkuatlembaga kuatlembagalembaga lembagalembagayg lembagaygkuat ygkuatprabowobentengnkri kuatprabowobentengnkrinegara prabowobentengnkrinegarakuat</t>
+  </si>
+  <si>
+    <t>bangun indonesia desa bangun adab lebih baik tuju lanjut 01dilanjutkan bangunindonesia indonesiadesa desabangun bangunadab adablebih lebihbaik baiktuju tujulanjut lanjut01dilanjutkan bangunindonesiadesa indonesiadesabangun desabangunadab bangunadablebih adablebihbaik lebihbaiktuju baiktujulanjut tujulanjut01dilanjutkan</t>
+  </si>
+  <si>
+    <t>diplomasi kalau senyam senyum diplomasi butuh kuat - penting jaga daulat nkri diplomasikalau kalausenyam senyamsenyum senyumdiplomasi diplomasibutuh butuhkuat kuat- -penting pentingjaga jagadaulat daulatnkri diplomasikalausenyam kalausenyamsenyum senyamsenyumdiplomasi senyumdiplomasibutuh diplomasibutuhkuat butuhkuat- kuat-penting -pentingjaga pentingjagadaulat jagadaulatnkri</t>
+  </si>
+  <si>
+    <t>yunarto debat kali adalah tampil buruk capres bahkan sejak 2014 lalu yunartodebat debatkali kaliadalah adalahtampil tampilburuk burukcapres capresbahkan bahkansejak sejak2014 2014lalu yunartodebatkali debatkaliadalah kaliadalahtampil adalahtampilburuk tampilburukcapres burukcapresbahkan capresbahkansejak bahkansejak2014 sejak2014lalu</t>
+  </si>
+  <si>
+    <t>kalo opung sdh tak percaya diri dgn citra yg nempel pak kaloopung opungsdh sdhtak takpercaya percayadiri diridgn dgncitra citrayg ygnempel nempelpak kaloopungsdh opungsdhtak sdhtakpercaya takpercayadiri percayadiridgn diridgncitra dgncitrayg citraygnempel ygnempelpak</t>
+  </si>
+  <si>
+    <t>dah gak sabar bangsa rasa ubah ken buru buru ganti presiden era gak ubah yg hebat dahgak gaksabar sabarbangsa bangsarasa rasaubah ubahken kenburu buruburu buruganti gantipresiden presidenera eragak gakubah ubahyg yghebat dahgaksabar gaksabarbangsa sabarbangsarasa bangsarasaubah rasaubahken ubahkenburu kenburuburu buruburuganti burugantipresiden gantipresidenera presideneragak eragakubah gakubahyg ubahyghebat</t>
+  </si>
+  <si>
+    <t>ayo seluruh masyarakat indonesia dukung penuh capres 01 debat - 4 pilpres 2019 ayoseluruh seluruhmasyarakat masyarakatindonesia indonesiadukung dukungpenuh penuhcapres capres01 01debat debat- -4 4pilpres pilpres2019 ayoseluruhmasyarakat seluruhmasyarakatindonesia masyarakatindonesiadukung indonesiadukungpenuh dukungpenuhcapres penuhcapres01 capres01debat 01debat- debat-4 -4pilpres 4pilpres2019</t>
+  </si>
+  <si>
+    <t>debat malam liat banget siapa dewasa tanggap ya pak bikin bangga 01dilanjutkan debatmalam malamliat liatbanget bangetsiapa siapadewasa dewasatanggap tanggapya yapak pakbikin bikinbangga bangga01dilanjutkan debatmalamliat malamliatbanget liatbangetsiapa bangetsiapadewasa siapadewasatanggap dewasatanggapya tanggapyapak yapakbikin pakbikinbangga bikinbangga01dilanjutkan</t>
+  </si>
+  <si>
+    <t>makanya jangan ragu prabowobentengnkri prabowobentengnkri makanyajangan janganragu raguprabowobentengnkri prabowobentengnkriprabowobentengnkri makanyajanganragu janganraguprabowobentengnkri raguprabowobentengnkriprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>depan mau ubah pancasila hadap prabowobentengnkri doauntukprabowosandi depanmau mauubah ubahpancasila pancasilahadap hadapprabowobentengnkri prabowobentengnkridoauntukprabowosandi depanmauubah mauubahpancasila ubahpancasilahadap pancasilahadapprabowobentengnkri hadapprabowobentengnkridoauntukprabowosandi</t>
+  </si>
+  <si>
+    <t>halah halaaah dulu lu kalah pilpres 2014 aja ngamuk ngamuk kaya orang mabuk jamur https t co 0dbjt9cspe halahhalaaah halaaahdulu dululu lukalah kalahpilpres pilpres2014 2014aja ajangamuk ngamukngamuk ngamukkaya kayaorang orangmabuk mabukjamur jamurhttps httpst tco co0dbjt9cspe halahhalaaahdulu halaaahdululu dululukalah lukalahpilpres kalahpilpres2014 pilpres2014aja 2014ajangamuk ajangamukngamuk ngamukngamukkaya ngamukkayaorang kayaorangmabuk orangmabukjamur mabukjamurhttps jamurhttpst httpstco tco0dbjt9cspe</t>
+  </si>
+  <si>
+    <t>gitu dong pak gahar dikit inti pak mau menang tidak jangan sia 2kan juang pak gitudong dongpak pakgahar gahardikit dikitinti intipak pakmau maumenang menangtidak tidakjangan jangansia sia2kan 2kanjuang juangpak gitudongpak dongpakgahar pakgahardikit gahardikitinti dikitintipak intipakmau pakmaumenang maumenangtidak menangtidakjangan tidakjangansia jangansia2kan sia2kanjuang 2kanjuangpak</t>
+  </si>
+  <si>
+    <t>bukan ngetawain ttg perthanan negara cuma ngetawain bukanngetawain ngetawainttg ttgperthanan perthanannegara negaracuma cumangetawain bukanngetawainttg ngetawainttgperthanan ttgperthanannegara perthanannegaracuma negaracumangetawain</t>
+  </si>
+  <si>
+    <t>dgn kampanye yg lama tahana lampu 50 c o arti pilih sdng hukum dgnkampanye kampanyeyg yglama lamatahana tahanalampu lampu50 50c co oarti artipilih pilihsdng sdnghukum dgnkampanyeyg kampanyeyglama yglamatahana lamatahanalampu tahanalampu50 lampu50c 50co coarti oartipilih artipilihsdng pilihsdnghukum</t>
+  </si>
+  <si>
+    <t>ini keras banyu mas minahasa banyumas batak nya jawa tengah inikeras kerasbanyu banyumas masminahasa minahasabanyumas banyumasbatak bataknya nyajawa jawatengah inikerasbanyu kerasbanyumas banyumasminahasa masminahasabanyumas minahasabanyumasbatak banyumasbataknya bataknyajawa nyajawatengah</t>
+  </si>
+  <si>
+    <t>pulang kaya tambang emas papua pangku ibu pertiwi taruh jabat bagai presiden indonesia pulangkaya kayatambang tambangemas emaspapua papuapangku pangkuibu ibupertiwi pertiwitaruh taruhjabat jabatbagai bagaipresiden presidenindonesia pulangkayatambang kayatambangemas tambangemaspapua emaspapuapangku papuapangkuibu pangkuibupertiwi ibupertiwitaruh pertiwitaruhjabat taruhjabatbagai jabatbagaipresiden bagaipresidenindonesia</t>
+  </si>
+  <si>
+    <t>dengan pemerintahandilan buat capres tahan terus sosialisasi manfaat revolusi industri denganpemerintahandilan pemerintahandilanbuat buatcapres caprestahan tahanterus terussosialisasi sosialisasimanfaat manfaatrevolusi revolusiindustri denganpemerintahandilanbuat pemerintahandilanbuatcapres buatcaprestahan caprestahanterus tahanterussosialisasi terussosialisasimanfaat sosialisasimanfaatrevolusi manfaatrevolusiindustri</t>
+  </si>
+  <si>
+    <t>bocor bocor 5 tahun diksi bocor aja gak gagas makanya pakai aquaproof pak bocorbocor bocor5 5tahun tahundiksi diksibocor bocoraja ajagak gakgagas gagasmakanya makanyapakai pakaiaquaproof aquaproofpak bocorbocor5 bocor5tahun 5tahundiksi tahundiksibocor diksibocoraja bocorajagak ajagakgagas gakgagasmakanya gagasmakanyapakai makanyapakaiaquaproof pakaiaquaproofpak</t>
+  </si>
+  <si>
+    <t>debat curhat tonton gebu tetap ulang tema lama solusi debatcurhat curhattonton tontongebu gebutetap tetapulang ulangtema temalama lamasolusi debatcurhattonton curhattontongebu tontongebutetap gebutetapulang tetapulangtema ulangtemalama temalamasolusi</t>
+  </si>
+  <si>
+    <t>era milenial era pakde presiden paling keren dah ketimbang sudah pemerintahandilan eramilenial milenialera erapakde pakdepresiden presidenpaling palingkeren kerendah dahketimbang ketimbangsudah sudahpemerintahandilan eramilenialera milenialerapakde erapakdepresiden pakdepresidenpaling presidenpalingkeren palingkerendah kerendahketimbang dahketimbangsudah ketimbangsudahpemerintahandilan</t>
+  </si>
+  <si>
+    <t>pemerintahandilan trnyta pmrintahn pak tdk hny brbnah atas masalah jaring broadband daerah 3t pemerintahandilantrnyta trnytapmrintahn pmrintahnpak paktdk tdkhny hnybrbnah brbnahatas atasmasalah masalahjaring jaringbroadband broadbanddaerah daerah3t pemerintahandilantrnytapmrintahn trnytapmrintahnpak pmrintahnpaktdk paktdkhny tdkhnybrbnah hnybrbnahatas brbnahatasmasalah atasmasalahjaring masalahjaringbroadband jaringbroadbanddaerah broadbanddaerah3t</t>
+  </si>
+  <si>
+    <t>pak percaya drpd yg pecatanlebihtnidaritni pecatanlebihtnidaritni https t co jrlvbdoafw pakpercaya percayadrpd drpdyg ygpecatanlebihtnidaritni pecatanlebihtnidaritnipecatanlebihtnidaritni pecatanlebihtnidaritnihttps httpst tco cojrlvbdoafw pakpercayadrpd percayadrpdyg drpdygpecatanlebihtnidaritni ygpecatanlebihtnidaritnipecatanlebihtnidaritni pecatanlebihtnidaritnipecatanlebihtnidaritnihttps pecatanlebihtnidaritnihttpst httpstco tcojrlvbdoafw</t>
+  </si>
+  <si>
+    <t>gue kaget beneran menangkanprabowosandi 17 april datang tps pilih guekaget kagetbeneran beneranmenangkanprabowosandi menangkanprabowosandi17 17april aprildatang datangtps tpspilih guekagetbeneran kagetbeneranmenangkanprabowosandi beneranmenangkanprabowosandi17 menangkanprabowosandi17april 17aprildatang aprildatangtps datangtpspilih</t>
+  </si>
+  <si>
+    <t>capres kata 23 lembaga bubar anggap buat layan publik belit capreskata kata23 23lembaga lembagabubar bubaranggap anggapbuat buatlayan layanpublik publikbelit capreskata23 kata23lembaga 23lembagabubar lembagabubaranggap bubaranggapbuat anggapbuatlayan buatlayanpublik layanpublikbelit</t>
+  </si>
+  <si>
+    <t>bidang tahan aman terlalu lemah anggar terlalu kecil perlu baik - bidangtahan tahanaman amanterlalu terlalulemah lemahanggar anggarterlalu terlalukecil kecilperlu perlubaik baik- bidangtahanaman tahanamanterlalu amanterlalulemah terlalulemahanggar lemahanggarterlalu anggarterlalukecil terlalukecilperlu kecilperlubaik perlubaik-</t>
+  </si>
+  <si>
+    <t>tetap sahabat pak sinyal siap siap bawa pulang kecebong solo tetapsahabat sahabatpak paksinyal sinyalsiap siapsiap siapbawa bawapulang pulangkecebong kecebongsolo tetapsahabatpak sahabatpaksinyal paksinyalsiap sinyalsiapsiap siapsiapbawa siapbawapulang bawapulangkecebong pulangkecebongsolo</t>
+  </si>
+  <si>
+    <t>pak ngebahas perihal pemerintahandilan yg tuju kpd wowo sayang wowo jawab nya asbun pakngebahas ngebahasperihal perihalpemerintahandilan pemerintahandilanyg ygtuju tujukpd kpdwowo wowosayang sayangwowo wowojawab jawabnya nyaasbun pakngebahasperihal ngebahasperihalpemerintahandilan perihalpemerintahandilanyg pemerintahandilanygtuju ygtujukpd tujukpdwowo kpdwowosayang wowosayangwowo sayangwowojawab wowojawabnya jawabnyaasbun</t>
+  </si>
+  <si>
+    <t>gubernur pahe 300 m tdk tanya lulus mana sy tdk tnya prestasi apa yg tanya ente punya uang gubernurpahe pahe300 300m mtdk tdktanya tanyalulus lulusmana manasy sytdk tdktnya tnyaprestasi prestasiapa apayg ygtanya tanyaente entepunya punyauang gubernurpahe300 pahe300m 300mtdk mtdktanya tdktanyalulus tanyalulusmana lulusmanasy manasytdk sytdktnya tdktnyaprestasi tnyaprestasiapa prestasiapayg apaygtanya ygtanyaente tanyaentepunya entepunyauang</t>
+  </si>
+  <si>
+    <t>tahan indonesia terlalu lemah jauh yang harap karena tidak punya uang - tahanindonesia indonesiaterlalu terlalulemah lemahjauh jauhyang yangharap harapkarena karenatidak tidakpunya punyauang uang- tahanindonesiaterlalu indonesiaterlalulemah terlalulemahjauh lemahjauhyang jauhyangharap yangharapkarena harapkarenatidak karenatidakpunya tidakpunyauang punyauang-</t>
+  </si>
+  <si>
+    <t>tegas pak barusan keluar parah org yg tertawa rapuh tahan negara tegaspak pakbarusan barusankeluar keluarparah parahorg orgyg ygtertawa tertawarapuh rapuhtahan tahannegara tegaspakbarusan pakbarusankeluar barusankeluarparah keluarparahorg parahorgyg orgygtertawa ygtertawarapuh tertawarapuhtahan rapuhtahannegara</t>
+  </si>
+  <si>
+    <t>bagaimana tonton tertawa kalau kali 2 kata militer indonesia sangat lemah padahal kuat militer bagaimanatonton tontontertawa tertawakalau kalaukali kali2 2kata katamiliter militerindonesia indonesiasangat sangatlemah lemahpadahal padahalkuat kuatmiliter bagaimanatontontertawa tontontertawakalau tertawakalaukali kalaukali2 kali2kata 2katamiliter katamiliterindonesia militerindonesiasangat indonesiasangatlemah sangatlemahpadahal lemahpadahalkuat padahalkuatmiliter</t>
+  </si>
+  <si>
+    <t>marah tahan bangsa tertawa audiens marah diri hina netizen marahtahan tahanbangsa bangsatertawa tertawaaudiens audiensmarah marahdiri dirihina hinanetizen marahtahanbangsa tahanbangsatertawa bangsatertawaaudiens tertawaaudiensmarah audiensmarahdiri marahdirihina dirihinanetizen</t>
+  </si>
+  <si>
+    <t>yim habib rizieq bilang sama ya sengaja harus pasang ulama islam gak jelas yimhabib habibrizieq rizieqbilang bilangsama samaya yasengaja sengajaharus haruspasang pasangulama ulamaislam islamgak gakjelas yimhabibrizieq habibrizieqbilang rizieqbilangsama bilangsamaya samayasengaja yasengajaharus sengajaharuspasang haruspasangulama pasangulamaislam ulamaislamgak islamgakjelas</t>
+  </si>
+  <si>
+    <t>maju era android ke era 3310 pecatanlebihtnidaritni majuera eraandroid androidke keera era3310 3310pecatanlebihtnidaritni majueraandroid eraandroidke androidkeera keera3310 era3310pecatanlebihtnidaritni</t>
+  </si>
+  <si>
+    <t>natural bpn mirip orang abis bangun tidur mau nyabu ga bong trus marah 2 tonton naturalbpn bpnmirip miriporang orangabis abisbangun banguntidur tidurmau maunyabu nyabuga gabong bongtrus trusmarah marah2 2tonton naturalbpnmirip bpnmiriporang miriporangabis orangabisbangun abisbanguntidur banguntidurmau tidurmaunyabu maunyabuga nyabugabong gabongtrus bongtrusmarah trusmarah2 marah2tonton</t>
+  </si>
+  <si>
+    <t>kompas koplak salah kutip bilang 3 gdp 30 apbn kompaskoplak koplaksalah salahkutip kutipbilang bilang3 3gdp gdp30 30apbn kompaskoplaksalah koplaksalahkutip salahkutipbilang kutipbilang3 bilang3gdp 3gdp30 gdp30apbn</t>
+  </si>
+  <si>
+    <t>lg mummmeeettt sekarang kalik yakk hahhahhahaha lgmummmeeettt mummmeeetttsekarang sekarangkalik kalikyakk yakkhahhahhahaha lgmummmeeetttsekarang mummmeeetttsekarangkalik sekarangkalikyakk kalikyakkhahhahhahaha</t>
+  </si>
+  <si>
+    <t>ngk mutu banget twetnya kentara berat belah ngkmutu mutubanget bangettwetnya twetnyakentara kentaraberat beratbelah ngkmutubanget mutubangettwetnya bangettwetnyakentara twetnyakentaraberat kentaraberatbelah</t>
+  </si>
+  <si>
+    <t>kyknya panik bgt jadi sedi liat kyknyapanik panikbgt bgtjadi jadisedi sediliat kyknyapanikbgt panikbgtjadi bgtjadisedi jadisediliat</t>
+  </si>
+  <si>
+    <t>i love kurang masuk sama kartu ilove lovekurang kurangmasuk masuksama samakartu ilovekurang lovekurangmasuk kurangmasuksama masuksamakartu</t>
+  </si>
+  <si>
+    <t>keren banget jawab pak soal tuduh kerenbanget bangetjawab jawabpak paksoal soaltuduh kerenbangetjawab bangetjawabpak jawabpaksoal paksoaltuduh</t>
+  </si>
+  <si>
+    <t>catat paling atas seba kalah laku dukung catatpaling palingatas atasseba sebakalah kalahlaku lakudukung catatpalingatas palingatasseba atassebakalah sebakalahlaku kalahlakudukung</t>
+  </si>
+  <si>
+    <t>dengar sendiri maher at thuwailibi dukung prabowo-sandi 1 ejek polisi 2 menthogutkan nkri dengarsendiri sendirimaher maherat atthuwailibi thuwailibidukung dukungprabowo-sandi prabowo-sandi1 1ejek ejekpolisi polisi2 2menthogutkan menthogutkannkri dengarsendirimaher sendirimaherat maheratthuwailibi atthuwailibidukung thuwailibidukungprabowo-sandi dukungprabowo-sandi1 prabowo-sandi1ejek 1ejekpolisi ejekpolisi2 polisi2menthogutkan 2menthogutkannkri</t>
+  </si>
+  <si>
+    <t>tim sehat tekan darah pak pantau masa acara debat begini marah timsehat sehattekan tekandarah darahpak pakpantau pantaumasa masaacara acaradebat debatbegini beginimarah timsehattekan sehattekandarah tekandarahpak darahpakpantau pakpantaumasa pantaumasaacara masaacaradebat acaradebatbegini debatbeginimarah</t>
+  </si>
+  <si>
+    <t>kuat tahan sangat rapuh lemah bukan salah bapak salah enggak tahu - kuattahan tahansangat sangatrapuh rapuhlemah lemahbukan bukansalah salahbapak bapaksalah salahenggak enggaktahu tahu- kuattahansangat tahansangatrapuh sangatrapuhlemah rapuhlemahbukan lemahbukansalah bukansalahbapak salahbapaksalah bapaksalahenggak salahenggaktahu enggaktahu-</t>
+  </si>
+  <si>
+    <t>pak i am proud of you closing statement lawan debat ga nyambung bukan manfaat tampil prima paki iam amproud proudof ofyou youclosing closingstatement statementlawan lawandebat debatga ganyambung nyambungbukan bukanmanfaat manfaattampil tampilprima pakiam iamproud amproudof proudofyou ofyouclosing youclosingstatement closingstatementlawan statementlawandebat lawandebatga debatganyambung ganyambungbukan nyambungbukanmanfaat bukanmanfaattampil manfaattampilprima</t>
+  </si>
+  <si>
+    <t>turut tahan lemah implikasi uang indonesia lemah turut indonesia turuttahan tahanlemah lemahimplikasi implikasiuang uangindonesia indonesialemah lemahturut turutindonesia turuttahanlemah tahanlemahimplikasi lemahimplikasiuang implikasiuangindonesia uangindonesialemah indonesialemahturut lemahturutindonesia</t>
+  </si>
+  <si>
+    <t>oknum kepala desa cikopo - bogor yg maksa warga milih o1 virallkan gaeess lapor oknumkepala kepaladesa desacikopo cikopo- -bogor bogoryg ygmaksa maksawarga wargamilih miliho1 o1virallkan virallkangaeess gaeesslapor oknumkepaladesa kepaladesacikopo desacikopo- cikopo-bogor -bogoryg bogorygmaksa ygmaksawarga maksawargamilih wargamiliho1 miliho1virallkan o1virallkangaeess virallkangaeesslapor</t>
+  </si>
+  <si>
+    <t>jangan baper laper di fitnah 4 th aja gapapa masa baru gitu aja udh ngambek si janganbaper baperlaper laperdi difitnah fitnah4 4th thaja ajagapapa gapapamasa masabaru barugitu gituaja ajaudh udhngambek ngambeksi janganbaperlaper baperlaperdi laperdifitnah difitnah4 fitnah4th 4thaja thajagapapa ajagapapamasa gapapamasabaru masabarugitu barugituaja gituajaudh ajaudhngambek udhngambeksi</t>
+  </si>
+  <si>
+    <t>duh tonton kok dimarahin salah apa sabar pak jangan marah ngopi sik pak duhtonton tontonkok kokdimarahin dimarahinsalah salahapa apasabar sabarpak pakjangan janganmarah marahngopi ngopisik sikpak duhtontonkok tontonkokdimarahin kokdimarahinsalah dimarahinsalahapa salahapasabar apasabarpak sabarpakjangan pakjanganmarah janganmarahngopi marahngopisik ngopisikpak</t>
+  </si>
+  <si>
+    <t>jenderal yg pecat sekadar ingat jelas lebih paham bos very smart responses and comprehesif jenderalyg ygpecat pecatsekadar sekadaringat ingatjelas jelaslebih lebihpaham pahambos bosvery verysmart smartresponses responsesand andcomprehesif jenderalygpecat ygpecatsekadar pecatsekadaringat sekadaringatjelas ingatjelaslebih jelaslebihpaham lebihpahambos pahambosvery bosverysmart verysmartresponses smartresponsesand responsesandcomprehesif</t>
+  </si>
+  <si>
+    <t>bandara akses keluar masuk asing indonesia klo kelola serah asing bandaraakses akseskeluar keluarmasuk masukasing asingindonesia indonesiaklo klokelola kelolaserah serahasing bandaraakseskeluar akseskeluarmasuk keluarmasukasing masukasingindonesia asingindonesiaklo indonesiaklokelola klokelolaserah kelolaserahasing</t>
+  </si>
+  <si>
+    <t>ngomong apa 2 ujung bocor tanya urus tahan inti bocor lah ini capres apa tukang tambal ban ngomongapa apa2 2ujung ujungbocor bocortanya tanyaurus urustahan tahaninti intibocor bocorlah lahini inicapres capresapa apatukang tukangtambal tambalban ngomongapa2 apa2ujung 2ujungbocor ujungbocortanya bocortanyaurus tanyaurustahan urustahaninti tahanintibocor intibocorlah bocorlahini lahinicapres inicapresapa capresapatukang apatukangtambal tukangtambalban</t>
+  </si>
+  <si>
+    <t>jd soal digital layan inimah lama rakyat antri utk dpt layan e-ktp yg gagal lah so jdsoal soaldigital digitallayan layaninimah inimahlama lamarakyat rakyatantri antriutk utkdpt dptlayan layane-ktp e-ktpyg yggagal gagallah lahso jdsoaldigital soaldigitallayan digitallayaninimah layaninimahlama inimahlamarakyat lamarakyatantri rakyatantriutk antriutkdpt utkdptlayan dptlayane-ktp layane-ktpyg e-ktpyggagal yggagallah gagallahso</t>
+  </si>
+  <si>
+    <t>jangan coba ganti ideologi pancasila nkri harga mati harga mati harga yg bisa tawar jangancoba cobaganti gantiideologi ideologipancasila pancasilankri nkriharga hargamati matiharga hargamati matiharga hargayg ygbisa bisatawar jangancobaganti cobagantiideologi gantiideologipancasila ideologipancasilankri pancasilankriharga nkrihargamati hargamatiharga matihargamati hargamatiharga matihargayg hargaygbisa ygbisatawar</t>
+  </si>
+  <si>
+    <t>wadawww percaya tni ragu kuat tni lemah tni rasa lebih tni tni wadawwwpercaya percayatni tniragu ragukuat kuattni tnilemah lemahtni tnirasa rasalebih lebihtni tnitni wadawwwpercayatni percayatniragu tniragukuat ragukuattni kuattnilemah tnilemahtni lemahtnirasa tnirasalebih rasalebihtni lebihtnitni</t>
+  </si>
+  <si>
+    <t>ampun sih tiap tanya lu jawab bocor bocor uang negara alir luar ampunsih sihtiap tiaptanya tanyalu lujawab jawabbocor bocorbocor bocoruang uangnegara negaraalir alirluar ampunsihtiap sihtiaptanya tiaptanyalu tanyalujawab lujawabbocor jawabbocorbocor bocorbocoruang bocoruangnegara uangnegaraalir negaraalirluar</t>
+  </si>
+  <si>
+    <t>tidak terlalu hormat luar negeri jangan tebar pesimisme pak tidakterlalu terlaluhormat hormatluar luarnegeri negerijangan jangantebar tebarpesimisme pesimismepak tidakterlaluhormat terlaluhormatluar hormatluarnegeri luarnegerijangan negerijangantebar jangantebarpesimisme tebarpesimismepak</t>
+  </si>
+  <si>
+    <t>pak kata kuat lembaga perintah hilang korupsi pakkata katakuat kuatlembaga lembagaperintah perintahhilang hilangkorupsi pakkatakuat katakuatlembaga kuatlembagaperintah lembagaperintahhilang perintahhilangkorupsi</t>
+  </si>
+  <si>
+    <t>tertawa tertawa dimarahain tertawatertawa tertawadimarahain tertawatertawadimarahain</t>
+  </si>
+  <si>
+    <t>g nyambung klo masalh klo bandara ud kuasa asing pesawat 2 suka nya kluar masuk apa milik gnyambung nyambungklo klomasalh masalhklo klobandara bandaraud udkuasa kuasaasing asingpesawat pesawat2 2suka sukanya nyakluar kluarmasuk masukapa apamilik gnyambungklo nyambungklomasalh klomasalhklo masalhklobandara klobandaraud bandaraudkuasa udkuasaasing kuasaasingpesawat asingpesawat2 pesawat2suka 2sukanya sukanyakluar nyakluarmasuk kluarmasukapa masukapamilik</t>
+  </si>
+  <si>
+    <t>tengah debat capres dadak marah hadirin tertawa tengah acara https t co xj1ofes136 tengahdebat debatcapres capresdadak dadakmarah marahhadirin hadirintertawa tertawatengah tengahacara acarahttps httpst tco coxj1ofes136 tengahdebatcapres debatcapresdadak capresdadakmarah dadakmarahhadirin marahhadirintertawa hadirintertawatengah tertawatengahacara tengahacarahttps acarahttpst httpstco tcoxj1ofes136</t>
+  </si>
+  <si>
+    <t>terus hina bangsa indonesia yg kata percaya dunia internasional terushina hinabangsa bangsaindonesia indonesiayg ygkata katapercaya percayadunia duniainternasional terushinabangsa hinabangsaindonesia bangsaindonesiayg indonesiaygkata ygkatapercaya katapercayadunia percayaduniainternasional</t>
+  </si>
+  <si>
+    <t>lebih baik kalau tipu halusinasi parah yg coba muncul yg ngaku golput lebihbaik baikkalau kalautipu tipuhalusinasi halusinasiparah parahyg ygcoba cobamuncul munculyg ygngaku ngakugolput lebihbaikkalau baikkalautipu kalautipuhalusinasi tipuhalusinasiparah halusinasiparahyg parahygcoba ygcobamuncul cobamunculyg munculygngaku ygngakugolput</t>
+  </si>
+  <si>
+    <t>lihat negara bagai alat maju kualitas masyrakat lihat negara bagai alat perang lihatnegara negarabagai bagaialat alatmaju majukualitas kualitasmasyrakat masyrakatlihat lihatnegara negarabagai bagaialat alatperang lihatnegarabagai negarabagaialat bagaialatmaju alatmajukualitas majukualitasmasyrakat kualitasmasyrakatlihat masyrakatlihatnegara lihatnegarabagai negarabagaialat bagaialatperang</t>
+  </si>
+  <si>
+    <t>freeport lapor nse mereka dapat manfaat 80 jadi saham 51 ethok 2 prabowobentengnkri freeportlapor lapornse nsemereka merekadapat dapatmanfaat manfaat80 80jadi jadisaham saham51 51ethok ethok2 2prabowobentengnkri freeportlapornse lapornsemereka nsemerekadapat merekadapatmanfaat dapatmanfaat80 manfaat80jadi 80jadisaham jadisaham51 saham51ethok 51ethok2 ethok2prabowobentengnkri</t>
+  </si>
+  <si>
+    <t>insaallah zalim rezim rakyat allah subhanawataala balas copot kuasa wenang wenang insaallahzalim zalimrezim rezimrakyat rakyatallah allahsubhanawataala subhanawataalabalas balascopot copotkuasa kuasawenang wenangwenang insaallahzalimrezim zalimrezimrakyat rezimrakyatallah rakyatallahsubhanawataala allahsubhanawataalabalas subhanawataalabalascopot balascopotkuasa copotkuasawenang kuasawenangwenang</t>
+  </si>
+  <si>
+    <t>soal tahan benar yg membrikan briefing pd pak kalau presiden pecat subianto soaltahan tahanbenar benaryg ygmembrikan membrikanbriefing briefingpd pdpak pakkalau kalaupresiden presidenpecat pecatsubianto soaltahanbenar tahanbenaryg benarygmembrikan ygmembrikanbriefing membrikanbriefingpd briefingpdpak pdpakkalau pakkalaupresiden kalaupresidenpecat presidenpecatsubianto</t>
+  </si>
+  <si>
+    <t>tidak hormat luar negeri utang banyak impor banyak bagaimana mau hormat tidakhormat hormatluar luarnegeri negeriutang utangbanyak banyakimpor imporbanyak banyakbagaimana bagaimanamau mauhormat tidakhormatluar hormatluarnegeri luarnegeriutang negeriutangbanyak utangbanyakimpor banyakimporbanyak imporbanyakbagaimana banyakbagaimanamau bagaimanamauhormat</t>
+  </si>
+  <si>
+    <t>lawan tak daya lawan mantul euy lawantak takdaya dayalawan lawanmantul mantuleuy lawantakdaya takdayalawan dayalawanmantul lawanmantuleuy</t>
+  </si>
+  <si>
+    <t>presiden ajak keluarga makan siang rumah makan bilang jalan sabang jakarta pusat sayang dua putra hadir presidenajak ajakkeluarga keluargamakan makansiang siangrumah rumahmakan makanbilang bilangjalan jalansabang sabangjakarta jakartapusat pusatsayang sayangdua duaputra putrahadir presidenajakkeluarga ajakkeluargamakan keluargamakansiang makansiangrumah siangrumahmakan rumahmakanbilang makanbilangjalan bilangjalansabang jalansabangjakarta sabangjakartapusat jakartapusatsayang pusatsayangdua sayangduaputra duaputrahadir</t>
+  </si>
+  <si>
+    <t>cek fakta cek fakta sebut dana tahan ri kecil singapura 30 gdp https t co hv6u1urlj5 cekfakta faktacek cekfakta faktasebut sebutdana danatahan tahanri rikecil kecilsingapura singapura30 30gdp gdphttps httpst tco cohv6u1urlj5 cekfaktacek faktacekfakta cekfaktasebut faktasebutdana sebutdanatahan danatahanri tahanrikecil rikecilsingapura kecilsingapura30 singapura30gdp 30gdphttps gdphttpst httpstco tcohv6u1urlj5</t>
+  </si>
+  <si>
+    <t>beda negara debat maaf keras tengah banyumas bedanegara negaradebat debatmaaf maafkeras kerastengah tengahbanyumas bedanegaradebat negaradebatmaaf debatmaafkeras maafkerastengah kerastengahbanyumas</t>
+  </si>
+  <si>
+    <t>lu cm nyinyir udh ngerasain terjun lapang lu blm lahir lucm cmnyinyir nyinyirudh udhngerasain ngerasainterjun terjunlapang lapanglu lublm blmlahir lucmnyinyir cmnyinyirudh nyinyirudhngerasain udhngerasainterjun ngerasainterjunlapang terjunlapanglu lapanglublm lublmlahir</t>
+  </si>
+  <si>
+    <t>malam minggu duduk depan layar tv nonton debat empat capres semangat pak 01dilanjutkan malamminggu minggududuk dudukdepan depanlayar layartv tvnonton nontondebat debatempat empatcapres capressemangat semangatpak pak01dilanjutkan malamminggududuk minggududukdepan dudukdepanlayar depanlayartv layartvnonton tvnontondebat nontondebatempat debatempatcapres empatcapressemangat capressemangatpak semangatpak01dilanjutkan</t>
+  </si>
+  <si>
+    <t>lah situ nyinyir apa gak balik aki aki apa nenek peot capresnya jadul lahsitu situnyinyir nyinyirapa apagak gakbalik balikaki akiaki akiapa apanenek nenekpeot peotcapresnya capresnyajadul lahsitunyinyir situnyinyirapa nyinyirapagak apagakbalik gakbalikaki balikakiaki akiakiapa akiapanenek apanenekpeot nenekpeotcapresnya peotcapresnyajadul</t>
+  </si>
+  <si>
+    <t>bilang rapuh skor kuat militer indonesia turut global fire power di peringkat tinggi bilangrapuh rapuhskor skorkuat kuatmiliter militerindonesia indonesiaturut turutglobal globalfire firepower powerdi diperingkat peringkattinggi bilangrapuhskor rapuhskorkuat skorkuatmiliter kuatmiliterindonesia militerindonesiaturut indonesiaturutglobal turutglobalfire globalfirepower firepowerdi powerdiperingkat diperingkattinggi</t>
+  </si>
+  <si>
+    <t>cakep jendral makin kita hidup rukun tidak ajar benci mistericapjempol cakepjendral jendralmakin makinkita kitahidup hiduprukun rukuntidak tidakajar ajarbenci bencimistericapjempol cakepjendralmakin jendralmakinkita makinkitahidup kitahiduprukun hiduprukuntidak rukuntidakajar tidakajarbenci ajarbencimistericapjempol</t>
+  </si>
+  <si>
+    <t>tidak jajah bangsa lai rugi banyak pak salah orang amerika sedikit bicara banyak kerja tidakjajah jajahbangsa bangsalai lairugi rugibanyak banyakpak paksalah salahorang orangamerika amerikasedikit sedikitbicara bicarabanyak banyakkerja tidakjajahbangsa jajahbangsalai bangsalairugi lairugibanyak rugibanyakpak banyakpaksalah paksalahorang salahorangamerika orangamerikasedikit amerikasedikitbicara sedikitbicarabanyak bicarabanyakkerja</t>
+  </si>
+  <si>
+    <t>nama ngomong ngasal aja penting gaya dulu wkwkqk kasi babak bur hajar jendral namangomong ngomongngasal ngasalaja ajapenting pentinggaya gayadulu duluwkwkqk wkwkqkkasi kasibabak babakbur burhajar hajarjendral namangomongngasal ngomongngasalaja ngasalajapenting ajapentinggaya pentinggayadulu gayaduluwkwkqk duluwkwkqkkasi wkwkqkkasibabak kasibabakbur babakburhajar burhajarjendral</t>
+  </si>
+  <si>
+    <t>turut percuma punya banyak kartu lihat modern debatpilpres 2019 pilpres 2019 pemilu 2019 turutpercuma percumapunya punyabanyak banyakkartu kartulihat lihatmodern moderndebatpilpres debatpilpres2019 2019pilpres pilpres2019 2019pemilu pemilu2019 turutpercumapunya percumapunyabanyak punyabanyakkartu banyakkartulihat kartulihatmodern lihatmoderndebatpilpres moderndebatpilpres2019 debatpilpres2019pilpres 2019pilpres2019 pilpres2019pemilu 2019pemilu2019</t>
+  </si>
+  <si>
+    <t>bukan mau nyerang pisik fakta gerombol bpn banyak yg gembul perut kayak gentong bukanmau maunyerang nyerangpisik pisikfakta faktagerombol gerombolbpn bpnbanyak banyakyg yggembul gembulperut perutkayak kayakgentong bukanmaunyerang maunyerangpisik nyerangpisikfakta pisikfaktagerombol faktagerombolbpn gerombolbpnbanyak bpnbanyakyg banyakyggembul yggembulperut gembulperutkayak perutkayakgentong</t>
+  </si>
+  <si>
+    <t>kalau jadi nice guy gak masalah ada yg bapak rasa tidak hormat luar indonesia kalaujadi jadinice niceguy guygak gakmasalah masalahada adayg ygbapak bapakrasa rasatidak tidakhormat hormatluar luarindonesia kalaujadinice jadiniceguy niceguygak guygakmasalah gakmasalahada masalahadayg adaygbapak ygbapakrasa bapakrasatidak rasatidakhormat tidakhormatluar hormatluarindonesia</t>
+  </si>
+  <si>
+    <t>kalo anak anak antem si kurus udah mewek pojok yg gemuk gak tega kaloanak anakanak anakantem antemsi sikurus kurusudah udahmewek mewekpojok pojokyg yggemuk gemukgak gaktega kaloanakanak anakanakantem anakantemsi antemsikurus sikurusudah kurusudahmewek udahmewekpojok mewekpojokyg pojokyggemuk yggemukgak gemukgaktega</t>
+  </si>
+  <si>
+    <t>si manusia gadungan hibur diri junjung keok sol sol simanusia manusiagadungan gadunganhibur hiburdiri dirijunjung junjungkeok keoksol solsol simanusiagadungan manusiagadunganhibur gadunganhiburdiri hiburdirijunjung dirijunjungkeok junjungkeoksol keoksolsol</t>
+  </si>
+  <si>
+    <t>komitmen nkri pancasila tak perlu ragu propaganda ubah sistem demokrasi dg sistem khilafah komitmennkri nkripancasila pancasilatak takperlu perluragu ragupropaganda propagandaubah ubahsistem sistemdemokrasi demokrasidg dgsistem sistemkhilafah komitmennkripancasila nkripancasilatak pancasilatakperlu takperluragu perluragupropaganda ragupropagandaubah propagandaubahsistem ubahsistemdemokrasi sistemdemokrasidg demokrasidgsistem dgsistemkhilafah</t>
+  </si>
+  <si>
+    <t>luar biasa gua demen kalik sama pak dungu natural akhir keluar luarbiasa biasagua guademen demenkalik kaliksama samapak pakdungu dungunatural naturalakhir akhirkeluar luarbiasagua biasaguademen guademenkalik demenkaliksama kaliksamapak samapakdungu pakdungunatural dungunaturalakhir naturalakhirkeluar</t>
+  </si>
+  <si>
+    <t>rasa posisi selalu posisi aman buat indonesia tak hormat asing rasaposisi posisiselalu selaluposisi posisiaman amanbuat buatindonesia indonesiatak takhormat hormatasing rasaposisiselalu posisiselaluposisi selaluposisiaman posisiamanbuat amanbuatindonesia buatindonesiatak indonesiatakhormat takhormatasing</t>
+  </si>
+  <si>
+    <t>02 pak yg hormat lebih baik daftar jadi tni biar paham percaya dgn kebranian 02pak pakyg yghormat hormatlebih lebihbaik baikdaftar daftarjadi jaditni tnibiar biarpaham pahampercaya percayadgn dgnkebranian 02pakyg pakyghormat yghormatlebih hormatlebihbaik lebihbaikdaftar baikdaftarjadi daftarjaditni jaditnibiar tnibiarpaham biarpahampercaya pahampercayadgn percayadgnkebranian</t>
+  </si>
+  <si>
+    <t>set up nya padahal dah kuat bat sayang punchline nya beri terlalu banyak damage setup upnya nyapadahal padahaldah dahkuat kuatbat batsayang sayangpunchline punchlinenya nyaberi beriterlalu terlalubanyak banyakdamage setupnya upnyapadahal nyapadahaldah padahaldahkuat dahkuatbat kuatbatsayang batsayangpunchline sayangpunchlinenya punchlinenyaberi nyaberiterlalu beriterlalubanyak terlalubanyakdamage</t>
+  </si>
+  <si>
+    <t>mo ngecapruk apa bodo sudah jadi kadang ucap ny sua nyata mongecapruk ngecaprukapa apabodo bodosudah sudahjadi jadikadang kadangucap ucapny nysua suanyata mongecaprukapa ngecaprukapabodo apabodosudah bodosudahjadi sudahjadikadang jadikadangucap kadangucapny ucapnysua nysuanyata</t>
+  </si>
+  <si>
+    <t>turut dalam tahan aman boleh anggap akan perang masa depan turutdalam dalamtahan tahanaman amanboleh bolehanggap anggapakan akanperang perangmasa masadepan turutdalamtahan dalamtahanaman tahanamanboleh amanbolehanggap bolehanggapakan anggapakanperang akanperangmasa perangmasadepan</t>
+  </si>
+  <si>
+    <t>wah salah nih mas kasih tahu litbang bela gpp admin gak cer wahsalah salahnih nihmas maskasih kasihtahu tahulitbang litbangbela belagpp gppadmin admingak gakcer wahsalahnih salahnihmas nihmaskasih maskasihtahu kasihtahulitbang tahulitbangbela litbangbelagpp belagppadmin gppadmingak admingakcer</t>
+  </si>
+  <si>
+    <t>sumpah tahan pancasila titik darah akhir bohong ah bapak luka dikit aja udah pakai sarung t sumpahtahan tahanpancasila pancasilatitik titikdarah darahakhir akhirbohong bohongah ahbapak bapakluka lukadikit dikitaja ajaudah udahpakai pakaisarung sarungt sumpahtahanpancasila tahanpancasilatitik pancasilatitikdarah titikdarahakhir darahakhirbohong akhirbohongah bohongahbapak ahbapakluka bapaklukadikit lukadikitaja dikitajaudah ajaudahpakai udahpakaisarung pakaisarungt</t>
+  </si>
+  <si>
+    <t>latar belakang ttg karya utk intel amerika defense intelligence agency latarbelakang belakangttg ttgkarya karyautk utkintel intelamerika amerikadefense defenseintelligence intelligenceagency latarbelakangttg belakangttgkarya ttgkaryautk karyautkintel utkintelamerika intelamerikadefense amerikadefenseintelligence defenseintelligenceagency soal serang asing p soalserang serangasing asingp soalserangasing serangasingp</t>
+  </si>
+  <si>
+    <t>bpk info yg sesat petinggi tni woooiii om wowo lupa yaa bukankah lebih parah diboongin sam bpkinfo infoyg ygsesat sesatpetinggi petinggitni tniwoooiii woooiiiom omwowo wowolupa lupayaa yaabukankah bukankahlebih lebihparah parahdiboongin diboonginsam bpkinfoyg infoygsesat ygsesatpetinggi sesatpetinggitni petinggitniwoooiii tniwoooiiiom woooiiiomwowo omwowolupa wowolupayaa lupayaabukankah yaabukankahlebih bukankahlebihparah lebihparahdiboongin parahdiboonginsam</t>
+  </si>
+  <si>
+    <t>malu kompas salah kutip bilang 3 gdp 30 apbn ralat https t co parepqmlyn malukompas kompassalah salahkutip kutipbilang bilang3 3gdp gdp30 30apbn apbnralat ralathttps httpst tco coparepqmlyn malukompassalah kompassalahkutip salahkutipbilang kutipbilang3 bilang3gdp 3gdp30 gdp30apbn 30apbnralat apbnralathttps ralathttpst httpstco tcoparepqmlyn</t>
+  </si>
+  <si>
+    <t>kena tuduh pro-khilafah milik argumen menep mentah 2 olah bela khilafah tak masuk akal kenatuduh tuduhpro-khilafah pro-khilafahmilik milikargumen argumenmenep menepmentah mentah2 2olah olahbela belakhilafah khilafahtak takmasuk masukakal kenatuduhpro-khilafah tuduhpro-khilafahmilik pro-khilafahmilikargumen milikargumenmenep argumenmenepmentah menepmentah2 mentah2olah 2olahbela olahbelakhilafah belakhilafahtak khilafahtakmasuk takmasukakal</t>
+  </si>
+  <si>
+    <t>5 strategi upaya modernisasi alutsista utk tni material khusus utk polri tahan lemah krn tdk punya alutisista canggih 5strategi strategiupaya upayamodernisasi modernisasialutsista alutsistautk utktni tnimaterial materialkhusus khususutk utkpolri polritahan tahanlemah lemahkrn krntdk tdkpunya punyaalutisista alutisistacanggih 5strategiupaya strategiupayamodernisasi upayamodernisasialutsista modernisasialutsistautk alutsistautktni utktnimaterial tnimaterialkhusus materialkhususutk khususutkpolri utkpolritahan polritahanlemah tahanlemahkrn lemahkrntdk krntdkpunya tdkpunyaalutisista punyaalutisistacanggih</t>
+  </si>
+  <si>
+    <t>capres 02 nilai tak keluar narasi besar sendiri tak tampil istimewa nilai buruk capres02 02nilai nilaitak takkeluar keluarnarasi narasibesar besarsendiri sendiritak taktampil tampilistimewa istimewanilai nilaiburuk capres02nilai 02nilaitak nilaitakkeluar takkeluarnarasi keluarnarasibesar narasibesarsendiri besarsendiritak sendiritaktampil taktampilistimewa tampilistimewanilai istimewanilaiburuk</t>
+  </si>
+  <si>
+    <t>beda kelas bapak 08 true warrior ksatria sejati perlu malu orang sudah malu bedakelas kelasbapak bapak08 08true truewarrior warriorksatria ksatriasejati sejatiperlu perlumalu maluorang orangsudah sudahmalu bedakelasbapak kelasbapak08 bapak08true 08truewarrior truewarriorksatria warriorksatriasejati ksatriasejatiperlu sejatiperlumalu perlumaluorang maluorangsudah orangsudahmalu</t>
+  </si>
+  <si>
+    <t>ga mau kalah sama gurita dukun piala dunia kucing milih fokus nonton tanda optimisindonesiamaju gamau maukalah kalahsama samagurita guritadukun dukunpiala pialadunia duniakucing kucingmilih milihfokus fokusnonton nontontanda tandaoptimisindonesiamaju gamaukalah maukalahsama kalahsamagurita samaguritadukun guritadukunpiala dukunpialadunia pialaduniakucing duniakucingmilih kucingmilihfokus milihfokusnonton fokusnontontanda nontontandaoptimisindonesiamaju</t>
+  </si>
+  <si>
+    <t>selalu ulang 2 soal kaya ambil asing masa mertua kaleee sekarang blok rok blok mahakam freeport udah jadi milik indonesia selaluulang ulang2 2soal soalkaya kayaambil ambilasing asingmasa masamertua mertuakaleee kaleeesekarang sekarangblok blokrok rokblok blokmahakam mahakamfreeport freeportudah udahjadi jadimilik milikindonesia selaluulang2 ulang2soal 2soalkaya soalkayaambil kayaambilasing ambilasingmasa asingmasamertua masamertuakaleee mertuakaleeesekarang kaleeesekarangblok sekarangblokrok blokrokblok rokblokmahakam blokmahakamfreeport mahakamfreeportudah freeportudahjadi udahjadimilik jadimilikindonesia</t>
+  </si>
+  <si>
+    <t>lawan lihat dunia luar jahat pretensi kuasa padahal hidup era kolaborasi kira mindset keliru lawanlihat lihatdunia dunialuar luarjahat jahatpretensi pretensikuasa kuasapadahal padahalhidup hidupera erakolaborasi kolaborasikira kiramindset mindsetkeliru lawanlihatdunia lihatdunialuar dunialuarjahat luarjahatpretensi jahatpretensikuasa pretensikuasapadahal kuasapadahalhidup padahalhidupera hiduperakolaborasi erakolaborasikira kolaborasikiramindset kiramindsetkeliru</t>
+  </si>
+  <si>
+    <t>awal gila antek antek dukung mulai pilpres 2014 mana hasil oleh suara sangat sedikit awalgila gilaantek antekantek antekdukung dukungmulai mulaipilpres pilpres2014 2014mana manahasil hasiloleh olehsuara suarasangat sangatsedikit awalgilaantek gilaantekantek antekantekdukung antekdukungmulai dukungmulaipilpres mulaipilpres2014 pilpres2014mana 2014manahasil manahasiloleh hasilolehsuara olehsuarasangat suarasangatsedikit</t>
+  </si>
+  <si>
+    <t>kata anggar tahan indonesia di angka 0 8 persen gdp pun banding singapura kataanggar anggartahan tahanindonesia indonesiadi diangka angka0 08 8persen persengdp gdppun punbanding bandingsingapura kataanggartahan anggartahanindonesia tahanindonesiadi indonesiadiangka diangka0 angka08 08persen 8persengdp persengdppun gdppunbanding punbandingsingapura</t>
+  </si>
+  <si>
+    <t>bicara entry gate safety strategic point jkw jawab investasi asing gak nyambung prabowobentengnkri bicaraentry entrygate gatesafety safetystrategic strategicpoint pointjkw jkwjawab jawabinvestasi investasiasing asinggak gaknyambung nyambungprabowobentengnkri bicaraentrygate entrygatesafety gatesafetystrategic safetystrategicpoint strategicpointjkw pointjkwjawab jkwjawabinvestasi jawabinvestasiasing investasiasinggak asinggaknyambung gaknyambungprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>sandi mas anis sini traktir jadi gubernur tak lama sandi izin mas mau nraktir pak sandimas masanis anissini sinitraktir traktirjadi jadigubernur gubernurtak taklama lamasandi sandiizin izinmas masmau maunraktir nraktirpak sandimasanis masanissini anissinitraktir sinitraktirjadi traktirjadigubernur jadigubernurtak gubernurtaklama taklamasandi lamasandiizin sandiizinmas izinmasmau masmaunraktir maunraktirpak</t>
+  </si>
+  <si>
+    <t>acu adalah mertua bukti keluarga mertua di baris acuadalah adalahmertua mertuabukti buktikeluarga keluargamertua mertuadi dibaris acuadalahmertua adalahmertuabukti mertuabuktikeluarga buktikeluargamertua keluargamertuadi mertuadibaris</t>
+  </si>
+  <si>
+    <t>dear pak 5 taun bapak jabat akan awas kritisi omel bapak dearpak pak5 5taun taunbapak bapakjabat jabatakan akanawas awaskritisi kritisiomel omelbapak dearpak5 pak5taun 5taunbapak taunbapakjabat bapakjabatakan jabatakanawas akanawaskritisi awaskritisiomel kritisiomelbapak</t>
+  </si>
+  <si>
+    <t>pada nyemplung kolam malu liat bos bom bardir padanyemplung nyemplungkolam kolammalu maluliat liatbos bosbom bombardir padanyemplungkolam nyemplungkolammalu kolammaluliat maluliatbos liatbosbom bosbombardir</t>
+  </si>
+  <si>
+    <t>sepakat sama om trik basi it 2 minggu kelar ga jadi 2 mau 2 periode jual dil ga laku sepakatsama samaom omtrik trikbasi basiit it2 2minggu minggukelar kelarga gajadi jadi2 2mau mau2 2periode periodejual jualdil dilga galaku sepakatsamaom samaomtrik omtrikbasi trikbasiit basiit2 it2minggu 2minggukelar minggukelarga kelargajadi gajadi2 jadi2mau 2mau2 mau2periode 2periodejual periodejualdil jualdilga dilgalaku</t>
+  </si>
+  <si>
+    <t>rizal ramli pak mau revisi uu ite kubu jkw nggk tanggpan rr sebut uu ite seram undang 2 sebut dipake disalahgunakan rizalramli ramlipak pakmau maurevisi revisiuu uuite itekubu kubujkw jkwnggk nggktanggpan tanggpanrr rrsebut sebutuu uuite iteseram seramundang undang2 2sebut sebutdipake dipakedisalahgunakan rizalramlipak ramlipakmau pakmaurevisi maurevisiuu revisiuuite uuitekubu itekubujkw kubujkwnggk jkwnggktanggpan nggktanggpanrr tanggpanrrsebut rrsebutuu sebutuuite uuiteseram iteseramundang seramundang2 undang2sebut 2sebutdipake sebutdipakedisalahgunakan</t>
+  </si>
+  <si>
+    <t>perintah mau keluar paris agreement kata mikirin masa depan indonesia mau keluar pakta sama perintahmau maukeluar keluarparis parisagreement agreementkata katamikirin mikirinmasa masadepan depanindonesia indonesiamau maukeluar keluarpakta paktasama perintahmaukeluar maukeluarparis keluarparisagreement parisagreementkata agreementkatamikirin katamikirinmasa mikirinmasadepan masadepanindonesia depanindonesiamau indonesiamaukeluar maukeluarpakta keluarpaktasama</t>
+  </si>
+  <si>
+    <t>adalah agum gumelar yg dgn lantang wajah bicara jelek hadap sby nyata hadap taipan manis adalahagum agumgumelar gumelaryg ygdgn dgnlantang lantangwajah wajahbicara bicarajelek jelekhadap hadapsby sbynyata nyatahadap hadaptaipan taipanmanis adalahagumgumelar agumgumelaryg gumelarygdgn ygdgnlantang dgnlantangwajah lantangwajahbicara wajahbicarajelek bicarajelekhadap jelekhadapsby hadapsbynyata sbynyatahadap nyatahadaptaipan hadaptaipanmanis</t>
+  </si>
+  <si>
+    <t>kalau pak jadi presiden hidup mau ketawa aja dimarahin https t co b7dymmekfs kalaupak pakjadi jadipresiden presidenhidup hidupmau mauketawa ketawaaja ajadimarahin dimarahinhttps httpst tco cob7dymmekfs kalaupakjadi pakjadipresiden jadipresidenhidup presidenhidupmau hidupmauketawa mauketawaaja ketawaajadimarahin ajadimarahinhttps dimarahinhttpst httpstco tcob7dymmekfs</t>
+  </si>
+  <si>
+    <t>deh makan dulu siap debat awas pulpen lupa yaa dehmakan makandulu dulusiap siapdebat debatawas awaspulpen pulpenlupa lupayaa dehmakandulu makandulusiap dulusiapdebat siapdebatawas debatawaspulpen awaspulpenlupa pulpenlupayaa</t>
+  </si>
+  <si>
+    <t>bukan tni sudah pecat sandang gelar purnawirawan anda pantas bukantni tnisudah sudahpecat pecatsandang sandanggelar gelarpurnawirawan purnawirawananda andapantas bukantnisudah tnisudahpecat sudahpecatsandang pecatsandanggelar sandanggelarpurnawirawan gelarpurnawirawananda purnawirawanandapantas</t>
+  </si>
+  <si>
+    <t>nyata pak debat empat ragu tni 01dilanjutkan jokowilagi nyatapak pakdebat debatempat empatragu ragutni tni01dilanjutkan 01dilanjutkanjokowilagi nyatapakdebat pakdebatempat debatempatragu empatragutni ragutni01dilanjutkan tni01dilanjutkanjokowilagi</t>
+  </si>
+  <si>
+    <t>makanya lu mikir yg tuntas belum prioritas jgn sebut kebo makanyalu lumikir mikiryg ygtuntas tuntasbelum belumprioritas prioritasjgn jgnsebut sebutkebo makanyalumikir lumikiryg mikirygtuntas ygtuntasbelum tuntasbelumprioritas belumprioritasjgn prioritasjgnsebut jgnsebutkebo</t>
+  </si>
+  <si>
+    <t>salawi masuk neraka neraka panas mana aja mana infrastruktur langit yg kalian janj salawimasuk masukneraka nerakaneraka nerakapanas panasmana manaaja ajamana manainfrastruktur infrastrukturlangit langityg ygkalian kalianjanj salawimasukneraka masuknerakaneraka nerakanerakapanas nerakapanasmana panasmanaaja manaajamana ajamanainfrastruktur manainfrastrukturlangit infrastrukturlangityg langitygkalian ygkalianjanj</t>
+  </si>
+  <si>
+    <t>juga tuduh pki jawab hahaha hari saya saya lawan saya akan lawan jugatuduh tuduhpki pkijawab jawabhahaha hahahahari harisaya sayasaya sayalawan lawansaya sayaakan akanlawan jugatuduhpki tuduhpkijawab pkijawabhahaha jawabhahahahari hahahaharisaya harisayasaya sayasayalawan sayalawansaya lawansayaakan sayaakanlawan</t>
+  </si>
+  <si>
+    <t>tidak paham ekonomi investasi asing lingkup bisnis di-framing olah negara asai asing tidakpaham pahamekonomi ekonomiinvestasi investasiasing asinglingkup lingkupbisnis bisnisdi-framing di-framingolah olahnegara negaraasai asaiasing tidakpahamekonomi pahamekonomiinvestasi ekonomiinvestasiasing investasiasinglingkup asinglingkupbisnis lingkupbisnisdi-framing bisnisdi-framingolah di-framingolahnegara olahnegaraasai negaraasaiasing</t>
+  </si>
+  <si>
+    <t>2 nya punya ambisi wowo ambisi jangka pendek utk harta 2nya nyapunya punyaambisi ambisiwowo wowoambisi ambisijangka jangkapendek pendekutk utkharta 2nyapunya nyapunyaambisi punyaambisiwowo ambisiwowoambisi wowoambisijangka ambisijangkapendek jangkapendekutk pendekutkharta</t>
+  </si>
+  <si>
+    <t>political will cermin praktik berantas korupsi kata politicalwill willcermin cerminpraktik praktikberantas berantaskorupsi korupsikata politicalwillcermin willcerminpraktik cerminpraktikberantas praktikberantaskorupsi berantaskorupsikata</t>
+  </si>
+  <si>
+    <t>pak trauma pecat tni begini ngomongnya justru pak sipil percaya sama tni salut paktrauma traumapecat pecattni tnibegini beginingomongnya ngomongnyajustru justrupak paksipil sipilpercaya percayasama samatni tnisalut paktraumapecat traumapecattni pecattnibegini tnibeginingomongnya beginingomongnyajustru ngomongnyajustrupak justrupaksipil paksipilpercaya sipilpercayasama percayasamatni samatnisalut</t>
+  </si>
+  <si>
+    <t>pres bisa tidak bicara detail alutista indonesia itu yang sensitif tahan indonesia presbisa bisatidak tidakbicara bicaradetail detailalutista alutistaindonesia indonesiaitu ituyang yangsensitif sensitiftahan tahanindonesia presbisatidak bisatidakbicara tidakbicaradetail bicaradetailalutista detailalutistaindonesia alutistaindonesiaitu indonesiaituyang ituyangsensitif yangsensitiftahan sensitiftahanindonesia</t>
+  </si>
+  <si>
+    <t>kalau mandat akan bersih kuat lembaga perintah akan hilang korupsi kalaumandat mandatakan akanbersih bersihkuat kuatlembaga lembagaperintah perintahakan akanhilang hilangkorupsi kalaumandatakan mandatakanbersih akanbersihkuat bersihkuatlembaga kuatlembagaperintah lembagaperintahakan perintahakanhilang akanhilangkorupsi</t>
+  </si>
+  <si>
+    <t>hahahaha yg bakar jenggot sama imbau pakai baju putih tps jgn ngambek gitu dong hahahahayg ygbakar bakarjenggot jenggotsama samaimbau imbaupakai pakaibaju bajuputih putihtps tpsjgn jgnngambek ngambekgitu gitudong hahahahaygbakar ygbakarjenggot bakarjenggotsama jenggotsamaimbau samaimbaupakai imbaupakaibaju pakaibajuputih bajuputihtps putihtpsjgn tpsjgnngambek jgnngambekgitu ngambekgitudong</t>
+  </si>
+  <si>
+    <t>gubernur pahe 300 m tdk tanya lulus mana sy tdk tnya prestasi apa yg tanya ente punya uang ga gubernurpahe pahe300 300m mtdk tdktanya tanyalulus lulusmana manasy sytdk tdktnya tnyaprestasi prestasiapa apayg ygtanya tanyaente entepunya punyauang uangga gubernurpahe300 pahe300m 300mtdk mtdktanya tdktanyalulus tanyalulusmana lulusmanasy manasytdk sytdktnya tdktnyaprestasi tnyaprestasiapa prestasiapayg apaygtanya ygtanyaente tanyaentepunya entepunyauang punyauangga</t>
+  </si>
+  <si>
+    <t>bagaimana tonton tertawa kalau kali 2 kata militer indonesia sangat lemah padahal kuat militer indonesia masuk kuat dunia bagaimanatonton tontontertawa tertawakalau kalaukali kali2 2kata katamiliter militerindonesia indonesiasangat sangatlemah lemahpadahal padahalkuat kuatmiliter militerindonesia indonesiamasuk masukkuat kuatdunia bagaimanatontontertawa tontontertawakalau tertawakalaukali kalaukali2 kali2kata 2katamiliter katamiliterindonesia militerindonesiasangat indonesiasangatlemah sangatlemahpadahal lemahpadahalkuat padahalkuatmiliter kuatmiliterindonesia militerindonesiamasuk indonesiamasukkuat masukkuatdunia</t>
+  </si>
+  <si>
+    <t>banyak catat jadi kalau kalah mana letak kalah juga balik banyakcatat catatjadi jadikalau kalaukalah kalahmana manaletak letakkalah kalahjuga jugabalik banyakcatatjadi catatjadikalau jadikalaukalah kalaukalahmana kalahmanaletak manaletakkalah letakkalahjuga kalahjugabalik</t>
+  </si>
+  <si>
+    <t>bukan percaya dgn mampu tni tp hrs tni siap for the worst scenario lindung indonesia prabowo bukanpercaya percayadgn dgnmampu mamputni tnitp tphrs hrstni tnisiap siapfor forthe theworst worstscenario scenariolindung lindungindonesia indonesiaprabowo bukanpercayadgn percayadgnmampu dgnmamputni mamputnitp tnitphrs tphrstni hrstnisiap tnisiapfor siapforthe fortheworst theworstscenario worstscenariolindung scenariolindungindonesia lindungindonesiaprabowo</t>
+  </si>
+  <si>
+    <t>tidak mau mati jabat bpk dulu pernah kurus he he tidakmau maumati matijabat jabatbpk bpkdulu dulupernah pernahkurus kurushe hehe tidakmaumati maumatijabat matijabatbpk jabatbpkdulu bpkdulupernah dulupernahkurus pernahkurushe kurushehe</t>
+  </si>
+  <si>
+    <t>turut tahan lemah implikasi uang indonesia lemah turuttahan tahanlemah lemahimplikasi implikasiuang uangindonesia indonesialemah turuttahanlemah tahanlemahimplikasi lemahimplikasiuang implikasiuangindonesia uangindonesialemah</t>
+  </si>
+  <si>
+    <t>baru era daulat laut nasional tega kapal kapal asing kini takut curi ikan teritori nasio baruera eradaulat daulatlaut lautnasional nasionaltega tegakapal kapalkapal kapalasing asingkini kinitakut takutcuri curiikan ikanteritori teritorinasio barueradaulat eradaulatlaut daulatlautnasional lautnasionaltega nasionaltegakapal tegakapalkapal kapalkapalasing kapalasingkini asingkinitakut kinitakutcuri takutcuriikan curiikanteritori ikanteritorinasio</t>
+  </si>
+  <si>
+    <t>kalau bahasa simpel jin numpang sm genderuwo kalaubahasa bahasasimpel simpeljin jinnumpang numpangsm smgenderuwo kalaubahasasimpel bahasasimpeljin simpeljinnumpang jinnumpangsm numpangsmgenderuwo</t>
+  </si>
+  <si>
+    <t>ahmad tangkap polisi karna ujar benci gakda hubung ama pilpres sama bahar bin smith tangkap polisi ahmadtangkap tangkappolisi polisikarna karnaujar ujarbenci bencigakda gakdahubung hubungama amapilpres pilpressama samabahar baharbin binsmith smithtangkap tangkappolisi ahmadtangkappolisi tangkappolisikarna polisikarnaujar karnaujarbenci ujarbencigakda bencigakdahubung gakdahubungama hubungamapilpres amapilpressama pilpressamabahar samabaharbin baharbinsmith binsmithtangkap smithtangkappolisi</t>
+  </si>
+  <si>
+    <t>makan tuh radar prabowobentengnkri 01caprespendustaabadi makantuh tuhradar radarprabowobentengnkri prabowobentengnkri01caprespendustaabadi makantuhradar tuhradarprabowobentengnkri radarprabowobentengnkri01caprespendustaabadi</t>
+  </si>
+  <si>
+    <t>kesi tuh si engkong gue g mo pilih kong prabowobentengnkri prabowobentengnkri kesituh tuhsi siengkong engkonggue gueg gmo mopilih pilihkong kongprabowobentengnkri prabowobentengnkriprabowobentengnkri kesituhsi tuhsiengkong siengkonggue engkonggueg guegmo gmopilih mopilihkong pilihkongprabowobentengnkri kongprabowobentengnkriprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>soal tahan benar yg membrikan briefing pd pak kalau presiden pecat soaltahan tahanbenar benaryg ygmembrikan membrikanbriefing briefingpd pdpak pakkalau kalaupresiden presidenpecat soaltahanbenar tahanbenaryg benarygmembrikan ygmembrikanbriefing membrikanbriefingpd briefingpdpak pdpakkalau pakkalaupresiden kalaupresidenpecat</t>
+  </si>
+  <si>
+    <t>pak upaya masyarakat sulit tarik pungli urus segala pakupaya upayamasyarakat masyarakatsulit sulittarik tarikpungli pungliurus urussegala pakupayamasyarakat upayamasyarakatsulit masyarakatsulittarik sulittarikpungli tarikpungliurus pungliurussegala</t>
+  </si>
+  <si>
+    <t>salah kali zo justru pak laksana clean government jadi pada gerah panas gak uang salahkali kalizo zojustru justrupak paklaksana laksanaclean cleangovernment governmentjadi jadipada padagerah gerahpanas panasgak gakuang salahkalizo kalizojustru zojustrupak justrupaklaksana paklaksanaclean laksanacleangovernment cleangovernmentjadi governmentjadipada jadipadagerah padagerahpanas gerahpanasgak panasgakuang</t>
+  </si>
+  <si>
+    <t>bogor tadi siang lihat massa riil wiwis gak perlu banyak bacot dah lihat prab bogortadi tadisiang sianglihat lihatmassa massariil riilwiwis wiwisgak gakperlu perlubanyak banyakbacot bacotdah dahlihat lihatprab bogortadisiang tadisianglihat sianglihatmassa lihatmassariil massariilwiwis riilwiwisgak wiwisgakperlu gakperlubanyak perlubanyakbacot banyakbacotdah bacotdahlihat dahlihatprab</t>
+  </si>
+  <si>
+    <t>brangkat kerja naik taksi kepala pusing ga bawa motor jaman susah korupsi padahal bnyak yg setor brangkatkerja kerjanaik naiktaksi taksikepala kepalapusing pusingga gabawa bawamotor motorjaman jamansusah susahkorupsi korupsipadahal padahalbnyak bnyakyg ygsetor brangkatkerjanaik kerjanaiktaksi naiktaksikepala taksikepalapusing kepalapusingga pusinggabawa gabawamotor bawamotorjaman motorjamansusah jamansusahkorupsi susahkorupsipadahal korupsipadahalbnyak padahalbnyakyg bnyakygsetor</t>
+  </si>
+  <si>
+    <t>panjang debat lihat goyah argumen kokoh tak yakin panjangdebat debatlihat lihatgoyah goyahargumen argumenkokoh kokohtak takyakin panjangdebatlihat debatlihatgoyah lihatgoyahargumen goyahargumenkokoh argumenkokohtak kokohtakyakin</t>
+  </si>
+  <si>
+    <t>turut percuma punya banyak kartu lihat modern debatpilpres 2019 pilpres 2019 pemilu 2019 republik turutpercuma percumapunya punyabanyak banyakkartu kartulihat lihatmodern moderndebatpilpres debatpilpres2019 2019pilpres pilpres2019 2019pemilu pemilu2019 2019republik turutpercumapunya percumapunyabanyak punyabanyakkartu banyakkartulihat kartulihatmodern lihatmoderndebatpilpres moderndebatpilpres2019 debatpilpres2019pilpres 2019pilpres2019 pilpres2019pemilu 2019pemilu2019 pemilu2019republik</t>
+  </si>
+  <si>
+    <t>sakit mosok konflik timur yg rupa konflik negeri bilang perang sakitmosok mosokkonflik konfliktimur timuryg ygrupa rupakonflik konfliknegeri negeribilang bilangperang sakitmosokkonflik mosokkonfliktimur konfliktimuryg timurygrupa ygrupakonflik rupakonfliknegeri konfliknegeribilang negeribilangperang</t>
+  </si>
+  <si>
+    <t>capres nomor urut 02 khawatir kalau semua labuh bandara operate usaha asing capresnomor nomorurut urut02 02khawatir khawatirkalau kalausemua semualabuh labuhbandara bandaraoperate operateusaha usahaasing capresnomorurut nomorurut02 urut02khawatir 02khawatirkalau khawatirkalausemua kalausemualabuh semualabuhbandara labuhbandaraoperate bandaraoperateusaha operateusahaasing</t>
+  </si>
+  <si>
+    <t>mantebb kerenn smoga bs ikut seluruh pelosok nusantara mantebbkerenn kerennsmoga smogabs bsikut ikutseluruh seluruhpelosok pelosoknusantara mantebbkerennsmoga kerennsmogabs smogabsikut bsikutseluruh ikutseluruhpelosok seluruhpelosoknusantara</t>
+  </si>
+  <si>
+    <t>pns pilih karna sulit laku pungli anggar potong ketat anggar pnspilih pilihkarna karnasulit sulitlaku lakupungli punglianggar anggarpotong potongketat ketatanggar pnspilihkarna pilihkarnasulit karnasulitlaku sulitlakupungli lakupunglianggar punglianggarpotong anggarpotongketat potongketatanggar</t>
+  </si>
+  <si>
+    <t>pilih sandi saya ingin bpjs puruk terus tidak optimal beri solusi awat sehat pilihsandi sandisaya sayaingin inginbpjs bpjspuruk purukterus terustidak tidakoptimal optimalberi berisolusi solusiawat awatsehat pilihsandisaya sandisayaingin sayainginbpjs inginbpjspuruk bpjspurukterus purukterustidak terustidakoptimal tidakoptimalberi optimalberisolusi berisolusiawat solusiawatsehat</t>
+  </si>
+  <si>
+    <t>salah besar sih gak pilih pak lembaga perintah yg bebas korupsi jual beli jabat salahbesar besarsih sihgak gakpilih pilihpak paklembaga lembagaperintah perintahyg ygbebas bebaskorupsi korupsijual jualbeli belijabat salahbesarsih besarsihgak sihgakpilih gakpilihpak pilihpaklembaga paklembagaperintah lembagaperintahyg perintahygbebas ygbebaskorupsi bebaskorupsijual korupsijualbeli jualbelijabat</t>
+  </si>
+  <si>
+    <t>milik banyak pretasi ada 47 prestasi milik salah satu cabut subsidi bbm milikbanyak banyakpretasi pretasiada ada47 47prestasi prestasimilik miliksalah salahsatu satucabut cabutsubsidi subsidibbm milikbanyakpretasi banyakpretasiada pretasiada47 ada47prestasi 47prestasimilik prestasimiliksalah miliksalahsatu salahsatucabut satucabutsubsidi cabutsubsidibbm</t>
+  </si>
+  <si>
+    <t>bagaimana mau pulang habib rizieq kalau tidak menang jadi presiden kata subianto bagaimanamau maupulang pulanghabib habibrizieq rizieqkalau kalautidak tidakmenang menangjadi jadipresiden presidenkata katasubianto bagaimanamaupulang maupulanghabib pulanghabibrizieq habibrizieqkalau rizieqkalautidak kalautidakmenang tidakmenangjadi menangjadipresiden jadipresidenkata presidenkatasubianto</t>
+  </si>
+  <si>
+    <t>kalau pasu asing masuk tentara tindak adi napitupulu dukung capres 01 kalaupasu pasuasing asingmasuk masuktentara tentaratindak tindakadi adinapitupulu napitupuludukung dukungcapres capres01 kalaupasuasing pasuasingmasuk asingmasuktentara masuktentaratindak tentaratindakadi tindakadinapitupulu adinapitupuludukung napitupuludukungcapres dukungcapres01</t>
+  </si>
+  <si>
+    <t>justru makna bersit nada kalah krn rasa kalah justrumakna maknabersit bersitnada nadakalah kalahkrn krnrasa rasakalah justrumaknabersit maknabersitnada bersitnadakalah nadakalahkrn kalahkrnrasa krnrasakalah</t>
+  </si>
+  <si>
+    <t>rubah watak susah susah jd presiden https t co esw 5qi9add rubahwatak wataksusah susahsusah susahjd jdpresiden presidenhttps httpst tco coesw esw5qi9add rubahwataksusah wataksusahsusah susahsusahjd susahjdpresiden jdpresidenhttps presidenhttpst httpstco tcoesw coesw5qi9add</t>
+  </si>
+  <si>
+    <t>banyak bandara asai asing buat khawatir serang luar https t co xj1ofes136 banyakbandara bandaraasai asaiasing asingbuat buatkhawatir khawatirserang serangluar luarhttps httpst tco coxj1ofes136 banyakbandaraasai bandaraasaiasing asaiasingbuat asingbuatkhawatir buatkhawatirserang khawatirserangluar serangluarhttps luarhttpst httpstco tcoxj1ofes136</t>
+  </si>
+  <si>
+    <t>bahas pancasila udah final semntara organisasi transnasional yg ideologi radikal gk pernah singgung bahaspancasila pancasilaudah udahfinal finalsemntara semntaraorganisasi organisasitransnasional transnasionalyg ygideologi ideologiradikal radikalgk gkpernah pernahsinggung bahaspancasilaudah pancasilaudahfinal udahfinalsemntara finalsemntaraorganisasi semntaraorganisasitransnasional organisasitransnasionalyg transnasionalygideologi ygideologiradikal ideologiradikalgk radikalgkpernah gkpernahsinggung</t>
+  </si>
+  <si>
+    <t>hadeuh salah data oyy bong pinter dikit napah prabowobentengnkri hadeuhsalah salahdata dataoyy oyybong bongpinter pinterdikit dikitnapah napahprabowobentengnkri hadeuhsalahdata salahdataoyy dataoyybong oyybongpinter bongpinterdikit pinterdikitnapah dikitnapahprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>mau begini acung jari telunjuk tak enak tim jokowi-maruf benci tauhid kan mereka benci tauhid maubegini beginiacung acungjari jaritelunjuk telunjuktak takenak enaktim timjokowi-maruf jokowi-marufbenci bencitauhid tauhidkan kanmereka merekabenci bencitauhid maubeginiacung beginiacungjari acungjaritelunjuk jaritelunjuktak telunjuktakenak takenaktim enaktimjokowi-maruf timjokowi-marufbenci jokowi-marufbencitauhid bencitauhidkan tauhidkanmereka kanmerekabenci merekabencitauhid</t>
+  </si>
+  <si>
+    <t>tadi ngomongin perang perang perang emang rencana pak wo mau bawa indonesia perang tadingomongin ngomonginperang perangperang perangperang perangemang emangrencana rencanapak pakwo womau maubawa bawaindonesia indonesiaperang tadingomonginperang ngomonginperangperang perangperangperang perangperangemang perangemangrencana emangrencanapak rencanapakwo pakwomau womaubawa maubawaindonesia bawaindonesiaperang</t>
+  </si>
+  <si>
+    <t>pak sama pak sama emosional emosi pikir selamat nkri paksama samapak paksama samaemosional emosionalemosi emosipikir pikirselamat selamatnkri paksamapak samapaksama paksamaemosional samaemosionalemosi emosionalemosipikir emosipikirselamat pikirselamatnkri</t>
+  </si>
+  <si>
+    <t>narasi utama pakai debat kali adalah narasi asing narasi anti asing memang erat topik debat narasiutama utamapakai pakaidebat debatkali kaliadalah adalahnarasi narasiasing asingnarasi narasianti antiasing asingmemang memangerat erattopik topikdebat narasiutamapakai utamapakaidebat pakaidebatkali debatkaliadalah kaliadalahnarasi adalahnarasiasing narasiasingnarasi asingnarasianti narasiantiasing antiasingmemang asingmemangerat memangerattopik erattopikdebat</t>
+  </si>
+  <si>
+    <t>lama kita suguh fitnah keji hadap presiden nyata justru konon turun khianat lamakita kitasuguh suguhfitnah fitnahkeji kejihadap hadappresiden presidennyata nyatajustru justrukonon kononturun turunkhianat lamakitasuguh kitasuguhfitnah suguhfitnahkeji fitnahkejihadap kejihadappresiden hadappresidennyata presidennyatajustru nyatajustrukonon justrukononturun kononturunkhianat</t>
+  </si>
+  <si>
+    <t>pak emosi klo sdh bicara ttg daulat aman nkri balik rakyat lindung pakemosi emosiklo klosdh sdhbicara bicarattg ttgdaulat daulataman amannkri nkribalik balikrakyat rakyatlindung pakemosiklo emosiklosdh klosdhbicara sdhbicarattg bicarattgdaulat ttgdaulataman daulatamannkri amannkribalik nkribalikrakyat balikrakyatlindung</t>
+  </si>
+  <si>
+    <t>orang masa lalu sukses masa lalu gagal sesuai ubah hari memang tolak pak orangmasa masalalu lalusukses suksesmasa masalalu lalugagal gagalsesuai sesuaiubah ubahhari harimemang memangtolak tolakpak orangmasalalu masalalusukses lalusuksesmasa suksesmasalalu masalalugagal lalugagalsesuai gagalsesuaiubah sesuaiubahhari ubahharimemang harimemangtolak memangtolakpak</t>
+  </si>
+  <si>
+    <t>pak kayak kakak 2 lagi ngospek aja bikin ketawa terus marah kalo orang ketawa pakkayak kayakkakak kakak2 2lagi lagingospek ngospekaja ajabikin bikinketawa ketawaterus terusmarah marahkalo kaloorang orangketawa pakkayakkakak kayakkakak2 kakak2lagi 2lagingospek lagingospekaja ngospekajabikin ajabikinketawa bikinketawaterus ketawaterusmarah terusmarahkalo marahkaloorang kaloorangketawa</t>
+  </si>
+  <si>
+    <t>terlalu asik bayang bebas ketawa larang culik hal 2 jika jadi presiden terlaluasik asikbayang bayangbebas bebasketawa ketawalarang larangculik culikhal hal2 2jika jikajadi jadipresiden terlaluasikbayang asikbayangbebas bayangbebasketawa bebasketawalarang ketawalarangculik larangculikhal culikhal2 hal2jika 2jikajadi jikajadipresiden</t>
+  </si>
+  <si>
+    <t>oke oce bangkrut gagal tingkat daya beli masyarakat okeoce ocebangkrut bangkrutgagal gagaltingkat tingkatdaya dayabeli belimasyarakat okeocebangkrut ocebangkrutgagal bangkrutgagaltingkat gagaltingkatdaya tingkatdayabeli dayabelimasyarakat</t>
+  </si>
+  <si>
+    <t>gagal paham cuma percaya bisik yg ngaco masa daulat kira kira prabowobentengnkri jok gagalpaham pahamcuma cumapercaya percayabisik bisikyg ygngaco ngacomasa masadaulat daulatkira kirakira kiraprabowobentengnkri prabowobentengnkrijok gagalpahamcuma pahamcumapercaya cumapercayabisik percayabisikyg bisikygngaco ygngacomasa ngacomasadaulat masadaulatkira daulatkirakira kirakiraprabowobentengnkri kiraprabowobentengnkrijok</t>
+  </si>
+  <si>
+    <t>kesi banget kamu sahal pilpres 2014 yg kamu jual ancam takut melulu yg khilafah lah yg culik lah kesibanget bangetkamu kamusahal sahalpilpres pilpres2014 2014yg ygkamu kamujual jualancam ancamtakut takutmelulu meluluyg ygkhilafah khilafahlah lahyg ygculik culiklah kesibangetkamu bangetkamusahal kamusahalpilpres sahalpilpres2014 pilpres2014yg 2014ygkamu ygkamujual kamujualancam jualancamtakut ancamtakutmelulu takutmeluluyg meluluygkhilafah ygkhilafahlah khilafahlahyg lahygculik ygculiklah</t>
+  </si>
+  <si>
+    <t>yang lemes nih kaya data salah ban semua pak prabowobentengnkri https t co 1yqfosvy7a yanglemes lemesnih nihkaya kayadata datasalah salahban bansemua semuapak pakprabowobentengnkri prabowobentengnkrihttps httpst tco co1yqfosvy7a yanglemesnih lemesnihkaya nihkayadata kayadatasalah datasalahban salahbansemua bansemuapak semuapakprabowobentengnkri pakprabowobentengnkrihttps prabowobentengnkrihttpst httpstco tco1yqfosvy7a</t>
+  </si>
+  <si>
+    <t>mau kalah disalahin khilafah hti bukankah hti bunuh maukalah kalahdisalahin disalahinkhilafah khilafahhti htibukankah bukankahhti htibunuh maukalahdisalahin kalahdisalahinkhilafah disalahinkhilafahhti khilafahhtibukankah htibukankahhti bukankahhtibunuh</t>
+  </si>
+  <si>
+    <t>pikir pak ga tau masalah myanmar pikirpak pakga gatau taumasalah masalahmyanmar pikirpakga pakgatau gataumasalah taumasalahmyanmar</t>
+  </si>
+  <si>
+    <t>ahahaha pancing pidato closingnya beranta ahahahapancing pancingpidato pidatoclosingnya closingnyaberanta ahahahapancingpidato pancingpidatoclosingnya pidatoclosingnyaberanta</t>
+  </si>
+  <si>
+    <t>bukan tidak percaya ini tni pak taruh nyawa tni lebih tni tni bukantidak tidakpercaya percayaini initni tnipak paktaruh taruhnyawa nyawatni tnilebih lebihtni tnitni bukantidakpercaya tidakpercayaini percayainitni initnipak tnipaktaruh paktaruhnyawa taruhnyawatni nyawatnilebih tnilebihtni lebihtnitni</t>
+  </si>
+  <si>
+    <t>gemetar apes malam kata gue bentak 2 jendral prabowobentengnkri gemetarapes apesmalam malamkata katague guebentak bentak2 2jendral jendralprabowobentengnkri gemetarapesmalam apesmalamkata malamkatague kataguebentak guebentak2 bentak2jendral 2jendralprabowobentengnkri</t>
   </si>
   <si>
     <t>positive</t>
